--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -2843,7 +2843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2853,6 +2853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3019,7 +3025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3235,18 +3241,6 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3269,6 +3263,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3578,15 +3590,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5077,15 +5089,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6244,15 +6256,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="33"/>
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="75"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="83"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
@@ -6680,15 +6692,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="73" t="s">
+      <c r="C120" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="75"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="83"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6894,15 +6906,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="73" t="s">
+      <c r="C130" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="74"/>
-      <c r="H130" s="74"/>
-      <c r="I130" s="75"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
+      <c r="I130" s="83"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7254,15 +7266,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="73" t="s">
+      <c r="C147" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="75"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="82"/>
+      <c r="I147" s="83"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9462,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M395"/>
+  <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9489,15 +9501,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10903,7 +10915,7 @@
       <c r="H52" s="13">
         <v>14</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="86">
         <v>45292</v>
       </c>
       <c r="J52" s="14" t="s">
@@ -10932,7 +10944,7 @@
       <c r="H53" s="13">
         <v>14</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="86">
         <v>45292</v>
       </c>
       <c r="J53" s="14" t="s">
@@ -10959,7 +10971,7 @@
       <c r="H54" s="13">
         <v>12</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="86">
         <v>45292</v>
       </c>
       <c r="J54" s="14" t="s">
@@ -11194,15 +11206,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11235,7 +11247,7 @@
       <c r="C78" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="77"/>
+      <c r="D78" s="73"/>
       <c r="E78" s="65">
         <v>42697</v>
       </c>
@@ -11262,7 +11274,7 @@
       <c r="C79" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="65">
@@ -11288,25 +11300,25 @@
       <c r="B80" s="8">
         <v>3</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="65">
         <v>44203</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="65">
         <v>44933</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="66">
         <v>2</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="67">
         <v>14</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="69" t="s">
         <v>116</v>
       </c>
       <c r="J80" s="14" t="s">
@@ -12428,14 +12440,14 @@
       <c r="I124" s="40"/>
     </row>
     <row r="125" spans="2:12" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="78"/>
-      <c r="C125" s="79"/>
-      <c r="D125" s="80"/>
-      <c r="E125" s="80"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="81"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="77"/>
     </row>
     <row r="126" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B126" s="41"/>
@@ -12449,15 +12461,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="33"/>
-      <c r="C127" s="73" t="s">
+      <c r="C127" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="74"/>
-      <c r="H127" s="74"/>
-      <c r="I127" s="75"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+      <c r="I127" s="83"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="33"/>
@@ -12885,15 +12897,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="73" t="s">
+      <c r="C147" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="75"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="82"/>
+      <c r="I147" s="83"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13099,15 +13111,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="73" t="s">
+      <c r="C157" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="75"/>
+      <c r="D157" s="82"/>
+      <c r="E157" s="82"/>
+      <c r="F157" s="82"/>
+      <c r="G157" s="82"/>
+      <c r="H157" s="82"/>
+      <c r="I157" s="83"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13453,7 +13465,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="8"/>
       <c r="H173" s="13"/>
-      <c r="I173" s="82"/>
+      <c r="I173" s="78"/>
     </row>
     <row r="174" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="8"/>
@@ -13463,17 +13475,17 @@
       <c r="F174" s="21"/>
       <c r="G174" s="10"/>
       <c r="H174" s="30"/>
-      <c r="I174" s="83"/>
+      <c r="I174" s="79"/>
     </row>
     <row r="175" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="8"/>
       <c r="C175" s="19"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="84"/>
-      <c r="F175" s="84"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
       <c r="G175" s="10"/>
       <c r="H175" s="30"/>
-      <c r="I175" s="83"/>
+      <c r="I175" s="79"/>
     </row>
     <row r="176" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="8">
@@ -13501,15 +13513,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="73" t="s">
+      <c r="C178" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="74"/>
-      <c r="E178" s="74"/>
-      <c r="F178" s="74"/>
-      <c r="G178" s="74"/>
-      <c r="H178" s="74"/>
-      <c r="I178" s="75"/>
+      <c r="D178" s="82"/>
+      <c r="E178" s="82"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="82"/>
+      <c r="H178" s="82"/>
+      <c r="I178" s="83"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="286">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2725,6 +2725,9 @@
       </rPr>
       <t xml:space="preserve"> 6 al 13 Nov 2023</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAVALETA </t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3265,6 +3268,18 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3277,11 +3292,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3590,15 +3611,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5089,15 +5110,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6256,15 +6277,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="33"/>
-      <c r="C100" s="81" t="s">
+      <c r="C100" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="83"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="87"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
@@ -6692,15 +6713,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="81" t="s">
+      <c r="C120" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="83"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="86"/>
+      <c r="H120" s="86"/>
+      <c r="I120" s="87"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6906,15 +6927,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="81" t="s">
+      <c r="C130" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="83"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="86"/>
+      <c r="H130" s="86"/>
+      <c r="I130" s="87"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7266,15 +7287,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="81" t="s">
+      <c r="C147" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="82"/>
-      <c r="I147" s="83"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
+      <c r="I147" s="87"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9476,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9501,15 +9522,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10915,7 +10936,7 @@
       <c r="H52" s="13">
         <v>14</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="82">
         <v>45292</v>
       </c>
       <c r="J52" s="14" t="s">
@@ -10944,7 +10965,7 @@
       <c r="H53" s="13">
         <v>14</v>
       </c>
-      <c r="I53" s="86">
+      <c r="I53" s="82">
         <v>45292</v>
       </c>
       <c r="J53" s="14" t="s">
@@ -10971,7 +10992,7 @@
       <c r="H54" s="13">
         <v>12</v>
       </c>
-      <c r="I54" s="86">
+      <c r="I54" s="82">
         <v>45292</v>
       </c>
       <c r="J54" s="14" t="s">
@@ -11206,15 +11227,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11300,7 +11321,7 @@
       <c r="B80" s="8">
         <v>3</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="81" t="s">
         <v>115</v>
       </c>
       <c r="D80" s="64" t="s">
@@ -11329,25 +11350,25 @@
       <c r="B81" s="8">
         <v>4</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="65">
         <v>44207</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="65">
         <v>44937</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="66">
         <v>2</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="67">
         <v>14</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="69" t="s">
         <v>118</v>
       </c>
       <c r="J81" s="14" t="s">
@@ -11358,25 +11379,25 @@
       <c r="B82" s="8">
         <v>5</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="65">
         <v>43843</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="65">
         <v>44939</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="66">
         <v>3</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="67">
         <v>16</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="68" t="s">
         <v>277</v>
       </c>
       <c r="J82" s="14" t="s">
@@ -11387,25 +11408,25 @@
       <c r="B83" s="8">
         <v>6</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="65">
         <v>43482</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="65">
         <v>44943</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="66">
         <v>4</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="67">
         <v>18</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="68" t="s">
         <v>121</v>
       </c>
       <c r="J83" s="14" t="s">
@@ -11416,25 +11437,25 @@
       <c r="B84" s="8">
         <v>7</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E84" s="91">
         <v>41225</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="91">
         <v>45240</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84" s="92">
         <v>11</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="67">
         <v>24</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="69" t="s">
         <v>123</v>
       </c>
       <c r="J84" s="14" t="s">
@@ -12461,15 +12482,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="33"/>
-      <c r="C127" s="81" t="s">
+      <c r="C127" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="82"/>
-      <c r="I127" s="83"/>
+      <c r="D127" s="86"/>
+      <c r="E127" s="86"/>
+      <c r="F127" s="86"/>
+      <c r="G127" s="86"/>
+      <c r="H127" s="86"/>
+      <c r="I127" s="87"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="33"/>
@@ -12897,15 +12918,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="81" t="s">
+      <c r="C147" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="82"/>
-      <c r="I147" s="83"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
+      <c r="I147" s="87"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13111,15 +13132,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="81" t="s">
+      <c r="C157" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="82"/>
-      <c r="E157" s="82"/>
-      <c r="F157" s="82"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="83"/>
+      <c r="D157" s="86"/>
+      <c r="E157" s="86"/>
+      <c r="F157" s="86"/>
+      <c r="G157" s="86"/>
+      <c r="H157" s="86"/>
+      <c r="I157" s="87"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13513,15 +13534,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="81" t="s">
+      <c r="C178" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="82"/>
-      <c r="E178" s="82"/>
-      <c r="F178" s="82"/>
-      <c r="G178" s="82"/>
-      <c r="H178" s="82"/>
-      <c r="I178" s="83"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="86"/>
+      <c r="H178" s="86"/>
+      <c r="I178" s="87"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13577,24 +13598,27 @@
       <c r="B181" s="8">
         <v>2</v>
       </c>
-      <c r="C181" s="54" t="s">
+      <c r="C181" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D181" s="20"/>
-      <c r="E181" s="21">
+      <c r="D181" s="71"/>
+      <c r="E181" s="72">
         <v>43480</v>
       </c>
-      <c r="F181" s="21">
+      <c r="F181" s="72">
         <v>44941</v>
       </c>
-      <c r="G181" s="8">
+      <c r="G181" s="68">
         <v>4</v>
       </c>
-      <c r="H181" s="13">
+      <c r="H181" s="67">
         <v>18</v>
       </c>
-      <c r="I181" s="8" t="s">
+      <c r="I181" s="68" t="s">
         <v>121</v>
+      </c>
+      <c r="J181" s="83" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="287">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2728,6 +2728,9 @@
   </si>
   <si>
     <t xml:space="preserve">ZAVALETA </t>
+  </si>
+  <si>
+    <t>13 al 24 Febrero  2023</t>
   </si>
 </sst>
 </file>
@@ -2846,7 +2849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2862,6 +2865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3028,7 +3037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3280,6 +3289,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3292,17 +3313,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3611,15 +3623,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5110,15 +5122,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6277,15 +6289,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="33"/>
-      <c r="C100" s="85" t="s">
+      <c r="C100" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="86"/>
-      <c r="G100" s="86"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="87"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="91"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
@@ -6713,15 +6725,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="85" t="s">
+      <c r="C120" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="87"/>
+      <c r="D120" s="90"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="91"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6927,15 +6939,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="86"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="86"/>
-      <c r="I130" s="87"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
+      <c r="H130" s="90"/>
+      <c r="I130" s="91"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7287,15 +7299,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="87"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
+      <c r="H147" s="90"/>
+      <c r="I147" s="91"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9497,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,15 +9534,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11227,15 +11239,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11350,7 +11362,7 @@
       <c r="B81" s="8">
         <v>4</v>
       </c>
-      <c r="C81" s="89" t="s">
+      <c r="C81" s="85" t="s">
         <v>117</v>
       </c>
       <c r="D81" s="64" t="s">
@@ -11379,7 +11391,7 @@
       <c r="B82" s="8">
         <v>5</v>
       </c>
-      <c r="C82" s="89" t="s">
+      <c r="C82" s="85" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="64" t="s">
@@ -11408,7 +11420,7 @@
       <c r="B83" s="8">
         <v>6</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="86" t="s">
         <v>120</v>
       </c>
       <c r="D83" s="64" t="s">
@@ -11443,13 +11455,13 @@
       <c r="D84" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="91">
+      <c r="E84" s="87">
         <v>41225</v>
       </c>
-      <c r="F84" s="91">
+      <c r="F84" s="87">
         <v>45240</v>
       </c>
-      <c r="G84" s="92">
+      <c r="G84" s="88">
         <v>11</v>
       </c>
       <c r="H84" s="67">
@@ -12482,15 +12494,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="33"/>
-      <c r="C127" s="85" t="s">
+      <c r="C127" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="86"/>
-      <c r="E127" s="86"/>
-      <c r="F127" s="86"/>
-      <c r="G127" s="86"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="87"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
+      <c r="H127" s="90"/>
+      <c r="I127" s="91"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="33"/>
@@ -12918,15 +12930,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="87"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
+      <c r="H147" s="90"/>
+      <c r="I147" s="91"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13132,15 +13144,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="85" t="s">
+      <c r="C157" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="86"/>
-      <c r="E157" s="86"/>
-      <c r="F157" s="86"/>
-      <c r="G157" s="86"/>
-      <c r="H157" s="86"/>
-      <c r="I157" s="87"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="91"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13534,15 +13546,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="85" t="s">
+      <c r="C178" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="86"/>
-      <c r="E178" s="86"/>
-      <c r="F178" s="86"/>
-      <c r="G178" s="86"/>
-      <c r="H178" s="86"/>
-      <c r="I178" s="87"/>
+      <c r="D178" s="90"/>
+      <c r="E178" s="90"/>
+      <c r="F178" s="90"/>
+      <c r="G178" s="90"/>
+      <c r="H178" s="90"/>
+      <c r="I178" s="91"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13625,15 +13637,15 @@
       <c r="B182" s="8">
         <v>3</v>
       </c>
-      <c r="C182" s="54" t="s">
-        <v>244</v>
+      <c r="C182" s="93" t="s">
+        <v>248</v>
       </c>
       <c r="D182" s="20"/>
       <c r="E182" s="21">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="F182" s="21">
-        <v>44980</v>
+        <v>44978</v>
       </c>
       <c r="G182" s="8">
         <v>1</v>
@@ -13641,8 +13653,8 @@
       <c r="H182" s="13">
         <v>12</v>
       </c>
-      <c r="I182" s="15" t="s">
-        <v>245</v>
+      <c r="I182" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13650,14 +13662,14 @@
         <v>4</v>
       </c>
       <c r="C183" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D183" s="20"/>
       <c r="E183" s="21">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="F183" s="21">
-        <v>44987</v>
+        <v>44980</v>
       </c>
       <c r="G183" s="8">
         <v>1</v>
@@ -13666,7 +13678,7 @@
         <v>12</v>
       </c>
       <c r="I183" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13674,14 +13686,14 @@
         <v>5</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D184" s="20"/>
       <c r="E184" s="21">
-        <v>44613</v>
+        <v>44622</v>
       </c>
       <c r="F184" s="21">
-        <v>44978</v>
+        <v>44987</v>
       </c>
       <c r="G184" s="8">
         <v>1</v>
@@ -13689,8 +13701,8 @@
       <c r="H184" s="13">
         <v>12</v>
       </c>
-      <c r="I184" s="8" t="s">
-        <v>249</v>
+      <c r="I184" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="OPCION  2 " sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="287">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2737,7 +2738,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,6 +2851,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3037,7 +3048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3301,6 +3312,9 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3313,8 +3327,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3623,15 +3676,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5122,15 +5175,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6289,15 +6342,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="33"/>
-      <c r="C100" s="89" t="s">
+      <c r="C100" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="92"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
@@ -6725,15 +6778,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="89" t="s">
+      <c r="C120" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="90"/>
-      <c r="E120" s="90"/>
-      <c r="F120" s="90"/>
-      <c r="G120" s="90"/>
-      <c r="H120" s="90"/>
-      <c r="I120" s="91"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
+      <c r="H120" s="91"/>
+      <c r="I120" s="92"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6939,15 +6992,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="89" t="s">
+      <c r="C130" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="90"/>
-      <c r="E130" s="90"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
-      <c r="H130" s="90"/>
-      <c r="I130" s="91"/>
+      <c r="D130" s="91"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="91"/>
+      <c r="H130" s="91"/>
+      <c r="I130" s="92"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7299,15 +7352,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="89" t="s">
+      <c r="C147" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="90"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
-      <c r="H147" s="90"/>
-      <c r="I147" s="91"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="92"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9509,8 +9562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9534,15 +9587,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9630,25 +9683,25 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="65">
         <v>40560</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="65">
         <v>44943</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="66">
         <v>12</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="67">
         <v>24</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="95" t="s">
         <v>274</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -9659,25 +9712,25 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="65">
         <v>43483</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="65">
         <v>44944</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="67">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="68" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -11239,15 +11292,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="92" t="s">
+      <c r="C76" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="93"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12494,15 +12547,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="33"/>
-      <c r="C127" s="89" t="s">
+      <c r="C127" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="90"/>
-      <c r="E127" s="90"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="90"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="91"/>
+      <c r="D127" s="91"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="91"/>
+      <c r="G127" s="91"/>
+      <c r="H127" s="91"/>
+      <c r="I127" s="92"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="33"/>
@@ -12930,15 +12983,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="89" t="s">
+      <c r="C147" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="90"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
-      <c r="H147" s="90"/>
-      <c r="I147" s="91"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="92"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13144,15 +13197,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="89" t="s">
+      <c r="C157" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="90"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="90"/>
-      <c r="I157" s="91"/>
+      <c r="D157" s="91"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="92"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13546,15 +13599,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="89" t="s">
+      <c r="C178" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="90"/>
-      <c r="E178" s="90"/>
-      <c r="F178" s="90"/>
-      <c r="G178" s="90"/>
-      <c r="H178" s="90"/>
-      <c r="I178" s="91"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="91"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="91"/>
+      <c r="I178" s="92"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13637,7 +13690,7 @@
       <c r="B182" s="8">
         <v>3</v>
       </c>
-      <c r="C182" s="93" t="s">
+      <c r="C182" s="89" t="s">
         <v>248</v>
       </c>
       <c r="D182" s="20"/>
@@ -15756,4 +15809,94 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11">
+        <v>40560</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44943</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13">
+        <v>24</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="103">
+        <v>43483</v>
+      </c>
+      <c r="D5" s="98">
+        <v>44944</v>
+      </c>
+      <c r="E5" s="99">
+        <v>4</v>
+      </c>
+      <c r="F5" s="100">
+        <v>18</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="288">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2732,6 +2732,9 @@
   </si>
   <si>
     <t>13 al 24 Febrero  2023</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2858,6 +2861,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3048,7 +3058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3315,26 +3325,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3363,11 +3355,44 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3676,15 +3701,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5175,15 +5200,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6342,15 +6367,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="33"/>
-      <c r="C100" s="90" t="s">
+      <c r="C100" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="91"/>
-      <c r="I100" s="92"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="102"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
@@ -6778,15 +6803,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="90" t="s">
+      <c r="C120" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="91"/>
-      <c r="E120" s="91"/>
-      <c r="F120" s="91"/>
-      <c r="G120" s="91"/>
-      <c r="H120" s="91"/>
-      <c r="I120" s="92"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="102"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6992,15 +7017,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="90" t="s">
+      <c r="C130" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="91"/>
-      <c r="E130" s="91"/>
-      <c r="F130" s="91"/>
-      <c r="G130" s="91"/>
-      <c r="H130" s="91"/>
-      <c r="I130" s="92"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="102"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7352,15 +7377,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="90" t="s">
+      <c r="C147" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="91"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="91"/>
-      <c r="I147" s="92"/>
+      <c r="D147" s="101"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="102"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9562,15 +9587,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
@@ -9587,15 +9612,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9701,7 +9726,7 @@
       <c r="H6" s="67">
         <v>24</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="90" t="s">
         <v>274</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -9712,7 +9737,7 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="98" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="64" t="s">
@@ -9741,25 +9766,25 @@
       <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="65">
         <v>44223</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="65">
         <v>44953</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="66">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="67">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -11292,15 +11317,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="93" t="s">
+      <c r="C76" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12547,15 +12572,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="33"/>
-      <c r="C127" s="90" t="s">
+      <c r="C127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="91"/>
-      <c r="E127" s="91"/>
-      <c r="F127" s="91"/>
-      <c r="G127" s="91"/>
-      <c r="H127" s="91"/>
-      <c r="I127" s="92"/>
+      <c r="D127" s="101"/>
+      <c r="E127" s="101"/>
+      <c r="F127" s="101"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="101"/>
+      <c r="I127" s="102"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="33"/>
@@ -12983,15 +13008,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="90" t="s">
+      <c r="C147" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="91"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="91"/>
-      <c r="I147" s="92"/>
+      <c r="D147" s="101"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="102"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13024,7 +13049,9 @@
       <c r="C149" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D149" s="20"/>
+      <c r="D149" s="20" t="s">
+        <v>287</v>
+      </c>
       <c r="E149" s="21">
         <v>40567</v>
       </c>
@@ -13197,15 +13224,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="90" t="s">
+      <c r="C157" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="91"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="91"/>
-      <c r="I157" s="92"/>
+      <c r="D157" s="101"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="101"/>
+      <c r="G157" s="101"/>
+      <c r="H157" s="101"/>
+      <c r="I157" s="102"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13599,15 +13626,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="90" t="s">
+      <c r="C178" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="91"/>
-      <c r="E178" s="91"/>
-      <c r="F178" s="91"/>
-      <c r="G178" s="91"/>
-      <c r="H178" s="91"/>
-      <c r="I178" s="92"/>
+      <c r="D178" s="101"/>
+      <c r="E178" s="101"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="101"/>
+      <c r="I178" s="102"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -15813,89 +15840,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="E3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="F3" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="G3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="H3" s="106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11">
-        <v>40560</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44943</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13">
-        <v>24</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="103">
-        <v>43483</v>
-      </c>
-      <c r="D5" s="98">
-        <v>44944</v>
-      </c>
-      <c r="E5" s="99">
-        <v>4</v>
-      </c>
-      <c r="F5" s="100">
-        <v>18</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="108">
+        <v>44223</v>
+      </c>
+      <c r="E4" s="108">
+        <v>44953</v>
+      </c>
+      <c r="F4" s="109">
+        <v>2</v>
+      </c>
+      <c r="G4" s="110">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="291">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2773,6 +2773,9 @@
       </rPr>
       <t xml:space="preserve"> 6 al 12 Feb 2023</t>
     </r>
+  </si>
+  <si>
+    <t>13  al 24 Feb 2023</t>
   </si>
 </sst>
 </file>
@@ -3394,18 +3397,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3446,6 +3437,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3761,15 +3764,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5260,15 +5263,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6427,15 +6430,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="99" t="s">
+      <c r="C100" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="100"/>
-      <c r="H100" s="100"/>
-      <c r="I100" s="101"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="115"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6863,15 +6866,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="99" t="s">
+      <c r="C120" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
-      <c r="F120" s="100"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
-      <c r="I120" s="101"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="115"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7077,15 +7080,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="99" t="s">
+      <c r="C130" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="101"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="114"/>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="115"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7437,15 +7440,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="99" t="s">
+      <c r="C147" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="101"/>
+      <c r="D147" s="114"/>
+      <c r="E147" s="114"/>
+      <c r="F147" s="114"/>
+      <c r="G147" s="114"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="115"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9647,8 +9650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9672,15 +9675,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9855,25 +9858,25 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="105">
+      <c r="D9" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="101">
         <v>41974</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="101">
         <v>44896</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="102">
         <v>9</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="103">
         <v>22</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="111">
         <v>44927</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -9884,22 +9887,22 @@
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="105">
+      <c r="D10" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="101">
         <v>41708</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="101">
         <v>44995</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="102">
         <v>9</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="103">
         <v>22</v>
       </c>
       <c r="I10" s="94" t="s">
@@ -11377,15 +11380,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="102" t="s">
+      <c r="C76" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11616,23 +11619,23 @@
       <c r="B85" s="8">
         <v>8</v>
       </c>
-      <c r="C85" s="103" t="s">
+      <c r="C85" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="104" t="s">
+      <c r="D85" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="105">
+      <c r="E85" s="101">
         <v>39482</v>
       </c>
-      <c r="F85" s="105">
+      <c r="F85" s="101">
         <v>44961</v>
       </c>
-      <c r="G85" s="106">
+      <c r="G85" s="102">
         <v>15</v>
       </c>
-      <c r="H85" s="107">
-        <v>24</v>
+      <c r="H85" s="103">
+        <v>26</v>
       </c>
       <c r="I85" s="94" t="s">
         <v>278</v>
@@ -12632,15 +12635,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="99" t="s">
+      <c r="C127" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="101"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="114"/>
+      <c r="G127" s="114"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="115"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13068,15 +13071,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="99" t="s">
+      <c r="C147" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="101"/>
+      <c r="D147" s="114"/>
+      <c r="E147" s="114"/>
+      <c r="F147" s="114"/>
+      <c r="G147" s="114"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="115"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13284,15 +13287,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="99" t="s">
+      <c r="C157" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="100"/>
-      <c r="E157" s="100"/>
-      <c r="F157" s="100"/>
-      <c r="G157" s="100"/>
-      <c r="H157" s="100"/>
-      <c r="I157" s="101"/>
+      <c r="D157" s="114"/>
+      <c r="E157" s="114"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="114"/>
+      <c r="H157" s="114"/>
+      <c r="I157" s="115"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13322,24 +13325,24 @@
       <c r="B159" s="8">
         <v>1</v>
       </c>
-      <c r="C159" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="D159" s="69"/>
-      <c r="E159" s="70">
-        <v>44594</v>
-      </c>
-      <c r="F159" s="70">
-        <v>44959</v>
-      </c>
-      <c r="G159" s="66">
-        <v>1</v>
-      </c>
-      <c r="H159" s="65">
-        <v>12</v>
-      </c>
-      <c r="I159" s="66" t="s">
-        <v>222</v>
+      <c r="C159" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" s="104"/>
+      <c r="E159" s="105">
+        <v>43500</v>
+      </c>
+      <c r="F159" s="105">
+        <v>44961</v>
+      </c>
+      <c r="G159" s="94">
+        <v>4</v>
+      </c>
+      <c r="H159" s="103">
+        <v>18</v>
+      </c>
+      <c r="I159" s="93" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13347,23 +13350,23 @@
         <v>2</v>
       </c>
       <c r="C160" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="D160" s="108"/>
-      <c r="E160" s="109">
-        <v>43500</v>
-      </c>
-      <c r="F160" s="109">
-        <v>44961</v>
+        <v>221</v>
+      </c>
+      <c r="D160" s="104"/>
+      <c r="E160" s="105">
+        <v>44594</v>
+      </c>
+      <c r="F160" s="105">
+        <v>44959</v>
       </c>
       <c r="G160" s="94">
-        <v>4</v>
-      </c>
-      <c r="H160" s="107">
-        <v>18</v>
-      </c>
-      <c r="I160" s="93" t="s">
-        <v>224</v>
+        <v>1</v>
+      </c>
+      <c r="H160" s="103">
+        <v>12</v>
+      </c>
+      <c r="I160" s="94" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13686,15 +13689,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="99" t="s">
+      <c r="C178" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="100"/>
-      <c r="E178" s="100"/>
-      <c r="F178" s="100"/>
-      <c r="G178" s="100"/>
-      <c r="H178" s="100"/>
-      <c r="I178" s="101"/>
+      <c r="D178" s="114"/>
+      <c r="E178" s="114"/>
+      <c r="F178" s="114"/>
+      <c r="G178" s="114"/>
+      <c r="H178" s="114"/>
+      <c r="I178" s="115"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -15886,6 +15889,9 @@
       <c r="I395" s="34"/>
     </row>
   </sheetData>
+  <sortState ref="B159:I160">
+    <sortCondition ref="B159:B160"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="C157:I157"/>
     <mergeCell ref="C178:I178"/>
@@ -15900,10 +15906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15936,12 +15942,12 @@
       <c r="G3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="110" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="106" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="89" t="s">
@@ -15957,27 +15963,27 @@
         <v>15</v>
       </c>
       <c r="G4" s="98">
-        <v>24</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>278</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>125</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="107" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="109">
         <v>43500</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="109">
         <v>44961</v>
       </c>
-      <c r="F5" s="112">
+      <c r="F5" s="108">
         <v>4</v>
       </c>
       <c r="G5" s="98">
@@ -15988,26 +15994,36 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="107"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="96">
+      <c r="C7" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="96">
         <v>41708</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E7" s="96">
         <v>44995</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F7" s="97">
         <v>9</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G7" s="98">
         <v>22</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H7" s="112" t="s">
         <v>275</v>
       </c>
     </row>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -2737,52 +2737,20 @@
     <t>CENTRAL</t>
   </si>
   <si>
-    <t xml:space="preserve">11 SUR </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6 al 23 Feb 2023 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6 al 12 Feb 2023</t>
-    </r>
-  </si>
-  <si>
     <t>13  al 24 Feb 2023</t>
+  </si>
+  <si>
+    <t>ALMACEN</t>
+  </si>
+  <si>
+    <t>11 SUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,6 +2872,13 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3103,7 +3078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3361,9 +3336,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3382,9 +3354,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3397,40 +3366,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3450,6 +3389,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3764,15 +3718,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -3878,7 +3832,7 @@
       <c r="H6" s="65">
         <v>26</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="87" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3889,7 +3843,7 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="62" t="s">
@@ -5263,15 +5217,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6430,15 +6384,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="115"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="103"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6866,15 +6820,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="113" t="s">
+      <c r="C120" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="115"/>
+      <c r="D120" s="102"/>
+      <c r="E120" s="102"/>
+      <c r="F120" s="102"/>
+      <c r="G120" s="102"/>
+      <c r="H120" s="102"/>
+      <c r="I120" s="103"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7080,15 +7034,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="113" t="s">
+      <c r="C130" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="114"/>
-      <c r="E130" s="114"/>
-      <c r="F130" s="114"/>
-      <c r="G130" s="114"/>
-      <c r="H130" s="114"/>
-      <c r="I130" s="115"/>
+      <c r="D130" s="102"/>
+      <c r="E130" s="102"/>
+      <c r="F130" s="102"/>
+      <c r="G130" s="102"/>
+      <c r="H130" s="102"/>
+      <c r="I130" s="103"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7440,15 +7394,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="115"/>
+      <c r="D147" s="102"/>
+      <c r="E147" s="102"/>
+      <c r="F147" s="102"/>
+      <c r="G147" s="102"/>
+      <c r="H147" s="102"/>
+      <c r="I147" s="103"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9650,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160:I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9675,15 +9629,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9789,7 +9743,7 @@
       <c r="H6" s="65">
         <v>24</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="87" t="s">
         <v>274</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -9800,7 +9754,7 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="62" t="s">
@@ -9858,25 +9812,25 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="101">
+      <c r="D9" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="63">
         <v>41974</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="63">
         <v>44896</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="64">
         <v>9</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="99">
         <v>44927</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -9887,25 +9841,25 @@
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="101">
+      <c r="D10" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="63">
         <v>41708</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="63">
         <v>44995</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="64">
         <v>9</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="65">
         <v>22</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="66" t="s">
         <v>275</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -11380,15 +11334,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="116" t="s">
+      <c r="C76" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="116"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="116"/>
-      <c r="H76" s="116"/>
-      <c r="I76" s="116"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11619,25 +11573,25 @@
       <c r="B85" s="8">
         <v>8</v>
       </c>
-      <c r="C85" s="99" t="s">
+      <c r="C85" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="100" t="s">
+      <c r="D85" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="101">
+      <c r="E85" s="63">
         <v>39482</v>
       </c>
-      <c r="F85" s="101">
+      <c r="F85" s="63">
         <v>44961</v>
       </c>
-      <c r="G85" s="102">
+      <c r="G85" s="64">
         <v>15</v>
       </c>
-      <c r="H85" s="103">
+      <c r="H85" s="65">
         <v>26</v>
       </c>
-      <c r="I85" s="94" t="s">
+      <c r="I85" s="66" t="s">
         <v>278</v>
       </c>
       <c r="J85" s="14" t="s">
@@ -12635,15 +12589,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="113" t="s">
+      <c r="C127" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
-      <c r="G127" s="114"/>
-      <c r="H127" s="114"/>
-      <c r="I127" s="115"/>
+      <c r="D127" s="102"/>
+      <c r="E127" s="102"/>
+      <c r="F127" s="102"/>
+      <c r="G127" s="102"/>
+      <c r="H127" s="102"/>
+      <c r="I127" s="103"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -12698,23 +12652,23 @@
       <c r="B130" s="8">
         <v>2</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="19">
+      <c r="D130" s="69"/>
+      <c r="E130" s="70">
         <v>40217</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F130" s="70">
         <v>44965</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="66">
         <v>13</v>
       </c>
-      <c r="H130" s="13">
+      <c r="H130" s="65">
         <v>24</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="I130" s="66" t="s">
         <v>185</v>
       </c>
       <c r="J130" s="26"/>
@@ -13071,15 +13025,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="115"/>
+      <c r="D147" s="102"/>
+      <c r="E147" s="102"/>
+      <c r="F147" s="102"/>
+      <c r="G147" s="102"/>
+      <c r="H147" s="102"/>
+      <c r="I147" s="103"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13287,15 +13241,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="113" t="s">
+      <c r="C157" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="114"/>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
-      <c r="G157" s="114"/>
-      <c r="H157" s="114"/>
-      <c r="I157" s="115"/>
+      <c r="D157" s="102"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="102"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="103"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13325,23 +13279,23 @@
       <c r="B159" s="8">
         <v>1</v>
       </c>
-      <c r="C159" s="87" t="s">
+      <c r="C159" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="D159" s="104"/>
-      <c r="E159" s="105">
+      <c r="D159" s="69"/>
+      <c r="E159" s="70">
         <v>43500</v>
       </c>
-      <c r="F159" s="105">
+      <c r="F159" s="70">
         <v>44961</v>
       </c>
-      <c r="G159" s="94">
+      <c r="G159" s="66">
         <v>4</v>
       </c>
-      <c r="H159" s="103">
+      <c r="H159" s="65">
         <v>18</v>
       </c>
-      <c r="I159" s="93" t="s">
+      <c r="I159" s="67" t="s">
         <v>224</v>
       </c>
     </row>
@@ -13349,24 +13303,24 @@
       <c r="B160" s="8">
         <v>2</v>
       </c>
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="D160" s="104"/>
-      <c r="E160" s="105">
+      <c r="D160" s="69"/>
+      <c r="E160" s="70">
         <v>44594</v>
       </c>
-      <c r="F160" s="105">
+      <c r="F160" s="70">
         <v>44959</v>
       </c>
-      <c r="G160" s="94">
+      <c r="G160" s="66">
         <v>1</v>
       </c>
-      <c r="H160" s="103">
+      <c r="H160" s="65">
         <v>12</v>
       </c>
-      <c r="I160" s="94" t="s">
-        <v>290</v>
+      <c r="I160" s="66" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13689,15 +13643,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="113" t="s">
+      <c r="C178" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="114"/>
-      <c r="E178" s="114"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="114"/>
-      <c r="H178" s="114"/>
-      <c r="I178" s="115"/>
+      <c r="D178" s="102"/>
+      <c r="E178" s="102"/>
+      <c r="F178" s="102"/>
+      <c r="G178" s="102"/>
+      <c r="H178" s="102"/>
+      <c r="I178" s="103"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13780,23 +13734,23 @@
       <c r="B182" s="8">
         <v>3</v>
       </c>
-      <c r="C182" s="87" t="s">
+      <c r="C182" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="D182" s="18"/>
-      <c r="E182" s="19">
+      <c r="D182" s="69"/>
+      <c r="E182" s="70">
         <v>44613</v>
       </c>
-      <c r="F182" s="19">
+      <c r="F182" s="70">
         <v>44978</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="66">
         <v>1</v>
       </c>
-      <c r="H182" s="13">
+      <c r="H182" s="65">
         <v>12</v>
       </c>
-      <c r="I182" s="8" t="s">
+      <c r="I182" s="66" t="s">
         <v>286</v>
       </c>
     </row>
@@ -15909,7 +15863,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15924,108 +15878,108 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="107" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="96">
-        <v>39482</v>
-      </c>
-      <c r="E4" s="96">
-        <v>44961</v>
-      </c>
-      <c r="F4" s="97">
-        <v>15</v>
-      </c>
-      <c r="G4" s="98">
-        <v>26</v>
-      </c>
-      <c r="H4" s="108" t="s">
-        <v>125</v>
+      <c r="B4" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="19">
+        <v>40217</v>
+      </c>
+      <c r="E4" s="19">
+        <v>44965</v>
+      </c>
+      <c r="F4" s="8">
+        <v>13</v>
+      </c>
+      <c r="G4" s="108">
+        <v>24</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="89" t="s">
+      <c r="B5" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44613</v>
+      </c>
+      <c r="E5" s="19">
+        <v>44978</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="108">
+        <v>12</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="19">
+        <v>44594</v>
+      </c>
+      <c r="E6" s="19">
+        <v>44959</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="109">
-        <v>43500</v>
-      </c>
-      <c r="E5" s="109">
-        <v>44961</v>
-      </c>
-      <c r="F5" s="108">
-        <v>4</v>
-      </c>
-      <c r="G5" s="98">
-        <v>18</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="108"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="96">
-        <v>41708</v>
-      </c>
-      <c r="E7" s="96">
-        <v>44995</v>
-      </c>
-      <c r="F7" s="97">
-        <v>9</v>
-      </c>
-      <c r="G7" s="98">
-        <v>22</v>
-      </c>
-      <c r="H7" s="112" t="s">
-        <v>275</v>
-      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="292">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2744,6 +2744,9 @@
   </si>
   <si>
     <t>11 SUR</t>
+  </si>
+  <si>
+    <t>Vallejo Cruz Norma Josefina</t>
   </si>
 </sst>
 </file>
@@ -3378,18 +3381,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3404,6 +3395,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3718,15 +3721,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5217,15 +5220,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6384,15 +6387,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="101" t="s">
+      <c r="C100" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="103"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="108"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6820,15 +6823,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="101" t="s">
+      <c r="C120" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="102"/>
-      <c r="E120" s="102"/>
-      <c r="F120" s="102"/>
-      <c r="G120" s="102"/>
-      <c r="H120" s="102"/>
-      <c r="I120" s="103"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="108"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7034,15 +7037,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="101" t="s">
+      <c r="C130" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="102"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="102"/>
-      <c r="I130" s="103"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="107"/>
+      <c r="H130" s="107"/>
+      <c r="I130" s="108"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7394,15 +7397,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="101" t="s">
+      <c r="C147" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="102"/>
-      <c r="E147" s="102"/>
-      <c r="F147" s="102"/>
-      <c r="G147" s="102"/>
-      <c r="H147" s="102"/>
-      <c r="I147" s="103"/>
+      <c r="D147" s="107"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="107"/>
+      <c r="H147" s="107"/>
+      <c r="I147" s="108"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9604,8 +9607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160:I160"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9629,15 +9632,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11334,15 +11337,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12589,15 +12592,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="101" t="s">
+      <c r="C127" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="102"/>
-      <c r="E127" s="102"/>
-      <c r="F127" s="102"/>
-      <c r="G127" s="102"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="103"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="107"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="107"/>
+      <c r="I127" s="108"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13025,15 +13028,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="101" t="s">
+      <c r="C147" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="102"/>
-      <c r="E147" s="102"/>
-      <c r="F147" s="102"/>
-      <c r="G147" s="102"/>
-      <c r="H147" s="102"/>
-      <c r="I147" s="103"/>
+      <c r="D147" s="107"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="107"/>
+      <c r="H147" s="107"/>
+      <c r="I147" s="108"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13241,15 +13244,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="101" t="s">
+      <c r="C157" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="102"/>
-      <c r="H157" s="102"/>
-      <c r="I157" s="103"/>
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="107"/>
+      <c r="G157" s="107"/>
+      <c r="H157" s="107"/>
+      <c r="I157" s="108"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13643,15 +13646,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="101" t="s">
+      <c r="C178" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="102"/>
-      <c r="E178" s="102"/>
-      <c r="F178" s="102"/>
-      <c r="G178" s="102"/>
-      <c r="H178" s="102"/>
-      <c r="I178" s="103"/>
+      <c r="D178" s="107"/>
+      <c r="E178" s="107"/>
+      <c r="F178" s="107"/>
+      <c r="G178" s="107"/>
+      <c r="H178" s="107"/>
+      <c r="I178" s="108"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13858,7 +13861,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="19">
@@ -15862,7 +15865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -15896,12 +15899,12 @@
       <c r="G3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="103" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="101" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -15916,7 +15919,7 @@
       <c r="F4" s="8">
         <v>13</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="104">
         <v>24</v>
       </c>
       <c r="H4" s="98" t="s">
@@ -15925,7 +15928,7 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="102" t="s">
         <v>248</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -15940,7 +15943,7 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="104">
         <v>12</v>
       </c>
       <c r="H5" s="98" t="s">
@@ -15949,7 +15952,7 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="105" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="88" t="s">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="293">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2740,20 +2740,23 @@
     <t>13  al 24 Feb 2023</t>
   </si>
   <si>
-    <t>ALMACEN</t>
-  </si>
-  <si>
-    <t>11 SUR</t>
-  </si>
-  <si>
     <t>Vallejo Cruz Norma Josefina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 sur </t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>20-Feb- al  26-Feb-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2866,28 +2869,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2915,6 +2904,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3081,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3360,41 +3355,11 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3408,6 +3373,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3416,6 +3384,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -3721,15 +3690,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5220,15 +5189,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6387,15 +6356,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="106" t="s">
+      <c r="C100" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="108"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="97"/>
+      <c r="I100" s="98"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6823,15 +6792,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="106" t="s">
+      <c r="C120" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="107"/>
-      <c r="E120" s="107"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="107"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="108"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="97"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="98"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7037,15 +7006,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="106" t="s">
+      <c r="C130" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="107"/>
-      <c r="G130" s="107"/>
-      <c r="H130" s="107"/>
-      <c r="I130" s="108"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="97"/>
+      <c r="G130" s="97"/>
+      <c r="H130" s="97"/>
+      <c r="I130" s="98"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7397,15 +7366,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="107"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="107"/>
-      <c r="G147" s="107"/>
-      <c r="H147" s="107"/>
-      <c r="I147" s="108"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="98"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9607,8 +9576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9632,15 +9601,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9833,7 +9802,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="94">
         <v>44927</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -11337,15 +11306,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11605,23 +11574,23 @@
       <c r="B86" s="8">
         <v>9</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11">
+      <c r="D86" s="62"/>
+      <c r="E86" s="63">
         <v>44608</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="63">
         <v>44973</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="64">
         <v>1</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="65">
         <v>12</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="67" t="s">
         <v>127</v>
       </c>
       <c r="J86" s="14" t="s">
@@ -12592,15 +12561,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="106" t="s">
+      <c r="C127" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="107"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="107"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="108"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="97"/>
+      <c r="G127" s="97"/>
+      <c r="H127" s="97"/>
+      <c r="I127" s="98"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -12746,7 +12715,9 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="8"/>
+      <c r="I133" s="100" t="s">
+        <v>292</v>
+      </c>
       <c r="J133" s="26"/>
     </row>
     <row r="134" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13028,15 +12999,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="107"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="107"/>
-      <c r="G147" s="107"/>
-      <c r="H147" s="107"/>
-      <c r="I147" s="108"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="98"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13244,15 +13215,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="106" t="s">
+      <c r="C157" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="107"/>
-      <c r="G157" s="107"/>
-      <c r="H157" s="107"/>
-      <c r="I157" s="108"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="98"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13646,15 +13617,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="106" t="s">
+      <c r="C178" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="107"/>
-      <c r="E178" s="107"/>
-      <c r="F178" s="107"/>
-      <c r="G178" s="107"/>
-      <c r="H178" s="107"/>
-      <c r="I178" s="108"/>
+      <c r="D178" s="97"/>
+      <c r="E178" s="97"/>
+      <c r="F178" s="97"/>
+      <c r="G178" s="97"/>
+      <c r="H178" s="97"/>
+      <c r="I178" s="98"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13861,7 +13832,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="19">
@@ -15863,10 +15834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15899,92 +15870,133 @@
       <c r="G3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="95" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
-        <v>184</v>
+      <c r="B4" s="52" t="s">
+        <v>225</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D4" s="19">
-        <v>40217</v>
+        <v>42036</v>
       </c>
       <c r="E4" s="19">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="F4" s="8">
-        <v>13</v>
-      </c>
-      <c r="G4" s="104">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13">
+        <v>22</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="19">
+        <v>40567</v>
+      </c>
+      <c r="E5" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13">
         <v>24</v>
       </c>
-      <c r="H4" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="19">
-        <v>44613</v>
-      </c>
-      <c r="E5" s="19">
-        <v>44978</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="104">
-        <v>12</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>286</v>
+      <c r="H5" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105" t="s">
-        <v>221</v>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="19">
+        <v>287</v>
+      </c>
+      <c r="D6" s="11">
         <v>44594</v>
       </c>
-      <c r="E6" s="19">
-        <v>44959</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="11">
+        <v>44979</v>
+      </c>
+      <c r="F6" s="12">
         <v>1</v>
       </c>
       <c r="G6" s="13">
         <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="100"/>
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="11">
+        <v>44251</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44981</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="19">
+        <v>44615</v>
+      </c>
+      <c r="E8" s="19">
+        <v>44980</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B4:H8">
+    <sortCondition ref="C4:C8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -3076,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3361,6 +3361,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3373,8 +3376,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3690,15 +3693,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5189,15 +5192,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6356,15 +6359,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="96" t="s">
+      <c r="C100" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="97"/>
-      <c r="G100" s="97"/>
-      <c r="H100" s="97"/>
-      <c r="I100" s="98"/>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="98"/>
+      <c r="G100" s="98"/>
+      <c r="H100" s="98"/>
+      <c r="I100" s="99"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6792,15 +6795,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="96" t="s">
+      <c r="C120" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
-      <c r="F120" s="97"/>
-      <c r="G120" s="97"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="98"/>
+      <c r="H120" s="98"/>
+      <c r="I120" s="99"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7006,15 +7009,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="96" t="s">
+      <c r="C130" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="97"/>
-      <c r="E130" s="97"/>
-      <c r="F130" s="97"/>
-      <c r="G130" s="97"/>
-      <c r="H130" s="97"/>
-      <c r="I130" s="98"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="98"/>
+      <c r="H130" s="98"/>
+      <c r="I130" s="99"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7366,15 +7369,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="96" t="s">
+      <c r="C147" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="97"/>
-      <c r="E147" s="97"/>
-      <c r="F147" s="97"/>
-      <c r="G147" s="97"/>
-      <c r="H147" s="97"/>
-      <c r="I147" s="98"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="98"/>
+      <c r="H147" s="98"/>
+      <c r="I147" s="99"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9576,8 +9579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9601,15 +9604,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11306,15 +11309,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="99" t="s">
+      <c r="C76" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12561,15 +12564,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="96" t="s">
+      <c r="C127" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="97"/>
-      <c r="G127" s="97"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="98"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="98"/>
+      <c r="H127" s="98"/>
+      <c r="I127" s="99"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -12699,7 +12702,7 @@
       <c r="B133" s="8">
         <v>5</v>
       </c>
-      <c r="C133" s="45" t="s">
+      <c r="C133" s="68" t="s">
         <v>190</v>
       </c>
       <c r="D133" s="18"/>
@@ -12715,7 +12718,7 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="100" t="s">
+      <c r="I133" s="96" t="s">
         <v>292</v>
       </c>
       <c r="J133" s="26"/>
@@ -12999,15 +13002,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="96" t="s">
+      <c r="C147" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="97"/>
-      <c r="E147" s="97"/>
-      <c r="F147" s="97"/>
-      <c r="G147" s="97"/>
-      <c r="H147" s="97"/>
-      <c r="I147" s="98"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="98"/>
+      <c r="H147" s="98"/>
+      <c r="I147" s="99"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13215,15 +13218,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="96" t="s">
+      <c r="C157" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="97"/>
-      <c r="E157" s="97"/>
-      <c r="F157" s="97"/>
-      <c r="G157" s="97"/>
-      <c r="H157" s="97"/>
-      <c r="I157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="98"/>
+      <c r="H157" s="98"/>
+      <c r="I157" s="99"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13617,15 +13620,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="96" t="s">
+      <c r="C178" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="97"/>
-      <c r="E178" s="97"/>
-      <c r="F178" s="97"/>
-      <c r="G178" s="97"/>
-      <c r="H178" s="97"/>
-      <c r="I178" s="98"/>
+      <c r="D178" s="98"/>
+      <c r="E178" s="98"/>
+      <c r="F178" s="98"/>
+      <c r="G178" s="98"/>
+      <c r="H178" s="98"/>
+      <c r="I178" s="99"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -15837,7 +15840,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15875,7 +15878,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="101" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -15923,7 +15926,7 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="88" t="s">
@@ -15947,7 +15950,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="88" t="s">
@@ -15970,7 +15973,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="101" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="88" t="s">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="294">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2743,20 +2743,23 @@
     <t>Vallejo Cruz Norma Josefina</t>
   </si>
   <si>
-    <t xml:space="preserve">11 sur </t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
     <t>20-Feb- al  26-Feb-2023</t>
+  </si>
+  <si>
+    <t>17 Abr al 8 May 2023  toma del  2-al 15 de MARZO 2023</t>
+  </si>
+  <si>
+    <t>OFICINAS</t>
+  </si>
+  <si>
+    <t>6 al 27 Marzo 2023                                                          6 al 16 Marzo 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2871,6 +2874,21 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3076,7 +3094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3376,8 +3394,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3387,6 +3441,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
@@ -9579,8 +9634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9845,23 +9900,23 @@
       <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11">
+      <c r="D11" s="62"/>
+      <c r="E11" s="63">
         <v>44594</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="63">
         <v>44979</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="64">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="65">
         <v>12</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -9872,25 +9927,25 @@
       <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="63">
         <v>44251</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="63">
         <v>44981</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="65">
         <v>14</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="67" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -9901,23 +9956,23 @@
       <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63">
         <v>44620</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="63">
         <v>44985</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="64">
         <v>1</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="65">
         <v>12</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="66" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -9928,25 +9983,25 @@
       <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="63">
         <v>42796</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="63">
         <v>44987</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="64">
         <v>6</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="65">
         <v>22</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="67" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -9957,39 +10012,41 @@
       <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="63">
         <v>43894</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="63">
         <v>44989</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="64">
         <v>3</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="65">
         <v>16</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="66" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" s="14" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="E16" s="19">
         <v>42814</v>
       </c>
@@ -10002,8 +10059,8 @@
       <c r="H16" s="13">
         <v>22</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>34</v>
+      <c r="I16" s="92" t="s">
+        <v>291</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -12652,23 +12709,23 @@
       <c r="B131" s="8">
         <v>3</v>
       </c>
-      <c r="C131" s="46" t="s">
+      <c r="C131" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="19">
+      <c r="D131" s="69"/>
+      <c r="E131" s="70">
         <v>40969</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="70">
         <v>44986</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="66">
         <v>11</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H131" s="66">
         <v>24</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="67" t="s">
         <v>187</v>
       </c>
       <c r="J131" s="26"/>
@@ -12719,7 +12776,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J133" s="26"/>
     </row>
@@ -13040,25 +13097,25 @@
       <c r="B149" s="8">
         <v>1</v>
       </c>
-      <c r="C149" s="52" t="s">
+      <c r="C149" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149" s="70">
         <v>40567</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="70">
         <v>44950</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="66">
         <v>12</v>
       </c>
-      <c r="H149" s="13">
+      <c r="H149" s="65">
         <v>24</v>
       </c>
-      <c r="I149" s="8" t="s">
+      <c r="I149" s="66" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13304,23 +13361,23 @@
       <c r="B161" s="8">
         <v>3</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="19">
+      <c r="D161" s="69"/>
+      <c r="E161" s="70">
         <v>42036</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F161" s="70">
         <v>44958</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="66">
         <v>8</v>
       </c>
-      <c r="H161" s="13">
+      <c r="H161" s="65">
         <v>22</v>
       </c>
-      <c r="I161" s="15" t="s">
+      <c r="I161" s="67" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13735,23 +13792,23 @@
       <c r="B183" s="8">
         <v>4</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="D183" s="18"/>
-      <c r="E183" s="19">
+      <c r="D183" s="69"/>
+      <c r="E183" s="70">
         <v>44615</v>
       </c>
-      <c r="F183" s="19">
+      <c r="F183" s="70">
         <v>44980</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="66">
         <v>1</v>
       </c>
-      <c r="H183" s="13">
+      <c r="H183" s="65">
         <v>12</v>
       </c>
-      <c r="I183" s="15" t="s">
+      <c r="I183" s="67" t="s">
         <v>245</v>
       </c>
     </row>
@@ -15839,8 +15896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15878,122 +15935,108 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
-        <v>225</v>
+      <c r="B4" s="104" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="19">
-        <v>42036</v>
-      </c>
-      <c r="E4" s="19">
-        <v>44958</v>
-      </c>
-      <c r="F4" s="8">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13">
+        <v>10</v>
+      </c>
+      <c r="D4" s="112">
+        <v>44620</v>
+      </c>
+      <c r="E4" s="112">
+        <v>44985</v>
+      </c>
+      <c r="F4" s="110">
+        <v>1</v>
+      </c>
+      <c r="G4" s="111">
+        <v>12</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="112">
+        <v>42796</v>
+      </c>
+      <c r="E5" s="112">
+        <v>44987</v>
+      </c>
+      <c r="F5" s="110">
+        <v>6</v>
+      </c>
+      <c r="G5" s="111">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="19">
-        <v>40567</v>
-      </c>
-      <c r="E5" s="19">
-        <v>44950</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="H5" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="112">
+        <v>43894</v>
+      </c>
+      <c r="E6" s="112">
+        <v>44989</v>
+      </c>
+      <c r="F6" s="110">
+        <v>3</v>
+      </c>
+      <c r="G6" s="111">
+        <v>16</v>
+      </c>
+      <c r="H6" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="113">
+        <v>40969</v>
+      </c>
+      <c r="E7" s="113">
+        <v>44986</v>
+      </c>
+      <c r="F7" s="107">
+        <v>11</v>
+      </c>
+      <c r="G7" s="111">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="11">
-        <v>44594</v>
-      </c>
-      <c r="E6" s="11">
-        <v>44979</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="11">
-        <v>44251</v>
-      </c>
-      <c r="E7" s="11">
-        <v>44981</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13">
-        <v>14</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
+      <c r="H7" s="109" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="19">
-        <v>44615</v>
-      </c>
-      <c r="E8" s="19">
-        <v>44980</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>12</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
     </row>
   </sheetData>
   <sortState ref="B4:H8">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="OPCION  2 " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="SUCURSALES   VACACIONES  2023  " sheetId="2" r:id="rId2"/>
+    <sheet name="SALIDAS DE VACACIONES " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="299">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2599,9 +2599,6 @@
     <t>13 al 28 Noviembre 2023</t>
   </si>
   <si>
-    <t>23 Ene al 3 Feb 2023                                                           10 al 21 Julio 2023</t>
-  </si>
-  <si>
     <t>6 al 27 Feb 2023</t>
   </si>
   <si>
@@ -2646,6 +2643,18 @@
     <t>6 Feb al 1 Mzo 2023</t>
   </si>
   <si>
+    <t>7 al 30 Ago 2023</t>
+  </si>
+  <si>
+    <t>10 al 31 Jul 2023</t>
+  </si>
+  <si>
+    <t>24 Abr al 17 May 2023</t>
+  </si>
+  <si>
+    <t>(30 y 31 Dic 2022)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2655,6 +2664,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>6 al 19 Nov 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6 al 13 Nov 2023</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAVALETA </t>
+  </si>
+  <si>
+    <t>13 al 24 Febrero  2023</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>13  al 24 Feb 2023</t>
+  </si>
+  <si>
+    <t>Vallejo Cruz Norma Josefina</t>
+  </si>
+  <si>
+    <t>20-Feb- al  26-Feb-2023</t>
+  </si>
+  <si>
+    <t>17 Abr al 8 May 2023  toma del  2-al 15 de MARZO 2023</t>
+  </si>
+  <si>
+    <t>OFICINAS</t>
+  </si>
+  <si>
+    <t>6 al 27 Marzo 2023                                                          6 al 16 Marzo 2023</t>
+  </si>
+  <si>
+    <t>21 Ago al 11 Sep 2023                        6 al  27 Marzo 2023</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>21 Ago al 11 Sep 2023             del  6 al  27 Marzo 2023</t>
+  </si>
+  <si>
+    <t>17 Abr al 8 May 2023                 del  2-al 15 de MARZO 2023</t>
+  </si>
+  <si>
+    <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023</t>
+  </si>
+  <si>
+    <t>03  Abril   al 17 Abril 2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6 al 29 Nov  2023</t>
     </r>
     <r>
@@ -2677,82 +2766,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  6 y 7 Abril 2023</t>
-    </r>
-  </si>
-  <si>
-    <t>7 al 30 Ago 2023</t>
-  </si>
-  <si>
-    <t>10 al 31 Jul 2023</t>
-  </si>
-  <si>
-    <t>24 Abr al 17 May 2023</t>
-  </si>
-  <si>
-    <t>(30 y 31 Dic 2022)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6 al 19 Nov 2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6 al 13 Nov 2023</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAVALETA </t>
-  </si>
-  <si>
-    <t>13 al 24 Febrero  2023</t>
-  </si>
-  <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
-    <t>13  al 24 Feb 2023</t>
-  </si>
-  <si>
-    <t>Vallejo Cruz Norma Josefina</t>
-  </si>
-  <si>
-    <t>20-Feb- al  26-Feb-2023</t>
-  </si>
-  <si>
-    <t>17 Abr al 8 May 2023  toma del  2-al 15 de MARZO 2023</t>
-  </si>
-  <si>
-    <t>OFICINAS</t>
-  </si>
-  <si>
-    <t>6 al 27 Marzo 2023                                                          6 al 16 Marzo 2023</t>
+      <t xml:space="preserve">  5 y 7 Abril 2023</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2887,14 +2902,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2928,6 +2943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3094,7 +3115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3382,24 +3403,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3416,15 +3419,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,6 +3429,39 @@
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3748,15 +3778,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5247,15 +5277,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="100" t="s">
+      <c r="C57" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6414,15 +6444,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="97" t="s">
+      <c r="C100" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
-      <c r="F100" s="98"/>
-      <c r="G100" s="98"/>
-      <c r="H100" s="98"/>
-      <c r="I100" s="99"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="108"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6850,15 +6880,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="97" t="s">
+      <c r="C120" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="98"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="98"/>
-      <c r="G120" s="98"/>
-      <c r="H120" s="98"/>
-      <c r="I120" s="99"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="108"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7064,15 +7094,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="97" t="s">
+      <c r="C130" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="98"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="98"/>
-      <c r="G130" s="98"/>
-      <c r="H130" s="98"/>
-      <c r="I130" s="99"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="107"/>
+      <c r="H130" s="107"/>
+      <c r="I130" s="108"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7424,15 +7454,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="97" t="s">
+      <c r="C147" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="98"/>
-      <c r="E147" s="98"/>
-      <c r="F147" s="98"/>
-      <c r="G147" s="98"/>
-      <c r="H147" s="98"/>
-      <c r="I147" s="99"/>
+      <c r="D147" s="107"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="107"/>
+      <c r="H147" s="107"/>
+      <c r="I147" s="108"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9634,8 +9664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9659,15 +9689,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9755,26 +9785,26 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="63">
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
         <v>40560</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="11">
         <v>44943</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="12">
         <v>12</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="13">
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -9890,7 +9920,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>10</v>
@@ -10041,26 +10071,26 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="70">
         <v>42814</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="70">
         <v>45005</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="66">
         <v>6</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="66">
         <v>22</v>
       </c>
-      <c r="I16" s="92" t="s">
-        <v>291</v>
+      <c r="I16" s="67" t="s">
+        <v>289</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -10089,7 +10119,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>10</v>
@@ -10117,7 +10147,9 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="115" t="s">
+        <v>293</v>
+      </c>
       <c r="J18" s="14" t="s">
         <v>10</v>
       </c>
@@ -11366,15 +11398,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="100" t="s">
+      <c r="C76" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11450,7 +11482,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>38</v>
@@ -11537,7 +11569,7 @@
         <v>16</v>
       </c>
       <c r="I82" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J82" s="14" t="s">
         <v>38</v>
@@ -11624,7 +11656,7 @@
         <v>26</v>
       </c>
       <c r="I85" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>38</v>
@@ -11680,7 +11712,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>38</v>
@@ -12080,7 +12112,7 @@
         <v>24</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>38</v>
@@ -12621,15 +12653,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="97" t="s">
+      <c r="C127" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="98"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="98"/>
-      <c r="G127" s="98"/>
-      <c r="H127" s="98"/>
-      <c r="I127" s="99"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="107"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="107"/>
+      <c r="I127" s="108"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -12709,7 +12741,7 @@
       <c r="B131" s="8">
         <v>3</v>
       </c>
-      <c r="C131" s="103" t="s">
+      <c r="C131" s="97" t="s">
         <v>186</v>
       </c>
       <c r="D131" s="69"/>
@@ -12751,7 +12783,7 @@
         <v>22</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J132" s="26"/>
     </row>
@@ -12776,7 +12808,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J133" s="26"/>
     </row>
@@ -12853,24 +12885,24 @@
       <c r="B137" s="8">
         <v>9</v>
       </c>
-      <c r="C137" s="45" t="s">
+      <c r="C137" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="19">
+      <c r="D137" s="69"/>
+      <c r="E137" s="70">
         <v>41834</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="70">
         <v>45121</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="66">
         <v>9</v>
       </c>
-      <c r="H137" s="13">
+      <c r="H137" s="65">
         <v>22</v>
       </c>
-      <c r="I137" s="8" t="s">
-        <v>195</v>
+      <c r="I137" s="87" t="s">
+        <v>292</v>
       </c>
       <c r="J137" s="26"/>
     </row>
@@ -12922,7 +12954,7 @@
       </c>
       <c r="J139" s="26"/>
     </row>
-    <row r="140" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="8">
         <v>12</v>
       </c>
@@ -13059,15 +13091,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="97" t="s">
+      <c r="C147" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="98"/>
-      <c r="E147" s="98"/>
-      <c r="F147" s="98"/>
-      <c r="G147" s="98"/>
-      <c r="H147" s="98"/>
-      <c r="I147" s="99"/>
+      <c r="D147" s="107"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="107"/>
+      <c r="H147" s="107"/>
+      <c r="I147" s="108"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13101,7 +13133,7 @@
         <v>206</v>
       </c>
       <c r="D149" s="69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E149" s="70">
         <v>40567</v>
@@ -13275,15 +13307,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="97" t="s">
+      <c r="C157" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
-      <c r="F157" s="98"/>
-      <c r="G157" s="98"/>
-      <c r="H157" s="98"/>
-      <c r="I157" s="99"/>
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="107"/>
+      <c r="G157" s="107"/>
+      <c r="H157" s="107"/>
+      <c r="I157" s="108"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13354,7 +13386,7 @@
         <v>12</v>
       </c>
       <c r="I160" s="66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13677,15 +13709,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="97" t="s">
+      <c r="C178" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="98"/>
-      <c r="E178" s="98"/>
-      <c r="F178" s="98"/>
-      <c r="G178" s="98"/>
-      <c r="H178" s="98"/>
-      <c r="I178" s="99"/>
+      <c r="D178" s="107"/>
+      <c r="E178" s="107"/>
+      <c r="F178" s="107"/>
+      <c r="G178" s="107"/>
+      <c r="H178" s="107"/>
+      <c r="I178" s="108"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13761,7 +13793,7 @@
         <v>121</v>
       </c>
       <c r="J181" s="81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="182" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13785,7 +13817,7 @@
         <v>12</v>
       </c>
       <c r="I182" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13816,23 +13848,23 @@
       <c r="B184" s="8">
         <v>5</v>
       </c>
-      <c r="C184" s="52" t="s">
+      <c r="C184" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="19">
+      <c r="D184" s="69"/>
+      <c r="E184" s="70">
         <v>44622</v>
       </c>
-      <c r="F184" s="19">
+      <c r="F184" s="70">
         <v>44987</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="66">
         <v>1</v>
       </c>
-      <c r="H184" s="13">
+      <c r="H184" s="65">
         <v>12</v>
       </c>
-      <c r="I184" s="15" t="s">
+      <c r="I184" s="67" t="s">
         <v>247</v>
       </c>
     </row>
@@ -13881,10 +13913,10 @@
         <v>24</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13892,7 +13924,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="19">
@@ -14100,7 +14132,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15889,15 +15921,19 @@
     <mergeCell ref="C147:I147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15907,7 +15943,7 @@
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15935,112 +15971,149 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="104">
+        <v>42796</v>
+      </c>
+      <c r="E4" s="104">
+        <v>44987</v>
+      </c>
+      <c r="F4" s="103">
+        <v>6</v>
+      </c>
+      <c r="G4" s="111">
+        <v>22</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="112">
+      <c r="C5" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="104">
         <v>44620</v>
       </c>
-      <c r="E4" s="112">
+      <c r="E5" s="104">
         <v>44985</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F5" s="103">
         <v>1</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G5" s="111">
         <v>12</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H5" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="112">
-        <v>42796</v>
-      </c>
-      <c r="E5" s="112">
-        <v>44987</v>
-      </c>
-      <c r="F5" s="110">
-        <v>6</v>
-      </c>
-      <c r="G5" s="111">
-        <v>22</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>293</v>
-      </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="100" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="104">
         <v>43894</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="104">
         <v>44989</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="103">
         <v>3</v>
       </c>
       <c r="G6" s="111">
         <v>16</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="88" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <v>42814</v>
+      </c>
+      <c r="E7" s="19">
+        <v>45005</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="111">
+        <v>22</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="113">
+      <c r="C8" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="105">
         <v>40969</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E8" s="105">
         <v>44986</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F8" s="101">
         <v>11</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G8" s="111">
         <v>24</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H8" s="116" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
+    <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="19">
+        <v>41834</v>
+      </c>
+      <c r="E9" s="19">
+        <v>45121</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="111">
+        <v>22</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B4:H8">
-    <sortCondition ref="C4:C8"/>
+  <sortState ref="B4:H7">
+    <sortCondition ref="B4:B7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -3115,7 +3115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3430,18 +3430,6 @@
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3462,6 +3450,21 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3778,15 +3781,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5277,15 +5280,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6444,15 +6447,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="106" t="s">
+      <c r="C100" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="108"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="115"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6880,15 +6883,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="106" t="s">
+      <c r="C120" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="107"/>
-      <c r="E120" s="107"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="107"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="108"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="115"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7094,15 +7097,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="106" t="s">
+      <c r="C130" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="107"/>
-      <c r="G130" s="107"/>
-      <c r="H130" s="107"/>
-      <c r="I130" s="108"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="114"/>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="115"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7454,15 +7457,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="107"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="107"/>
-      <c r="G147" s="107"/>
-      <c r="H147" s="107"/>
-      <c r="I147" s="108"/>
+      <c r="D147" s="114"/>
+      <c r="E147" s="114"/>
+      <c r="F147" s="114"/>
+      <c r="G147" s="114"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="115"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9664,8 +9667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9689,15 +9692,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9972,10 +9975,10 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="117">
         <v>14</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="92" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -10071,7 +10074,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="110" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10147,7 +10150,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="111" t="s">
         <v>293</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -11398,15 +11401,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12653,15 +12656,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="106" t="s">
+      <c r="C127" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="107"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="107"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="108"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="114"/>
+      <c r="G127" s="114"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="115"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13091,15 +13094,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="107"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="107"/>
-      <c r="G147" s="107"/>
-      <c r="H147" s="107"/>
-      <c r="I147" s="108"/>
+      <c r="D147" s="114"/>
+      <c r="E147" s="114"/>
+      <c r="F147" s="114"/>
+      <c r="G147" s="114"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="115"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13307,15 +13310,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="106" t="s">
+      <c r="C157" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="107"/>
-      <c r="G157" s="107"/>
-      <c r="H157" s="107"/>
-      <c r="I157" s="108"/>
+      <c r="D157" s="114"/>
+      <c r="E157" s="114"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="114"/>
+      <c r="H157" s="114"/>
+      <c r="I157" s="115"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13709,15 +13712,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="106" t="s">
+      <c r="C178" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="107"/>
-      <c r="E178" s="107"/>
-      <c r="F178" s="107"/>
-      <c r="G178" s="107"/>
-      <c r="H178" s="107"/>
-      <c r="I178" s="108"/>
+      <c r="D178" s="114"/>
+      <c r="E178" s="114"/>
+      <c r="F178" s="114"/>
+      <c r="G178" s="114"/>
+      <c r="H178" s="114"/>
+      <c r="I178" s="115"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -15986,10 +15989,10 @@
       <c r="F4" s="103">
         <v>6</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="107">
         <v>22</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="112" t="s">
         <v>291</v>
       </c>
       <c r="I4" s="14"/>
@@ -16010,7 +16013,7 @@
       <c r="F5" s="103">
         <v>1</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="107">
         <v>12</v>
       </c>
       <c r="H5" s="88" t="s">
@@ -16034,7 +16037,7 @@
       <c r="F6" s="103">
         <v>3</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="107">
         <v>16</v>
       </c>
       <c r="H6" s="88" t="s">
@@ -16043,10 +16046,10 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="19">
@@ -16058,7 +16061,7 @@
       <c r="F7" s="8">
         <v>6</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="107">
         <v>22</v>
       </c>
       <c r="H7" s="102" t="s">
@@ -16081,15 +16084,15 @@
       <c r="F8" s="101">
         <v>11</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="107">
         <v>24</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="112" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="106" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="88" t="s">
@@ -16104,10 +16107,10 @@
       <c r="F9" s="8">
         <v>9</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="107">
         <v>22</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="112" t="s">
         <v>294</v>
       </c>
     </row>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="301">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2768,13 +2768,19 @@
       </rPr>
       <t xml:space="preserve">  5 y 7 Abril 2023</t>
     </r>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>MARZO--2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,6 +2910,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3115,7 +3129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3451,6 +3465,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3463,8 +3480,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3781,15 +3831,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5280,15 +5330,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6447,15 +6497,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="115"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
+      <c r="H100" s="115"/>
+      <c r="I100" s="116"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6883,15 +6933,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="113" t="s">
+      <c r="C120" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="115"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
+      <c r="F120" s="115"/>
+      <c r="G120" s="115"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="116"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7097,15 +7147,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="113" t="s">
+      <c r="C130" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="114"/>
-      <c r="E130" s="114"/>
-      <c r="F130" s="114"/>
-      <c r="G130" s="114"/>
-      <c r="H130" s="114"/>
-      <c r="I130" s="115"/>
+      <c r="D130" s="115"/>
+      <c r="E130" s="115"/>
+      <c r="F130" s="115"/>
+      <c r="G130" s="115"/>
+      <c r="H130" s="115"/>
+      <c r="I130" s="116"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7457,15 +7507,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="115"/>
+      <c r="D147" s="115"/>
+      <c r="E147" s="115"/>
+      <c r="F147" s="115"/>
+      <c r="G147" s="115"/>
+      <c r="H147" s="115"/>
+      <c r="I147" s="116"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9667,8 +9717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9692,15 +9742,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9975,7 +10025,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="113">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -11401,15 +11451,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="116" t="s">
+      <c r="C76" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="116"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="116"/>
-      <c r="H76" s="116"/>
-      <c r="I76" s="116"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11519,8 +11569,11 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K80" s="118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>4</v>
       </c>
@@ -11549,7 +11602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="2:10" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>5</v>
       </c>
@@ -11578,7 +11631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>6</v>
       </c>
@@ -11607,7 +11660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>7</v>
       </c>
@@ -11636,7 +11689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>8</v>
       </c>
@@ -11665,7 +11718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>9</v>
       </c>
@@ -11692,7 +11745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>10</v>
       </c>
@@ -11721,7 +11774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>11</v>
       </c>
@@ -11750,7 +11803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="2:10" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>12</v>
       </c>
@@ -11777,34 +11830,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11">
+      <c r="D90" s="123"/>
+      <c r="E90" s="124">
         <v>44662</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="124">
         <v>45027</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="125">
         <v>1</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="126">
         <v>12</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="127" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K90" s="118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>14</v>
       </c>
@@ -11833,7 +11889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="2:10" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>15</v>
       </c>
@@ -11862,7 +11918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:10" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>16</v>
       </c>
@@ -11891,7 +11947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>17</v>
       </c>
@@ -11920,7 +11976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>18</v>
       </c>
@@ -11949,7 +12005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="2:10" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>19</v>
       </c>
@@ -12547,24 +12603,44 @@
       </c>
     </row>
     <row r="117" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="8"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
+      <c r="B117" s="8">
+        <v>40</v>
+      </c>
+      <c r="C117" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="121">
+        <v>44998</v>
+      </c>
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
-      <c r="I117" s="30"/>
+      <c r="I117" s="80" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="118" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="11"/>
+      <c r="B118" s="8">
+        <v>41</v>
+      </c>
+      <c r="C118" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="121">
+        <v>44998</v>
+      </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="15"/>
+      <c r="I118" s="129" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="119" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="8"/>
@@ -12656,15 +12732,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="113" t="s">
+      <c r="C127" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
-      <c r="G127" s="114"/>
-      <c r="H127" s="114"/>
-      <c r="I127" s="115"/>
+      <c r="D127" s="115"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="115"/>
+      <c r="G127" s="115"/>
+      <c r="H127" s="115"/>
+      <c r="I127" s="116"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13094,15 +13170,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114"/>
-      <c r="I147" s="115"/>
+      <c r="D147" s="115"/>
+      <c r="E147" s="115"/>
+      <c r="F147" s="115"/>
+      <c r="G147" s="115"/>
+      <c r="H147" s="115"/>
+      <c r="I147" s="116"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13310,15 +13386,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="113" t="s">
+      <c r="C157" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="114"/>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
-      <c r="G157" s="114"/>
-      <c r="H157" s="114"/>
-      <c r="I157" s="115"/>
+      <c r="D157" s="115"/>
+      <c r="E157" s="115"/>
+      <c r="F157" s="115"/>
+      <c r="G157" s="115"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="116"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13712,15 +13788,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="113" t="s">
+      <c r="C178" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="114"/>
-      <c r="E178" s="114"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="114"/>
-      <c r="H178" s="114"/>
-      <c r="I178" s="115"/>
+      <c r="D178" s="115"/>
+      <c r="E178" s="115"/>
+      <c r="F178" s="115"/>
+      <c r="G178" s="115"/>
+      <c r="H178" s="115"/>
+      <c r="I178" s="116"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="297">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2711,22 +2711,10 @@
     <t>17 Abr al 8 May 2023  toma del  2-al 15 de MARZO 2023</t>
   </si>
   <si>
-    <t>OFICINAS</t>
-  </si>
-  <si>
-    <t>6 al 27 Marzo 2023                                                          6 al 16 Marzo 2023</t>
-  </si>
-  <si>
     <t>21 Ago al 11 Sep 2023                        6 al  27 Marzo 2023</t>
   </si>
   <si>
     <t>xxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>21 Ago al 11 Sep 2023             del  6 al  27 Marzo 2023</t>
-  </si>
-  <si>
-    <t>17 Abr al 8 May 2023                 del  2-al 15 de MARZO 2023</t>
   </si>
   <si>
     <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023</t>
@@ -3424,9 +3412,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3468,18 +3453,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3515,6 +3488,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3831,15 +3819,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5330,15 +5318,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="117" t="s">
+      <c r="C57" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6497,15 +6485,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="114" t="s">
+      <c r="C100" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
-      <c r="F100" s="115"/>
-      <c r="G100" s="115"/>
-      <c r="H100" s="115"/>
-      <c r="I100" s="116"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
+      <c r="F100" s="126"/>
+      <c r="G100" s="126"/>
+      <c r="H100" s="126"/>
+      <c r="I100" s="127"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6933,15 +6921,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="114" t="s">
+      <c r="C120" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
-      <c r="F120" s="115"/>
-      <c r="G120" s="115"/>
-      <c r="H120" s="115"/>
-      <c r="I120" s="116"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
+      <c r="F120" s="126"/>
+      <c r="G120" s="126"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="127"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7147,15 +7135,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="114" t="s">
+      <c r="C130" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="115"/>
-      <c r="E130" s="115"/>
-      <c r="F130" s="115"/>
-      <c r="G130" s="115"/>
-      <c r="H130" s="115"/>
-      <c r="I130" s="116"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="126"/>
+      <c r="F130" s="126"/>
+      <c r="G130" s="126"/>
+      <c r="H130" s="126"/>
+      <c r="I130" s="127"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7507,15 +7495,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="114" t="s">
+      <c r="C147" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="115"/>
-      <c r="E147" s="115"/>
-      <c r="F147" s="115"/>
-      <c r="G147" s="115"/>
-      <c r="H147" s="115"/>
-      <c r="I147" s="116"/>
+      <c r="D147" s="126"/>
+      <c r="E147" s="126"/>
+      <c r="F147" s="126"/>
+      <c r="G147" s="126"/>
+      <c r="H147" s="126"/>
+      <c r="I147" s="127"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9717,8 +9705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9742,15 +9730,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9857,7 +9845,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10025,7 +10013,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="112">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10124,7 +10112,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="109" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10172,7 +10160,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>10</v>
@@ -10200,8 +10188,8 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="111" t="s">
-        <v>293</v>
+      <c r="I18" s="110" t="s">
+        <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>10</v>
@@ -11451,15 +11439,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="117" t="s">
+      <c r="C76" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="128"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11569,8 +11557,8 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="118" t="s">
-        <v>299</v>
+      <c r="K80" s="113" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11768,7 +11756,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>38</v>
@@ -11834,30 +11822,30 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="122" t="s">
+      <c r="C90" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="123"/>
-      <c r="E90" s="124">
+      <c r="D90" s="118"/>
+      <c r="E90" s="119">
         <v>44662</v>
       </c>
-      <c r="F90" s="124">
+      <c r="F90" s="119">
         <v>45027</v>
       </c>
-      <c r="G90" s="125">
+      <c r="G90" s="120">
         <v>1</v>
       </c>
-      <c r="H90" s="126">
+      <c r="H90" s="121">
         <v>12</v>
       </c>
-      <c r="I90" s="127" t="s">
+      <c r="I90" s="122" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="118" t="s">
-        <v>299</v>
+      <c r="K90" s="113" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12606,40 +12594,40 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="119" t="s">
+      <c r="C117" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="120" t="s">
+      <c r="D117" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="121">
+      <c r="E117" s="116">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
       <c r="I117" s="80" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="119" t="s">
+      <c r="C118" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="128" t="s">
+      <c r="D118" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="121">
+      <c r="E118" s="116">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="129" t="s">
-        <v>300</v>
+      <c r="I118" s="124" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12732,15 +12720,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="114" t="s">
+      <c r="C127" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="115"/>
-      <c r="E127" s="115"/>
-      <c r="F127" s="115"/>
-      <c r="G127" s="115"/>
-      <c r="H127" s="115"/>
-      <c r="I127" s="116"/>
+      <c r="D127" s="126"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="126"/>
+      <c r="I127" s="127"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -12981,7 +12969,7 @@
         <v>22</v>
       </c>
       <c r="I137" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J137" s="26"/>
     </row>
@@ -13170,15 +13158,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="114" t="s">
+      <c r="C147" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="115"/>
-      <c r="E147" s="115"/>
-      <c r="F147" s="115"/>
-      <c r="G147" s="115"/>
-      <c r="H147" s="115"/>
-      <c r="I147" s="116"/>
+      <c r="D147" s="126"/>
+      <c r="E147" s="126"/>
+      <c r="F147" s="126"/>
+      <c r="G147" s="126"/>
+      <c r="H147" s="126"/>
+      <c r="I147" s="127"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13386,15 +13374,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="114" t="s">
+      <c r="C157" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="115"/>
-      <c r="E157" s="115"/>
-      <c r="F157" s="115"/>
-      <c r="G157" s="115"/>
-      <c r="H157" s="115"/>
-      <c r="I157" s="116"/>
+      <c r="D157" s="126"/>
+      <c r="E157" s="126"/>
+      <c r="F157" s="126"/>
+      <c r="G157" s="126"/>
+      <c r="H157" s="126"/>
+      <c r="I157" s="127"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13788,15 +13776,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="114" t="s">
+      <c r="C178" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="115"/>
-      <c r="E178" s="115"/>
-      <c r="F178" s="115"/>
-      <c r="G178" s="115"/>
-      <c r="H178" s="115"/>
-      <c r="I178" s="116"/>
+      <c r="D178" s="126"/>
+      <c r="E178" s="126"/>
+      <c r="F178" s="126"/>
+      <c r="G178" s="126"/>
+      <c r="H178" s="126"/>
+      <c r="I178" s="127"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -13951,23 +13939,23 @@
       <c r="B185" s="8">
         <v>6</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="C185" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="D185" s="18"/>
-      <c r="E185" s="19">
+      <c r="D185" s="69"/>
+      <c r="E185" s="70">
         <v>44634</v>
       </c>
-      <c r="F185" s="19">
+      <c r="F185" s="70">
         <v>44999</v>
       </c>
-      <c r="G185" s="8">
+      <c r="G185" s="66">
         <v>1</v>
       </c>
-      <c r="H185" s="13">
+      <c r="H185" s="65">
         <v>12</v>
       </c>
-      <c r="I185" s="15" t="s">
+      <c r="I185" s="67" t="s">
         <v>251</v>
       </c>
     </row>
@@ -16011,13 +15999,13 @@
   </sheetPr>
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -16050,145 +16038,75 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="104">
-        <v>42796</v>
-      </c>
-      <c r="E4" s="104">
-        <v>44987</v>
-      </c>
-      <c r="F4" s="103">
-        <v>6</v>
-      </c>
-      <c r="G4" s="107">
-        <v>22</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>291</v>
+      <c r="B4" s="129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="19">
+        <v>44634</v>
+      </c>
+      <c r="E4" s="19">
+        <v>44999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="104">
-        <v>44620</v>
-      </c>
-      <c r="E5" s="104">
-        <v>44985</v>
-      </c>
-      <c r="F5" s="103">
-        <v>1</v>
-      </c>
-      <c r="G5" s="107">
-        <v>12</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>27</v>
-      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="104">
-        <v>43894</v>
-      </c>
-      <c r="E6" s="104">
-        <v>44989</v>
-      </c>
-      <c r="F6" s="103">
-        <v>3</v>
-      </c>
-      <c r="G6" s="107">
-        <v>16</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>31</v>
-      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="19">
-        <v>42814</v>
-      </c>
-      <c r="E7" s="19">
-        <v>45005</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6</v>
-      </c>
-      <c r="G7" s="107">
-        <v>22</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>295</v>
-      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="105">
-        <v>40969</v>
-      </c>
-      <c r="E8" s="105">
-        <v>44986</v>
-      </c>
-      <c r="F8" s="101">
-        <v>11</v>
-      </c>
-      <c r="G8" s="107">
-        <v>24</v>
-      </c>
-      <c r="H8" s="112" t="s">
-        <v>187</v>
-      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="111"/>
     </row>
     <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="19">
-        <v>41834</v>
-      </c>
-      <c r="E9" s="19">
-        <v>45121</v>
-      </c>
-      <c r="F9" s="8">
-        <v>9</v>
-      </c>
-      <c r="G9" s="107">
-        <v>22</v>
-      </c>
-      <c r="H9" s="112" t="s">
-        <v>294</v>
-      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="111"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="299">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2762,6 +2762,12 @@
   </si>
   <si>
     <t>MARZO--2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-AL 26 MARZO 2023                           11 al 13 AGOSTO                                  28 al 30 Agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3396,9 +3402,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3489,6 +3492,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3501,8 +3507,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3512,8 +3521,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -9705,8 +9714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="B133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9909,11 +9918,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="14" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="129" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -9931,8 +9940,8 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="94">
-        <v>44927</v>
+      <c r="I9" s="130" t="s">
+        <v>297</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -9951,8 +9960,8 @@
       <c r="E10" s="63">
         <v>41708</v>
       </c>
-      <c r="F10" s="63">
-        <v>44995</v>
+      <c r="F10" s="63" t="s">
+        <v>298</v>
       </c>
       <c r="G10" s="64">
         <v>9</v>
@@ -10013,7 +10022,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="111">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10112,7 +10121,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="108" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10188,7 +10197,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="109" t="s">
         <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -11557,7 +11566,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="113" t="s">
+      <c r="K80" s="112" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11822,29 +11831,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="117" t="s">
+      <c r="C90" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="118"/>
-      <c r="E90" s="119">
+      <c r="D90" s="117"/>
+      <c r="E90" s="118">
         <v>44662</v>
       </c>
-      <c r="F90" s="119">
+      <c r="F90" s="118">
         <v>45027</v>
       </c>
-      <c r="G90" s="120">
+      <c r="G90" s="119">
         <v>1</v>
       </c>
-      <c r="H90" s="121">
+      <c r="H90" s="120">
         <v>12</v>
       </c>
-      <c r="I90" s="122" t="s">
+      <c r="I90" s="121" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="113" t="s">
+      <c r="K90" s="112" t="s">
         <v>295</v>
       </c>
     </row>
@@ -12594,13 +12603,13 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="114" t="s">
+      <c r="C117" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="115" t="s">
+      <c r="D117" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="116">
+      <c r="E117" s="115">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -12614,19 +12623,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="114" t="s">
+      <c r="C118" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="123" t="s">
+      <c r="D118" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="116">
+      <c r="E118" s="115">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="124" t="s">
+      <c r="I118" s="123" t="s">
         <v>296</v>
       </c>
     </row>
@@ -12808,7 +12817,7 @@
       <c r="B131" s="8">
         <v>3</v>
       </c>
-      <c r="C131" s="97" t="s">
+      <c r="C131" s="96" t="s">
         <v>186</v>
       </c>
       <c r="D131" s="69"/>
@@ -12874,7 +12883,7 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="96" t="s">
+      <c r="I133" s="95" t="s">
         <v>288</v>
       </c>
       <c r="J133" s="26"/>
@@ -15999,7 +16008,7 @@
   </sheetPr>
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16033,15 +16042,15 @@
       <c r="G3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>283</v>
       </c>
       <c r="D4" s="19">
@@ -16062,51 +16071,51 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="88"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="88"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="106"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="88"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="111"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="88"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="111"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="300">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2768,6 +2768,41 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 al 12 Mayo 2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 al 12 Mayo 2023</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3495,6 +3530,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3506,12 +3547,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3828,15 +3863,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5327,15 +5362,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="128" t="s">
+      <c r="C57" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6494,15 +6529,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="125" t="s">
+      <c r="C100" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="126"/>
-      <c r="E100" s="126"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="126"/>
-      <c r="H100" s="126"/>
-      <c r="I100" s="127"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="129"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6930,15 +6965,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="125" t="s">
+      <c r="C120" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="126"/>
-      <c r="E120" s="126"/>
-      <c r="F120" s="126"/>
-      <c r="G120" s="126"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="127"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="128"/>
+      <c r="F120" s="128"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="129"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7144,15 +7179,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="125" t="s">
+      <c r="C130" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="126"/>
-      <c r="E130" s="126"/>
-      <c r="F130" s="126"/>
-      <c r="G130" s="126"/>
-      <c r="H130" s="126"/>
-      <c r="I130" s="127"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="128"/>
+      <c r="F130" s="128"/>
+      <c r="G130" s="128"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="129"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7504,15 +7539,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="125" t="s">
+      <c r="C147" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="126"/>
-      <c r="E147" s="126"/>
-      <c r="F147" s="126"/>
-      <c r="G147" s="126"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="127"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="128"/>
+      <c r="F147" s="128"/>
+      <c r="G147" s="128"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="129"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9714,8 +9749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9739,15 +9774,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9922,7 +9957,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="125" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -9940,7 +9975,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="126" t="s">
         <v>297</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -11448,15 +11483,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="128" t="s">
+      <c r="C76" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="128"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="130"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12729,15 +12764,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="125" t="s">
+      <c r="C127" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="126"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="126"/>
-      <c r="I127" s="127"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="128"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="129"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13167,15 +13202,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="125" t="s">
+      <c r="C147" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="126"/>
-      <c r="E147" s="126"/>
-      <c r="F147" s="126"/>
-      <c r="G147" s="126"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="127"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="128"/>
+      <c r="F147" s="128"/>
+      <c r="G147" s="128"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="129"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13383,15 +13418,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="125" t="s">
+      <c r="C157" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="126"/>
-      <c r="E157" s="126"/>
-      <c r="F157" s="126"/>
-      <c r="G157" s="126"/>
-      <c r="H157" s="126"/>
-      <c r="I157" s="127"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="128"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="129"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13785,15 +13820,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="125" t="s">
+      <c r="C178" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="126"/>
-      <c r="E178" s="126"/>
-      <c r="F178" s="126"/>
-      <c r="G178" s="126"/>
-      <c r="H178" s="126"/>
-      <c r="I178" s="127"/>
+      <c r="D178" s="128"/>
+      <c r="E178" s="128"/>
+      <c r="F178" s="128"/>
+      <c r="G178" s="128"/>
+      <c r="H178" s="128"/>
+      <c r="I178" s="129"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14016,7 +14051,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="305">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2803,6 +2803,60 @@
       </rPr>
       <t>1 al 12 Mayo 2023</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 al 29 Nov  2023                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 y 7 Abril 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 al 24 Mayo 2023                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  7 al 16 Abril 2023</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRADURA </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 al 26 Abril 2023                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   3 al 16 Abril 2023</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL </t>
   </si>
 </sst>
 </file>
@@ -2952,7 +3006,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2992,6 +3046,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,7 +3218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3447,16 +3507,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3527,9 +3581,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3548,6 +3599,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3556,6 +3655,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFFFF"/>
@@ -3863,15 +3963,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5362,15 +5462,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6529,15 +6629,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="127" t="s">
+      <c r="C100" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="129"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="126"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -6965,15 +7065,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="127" t="s">
+      <c r="C120" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="128"/>
-      <c r="E120" s="128"/>
-      <c r="F120" s="128"/>
-      <c r="G120" s="128"/>
-      <c r="H120" s="128"/>
-      <c r="I120" s="129"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="125"/>
+      <c r="G120" s="125"/>
+      <c r="H120" s="125"/>
+      <c r="I120" s="126"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7179,15 +7279,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="127" t="s">
+      <c r="C130" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="128"/>
-      <c r="E130" s="128"/>
-      <c r="F130" s="128"/>
-      <c r="G130" s="128"/>
-      <c r="H130" s="128"/>
-      <c r="I130" s="129"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
+      <c r="F130" s="125"/>
+      <c r="G130" s="125"/>
+      <c r="H130" s="125"/>
+      <c r="I130" s="126"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7539,15 +7639,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="127" t="s">
+      <c r="C147" s="124" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="128"/>
-      <c r="E147" s="128"/>
-      <c r="F147" s="128"/>
-      <c r="G147" s="128"/>
-      <c r="H147" s="128"/>
-      <c r="I147" s="129"/>
+      <c r="D147" s="125"/>
+      <c r="E147" s="125"/>
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="126"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9749,8 +9849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9774,15 +9874,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -9957,7 +10057,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="122" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -9975,7 +10075,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="123" t="s">
         <v>297</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10057,7 +10157,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="109">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10156,7 +10256,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="106" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10185,25 +10285,25 @@
       <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="63">
         <v>42821</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="63">
         <v>45012</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="64">
         <v>6</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="65">
         <v>22</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="66" t="s">
         <v>293</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -10232,7 +10332,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="107" t="s">
         <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -10272,23 +10372,23 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11">
+      <c r="D20" s="112"/>
+      <c r="E20" s="113">
         <v>44655</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="113">
         <v>45020</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="136">
         <v>1</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="109">
         <v>12</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="137" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -11483,15 +11583,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="130" t="s">
+      <c r="C76" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="130"/>
-      <c r="I76" s="130"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="127"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11601,7 +11701,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="112" t="s">
+      <c r="K80" s="110" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11781,25 +11881,25 @@
       <c r="B87" s="8">
         <v>10</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="85">
         <v>40124</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="63">
         <v>45237</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="64">
         <v>14</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="65">
         <v>24</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="67" t="s">
         <v>294</v>
       </c>
       <c r="J87" s="14" t="s">
@@ -11810,25 +11910,25 @@
       <c r="B88" s="8">
         <v>11</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="24">
+      <c r="E88" s="85">
         <v>40295</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F88" s="85">
         <v>45043</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G88" s="86">
         <v>13</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="65">
         <v>24</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="67" t="s">
         <v>132</v>
       </c>
       <c r="J88" s="14" t="s">
@@ -11839,23 +11939,23 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11">
+      <c r="D89" s="139"/>
+      <c r="E89" s="140">
         <v>44659</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="140">
         <v>45024</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="141">
         <v>1</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="142">
         <v>12</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="143" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
@@ -11866,29 +11966,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="116" t="s">
+      <c r="C90" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="117"/>
-      <c r="E90" s="118">
+      <c r="D90" s="115"/>
+      <c r="E90" s="116">
         <v>44662</v>
       </c>
-      <c r="F90" s="118">
+      <c r="F90" s="116">
         <v>45027</v>
       </c>
-      <c r="G90" s="119">
+      <c r="G90" s="117">
         <v>1</v>
       </c>
-      <c r="H90" s="120">
+      <c r="H90" s="118">
         <v>12</v>
       </c>
-      <c r="I90" s="121" t="s">
+      <c r="I90" s="119" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="112" t="s">
+      <c r="K90" s="110" t="s">
         <v>295</v>
       </c>
     </row>
@@ -12638,13 +12738,13 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="113" t="s">
+      <c r="C117" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="114" t="s">
+      <c r="D117" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="115">
+      <c r="E117" s="113">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -12658,19 +12758,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="113" t="s">
+      <c r="C118" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="122" t="s">
+      <c r="D118" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="115">
+      <c r="E118" s="113">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="123" t="s">
+      <c r="I118" s="121" t="s">
         <v>296</v>
       </c>
     </row>
@@ -12764,15 +12864,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="127" t="s">
+      <c r="C127" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="128"/>
-      <c r="E127" s="128"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="128"/>
-      <c r="H127" s="128"/>
-      <c r="I127" s="129"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="125"/>
+      <c r="I127" s="126"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13202,15 +13302,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="127" t="s">
+      <c r="C147" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="128"/>
-      <c r="E147" s="128"/>
-      <c r="F147" s="128"/>
-      <c r="G147" s="128"/>
-      <c r="H147" s="128"/>
-      <c r="I147" s="129"/>
+      <c r="D147" s="125"/>
+      <c r="E147" s="125"/>
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="126"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13264,23 +13364,23 @@
     </row>
     <row r="150" spans="2:9" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="8"/>
-      <c r="C150" s="52" t="s">
+      <c r="C150" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="19">
+      <c r="D150" s="69"/>
+      <c r="E150" s="70">
         <v>40147</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="70">
         <v>45260</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="66">
         <v>13</v>
       </c>
-      <c r="H150" s="13">
+      <c r="H150" s="65">
         <v>24</v>
       </c>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="67" t="s">
         <v>209</v>
       </c>
     </row>
@@ -13418,15 +13518,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="127" t="s">
+      <c r="C157" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="128"/>
-      <c r="E157" s="128"/>
-      <c r="F157" s="128"/>
-      <c r="G157" s="128"/>
-      <c r="H157" s="128"/>
-      <c r="I157" s="129"/>
+      <c r="D157" s="125"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="125"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="125"/>
+      <c r="I157" s="126"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13820,15 +13920,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="127" t="s">
+      <c r="C178" s="124" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="128"/>
-      <c r="E178" s="128"/>
-      <c r="F178" s="128"/>
-      <c r="G178" s="128"/>
-      <c r="H178" s="128"/>
-      <c r="I178" s="129"/>
+      <c r="D178" s="125"/>
+      <c r="E178" s="125"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="125"/>
+      <c r="H178" s="125"/>
+      <c r="I178" s="126"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16041,15 +16141,15 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -16082,75 +16182,209 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="19">
-        <v>44634</v>
-      </c>
-      <c r="E4" s="19">
-        <v>44999</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>12</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>251</v>
+      <c r="B4" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="100">
+        <v>42821</v>
+      </c>
+      <c r="E4" s="100">
+        <v>45012</v>
+      </c>
+      <c r="F4" s="99">
+        <v>6</v>
+      </c>
+      <c r="G4" s="132">
+        <v>22</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>293</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="88"/>
+      <c r="B5" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="130">
+        <v>40124</v>
+      </c>
+      <c r="E5" s="100">
+        <v>45237</v>
+      </c>
+      <c r="F5" s="99">
+        <v>14</v>
+      </c>
+      <c r="G5" s="132">
+        <v>24</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>300</v>
+      </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="88"/>
+      <c r="B6" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="131">
+        <v>40295</v>
+      </c>
+      <c r="E6" s="131">
+        <v>45043</v>
+      </c>
+      <c r="F6" s="134">
+        <v>13</v>
+      </c>
+      <c r="G6" s="132">
+        <v>24</v>
+      </c>
+      <c r="H6" s="133" t="s">
+        <v>301</v>
+      </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="100"/>
+      <c r="B7" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="101">
+        <v>40147</v>
+      </c>
+      <c r="E7" s="101">
+        <v>45260</v>
+      </c>
+      <c r="F7" s="98">
+        <v>13</v>
+      </c>
+      <c r="G7" s="132">
+        <v>24</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="110"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="88"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="110"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="108"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="100">
+        <v>44655</v>
+      </c>
+      <c r="E15" s="100">
+        <v>45020</v>
+      </c>
+      <c r="F15" s="99">
+        <v>1</v>
+      </c>
+      <c r="G15" s="129">
+        <v>12</v>
+      </c>
+      <c r="H15" s="98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="128"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
+    </row>
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="128"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+    </row>
+    <row r="18" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="104"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="97"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="108"/>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="102"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="SUCURSALES   VACACIONES  2023  " sheetId="2" r:id="rId2"/>
-    <sheet name="SALIDAS DE VACACIONES " sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="SALIDAS DE VACACIONES " sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="306">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2857,13 +2860,16 @@
   </si>
   <si>
     <t xml:space="preserve">CENTRAL </t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3001,6 +3007,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3218,7 +3246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3587,18 +3615,6 @@
     <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3646,6 +3662,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3963,15 +4017,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5462,15 +5516,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="127" t="s">
+      <c r="C57" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6629,15 +6683,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="124" t="s">
+      <c r="C100" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="125"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="126"/>
+      <c r="D100" s="141"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="141"/>
+      <c r="G100" s="141"/>
+      <c r="H100" s="141"/>
+      <c r="I100" s="142"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7065,15 +7119,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="124" t="s">
+      <c r="C120" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="125"/>
-      <c r="E120" s="125"/>
-      <c r="F120" s="125"/>
-      <c r="G120" s="125"/>
-      <c r="H120" s="125"/>
-      <c r="I120" s="126"/>
+      <c r="D120" s="141"/>
+      <c r="E120" s="141"/>
+      <c r="F120" s="141"/>
+      <c r="G120" s="141"/>
+      <c r="H120" s="141"/>
+      <c r="I120" s="142"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7279,15 +7333,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="124" t="s">
+      <c r="C130" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="125"/>
-      <c r="E130" s="125"/>
-      <c r="F130" s="125"/>
-      <c r="G130" s="125"/>
-      <c r="H130" s="125"/>
-      <c r="I130" s="126"/>
+      <c r="D130" s="141"/>
+      <c r="E130" s="141"/>
+      <c r="F130" s="141"/>
+      <c r="G130" s="141"/>
+      <c r="H130" s="141"/>
+      <c r="I130" s="142"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7639,15 +7693,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="124" t="s">
+      <c r="C147" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="125"/>
-      <c r="E147" s="125"/>
-      <c r="F147" s="125"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="126"/>
+      <c r="D147" s="141"/>
+      <c r="E147" s="141"/>
+      <c r="F147" s="141"/>
+      <c r="G147" s="141"/>
+      <c r="H147" s="141"/>
+      <c r="I147" s="142"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9849,8 +9903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9874,15 +9928,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10382,13 +10436,13 @@
       <c r="F20" s="113">
         <v>45020</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="132">
         <v>1</v>
       </c>
       <c r="H20" s="109">
         <v>12</v>
       </c>
-      <c r="I20" s="137" t="s">
+      <c r="I20" s="133" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -10542,7 +10596,7 @@
       <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -11583,15 +11637,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="127" t="s">
+      <c r="C76" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
+      <c r="I76" s="143"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11939,23 +11993,23 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="138" t="s">
+      <c r="C89" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="139"/>
-      <c r="E89" s="140">
+      <c r="D89" s="135"/>
+      <c r="E89" s="136">
         <v>44659</v>
       </c>
-      <c r="F89" s="140">
+      <c r="F89" s="136">
         <v>45024</v>
       </c>
-      <c r="G89" s="141">
+      <c r="G89" s="137">
         <v>1</v>
       </c>
-      <c r="H89" s="142">
+      <c r="H89" s="138">
         <v>12</v>
       </c>
-      <c r="I89" s="143" t="s">
+      <c r="I89" s="139" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
@@ -12864,15 +12918,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="124" t="s">
+      <c r="C127" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="125"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="126"/>
+      <c r="D127" s="141"/>
+      <c r="E127" s="141"/>
+      <c r="F127" s="141"/>
+      <c r="G127" s="141"/>
+      <c r="H127" s="141"/>
+      <c r="I127" s="142"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13302,15 +13356,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="124" t="s">
+      <c r="C147" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="125"/>
-      <c r="E147" s="125"/>
-      <c r="F147" s="125"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="126"/>
+      <c r="D147" s="141"/>
+      <c r="E147" s="141"/>
+      <c r="F147" s="141"/>
+      <c r="G147" s="141"/>
+      <c r="H147" s="141"/>
+      <c r="I147" s="142"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13518,15 +13572,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="124" t="s">
+      <c r="C157" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="125"/>
-      <c r="E157" s="125"/>
-      <c r="F157" s="125"/>
-      <c r="G157" s="125"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="126"/>
+      <c r="D157" s="141"/>
+      <c r="E157" s="141"/>
+      <c r="F157" s="141"/>
+      <c r="G157" s="141"/>
+      <c r="H157" s="141"/>
+      <c r="I157" s="142"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13920,15 +13974,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="124" t="s">
+      <c r="C178" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="125"/>
-      <c r="E178" s="125"/>
-      <c r="F178" s="125"/>
-      <c r="G178" s="125"/>
-      <c r="H178" s="125"/>
-      <c r="I178" s="126"/>
+      <c r="D178" s="141"/>
+      <c r="E178" s="141"/>
+      <c r="F178" s="141"/>
+      <c r="G178" s="141"/>
+      <c r="H178" s="141"/>
+      <c r="I178" s="142"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14107,7 +14161,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="52" t="s">
+      <c r="C186" s="144" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="18"/>
@@ -16138,13 +16192,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16182,7 +16248,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="124" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="105" t="s">
@@ -16197,7 +16263,7 @@
       <c r="F4" s="99">
         <v>6</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="128">
         <v>22</v>
       </c>
       <c r="H4" s="98" t="s">
@@ -16206,13 +16272,13 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="124" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="126">
         <v>40124</v>
       </c>
       <c r="E5" s="100">
@@ -16221,34 +16287,34 @@
       <c r="F5" s="99">
         <v>14</v>
       </c>
-      <c r="G5" s="132">
+      <c r="G5" s="128">
         <v>24</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="129" t="s">
         <v>300</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="124" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="127">
         <v>40295</v>
       </c>
-      <c r="E6" s="131">
+      <c r="E6" s="127">
         <v>45043</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="130">
         <v>13</v>
       </c>
-      <c r="G6" s="132">
+      <c r="G6" s="128">
         <v>24</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="129" t="s">
         <v>301</v>
       </c>
       <c r="I6" s="14"/>
@@ -16269,7 +16335,7 @@
       <c r="F7" s="98">
         <v>13</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="128">
         <v>24</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -16319,7 +16385,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="131" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -16334,7 +16400,7 @@
       <c r="F15" s="99">
         <v>1</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="125">
         <v>12</v>
       </c>
       <c r="H15" s="98" t="s">
@@ -16342,22 +16408,22 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="128"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="88"/>
-      <c r="D16" s="130"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="100"/>
       <c r="F16" s="99"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
     </row>
     <row r="17" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="128"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="88"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="104"/>
@@ -16365,7 +16431,7 @@
       <c r="D18" s="101"/>
       <c r="E18" s="101"/>
       <c r="F18" s="98"/>
-      <c r="G18" s="132"/>
+      <c r="G18" s="128"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16393,4 +16459,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="149"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="151" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="150"/>
+    </row>
+    <row r="4" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="146"/>
+    </row>
+    <row r="6" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B7" s="146"/>
+    </row>
+    <row r="8" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="148"/>
+    </row>
+    <row r="15" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="153"/>
+    </row>
+    <row r="19" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="153"/>
+    </row>
+    <row r="21" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="152" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="153"/>
+    </row>
+    <row r="23" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="153"/>
+    </row>
+    <row r="25" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="152" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="153"/>
+    </row>
+    <row r="27" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="153"/>
+    </row>
+    <row r="29" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="153"/>
+    </row>
+    <row r="31" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="153"/>
+    </row>
+    <row r="32" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B32" s="153"/>
+    </row>
+    <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="153"/>
+    </row>
+    <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="153"/>
+    </row>
+    <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B35" s="153"/>
+    </row>
+    <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="153"/>
+    </row>
+    <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B37" s="153"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2808,68 +2808,36 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">6 al 29 Nov  2023                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5 y 7 Abril 2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 al 24 Mayo 2023                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  7 al 16 Abril 2023</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRADURA </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 al 26 Abril 2023                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   3 al 16 Abril 2023</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRAL </t>
-  </si>
-  <si>
-    <t>OBRADOR</t>
+    <t>CALENDARIO DE VACACIONES  2023</t>
+  </si>
+  <si>
+    <t>NO LAS TOMO HASTA DESPUES</t>
+  </si>
+  <si>
+    <t>11 SUR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 al 26 May 2023                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 al 21 May 2023</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3033,8 +3001,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3056,12 +3032,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,7 +3216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3522,184 +3492,251 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3709,8 +3746,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
@@ -3992,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:J9"/>
     </sheetView>
   </sheetViews>
@@ -4017,15 +4054,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5516,15 +5553,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="143" t="s">
+      <c r="C57" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6683,15 +6720,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="140" t="s">
+      <c r="C100" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="141"/>
-      <c r="E100" s="141"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="141"/>
-      <c r="I100" s="142"/>
+      <c r="D100" s="169"/>
+      <c r="E100" s="169"/>
+      <c r="F100" s="169"/>
+      <c r="G100" s="169"/>
+      <c r="H100" s="169"/>
+      <c r="I100" s="170"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7119,15 +7156,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="140" t="s">
+      <c r="C120" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="141"/>
-      <c r="E120" s="141"/>
-      <c r="F120" s="141"/>
-      <c r="G120" s="141"/>
-      <c r="H120" s="141"/>
-      <c r="I120" s="142"/>
+      <c r="D120" s="169"/>
+      <c r="E120" s="169"/>
+      <c r="F120" s="169"/>
+      <c r="G120" s="169"/>
+      <c r="H120" s="169"/>
+      <c r="I120" s="170"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7333,15 +7370,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="140" t="s">
+      <c r="C130" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="141"/>
-      <c r="E130" s="141"/>
-      <c r="F130" s="141"/>
-      <c r="G130" s="141"/>
-      <c r="H130" s="141"/>
-      <c r="I130" s="142"/>
+      <c r="D130" s="169"/>
+      <c r="E130" s="169"/>
+      <c r="F130" s="169"/>
+      <c r="G130" s="169"/>
+      <c r="H130" s="169"/>
+      <c r="I130" s="170"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7693,15 +7730,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="140" t="s">
+      <c r="C147" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="141"/>
-      <c r="E147" s="141"/>
-      <c r="F147" s="141"/>
-      <c r="G147" s="141"/>
-      <c r="H147" s="141"/>
-      <c r="I147" s="142"/>
+      <c r="D147" s="169"/>
+      <c r="E147" s="169"/>
+      <c r="F147" s="169"/>
+      <c r="G147" s="169"/>
+      <c r="H147" s="169"/>
+      <c r="I147" s="170"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9901,10 +9938,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L395"/>
+  <sheetPr>
+    <tabColor rgb="FF00FFFF"/>
+  </sheetPr>
+  <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9928,15 +9968,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10111,7 +10151,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="116" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -10129,7 +10169,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="117" t="s">
         <v>297</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10211,7 +10251,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="103">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10310,7 +10350,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="100" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10386,7 +10426,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="107" t="s">
+      <c r="I18" s="101" t="s">
         <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -10426,23 +10466,23 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113">
+      <c r="D20" s="106"/>
+      <c r="E20" s="107">
         <v>44655</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="107">
         <v>45020</v>
       </c>
-      <c r="G20" s="132">
+      <c r="G20" s="119">
         <v>1</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="103">
         <v>12</v>
       </c>
-      <c r="I20" s="133" t="s">
+      <c r="I20" s="120" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -10453,53 +10493,55 @@
       <c r="B21" s="8">
         <v>18</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="D21" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="85">
         <v>42478</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="85">
         <v>45034</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="86">
         <v>7</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="65">
         <v>22</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="66" t="s">
         <v>44</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11">
-        <v>44684</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45049</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>12</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>46</v>
+      <c r="C22" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="63">
+        <v>43225</v>
+      </c>
+      <c r="F22" s="63">
+        <v>45051</v>
+      </c>
+      <c r="G22" s="64">
+        <v>5</v>
+      </c>
+      <c r="H22" s="65">
+        <v>20</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>10</v>
@@ -10509,25 +10551,25 @@
       <c r="B23" s="8">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="63">
         <v>42128</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="63">
         <v>45050</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="64">
         <v>8</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="65">
         <v>22</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="67" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="14" t="s">
@@ -10538,27 +10580,6 @@
       <c r="B24" s="8">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11">
-        <v>43225</v>
-      </c>
-      <c r="F24" s="11">
-        <v>45051</v>
-      </c>
-      <c r="G24" s="12">
-        <v>5</v>
-      </c>
-      <c r="H24" s="13">
-        <v>20</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="J24" s="14" t="s">
         <v>10</v>
       </c>
@@ -10621,29 +10642,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="11">
-        <v>44714</v>
-      </c>
-      <c r="F27" s="11">
-        <v>45079</v>
-      </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>12</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="14" t="s">
         <v>10</v>
       </c>
@@ -11637,15 +11646,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="143" t="s">
+      <c r="C76" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="143"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="143"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="171"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11755,11 +11764,11 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="110" t="s">
+      <c r="K80" s="104" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>4</v>
       </c>
@@ -11788,7 +11797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>5</v>
       </c>
@@ -11817,7 +11826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>6</v>
       </c>
@@ -11846,7 +11855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>7</v>
       </c>
@@ -11875,7 +11884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>8</v>
       </c>
@@ -11904,7 +11913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="2:11" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>9</v>
       </c>
@@ -11931,7 +11940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>10</v>
       </c>
@@ -11960,7 +11969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="2:11" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>11</v>
       </c>
@@ -11989,151 +11998,151 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="2:11" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="134" t="s">
+      <c r="C89" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="135"/>
-      <c r="E89" s="136">
+      <c r="D89" s="122"/>
+      <c r="E89" s="123">
         <v>44659</v>
       </c>
-      <c r="F89" s="136">
+      <c r="F89" s="123">
         <v>45024</v>
       </c>
-      <c r="G89" s="137">
+      <c r="G89" s="124">
         <v>1</v>
       </c>
-      <c r="H89" s="138">
+      <c r="H89" s="125">
         <v>12</v>
       </c>
-      <c r="I89" s="139" t="s">
+      <c r="I89" s="126" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="2:11" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="115"/>
-      <c r="E90" s="116">
+      <c r="D90" s="109"/>
+      <c r="E90" s="110">
         <v>44662</v>
       </c>
-      <c r="F90" s="116">
+      <c r="F90" s="110">
         <v>45027</v>
       </c>
-      <c r="G90" s="117">
+      <c r="G90" s="111">
         <v>1</v>
       </c>
-      <c r="H90" s="118">
+      <c r="H90" s="112">
         <v>12</v>
       </c>
-      <c r="I90" s="119" t="s">
+      <c r="I90" s="113" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="110" t="s">
+      <c r="K90" s="104" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>14</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="63">
         <v>44301</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="63">
         <v>45031</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="64">
         <v>2</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="65">
         <v>14</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="66" t="s">
         <v>138</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="2:11" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>15</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="63">
         <v>41753</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="63">
         <v>45040</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="64">
         <v>9</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="65">
         <v>22</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="67" t="s">
         <v>140</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>16</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="63">
         <v>43185</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="63">
         <v>45053</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="64">
         <v>5</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93" s="65">
         <v>20</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="66" t="s">
         <v>142</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>17</v>
       </c>
@@ -12161,8 +12170,13 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K94" s="176" t="s">
+        <v>301</v>
+      </c>
+      <c r="L94" s="176"/>
+      <c r="M94" s="176"/>
+    </row>
+    <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>18</v>
       </c>
@@ -12191,7 +12205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="2:11" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>19</v>
       </c>
@@ -12792,13 +12806,13 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="111" t="s">
+      <c r="C117" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="112" t="s">
+      <c r="D117" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="113">
+      <c r="E117" s="107">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -12812,19 +12826,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="111" t="s">
+      <c r="C118" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="120" t="s">
+      <c r="D118" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="113">
+      <c r="E118" s="107">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="121" t="s">
+      <c r="I118" s="115" t="s">
         <v>296</v>
       </c>
     </row>
@@ -12918,15 +12932,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="140" t="s">
+      <c r="C127" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="141"/>
-      <c r="E127" s="141"/>
-      <c r="F127" s="141"/>
-      <c r="G127" s="141"/>
-      <c r="H127" s="141"/>
-      <c r="I127" s="142"/>
+      <c r="D127" s="169"/>
+      <c r="E127" s="169"/>
+      <c r="F127" s="169"/>
+      <c r="G127" s="169"/>
+      <c r="H127" s="169"/>
+      <c r="I127" s="170"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13006,7 +13020,7 @@
       <c r="B131" s="8">
         <v>3</v>
       </c>
-      <c r="C131" s="96" t="s">
+      <c r="C131" s="94" t="s">
         <v>186</v>
       </c>
       <c r="D131" s="69"/>
@@ -13072,7 +13086,7 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="95" t="s">
+      <c r="I133" s="93" t="s">
         <v>288</v>
       </c>
       <c r="J133" s="26"/>
@@ -13356,15 +13370,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="140" t="s">
+      <c r="C147" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="141"/>
-      <c r="E147" s="141"/>
-      <c r="F147" s="141"/>
-      <c r="G147" s="141"/>
-      <c r="H147" s="141"/>
-      <c r="I147" s="142"/>
+      <c r="D147" s="169"/>
+      <c r="E147" s="169"/>
+      <c r="F147" s="169"/>
+      <c r="G147" s="169"/>
+      <c r="H147" s="169"/>
+      <c r="I147" s="170"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13572,15 +13586,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="140" t="s">
+      <c r="C157" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="141"/>
-      <c r="E157" s="141"/>
-      <c r="F157" s="141"/>
-      <c r="G157" s="141"/>
-      <c r="H157" s="141"/>
-      <c r="I157" s="142"/>
+      <c r="D157" s="169"/>
+      <c r="E157" s="169"/>
+      <c r="F157" s="169"/>
+      <c r="G157" s="169"/>
+      <c r="H157" s="169"/>
+      <c r="I157" s="170"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13682,23 +13696,23 @@
       <c r="B162" s="8">
         <v>4</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="19">
+      <c r="D162" s="69"/>
+      <c r="E162" s="70">
         <v>44673</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="70">
         <v>45038</v>
       </c>
-      <c r="G162" s="8">
+      <c r="G162" s="66">
         <v>1</v>
       </c>
-      <c r="H162" s="13">
+      <c r="H162" s="65">
         <v>12</v>
       </c>
-      <c r="I162" s="8" t="s">
+      <c r="I162" s="66" t="s">
         <v>228</v>
       </c>
     </row>
@@ -13706,23 +13720,23 @@
       <c r="B163" s="8">
         <v>5</v>
       </c>
-      <c r="C163" s="52" t="s">
+      <c r="C163" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="18"/>
-      <c r="E163" s="19">
+      <c r="D163" s="69"/>
+      <c r="E163" s="70">
         <v>44690</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="70">
         <v>45055</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="66">
         <v>1</v>
       </c>
-      <c r="H163" s="13">
+      <c r="H163" s="65">
         <v>12</v>
       </c>
-      <c r="I163" s="15" t="s">
+      <c r="I163" s="67" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13828,27 +13842,13 @@
       <c r="B168" s="8">
         <v>10</v>
       </c>
-      <c r="C168" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" s="11">
-        <v>44512</v>
-      </c>
-      <c r="F168" s="11">
-        <v>45242</v>
-      </c>
-      <c r="G168" s="8">
-        <v>2</v>
-      </c>
-      <c r="H168" s="13">
-        <v>14</v>
-      </c>
-      <c r="I168" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="C168" s="18"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="15"/>
     </row>
     <row r="169" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="8">
@@ -13974,15 +13974,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="140" t="s">
+      <c r="C178" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="141"/>
-      <c r="E178" s="141"/>
-      <c r="F178" s="141"/>
-      <c r="G178" s="141"/>
-      <c r="H178" s="141"/>
-      <c r="I178" s="142"/>
+      <c r="D178" s="169"/>
+      <c r="E178" s="169"/>
+      <c r="F178" s="169"/>
+      <c r="G178" s="169"/>
+      <c r="H178" s="169"/>
+      <c r="I178" s="170"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14161,23 +14161,23 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="144" t="s">
+      <c r="C186" s="137" t="s">
         <v>252</v>
       </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="19">
+      <c r="D186" s="69"/>
+      <c r="E186" s="70">
         <v>39559</v>
       </c>
-      <c r="F186" s="19">
+      <c r="F186" s="70">
         <v>45037</v>
       </c>
-      <c r="G186" s="8">
+      <c r="G186" s="66">
         <v>15</v>
       </c>
-      <c r="H186" s="13">
+      <c r="H186" s="65">
         <v>24</v>
       </c>
-      <c r="I186" s="8" t="s">
+      <c r="I186" s="66" t="s">
         <v>280</v>
       </c>
       <c r="J186" s="14" t="s">
@@ -14188,23 +14188,23 @@
       <c r="B187" s="8">
         <v>8</v>
       </c>
-      <c r="C187" s="52" t="s">
+      <c r="C187" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="D187" s="18"/>
-      <c r="E187" s="19">
+      <c r="D187" s="69"/>
+      <c r="E187" s="70">
         <v>44676</v>
       </c>
-      <c r="F187" s="19">
+      <c r="F187" s="70">
         <v>45041</v>
       </c>
-      <c r="G187" s="8">
+      <c r="G187" s="66">
         <v>1</v>
       </c>
-      <c r="H187" s="13">
+      <c r="H187" s="65">
         <v>12</v>
       </c>
-      <c r="I187" s="15" t="s">
+      <c r="I187" s="67" t="s">
         <v>299</v>
       </c>
     </row>
@@ -16194,7 +16194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -16207,10 +16209,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16225,237 +16227,310 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="173" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="175"/>
+    </row>
+    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H4" s="120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="100">
-        <v>42821</v>
-      </c>
-      <c r="E4" s="100">
-        <v>45012</v>
-      </c>
-      <c r="F4" s="99">
-        <v>6</v>
-      </c>
-      <c r="G4" s="128">
-        <v>22</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>293</v>
-      </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="126">
-        <v>40124</v>
-      </c>
-      <c r="E5" s="100">
-        <v>45237</v>
-      </c>
-      <c r="F5" s="99">
-        <v>14</v>
-      </c>
-      <c r="G5" s="128">
-        <v>24</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>300</v>
+      <c r="B5" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="177" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44690</v>
+      </c>
+      <c r="E5" s="19">
+        <v>45055</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="178">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="127">
-        <v>40295</v>
-      </c>
-      <c r="E6" s="127">
-        <v>45043</v>
-      </c>
-      <c r="F6" s="130">
-        <v>13</v>
-      </c>
-      <c r="G6" s="128">
-        <v>24</v>
-      </c>
-      <c r="H6" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="101">
-        <v>40147</v>
-      </c>
-      <c r="E7" s="101">
-        <v>45260</v>
-      </c>
-      <c r="F7" s="98">
-        <v>13</v>
-      </c>
-      <c r="G7" s="128">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
+    <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="99"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="95"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="102"/>
+    </row>
+    <row r="8" spans="2:9" ht="62.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="108"/>
-    </row>
-    <row r="9" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="102"/>
+    </row>
+    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="163"/>
       <c r="C9" s="88"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="108"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="131" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="100">
-        <v>44655</v>
-      </c>
-      <c r="E15" s="100">
-        <v>45020</v>
-      </c>
-      <c r="F15" s="99">
-        <v>1</v>
-      </c>
-      <c r="G15" s="125">
-        <v>12</v>
-      </c>
-      <c r="H15" s="98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
-    </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="124"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-    </row>
-    <row r="18" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="108"/>
-    </row>
-    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="102"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="108"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="167"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="161"/>
+    </row>
+    <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="139"/>
+    </row>
+    <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+    </row>
+    <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+    </row>
+    <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="150"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="152"/>
+    </row>
+    <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="153"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="155"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="156"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="155"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+    </row>
+    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="130"/>
+    </row>
+    <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="162"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="130"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">
     <sortCondition ref="B4:B7"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -16477,129 +16552,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="149"/>
+    <col min="3" max="6" width="11.42578125" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="130"/>
+    </row>
     <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="151" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="D2" s="128"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="130"/>
     </row>
     <row r="4" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="145" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" s="133"/>
     </row>
     <row r="5" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="146"/>
+      <c r="B5" s="134"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
-        <v>53</v>
-      </c>
+      <c r="B6" s="133"/>
     </row>
     <row r="7" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="146"/>
+      <c r="B7" s="134"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
-        <v>206</v>
-      </c>
+      <c r="B8" s="135"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="148"/>
+      <c r="B9" s="130"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="130"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="130"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="130"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="130"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="130"/>
     </row>
     <row r="15" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="155" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="153"/>
-    </row>
-    <row r="19" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="152" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="153"/>
-    </row>
-    <row r="21" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="152" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="153"/>
-    </row>
-    <row r="23" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="153"/>
-    </row>
-    <row r="25" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="152" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="153"/>
-    </row>
-    <row r="27" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="152" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="153"/>
-    </row>
-    <row r="29" spans="2:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="152" t="s">
-        <v>158</v>
-      </c>
+      <c r="B15" s="131"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="130"/>
+    </row>
+    <row r="17" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="133"/>
+    </row>
+    <row r="18" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="132"/>
+    </row>
+    <row r="19" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="133"/>
+    </row>
+    <row r="20" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B20" s="132"/>
+    </row>
+    <row r="21" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="133"/>
+    </row>
+    <row r="22" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B22" s="132"/>
+    </row>
+    <row r="23" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="136"/>
+    </row>
+    <row r="24" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B24" s="132"/>
+    </row>
+    <row r="25" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="133"/>
+    </row>
+    <row r="26" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B26" s="132"/>
+    </row>
+    <row r="27" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="133"/>
+    </row>
+    <row r="28" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B28" s="132"/>
+    </row>
+    <row r="29" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="133"/>
     </row>
     <row r="30" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B30" s="153"/>
+      <c r="B30" s="132"/>
     </row>
     <row r="31" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="153"/>
+      <c r="B31" s="132"/>
     </row>
     <row r="32" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="153"/>
+      <c r="B32" s="129"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="153"/>
+      <c r="B33" s="129"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="153"/>
+      <c r="B34" s="129"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="153"/>
+      <c r="B35" s="129"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="153"/>
+      <c r="B36" s="129"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="153"/>
+      <c r="B37" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3705,6 +3705,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3727,15 +3736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4054,15 +4054,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5553,15 +5553,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="171" t="s">
+      <c r="C57" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="171"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6720,15 +6720,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="168" t="s">
+      <c r="C100" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="169"/>
-      <c r="E100" s="169"/>
-      <c r="F100" s="169"/>
-      <c r="G100" s="169"/>
-      <c r="H100" s="169"/>
-      <c r="I100" s="170"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="172"/>
+      <c r="G100" s="172"/>
+      <c r="H100" s="172"/>
+      <c r="I100" s="173"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7156,15 +7156,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="168" t="s">
+      <c r="C120" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="169"/>
-      <c r="E120" s="169"/>
-      <c r="F120" s="169"/>
-      <c r="G120" s="169"/>
-      <c r="H120" s="169"/>
-      <c r="I120" s="170"/>
+      <c r="D120" s="172"/>
+      <c r="E120" s="172"/>
+      <c r="F120" s="172"/>
+      <c r="G120" s="172"/>
+      <c r="H120" s="172"/>
+      <c r="I120" s="173"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7370,15 +7370,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="168" t="s">
+      <c r="C130" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="170"/>
+      <c r="D130" s="172"/>
+      <c r="E130" s="172"/>
+      <c r="F130" s="172"/>
+      <c r="G130" s="172"/>
+      <c r="H130" s="172"/>
+      <c r="I130" s="173"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7730,15 +7730,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="168" t="s">
+      <c r="C147" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="169"/>
-      <c r="E147" s="169"/>
-      <c r="F147" s="169"/>
-      <c r="G147" s="169"/>
-      <c r="H147" s="169"/>
-      <c r="I147" s="170"/>
+      <c r="D147" s="172"/>
+      <c r="E147" s="172"/>
+      <c r="F147" s="172"/>
+      <c r="G147" s="172"/>
+      <c r="H147" s="172"/>
+      <c r="I147" s="173"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9943,8 +9943,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,15 +9968,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10588,25 +10588,25 @@
       <c r="B25" s="8">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="D25" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="85">
         <v>42513</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="85">
         <v>45069</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="86">
         <v>7</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="65">
         <v>22</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="66" t="s">
         <v>52</v>
       </c>
       <c r="J25" s="26" t="s">
@@ -11646,15 +11646,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="171" t="s">
+      <c r="C76" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="171"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="171"/>
+      <c r="D76" s="174"/>
+      <c r="E76" s="174"/>
+      <c r="F76" s="174"/>
+      <c r="G76" s="174"/>
+      <c r="H76" s="174"/>
+      <c r="I76" s="174"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12170,35 +12170,35 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="176" t="s">
+      <c r="K94" s="168" t="s">
         <v>301</v>
       </c>
-      <c r="L94" s="176"/>
-      <c r="M94" s="176"/>
+      <c r="L94" s="168"/>
+      <c r="M94" s="168"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>18</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="63">
         <v>38859</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="63">
         <v>45068</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="64">
         <v>17</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95" s="65">
         <v>26</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="66" t="s">
         <v>145</v>
       </c>
       <c r="J95" s="14" t="s">
@@ -12932,15 +12932,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="168" t="s">
+      <c r="C127" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="169"/>
-      <c r="E127" s="169"/>
-      <c r="F127" s="169"/>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="170"/>
+      <c r="D127" s="172"/>
+      <c r="E127" s="172"/>
+      <c r="F127" s="172"/>
+      <c r="G127" s="172"/>
+      <c r="H127" s="172"/>
+      <c r="I127" s="173"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13370,15 +13370,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="168" t="s">
+      <c r="C147" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="169"/>
-      <c r="E147" s="169"/>
-      <c r="F147" s="169"/>
-      <c r="G147" s="169"/>
-      <c r="H147" s="169"/>
-      <c r="I147" s="170"/>
+      <c r="D147" s="172"/>
+      <c r="E147" s="172"/>
+      <c r="F147" s="172"/>
+      <c r="G147" s="172"/>
+      <c r="H147" s="172"/>
+      <c r="I147" s="173"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13586,15 +13586,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="168" t="s">
+      <c r="C157" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="169"/>
-      <c r="E157" s="169"/>
-      <c r="F157" s="169"/>
-      <c r="G157" s="169"/>
-      <c r="H157" s="169"/>
-      <c r="I157" s="170"/>
+      <c r="D157" s="172"/>
+      <c r="E157" s="172"/>
+      <c r="F157" s="172"/>
+      <c r="G157" s="172"/>
+      <c r="H157" s="172"/>
+      <c r="I157" s="173"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13974,15 +13974,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="168" t="s">
+      <c r="C178" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="169"/>
-      <c r="E178" s="169"/>
-      <c r="F178" s="169"/>
-      <c r="G178" s="169"/>
-      <c r="H178" s="169"/>
-      <c r="I178" s="170"/>
+      <c r="D178" s="172"/>
+      <c r="E178" s="172"/>
+      <c r="F178" s="172"/>
+      <c r="G178" s="172"/>
+      <c r="H178" s="172"/>
+      <c r="I178" s="173"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16211,7 +16211,7 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -16227,15 +16227,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="176" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="175"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16265,7 +16265,7 @@
       <c r="B5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="169" t="s">
         <v>302</v>
       </c>
       <c r="D5" s="19">
@@ -16277,7 +16277,7 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="178">
+      <c r="G5" s="170">
         <v>12</v>
       </c>
       <c r="H5" s="15" t="s">
@@ -16444,13 +16444,13 @@
       <c r="I36" s="130"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
       <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="304">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2814,11 +2814,16 @@
     <t>NO LAS TOMO HASTA DESPUES</t>
   </si>
   <si>
-    <t>11 SUR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15 al 26 May 2023                                                                           </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 al 20 Junio 2023 </t>
     </r>
     <r>
       <rPr>
@@ -2829,7 +2834,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 15 al 21 May 2023</t>
+      <t xml:space="preserve">                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   5 al 12 Junio 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 al 22 Jun 202</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   5 al 22  Junio   2023</t>
     </r>
   </si>
 </sst>
@@ -3216,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3498,9 +3549,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3509,9 +3557,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3690,9 +3735,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3708,12 +3750,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3737,6 +3773,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4054,15 +4099,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5553,15 +5598,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="174" t="s">
+      <c r="C57" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="174"/>
-      <c r="E57" s="174"/>
-      <c r="F57" s="174"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6720,15 +6765,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="171" t="s">
+      <c r="C100" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="172"/>
-      <c r="G100" s="172"/>
-      <c r="H100" s="172"/>
-      <c r="I100" s="173"/>
+      <c r="D100" s="167"/>
+      <c r="E100" s="167"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="167"/>
+      <c r="H100" s="167"/>
+      <c r="I100" s="168"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7156,15 +7201,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="171" t="s">
+      <c r="C120" s="166" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="172"/>
-      <c r="E120" s="172"/>
-      <c r="F120" s="172"/>
-      <c r="G120" s="172"/>
-      <c r="H120" s="172"/>
-      <c r="I120" s="173"/>
+      <c r="D120" s="167"/>
+      <c r="E120" s="167"/>
+      <c r="F120" s="167"/>
+      <c r="G120" s="167"/>
+      <c r="H120" s="167"/>
+      <c r="I120" s="168"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7370,15 +7415,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="171" t="s">
+      <c r="C130" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="172"/>
-      <c r="E130" s="172"/>
-      <c r="F130" s="172"/>
-      <c r="G130" s="172"/>
-      <c r="H130" s="172"/>
-      <c r="I130" s="173"/>
+      <c r="D130" s="167"/>
+      <c r="E130" s="167"/>
+      <c r="F130" s="167"/>
+      <c r="G130" s="167"/>
+      <c r="H130" s="167"/>
+      <c r="I130" s="168"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7730,15 +7775,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="171" t="s">
+      <c r="C147" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="172"/>
-      <c r="E147" s="172"/>
-      <c r="F147" s="172"/>
-      <c r="G147" s="172"/>
-      <c r="H147" s="172"/>
-      <c r="I147" s="173"/>
+      <c r="D147" s="167"/>
+      <c r="E147" s="167"/>
+      <c r="F147" s="167"/>
+      <c r="G147" s="167"/>
+      <c r="H147" s="167"/>
+      <c r="I147" s="168"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9943,8 +9988,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A229" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188:I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,15 +10013,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10151,7 +10196,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="114" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -10169,7 +10214,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="115" t="s">
         <v>297</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10251,7 +10296,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="101">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10350,7 +10395,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10426,7 +10471,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="99" t="s">
         <v>291</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -10466,23 +10511,23 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107">
+      <c r="D20" s="104"/>
+      <c r="E20" s="105">
         <v>44655</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="105">
         <v>45020</v>
       </c>
-      <c r="G20" s="119">
+      <c r="G20" s="117">
         <v>1</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="101">
         <v>12</v>
       </c>
-      <c r="I20" s="120" t="s">
+      <c r="I20" s="118" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -11646,15 +11691,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="174" t="s">
+      <c r="C76" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="174"/>
-      <c r="E76" s="174"/>
-      <c r="F76" s="174"/>
-      <c r="G76" s="174"/>
-      <c r="H76" s="174"/>
-      <c r="I76" s="174"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11764,7 +11809,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="104" t="s">
+      <c r="K80" s="102" t="s">
         <v>295</v>
       </c>
     </row>
@@ -12002,23 +12047,23 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="123">
+      <c r="D89" s="120"/>
+      <c r="E89" s="121">
         <v>44659</v>
       </c>
-      <c r="F89" s="123">
+      <c r="F89" s="121">
         <v>45024</v>
       </c>
-      <c r="G89" s="124">
+      <c r="G89" s="122">
         <v>1</v>
       </c>
-      <c r="H89" s="125">
+      <c r="H89" s="123">
         <v>12</v>
       </c>
-      <c r="I89" s="126" t="s">
+      <c r="I89" s="124" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
@@ -12029,29 +12074,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="108" t="s">
+      <c r="C90" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="109"/>
-      <c r="E90" s="110">
+      <c r="D90" s="107"/>
+      <c r="E90" s="108">
         <v>44662</v>
       </c>
-      <c r="F90" s="110">
+      <c r="F90" s="108">
         <v>45027</v>
       </c>
-      <c r="G90" s="111">
+      <c r="G90" s="109">
         <v>1</v>
       </c>
-      <c r="H90" s="112">
+      <c r="H90" s="110">
         <v>12</v>
       </c>
-      <c r="I90" s="113" t="s">
+      <c r="I90" s="111" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="104" t="s">
+      <c r="K90" s="102" t="s">
         <v>295</v>
       </c>
     </row>
@@ -12170,11 +12215,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="168" t="s">
+      <c r="K94" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="L94" s="168"/>
-      <c r="M94" s="168"/>
+      <c r="L94" s="165"/>
+      <c r="M94" s="165"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12209,25 +12254,25 @@
       <c r="B96" s="8">
         <v>19</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="63">
         <v>43620</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="63">
         <v>45081</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="64">
         <v>4</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="65">
         <v>18</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="67" t="s">
         <v>147</v>
       </c>
       <c r="J96" s="14" t="s">
@@ -12806,13 +12851,13 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="105" t="s">
+      <c r="C117" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="106" t="s">
+      <c r="D117" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="107">
+      <c r="E117" s="105">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -12826,19 +12871,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="105" t="s">
+      <c r="C118" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="114" t="s">
+      <c r="D118" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="107">
+      <c r="E118" s="105">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="115" t="s">
+      <c r="I118" s="113" t="s">
         <v>296</v>
       </c>
     </row>
@@ -12932,15 +12977,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="171" t="s">
+      <c r="C127" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="172"/>
-      <c r="E127" s="172"/>
-      <c r="F127" s="172"/>
-      <c r="G127" s="172"/>
-      <c r="H127" s="172"/>
-      <c r="I127" s="173"/>
+      <c r="D127" s="167"/>
+      <c r="E127" s="167"/>
+      <c r="F127" s="167"/>
+      <c r="G127" s="167"/>
+      <c r="H127" s="167"/>
+      <c r="I127" s="168"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13370,15 +13415,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="171" t="s">
+      <c r="C147" s="166" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="172"/>
-      <c r="E147" s="172"/>
-      <c r="F147" s="172"/>
-      <c r="G147" s="172"/>
-      <c r="H147" s="172"/>
-      <c r="I147" s="173"/>
+      <c r="D147" s="167"/>
+      <c r="E147" s="167"/>
+      <c r="F147" s="167"/>
+      <c r="G147" s="167"/>
+      <c r="H147" s="167"/>
+      <c r="I147" s="168"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13586,15 +13631,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="171" t="s">
+      <c r="C157" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="172"/>
-      <c r="E157" s="172"/>
-      <c r="F157" s="172"/>
-      <c r="G157" s="172"/>
-      <c r="H157" s="172"/>
-      <c r="I157" s="173"/>
+      <c r="D157" s="167"/>
+      <c r="E157" s="167"/>
+      <c r="F157" s="167"/>
+      <c r="G157" s="167"/>
+      <c r="H157" s="167"/>
+      <c r="I157" s="168"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13974,15 +14019,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="171" t="s">
+      <c r="C178" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="172"/>
-      <c r="E178" s="172"/>
-      <c r="F178" s="172"/>
-      <c r="G178" s="172"/>
-      <c r="H178" s="172"/>
-      <c r="I178" s="173"/>
+      <c r="D178" s="167"/>
+      <c r="E178" s="167"/>
+      <c r="F178" s="167"/>
+      <c r="G178" s="167"/>
+      <c r="H178" s="167"/>
+      <c r="I178" s="168"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14161,7 +14206,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="137" t="s">
+      <c r="C186" s="135" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -14212,23 +14257,23 @@
       <c r="B188" s="8">
         <v>9</v>
       </c>
-      <c r="C188" s="52" t="s">
+      <c r="C188" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="D188" s="18"/>
-      <c r="E188" s="19">
+      <c r="D188" s="69"/>
+      <c r="E188" s="70">
         <v>43983</v>
       </c>
-      <c r="F188" s="19">
+      <c r="F188" s="70">
         <v>45078</v>
       </c>
-      <c r="G188" s="8">
+      <c r="G188" s="66">
         <v>3</v>
       </c>
-      <c r="H188" s="13">
+      <c r="H188" s="65">
         <v>16</v>
       </c>
-      <c r="I188" s="15" t="s">
+      <c r="I188" s="67" t="s">
         <v>257</v>
       </c>
     </row>
@@ -16211,8 +16256,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16227,15 +16272,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16256,272 +16301,286 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="118" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="169" t="s">
+      <c r="B5" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43620</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45081</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>18</v>
+      </c>
+      <c r="H5" s="176" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="175"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="174"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="2:9" ht="62.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="97"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="175" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="19">
+        <v>43983</v>
+      </c>
+      <c r="E9" s="19">
+        <v>45078</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>16</v>
+      </c>
+      <c r="H9" s="176" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="19">
-        <v>44690</v>
-      </c>
-      <c r="E5" s="19">
-        <v>45055</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="170">
-        <v>12</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="102"/>
-    </row>
-    <row r="8" spans="2:9" ht="62.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="102"/>
-    </row>
-    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="167"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="88"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="118"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="161"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="159"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="139"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="137"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="150"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="152"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="150"/>
     </row>
     <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="153"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="155"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="155"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="153"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="130"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="130"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="162"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="130"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">
@@ -16559,120 +16618,120 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="127"/>
+    <col min="3" max="6" width="11.42578125" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="130"/>
+      <c r="B1" s="128"/>
     </row>
     <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="131"/>
-      <c r="D2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="D2" s="126"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="130"/>
+      <c r="B3" s="128"/>
     </row>
     <row r="4" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="133"/>
+      <c r="B4" s="131"/>
     </row>
     <row r="5" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="134"/>
+      <c r="B5" s="132"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="133"/>
+      <c r="B6" s="131"/>
     </row>
     <row r="7" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="134"/>
+      <c r="B7" s="132"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="135"/>
+      <c r="B8" s="133"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="130"/>
+      <c r="B9" s="128"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="130"/>
+      <c r="B10" s="128"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="130"/>
+      <c r="B11" s="128"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="130"/>
+      <c r="B12" s="128"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="130"/>
+      <c r="B13" s="128"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="130"/>
+      <c r="B14" s="128"/>
     </row>
     <row r="15" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
+      <c r="B15" s="129"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="130"/>
+      <c r="B16" s="128"/>
     </row>
     <row r="17" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="133"/>
+      <c r="B17" s="131"/>
     </row>
     <row r="18" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="132"/>
+      <c r="B18" s="130"/>
     </row>
     <row r="19" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="133"/>
+      <c r="B19" s="131"/>
     </row>
     <row r="20" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B20" s="132"/>
+      <c r="B20" s="130"/>
     </row>
     <row r="21" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="133"/>
+      <c r="B21" s="131"/>
     </row>
     <row r="22" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B22" s="132"/>
+      <c r="B22" s="130"/>
     </row>
     <row r="23" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="136"/>
+      <c r="B23" s="134"/>
     </row>
     <row r="24" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B24" s="132"/>
+      <c r="B24" s="130"/>
     </row>
     <row r="25" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="133"/>
+      <c r="B25" s="131"/>
     </row>
     <row r="26" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B26" s="132"/>
+      <c r="B26" s="130"/>
     </row>
     <row r="27" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="133"/>
+      <c r="B27" s="131"/>
     </row>
     <row r="28" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B28" s="132"/>
+      <c r="B28" s="130"/>
     </row>
     <row r="29" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="133"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B30" s="132"/>
+      <c r="B30" s="130"/>
     </row>
     <row r="31" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="132"/>
+      <c r="B31" s="130"/>
     </row>
     <row r="32" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="129"/>
+      <c r="B32" s="127"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="129"/>
+      <c r="B33" s="127"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="129"/>
+      <c r="B34" s="127"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="129"/>
+      <c r="B35" s="127"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="129"/>
+      <c r="B36" s="127"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="129"/>
+      <c r="B37" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="305">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2881,6 +2881,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   5 al 22  Junio   2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 al 23 Oct 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                       9 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al 16  Oct 2023</t>
     </r>
   </si>
 </sst>
@@ -3750,6 +3785,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3773,15 +3817,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4099,15 +4134,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5598,15 +5633,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="169" t="s">
+      <c r="C57" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6765,15 +6800,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="166" t="s">
+      <c r="C100" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="167"/>
-      <c r="E100" s="167"/>
-      <c r="F100" s="167"/>
-      <c r="G100" s="167"/>
-      <c r="H100" s="167"/>
-      <c r="I100" s="168"/>
+      <c r="D100" s="170"/>
+      <c r="E100" s="170"/>
+      <c r="F100" s="170"/>
+      <c r="G100" s="170"/>
+      <c r="H100" s="170"/>
+      <c r="I100" s="171"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7201,15 +7236,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="166" t="s">
+      <c r="C120" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="167"/>
-      <c r="E120" s="167"/>
-      <c r="F120" s="167"/>
-      <c r="G120" s="167"/>
-      <c r="H120" s="167"/>
-      <c r="I120" s="168"/>
+      <c r="D120" s="170"/>
+      <c r="E120" s="170"/>
+      <c r="F120" s="170"/>
+      <c r="G120" s="170"/>
+      <c r="H120" s="170"/>
+      <c r="I120" s="171"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7415,15 +7450,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="166" t="s">
+      <c r="C130" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="167"/>
-      <c r="E130" s="167"/>
-      <c r="F130" s="167"/>
-      <c r="G130" s="167"/>
-      <c r="H130" s="167"/>
-      <c r="I130" s="168"/>
+      <c r="D130" s="170"/>
+      <c r="E130" s="170"/>
+      <c r="F130" s="170"/>
+      <c r="G130" s="170"/>
+      <c r="H130" s="170"/>
+      <c r="I130" s="171"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7775,15 +7810,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="166" t="s">
+      <c r="C147" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="167"/>
-      <c r="E147" s="167"/>
-      <c r="F147" s="167"/>
-      <c r="G147" s="167"/>
-      <c r="H147" s="167"/>
-      <c r="I147" s="168"/>
+      <c r="D147" s="170"/>
+      <c r="E147" s="170"/>
+      <c r="F147" s="170"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="171"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9988,8 +10023,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188:I188"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10013,15 +10048,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11691,15 +11726,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="169" t="s">
+      <c r="C76" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12977,15 +13012,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="166" t="s">
+      <c r="C127" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="167"/>
-      <c r="E127" s="167"/>
-      <c r="F127" s="167"/>
-      <c r="G127" s="167"/>
-      <c r="H127" s="167"/>
-      <c r="I127" s="168"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="171"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13415,15 +13450,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="166" t="s">
+      <c r="C147" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="167"/>
-      <c r="E147" s="167"/>
-      <c r="F147" s="167"/>
-      <c r="G147" s="167"/>
-      <c r="H147" s="167"/>
-      <c r="I147" s="168"/>
+      <c r="D147" s="170"/>
+      <c r="E147" s="170"/>
+      <c r="F147" s="170"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="171"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13568,7 +13603,7 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13631,15 +13666,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="166" t="s">
+      <c r="C157" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="167"/>
-      <c r="E157" s="167"/>
-      <c r="F157" s="167"/>
-      <c r="G157" s="167"/>
-      <c r="H157" s="167"/>
-      <c r="I157" s="168"/>
+      <c r="D157" s="170"/>
+      <c r="E157" s="170"/>
+      <c r="F157" s="170"/>
+      <c r="G157" s="170"/>
+      <c r="H157" s="170"/>
+      <c r="I157" s="171"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14019,15 +14054,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="166" t="s">
+      <c r="C178" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="167"/>
-      <c r="E178" s="167"/>
-      <c r="F178" s="167"/>
-      <c r="G178" s="167"/>
-      <c r="H178" s="167"/>
-      <c r="I178" s="168"/>
+      <c r="D178" s="170"/>
+      <c r="E178" s="170"/>
+      <c r="F178" s="170"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="170"/>
+      <c r="I178" s="171"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16256,7 +16291,7 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -16272,15 +16307,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="174" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16307,7 +16342,7 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="166" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -16325,13 +16360,13 @@
       <c r="G5" s="13">
         <v>18</v>
       </c>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="168" t="s">
         <v>303</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="175"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="88"/>
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
@@ -16340,7 +16375,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="174"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="88"/>
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
@@ -16358,7 +16393,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="167" t="s">
         <v>256</v>
       </c>
       <c r="C9" s="88" t="s">
@@ -16376,7 +16411,7 @@
       <c r="G9" s="13">
         <v>16</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="168" t="s">
         <v>302</v>
       </c>
     </row>
@@ -16503,13 +16538,13 @@
       <c r="I36" s="128"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
       <c r="I37" s="128"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2817,13 +2817,24 @@
     <r>
       <rPr>
         <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 al 23 Oct 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">5 al 20 Junio 2023 </t>
+      <t xml:space="preserve">                                                       9 </t>
     </r>
     <r>
       <rPr>
@@ -2834,89 +2845,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   5 al 12 Junio 2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5 al 22 Jun 202</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   5 al 22  Junio   2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 al 23 Oct 2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                       9 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>al 16  Oct 2023</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11 SUR </t>
   </si>
 </sst>
 </file>
@@ -10023,8 +9956,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13603,7 +13536,7 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13824,23 +13757,23 @@
       <c r="B164" s="8">
         <v>6</v>
       </c>
-      <c r="C164" s="52" t="s">
+      <c r="C164" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="19">
+      <c r="D164" s="69"/>
+      <c r="E164" s="70">
         <v>44721</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="70">
         <v>45086</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="66">
         <v>1</v>
       </c>
-      <c r="H164" s="13">
+      <c r="H164" s="65">
         <v>12</v>
       </c>
-      <c r="I164" s="8" t="s">
+      <c r="I164" s="66" t="s">
         <v>232</v>
       </c>
     </row>
@@ -16291,8 +16224,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16342,26 +16275,26 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="166" t="s">
-        <v>146</v>
+      <c r="B5" s="167" t="s">
+        <v>231</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11">
-        <v>43620</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45081</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
+        <v>303</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44721</v>
+      </c>
+      <c r="E5" s="19">
+        <v>45086</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
       </c>
       <c r="G5" s="13">
-        <v>18</v>
-      </c>
-      <c r="H5" s="168" t="s">
-        <v>303</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>232</v>
       </c>
       <c r="I5" s="14"/>
     </row>
@@ -16393,27 +16326,13 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="167" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="19">
-        <v>43983</v>
-      </c>
-      <c r="E9" s="19">
-        <v>45078</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>16</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>302</v>
-      </c>
+      <c r="B9" s="167"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="164"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="306">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2850,13 +2850,19 @@
   </si>
   <si>
     <t xml:space="preserve">11 SUR </t>
+  </si>
+  <si>
+    <t>VAZQUEZ MARTINEZ DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRMA DE ENTERADO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2999,20 +3005,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -3024,6 +3016,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3235,7 +3234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3607,150 +3606,175 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4067,15 +4091,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5566,15 +5590,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="172" t="s">
+      <c r="C57" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="172"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6733,15 +6757,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="169" t="s">
+      <c r="C100" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="170"/>
-      <c r="E100" s="170"/>
-      <c r="F100" s="170"/>
-      <c r="G100" s="170"/>
-      <c r="H100" s="170"/>
-      <c r="I100" s="171"/>
+      <c r="D100" s="166"/>
+      <c r="E100" s="166"/>
+      <c r="F100" s="166"/>
+      <c r="G100" s="166"/>
+      <c r="H100" s="166"/>
+      <c r="I100" s="167"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7169,15 +7193,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="169" t="s">
+      <c r="C120" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="170"/>
-      <c r="E120" s="170"/>
-      <c r="F120" s="170"/>
-      <c r="G120" s="170"/>
-      <c r="H120" s="170"/>
-      <c r="I120" s="171"/>
+      <c r="D120" s="166"/>
+      <c r="E120" s="166"/>
+      <c r="F120" s="166"/>
+      <c r="G120" s="166"/>
+      <c r="H120" s="166"/>
+      <c r="I120" s="167"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7383,15 +7407,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="169" t="s">
+      <c r="C130" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="170"/>
-      <c r="E130" s="170"/>
-      <c r="F130" s="170"/>
-      <c r="G130" s="170"/>
-      <c r="H130" s="170"/>
-      <c r="I130" s="171"/>
+      <c r="D130" s="166"/>
+      <c r="E130" s="166"/>
+      <c r="F130" s="166"/>
+      <c r="G130" s="166"/>
+      <c r="H130" s="166"/>
+      <c r="I130" s="167"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7743,15 +7767,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="169" t="s">
+      <c r="C147" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="170"/>
-      <c r="E147" s="170"/>
-      <c r="F147" s="170"/>
-      <c r="G147" s="170"/>
-      <c r="H147" s="170"/>
-      <c r="I147" s="171"/>
+      <c r="D147" s="166"/>
+      <c r="E147" s="166"/>
+      <c r="F147" s="166"/>
+      <c r="G147" s="166"/>
+      <c r="H147" s="166"/>
+      <c r="I147" s="167"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9956,8 +9980,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129:C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9981,15 +10005,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11659,15 +11683,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="172" t="s">
+      <c r="C76" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="172"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="168"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12183,11 +12207,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="165" t="s">
+      <c r="K94" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="L94" s="165"/>
-      <c r="M94" s="165"/>
+      <c r="L94" s="161"/>
+      <c r="M94" s="161"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12945,15 +12969,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="169" t="s">
+      <c r="C127" s="165" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="170"/>
-      <c r="E127" s="170"/>
-      <c r="F127" s="170"/>
-      <c r="G127" s="170"/>
-      <c r="H127" s="170"/>
-      <c r="I127" s="171"/>
+      <c r="D127" s="166"/>
+      <c r="E127" s="166"/>
+      <c r="F127" s="166"/>
+      <c r="G127" s="166"/>
+      <c r="H127" s="166"/>
+      <c r="I127" s="167"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13383,15 +13407,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="169" t="s">
+      <c r="C147" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="170"/>
-      <c r="E147" s="170"/>
-      <c r="F147" s="170"/>
-      <c r="G147" s="170"/>
-      <c r="H147" s="170"/>
-      <c r="I147" s="171"/>
+      <c r="D147" s="166"/>
+      <c r="E147" s="166"/>
+      <c r="F147" s="166"/>
+      <c r="G147" s="166"/>
+      <c r="H147" s="166"/>
+      <c r="I147" s="167"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13599,15 +13623,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="169" t="s">
+      <c r="C157" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="170"/>
-      <c r="E157" s="170"/>
-      <c r="F157" s="170"/>
-      <c r="G157" s="170"/>
-      <c r="H157" s="170"/>
-      <c r="I157" s="171"/>
+      <c r="D157" s="166"/>
+      <c r="E157" s="166"/>
+      <c r="F157" s="166"/>
+      <c r="G157" s="166"/>
+      <c r="H157" s="166"/>
+      <c r="I157" s="167"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13987,15 +14011,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="169" t="s">
+      <c r="C178" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="170"/>
-      <c r="E178" s="170"/>
-      <c r="F178" s="170"/>
-      <c r="G178" s="170"/>
-      <c r="H178" s="170"/>
-      <c r="I178" s="171"/>
+      <c r="D178" s="166"/>
+      <c r="E178" s="166"/>
+      <c r="F178" s="166"/>
+      <c r="G178" s="166"/>
+      <c r="H178" s="166"/>
+      <c r="I178" s="167"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14174,7 +14198,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="135" t="s">
+      <c r="C186" s="131" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -16224,8 +16248,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16240,15 +16264,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="170" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16275,7 +16299,7 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="163" t="s">
         <v>231</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -16299,7 +16323,7 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="88"/>
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
@@ -16308,12 +16332,12 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="88"/>
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
       <c r="F7" s="95"/>
-      <c r="G7" s="163"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="62.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16322,219 +16346,219 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="95"/>
-      <c r="G8" s="163"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="167"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="88"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="168"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="88"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="116"/>
       <c r="H10" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="159"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="155"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="137"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="148"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="150"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="151"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="153"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="149"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="153"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="149"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="128"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="128"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="127"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="160"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="128"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="127"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
     </row>
   </sheetData>
   <sortState ref="B4:H7">
@@ -16563,131 +16587,181 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F37"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="125"/>
+    <col min="1" max="1" width="11.42578125" style="183"/>
+    <col min="2" max="2" width="33.140625" style="183" customWidth="1"/>
+    <col min="3" max="3" width="5" style="182" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="182" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="182"/>
+    <col min="7" max="16384" width="11.42578125" style="183"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="128"/>
-    </row>
-    <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="129"/>
-      <c r="D2" s="126"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="128"/>
-    </row>
-    <row r="4" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="131"/>
-    </row>
-    <row r="5" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-    </row>
-    <row r="6" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-    </row>
-    <row r="7" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="132"/>
-    </row>
-    <row r="8" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="128"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="128"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="128"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="128"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="128"/>
-    </row>
-    <row r="15" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="129"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="128"/>
-    </row>
-    <row r="17" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="131"/>
-    </row>
-    <row r="18" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="130"/>
-    </row>
-    <row r="19" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="131"/>
-    </row>
-    <row r="20" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B20" s="130"/>
-    </row>
-    <row r="21" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="131"/>
-    </row>
-    <row r="22" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B22" s="130"/>
-    </row>
-    <row r="23" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="134"/>
-    </row>
-    <row r="24" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B24" s="130"/>
-    </row>
-    <row r="25" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="131"/>
-    </row>
-    <row r="26" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B26" s="130"/>
-    </row>
-    <row r="27" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="131"/>
-    </row>
-    <row r="28" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B28" s="130"/>
-    </row>
-    <row r="29" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="131"/>
-    </row>
-    <row r="30" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B30" s="130"/>
-    </row>
-    <row r="31" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="130"/>
-    </row>
-    <row r="32" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="127"/>
+      <c r="D1" s="125"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="173"/>
+    </row>
+    <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="130"/>
+      <c r="D3" s="181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="174" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="186"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="130"/>
+    </row>
+    <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="186"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="176"/>
+    </row>
+    <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="175" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="186"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="178"/>
+    </row>
+    <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="186"/>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="178"/>
+    </row>
+    <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="177" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="186"/>
+    </row>
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="178"/>
+    </row>
+    <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="175" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="186"/>
+    </row>
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="178"/>
+    </row>
+    <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="186"/>
+    </row>
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="184"/>
+    </row>
+    <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="175" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="186"/>
+    </row>
+    <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="184"/>
+    </row>
+    <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="175" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="186"/>
+    </row>
+    <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="178"/>
+    </row>
+    <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="186"/>
+    </row>
+    <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="179"/>
+    </row>
+    <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="187"/>
+    </row>
+    <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="178"/>
+    </row>
+    <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="175" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="186"/>
+    </row>
+    <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="178"/>
+    </row>
+    <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="186"/>
+    </row>
+    <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="185"/>
+    </row>
+    <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="175" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="186"/>
+    </row>
+    <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B32" s="129"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="127"/>
+      <c r="B33" s="126"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="127"/>
+      <c r="B34" s="126"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="127"/>
+      <c r="B35" s="126"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="127"/>
+      <c r="B36" s="126"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="127"/>
+      <c r="B37" s="126"/>
+    </row>
+    <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="126"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="305">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2847,9 +2847,6 @@
       </rPr>
       <t>al 16  Oct 2023</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">11 SUR </t>
   </si>
   <si>
     <t>VAZQUEZ MARTINEZ DANIEL</t>
@@ -2862,7 +2859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3023,6 +3020,13 @@
     <font>
       <b/>
       <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3234,7 +3238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3718,30 +3722,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3775,6 +3755,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4091,15 +4101,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5590,15 +5600,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="168" t="s">
+      <c r="C57" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="168"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="168"/>
-      <c r="I57" s="168"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="183"/>
+      <c r="F57" s="183"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
+      <c r="I57" s="183"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6757,15 +6767,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="165" t="s">
+      <c r="C100" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="166"/>
-      <c r="E100" s="166"/>
-      <c r="F100" s="166"/>
-      <c r="G100" s="166"/>
-      <c r="H100" s="166"/>
-      <c r="I100" s="167"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
+      <c r="I100" s="182"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7193,15 +7203,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="165" t="s">
+      <c r="C120" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="166"/>
-      <c r="E120" s="166"/>
-      <c r="F120" s="166"/>
-      <c r="G120" s="166"/>
-      <c r="H120" s="166"/>
-      <c r="I120" s="167"/>
+      <c r="D120" s="181"/>
+      <c r="E120" s="181"/>
+      <c r="F120" s="181"/>
+      <c r="G120" s="181"/>
+      <c r="H120" s="181"/>
+      <c r="I120" s="182"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7407,15 +7417,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="165" t="s">
+      <c r="C130" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="166"/>
-      <c r="E130" s="166"/>
-      <c r="F130" s="166"/>
-      <c r="G130" s="166"/>
-      <c r="H130" s="166"/>
-      <c r="I130" s="167"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="181"/>
+      <c r="F130" s="181"/>
+      <c r="G130" s="181"/>
+      <c r="H130" s="181"/>
+      <c r="I130" s="182"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7767,15 +7777,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="165" t="s">
+      <c r="C147" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="166"/>
-      <c r="E147" s="166"/>
-      <c r="F147" s="166"/>
-      <c r="G147" s="166"/>
-      <c r="H147" s="166"/>
-      <c r="I147" s="167"/>
+      <c r="D147" s="181"/>
+      <c r="E147" s="181"/>
+      <c r="F147" s="181"/>
+      <c r="G147" s="181"/>
+      <c r="H147" s="181"/>
+      <c r="I147" s="182"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9980,8 +9990,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129:C131"/>
+    <sheetView topLeftCell="A190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10005,15 +10015,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11683,15 +11693,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="168" t="s">
+      <c r="C76" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
+      <c r="D76" s="183"/>
+      <c r="E76" s="183"/>
+      <c r="F76" s="183"/>
+      <c r="G76" s="183"/>
+      <c r="H76" s="183"/>
+      <c r="I76" s="183"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12969,15 +12979,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="165" t="s">
+      <c r="C127" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="166"/>
-      <c r="E127" s="166"/>
-      <c r="F127" s="166"/>
-      <c r="G127" s="166"/>
-      <c r="H127" s="166"/>
-      <c r="I127" s="167"/>
+      <c r="D127" s="181"/>
+      <c r="E127" s="181"/>
+      <c r="F127" s="181"/>
+      <c r="G127" s="181"/>
+      <c r="H127" s="181"/>
+      <c r="I127" s="182"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13407,15 +13417,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="165" t="s">
+      <c r="C147" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="166"/>
-      <c r="E147" s="166"/>
-      <c r="F147" s="166"/>
-      <c r="G147" s="166"/>
-      <c r="H147" s="166"/>
-      <c r="I147" s="167"/>
+      <c r="D147" s="181"/>
+      <c r="E147" s="181"/>
+      <c r="F147" s="181"/>
+      <c r="G147" s="181"/>
+      <c r="H147" s="181"/>
+      <c r="I147" s="182"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13493,25 +13503,25 @@
       <c r="B151" s="8">
         <v>2</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="D151" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="11">
+      <c r="D151" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="63">
         <v>44362</v>
       </c>
-      <c r="F151" s="11">
+      <c r="F151" s="63">
         <v>45092</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="64">
         <v>2</v>
       </c>
-      <c r="H151" s="13">
+      <c r="H151" s="65">
         <v>14</v>
       </c>
-      <c r="I151" s="8" t="s">
+      <c r="I151" s="66" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13623,15 +13633,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="165" t="s">
+      <c r="C157" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="166"/>
-      <c r="E157" s="166"/>
-      <c r="F157" s="166"/>
-      <c r="G157" s="166"/>
-      <c r="H157" s="166"/>
-      <c r="I157" s="167"/>
+      <c r="D157" s="181"/>
+      <c r="E157" s="181"/>
+      <c r="F157" s="181"/>
+      <c r="G157" s="181"/>
+      <c r="H157" s="181"/>
+      <c r="I157" s="182"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14011,15 +14021,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="165" t="s">
+      <c r="C178" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="166"/>
-      <c r="E178" s="166"/>
-      <c r="F178" s="166"/>
-      <c r="G178" s="166"/>
-      <c r="H178" s="166"/>
-      <c r="I178" s="167"/>
+      <c r="D178" s="181"/>
+      <c r="E178" s="181"/>
+      <c r="F178" s="181"/>
+      <c r="G178" s="181"/>
+      <c r="H178" s="181"/>
+      <c r="I178" s="182"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16248,8 +16258,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16264,15 +16274,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="185" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="187"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16299,26 +16309,26 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="19">
-        <v>44721</v>
-      </c>
-      <c r="E5" s="19">
-        <v>45086</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>12</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>232</v>
+      <c r="B5" s="189" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="157">
+        <v>44362</v>
+      </c>
+      <c r="E5" s="157">
+        <v>45092</v>
+      </c>
+      <c r="F5" s="158">
+        <v>2</v>
+      </c>
+      <c r="G5" s="116">
+        <v>14</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>211</v>
       </c>
       <c r="I5" s="14"/>
     </row>
@@ -16481,13 +16491,13 @@
       <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
       <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
@@ -16589,18 +16599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="183"/>
-    <col min="2" max="2" width="33.140625" style="183" customWidth="1"/>
-    <col min="3" max="3" width="5" style="182" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="182" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="182"/>
-    <col min="7" max="16384" width="11.42578125" style="183"/>
+    <col min="1" max="1" width="11.42578125" style="175"/>
+    <col min="2" max="2" width="33.140625" style="175" customWidth="1"/>
+    <col min="3" max="3" width="5" style="174" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="174" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="174"/>
+    <col min="7" max="16384" width="11.42578125" style="175"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -16608,136 +16618,136 @@
       <c r="D1" s="125"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="173"/>
+      <c r="B2" s="165"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130"/>
-      <c r="D3" s="181" t="s">
-        <v>305</v>
+      <c r="D3" s="173" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="186"/>
+      <c r="D4" s="178"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="130"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="186"/>
+      <c r="D6" s="178"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="176"/>
+      <c r="B7" s="168"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="186"/>
+      <c r="D8" s="178"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="178"/>
+      <c r="B9" s="170"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="167" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="186"/>
+      <c r="D10" s="178"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="178"/>
+      <c r="B11" s="170"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="177" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="186"/>
+      <c r="B12" s="169" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="178"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="178"/>
+      <c r="B13" s="170"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="167" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="186"/>
+      <c r="D14" s="178"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="178"/>
+      <c r="B15" s="170"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="186"/>
+      <c r="D16" s="178"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="184"/>
+      <c r="B17" s="176"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="186"/>
+      <c r="D18" s="178"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="184"/>
+      <c r="B19" s="176"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="167" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="186"/>
+      <c r="D20" s="178"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="178"/>
+      <c r="B21" s="170"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="186"/>
+      <c r="D22" s="178"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="179"/>
+      <c r="B23" s="171"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="187"/>
+      <c r="D24" s="179"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="178"/>
+      <c r="B25" s="170"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="167" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="186"/>
+      <c r="D26" s="178"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="178"/>
+      <c r="B27" s="170"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="186"/>
+      <c r="D28" s="178"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="185"/>
+      <c r="B29" s="177"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="186"/>
+      <c r="D30" s="178"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B32" s="129"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="306">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2853,13 +2853,70 @@
   </si>
   <si>
     <t xml:space="preserve">FIRMA DE ENTERADO </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17 al 28 Julio 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    26  al  02   JULIO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17 al 23 Julio 2023</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3027,6 +3084,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3238,7 +3303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3755,6 +3820,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3779,11 +3850,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3793,9 +3864,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -4101,15 +4172,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5600,15 +5671,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="183" t="s">
+      <c r="C57" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="183"/>
-      <c r="E57" s="183"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="183"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="185"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="185"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6767,15 +6838,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="180" t="s">
+      <c r="C100" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="181"/>
-      <c r="E100" s="181"/>
-      <c r="F100" s="181"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="181"/>
-      <c r="I100" s="182"/>
+      <c r="D100" s="183"/>
+      <c r="E100" s="183"/>
+      <c r="F100" s="183"/>
+      <c r="G100" s="183"/>
+      <c r="H100" s="183"/>
+      <c r="I100" s="184"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7203,15 +7274,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="180" t="s">
+      <c r="C120" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="181"/>
-      <c r="E120" s="181"/>
-      <c r="F120" s="181"/>
-      <c r="G120" s="181"/>
-      <c r="H120" s="181"/>
-      <c r="I120" s="182"/>
+      <c r="D120" s="183"/>
+      <c r="E120" s="183"/>
+      <c r="F120" s="183"/>
+      <c r="G120" s="183"/>
+      <c r="H120" s="183"/>
+      <c r="I120" s="184"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7417,15 +7488,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="180" t="s">
+      <c r="C130" s="182" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="181"/>
-      <c r="E130" s="181"/>
-      <c r="F130" s="181"/>
-      <c r="G130" s="181"/>
-      <c r="H130" s="181"/>
-      <c r="I130" s="182"/>
+      <c r="D130" s="183"/>
+      <c r="E130" s="183"/>
+      <c r="F130" s="183"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="183"/>
+      <c r="I130" s="184"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7777,15 +7848,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="180" t="s">
+      <c r="C147" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="181"/>
-      <c r="E147" s="181"/>
-      <c r="F147" s="181"/>
-      <c r="G147" s="181"/>
-      <c r="H147" s="181"/>
-      <c r="I147" s="182"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="183"/>
+      <c r="F147" s="183"/>
+      <c r="G147" s="183"/>
+      <c r="H147" s="183"/>
+      <c r="I147" s="184"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -9990,8 +10061,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151:I151"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10015,15 +10086,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10484,28 +10555,28 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="108">
         <v>42096</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="108">
         <v>45201</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="109">
         <v>6</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="110">
         <v>22</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="191" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10689,7 +10760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -11693,15 +11764,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="183" t="s">
+      <c r="C76" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="183"/>
-      <c r="E76" s="183"/>
-      <c r="F76" s="183"/>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
-      <c r="I76" s="183"/>
+      <c r="D76" s="185"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="185"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="185"/>
+      <c r="I76" s="185"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12979,15 +13050,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="180" t="s">
+      <c r="C127" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="181"/>
-      <c r="E127" s="181"/>
-      <c r="F127" s="181"/>
-      <c r="G127" s="181"/>
-      <c r="H127" s="181"/>
-      <c r="I127" s="182"/>
+      <c r="D127" s="183"/>
+      <c r="E127" s="183"/>
+      <c r="F127" s="183"/>
+      <c r="G127" s="183"/>
+      <c r="H127" s="183"/>
+      <c r="I127" s="184"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13417,15 +13488,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="180" t="s">
+      <c r="C147" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="181"/>
-      <c r="E147" s="181"/>
-      <c r="F147" s="181"/>
-      <c r="G147" s="181"/>
-      <c r="H147" s="181"/>
-      <c r="I147" s="182"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="183"/>
+      <c r="F147" s="183"/>
+      <c r="G147" s="183"/>
+      <c r="H147" s="183"/>
+      <c r="I147" s="184"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13633,15 +13704,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="180" t="s">
+      <c r="C157" s="182" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="181"/>
-      <c r="E157" s="181"/>
-      <c r="F157" s="181"/>
-      <c r="G157" s="181"/>
-      <c r="H157" s="181"/>
-      <c r="I157" s="182"/>
+      <c r="D157" s="183"/>
+      <c r="E157" s="183"/>
+      <c r="F157" s="183"/>
+      <c r="G157" s="183"/>
+      <c r="H157" s="183"/>
+      <c r="I157" s="184"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14021,15 +14092,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="180" t="s">
+      <c r="C178" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="181"/>
-      <c r="E178" s="181"/>
-      <c r="F178" s="181"/>
-      <c r="G178" s="181"/>
-      <c r="H178" s="181"/>
-      <c r="I178" s="182"/>
+      <c r="D178" s="183"/>
+      <c r="E178" s="183"/>
+      <c r="F178" s="183"/>
+      <c r="G178" s="183"/>
+      <c r="H178" s="183"/>
+      <c r="I178" s="184"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14279,28 +14350,28 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="8">
         <v>10</v>
       </c>
-      <c r="C189" s="52" t="s">
+      <c r="C189" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="D189" s="18"/>
-      <c r="E189" s="19">
+      <c r="D189" s="69"/>
+      <c r="E189" s="70">
         <v>44753</v>
       </c>
-      <c r="F189" s="19">
+      <c r="F189" s="70">
         <v>45118</v>
       </c>
-      <c r="G189" s="8">
+      <c r="G189" s="66">
         <v>1</v>
       </c>
-      <c r="H189" s="13">
+      <c r="H189" s="65">
         <v>12</v>
       </c>
-      <c r="I189" s="15" t="s">
-        <v>259</v>
+      <c r="I189" s="67" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16258,7 +16329,7 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -16274,15 +16345,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="187" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16309,10 +16380,10 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="180" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="157">
@@ -16491,13 +16562,13 @@
       <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
       <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="308">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2910,13 +2910,43 @@
       </rPr>
       <t xml:space="preserve"> 17 al 23 Julio 2023</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 al 26 Julio 2023                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  3 al 12 Julio 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>ya tomo  23--24 junio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3077,13 +3107,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3303,7 +3326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3820,12 +3843,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3849,12 +3893,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3865,8 +3903,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -4172,15 +4210,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5671,15 +5709,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="185" t="s">
+      <c r="C57" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="185"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="192"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="192"/>
+      <c r="I57" s="192"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6838,15 +6876,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="182" t="s">
+      <c r="C100" s="189" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="183"/>
-      <c r="E100" s="183"/>
-      <c r="F100" s="183"/>
-      <c r="G100" s="183"/>
-      <c r="H100" s="183"/>
-      <c r="I100" s="184"/>
+      <c r="D100" s="190"/>
+      <c r="E100" s="190"/>
+      <c r="F100" s="190"/>
+      <c r="G100" s="190"/>
+      <c r="H100" s="190"/>
+      <c r="I100" s="191"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7274,15 +7312,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="182" t="s">
+      <c r="C120" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="183"/>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="183"/>
-      <c r="H120" s="183"/>
-      <c r="I120" s="184"/>
+      <c r="D120" s="190"/>
+      <c r="E120" s="190"/>
+      <c r="F120" s="190"/>
+      <c r="G120" s="190"/>
+      <c r="H120" s="190"/>
+      <c r="I120" s="191"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7488,15 +7526,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="182" t="s">
+      <c r="C130" s="189" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="183"/>
-      <c r="E130" s="183"/>
-      <c r="F130" s="183"/>
-      <c r="G130" s="183"/>
-      <c r="H130" s="183"/>
-      <c r="I130" s="184"/>
+      <c r="D130" s="190"/>
+      <c r="E130" s="190"/>
+      <c r="F130" s="190"/>
+      <c r="G130" s="190"/>
+      <c r="H130" s="190"/>
+      <c r="I130" s="191"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7848,15 +7886,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="182" t="s">
+      <c r="C147" s="189" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="183"/>
-      <c r="E147" s="183"/>
-      <c r="F147" s="183"/>
-      <c r="G147" s="183"/>
-      <c r="H147" s="183"/>
-      <c r="I147" s="184"/>
+      <c r="D147" s="190"/>
+      <c r="E147" s="190"/>
+      <c r="F147" s="190"/>
+      <c r="G147" s="190"/>
+      <c r="H147" s="190"/>
+      <c r="I147" s="191"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10061,8 +10099,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10086,15 +10124,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10555,7 +10593,7 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="190" t="s">
+      <c r="C19" s="181" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="107" t="s">
@@ -10576,7 +10614,7 @@
       <c r="I19" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="191" t="s">
+      <c r="J19" s="182" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10795,7 +10833,7 @@
       <c r="H28" s="13">
         <v>14</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="183" t="s">
         <v>58</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -11764,15 +11802,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="185" t="s">
+      <c r="C76" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="185"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="185"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="185"/>
-      <c r="I76" s="185"/>
+      <c r="D76" s="192"/>
+      <c r="E76" s="192"/>
+      <c r="F76" s="192"/>
+      <c r="G76" s="192"/>
+      <c r="H76" s="192"/>
+      <c r="I76" s="192"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12356,25 +12394,25 @@
       <c r="B97" s="8">
         <v>20</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="63">
         <v>40721</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="63">
         <v>45104</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="64">
         <v>12</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="65">
         <v>24</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="67" t="s">
         <v>149</v>
       </c>
       <c r="J97" s="14" t="s">
@@ -12385,25 +12423,25 @@
       <c r="B98" s="8">
         <v>21</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="63">
         <v>44376</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="63">
         <v>45106</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="64">
         <v>2</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="65">
         <v>14</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="66" t="s">
         <v>151</v>
       </c>
       <c r="J98" s="14" t="s">
@@ -13050,15 +13088,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="182" t="s">
+      <c r="C127" s="189" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="183"/>
-      <c r="E127" s="183"/>
-      <c r="F127" s="183"/>
-      <c r="G127" s="183"/>
-      <c r="H127" s="183"/>
-      <c r="I127" s="184"/>
+      <c r="D127" s="190"/>
+      <c r="E127" s="190"/>
+      <c r="F127" s="190"/>
+      <c r="G127" s="190"/>
+      <c r="H127" s="190"/>
+      <c r="I127" s="191"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13182,7 +13220,9 @@
       <c r="I132" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J132" s="26"/>
+      <c r="J132" s="188" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="133" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13488,15 +13528,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="182" t="s">
+      <c r="C147" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="183"/>
-      <c r="E147" s="183"/>
-      <c r="F147" s="183"/>
-      <c r="G147" s="183"/>
-      <c r="H147" s="183"/>
-      <c r="I147" s="184"/>
+      <c r="D147" s="190"/>
+      <c r="E147" s="190"/>
+      <c r="F147" s="190"/>
+      <c r="G147" s="190"/>
+      <c r="H147" s="190"/>
+      <c r="I147" s="191"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13704,15 +13744,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="182" t="s">
+      <c r="C157" s="189" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="183"/>
-      <c r="E157" s="183"/>
-      <c r="F157" s="183"/>
-      <c r="G157" s="183"/>
-      <c r="H157" s="183"/>
-      <c r="I157" s="184"/>
+      <c r="D157" s="190"/>
+      <c r="E157" s="190"/>
+      <c r="F157" s="190"/>
+      <c r="G157" s="190"/>
+      <c r="H157" s="190"/>
+      <c r="I157" s="191"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13910,7 +13950,7 @@
       <c r="B166" s="8">
         <v>8</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D166" s="10" t="s">
@@ -14092,15 +14132,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="182" t="s">
+      <c r="C178" s="189" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="183"/>
-      <c r="E178" s="183"/>
-      <c r="F178" s="183"/>
-      <c r="G178" s="183"/>
-      <c r="H178" s="183"/>
-      <c r="I178" s="184"/>
+      <c r="D178" s="190"/>
+      <c r="E178" s="190"/>
+      <c r="F178" s="190"/>
+      <c r="G178" s="190"/>
+      <c r="H178" s="190"/>
+      <c r="I178" s="191"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16330,7 +16370,7 @@
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16345,15 +16385,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="194" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="189"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16379,40 +16419,54 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="157">
-        <v>44362</v>
-      </c>
-      <c r="E5" s="157">
-        <v>45092</v>
-      </c>
-      <c r="F5" s="158">
+    <row r="5" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="184">
+        <v>40721</v>
+      </c>
+      <c r="E5" s="184">
+        <v>45104</v>
+      </c>
+      <c r="F5" s="185">
+        <v>12</v>
+      </c>
+      <c r="G5" s="186">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="184">
+        <v>44376</v>
+      </c>
+      <c r="E6" s="184">
+        <v>45106</v>
+      </c>
+      <c r="F6" s="185">
         <v>2</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G6" s="186">
         <v>14</v>
       </c>
-      <c r="H5" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="187" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
       <c r="C7" s="88"/>
       <c r="D7" s="96"/>
@@ -16421,7 +16475,7 @@
       <c r="G7" s="159"/>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="2:9" ht="62.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="97"/>
       <c r="C8" s="88"/>
       <c r="D8" s="96"/>
@@ -16562,13 +16616,13 @@
       <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
       <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="312">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2647,9 +2647,6 @@
   </si>
   <si>
     <t>7 al 30 Ago 2023</t>
-  </si>
-  <si>
-    <t>10 al 31 Jul 2023</t>
   </si>
   <si>
     <t>24 Abr al 17 May 2023</t>
@@ -2912,34 +2909,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3 al 26 Julio 2023                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  3 al 12 Julio 2023</t>
-    </r>
-  </si>
-  <si>
     <t>ya tomo  23--24 junio</t>
+  </si>
+  <si>
+    <t>OFICINAS</t>
+  </si>
+  <si>
+    <t>23-24 JUNIO</t>
+  </si>
+  <si>
+    <t>10  AL   29- Julio 2023--------------10 al 31  Jul 2023</t>
+  </si>
+  <si>
+    <t>TOMO</t>
+  </si>
+  <si>
+    <t>10 al 31 Jul 2023  NO LAS TOMO</t>
+  </si>
+  <si>
+    <t>parciales</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3160,6 +3148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3326,7 +3320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3870,6 +3864,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3893,6 +3896,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3902,6 +3911,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
@@ -4210,15 +4220,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5709,15 +5719,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="192" t="s">
+      <c r="C57" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="192"/>
-      <c r="E57" s="192"/>
-      <c r="F57" s="192"/>
-      <c r="G57" s="192"/>
-      <c r="H57" s="192"/>
-      <c r="I57" s="192"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6876,15 +6886,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="189" t="s">
+      <c r="C100" s="192" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="190"/>
-      <c r="E100" s="190"/>
-      <c r="F100" s="190"/>
-      <c r="G100" s="190"/>
-      <c r="H100" s="190"/>
-      <c r="I100" s="191"/>
+      <c r="D100" s="193"/>
+      <c r="E100" s="193"/>
+      <c r="F100" s="193"/>
+      <c r="G100" s="193"/>
+      <c r="H100" s="193"/>
+      <c r="I100" s="194"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7312,15 +7322,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="189" t="s">
+      <c r="C120" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="190"/>
-      <c r="E120" s="190"/>
-      <c r="F120" s="190"/>
-      <c r="G120" s="190"/>
-      <c r="H120" s="190"/>
-      <c r="I120" s="191"/>
+      <c r="D120" s="193"/>
+      <c r="E120" s="193"/>
+      <c r="F120" s="193"/>
+      <c r="G120" s="193"/>
+      <c r="H120" s="193"/>
+      <c r="I120" s="194"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7526,15 +7536,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="189" t="s">
+      <c r="C130" s="192" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="190"/>
-      <c r="E130" s="190"/>
-      <c r="F130" s="190"/>
-      <c r="G130" s="190"/>
-      <c r="H130" s="190"/>
-      <c r="I130" s="191"/>
+      <c r="D130" s="193"/>
+      <c r="E130" s="193"/>
+      <c r="F130" s="193"/>
+      <c r="G130" s="193"/>
+      <c r="H130" s="193"/>
+      <c r="I130" s="194"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7886,15 +7896,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="189" t="s">
+      <c r="C147" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="190"/>
-      <c r="E147" s="190"/>
-      <c r="F147" s="190"/>
-      <c r="G147" s="190"/>
-      <c r="H147" s="190"/>
-      <c r="I147" s="191"/>
+      <c r="D147" s="193"/>
+      <c r="E147" s="193"/>
+      <c r="F147" s="193"/>
+      <c r="G147" s="193"/>
+      <c r="H147" s="193"/>
+      <c r="I147" s="194"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10099,8 +10109,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="B142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10124,15 +10134,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10239,7 +10249,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10326,7 +10336,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -10346,7 +10356,7 @@
         <v>41708</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G10" s="64">
         <v>9</v>
@@ -10510,7 +10520,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" s="70">
         <v>42814</v>
@@ -10525,7 +10535,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -10554,7 +10564,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>10</v>
@@ -10583,7 +10593,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>10</v>
@@ -11802,15 +11812,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="192" t="s">
+      <c r="C76" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="192"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="192"/>
-      <c r="H76" s="192"/>
-      <c r="I76" s="192"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11921,7 +11931,7 @@
         <v>38</v>
       </c>
       <c r="K80" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12119,7 +12129,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>38</v>
@@ -12208,7 +12218,7 @@
         <v>38</v>
       </c>
       <c r="K90" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12327,7 +12337,7 @@
         <v>38</v>
       </c>
       <c r="K94" s="161" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L94" s="161"/>
       <c r="M94" s="161"/>
@@ -12975,7 +12985,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
       <c r="I117" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12995,7 +13005,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
       <c r="I118" s="113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13088,15 +13098,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="189" t="s">
+      <c r="C127" s="192" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="190"/>
-      <c r="E127" s="190"/>
-      <c r="F127" s="190"/>
-      <c r="G127" s="190"/>
-      <c r="H127" s="190"/>
-      <c r="I127" s="191"/>
+      <c r="D127" s="193"/>
+      <c r="E127" s="193"/>
+      <c r="F127" s="193"/>
+      <c r="G127" s="193"/>
+      <c r="H127" s="193"/>
+      <c r="I127" s="194"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13201,27 +13211,27 @@
       <c r="B132" s="8">
         <v>4</v>
       </c>
-      <c r="C132" s="45" t="s">
+      <c r="C132" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="19">
+      <c r="D132" s="69"/>
+      <c r="E132" s="70">
         <v>41529</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="70">
         <v>45181</v>
       </c>
-      <c r="G132" s="8">
-        <v>10</v>
-      </c>
-      <c r="H132" s="13">
+      <c r="G132" s="66">
+        <v>10</v>
+      </c>
+      <c r="H132" s="65">
         <v>22</v>
       </c>
-      <c r="I132" s="8" t="s">
-        <v>279</v>
+      <c r="I132" s="200" t="s">
+        <v>310</v>
       </c>
       <c r="J132" s="188" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13245,9 +13255,11 @@
         <v>20</v>
       </c>
       <c r="I133" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="J133" s="26"/>
+        <v>287</v>
+      </c>
+      <c r="J133" s="201" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="134" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="8">
@@ -13339,7 +13351,7 @@
         <v>22</v>
       </c>
       <c r="I137" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J137" s="26"/>
     </row>
@@ -13528,15 +13540,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="189" t="s">
+      <c r="C147" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="190"/>
-      <c r="E147" s="190"/>
-      <c r="F147" s="190"/>
-      <c r="G147" s="190"/>
-      <c r="H147" s="190"/>
-      <c r="I147" s="191"/>
+      <c r="D147" s="193"/>
+      <c r="E147" s="193"/>
+      <c r="F147" s="193"/>
+      <c r="G147" s="193"/>
+      <c r="H147" s="193"/>
+      <c r="I147" s="194"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13570,7 +13582,7 @@
         <v>206</v>
       </c>
       <c r="D149" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E149" s="70">
         <v>40567</v>
@@ -13681,7 +13693,7 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13744,15 +13756,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="189" t="s">
+      <c r="C157" s="192" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="190"/>
-      <c r="E157" s="190"/>
-      <c r="F157" s="190"/>
-      <c r="G157" s="190"/>
-      <c r="H157" s="190"/>
-      <c r="I157" s="191"/>
+      <c r="D157" s="193"/>
+      <c r="E157" s="193"/>
+      <c r="F157" s="193"/>
+      <c r="G157" s="193"/>
+      <c r="H157" s="193"/>
+      <c r="I157" s="194"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13823,7 +13835,7 @@
         <v>12</v>
       </c>
       <c r="I160" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14132,15 +14144,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="189" t="s">
+      <c r="C178" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="190"/>
-      <c r="E178" s="190"/>
-      <c r="F178" s="190"/>
-      <c r="G178" s="190"/>
-      <c r="H178" s="190"/>
-      <c r="I178" s="191"/>
+      <c r="D178" s="193"/>
+      <c r="E178" s="193"/>
+      <c r="F178" s="193"/>
+      <c r="G178" s="193"/>
+      <c r="H178" s="193"/>
+      <c r="I178" s="194"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14216,7 +14228,7 @@
         <v>121</v>
       </c>
       <c r="J181" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14240,7 +14252,7 @@
         <v>12</v>
       </c>
       <c r="I182" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14336,10 +14348,10 @@
         <v>24</v>
       </c>
       <c r="I186" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="J186" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="J186" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="187" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14347,7 +14359,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D187" s="69"/>
       <c r="E187" s="70">
@@ -14363,7 +14375,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14411,7 +14423,7 @@
         <v>12</v>
       </c>
       <c r="I189" s="67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14555,7 +14567,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16370,7 +16382,7 @@
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16385,15 +16397,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="194" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16417,54 +16429,44 @@
       <c r="H4" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="184">
-        <v>40721</v>
-      </c>
-      <c r="E5" s="184">
-        <v>45104</v>
-      </c>
-      <c r="F5" s="185">
-        <v>12</v>
-      </c>
-      <c r="G5" s="186">
-        <v>24</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="I4" s="191" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="D5" s="19">
+        <v>41529</v>
+      </c>
+      <c r="E5" s="19">
+        <v>45181</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13">
+        <v>22</v>
+      </c>
+      <c r="H5" s="164" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" s="190" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="180" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="184">
-        <v>44376</v>
-      </c>
-      <c r="E6" s="184">
-        <v>45106</v>
-      </c>
-      <c r="F6" s="185">
-        <v>2</v>
-      </c>
-      <c r="G6" s="186">
-        <v>14</v>
-      </c>
-      <c r="H6" s="187" t="s">
-        <v>151</v>
-      </c>
+      <c r="B6" s="180"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="187"/>
     </row>
     <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
@@ -16616,13 +16618,13 @@
       <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="193"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
       <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
@@ -16748,7 +16750,7 @@
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130"/>
       <c r="D3" s="173" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16789,7 +16791,7 @@
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="178"/>
     </row>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="314">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2928,6 +2928,12 @@
   </si>
   <si>
     <t>parciales</t>
+  </si>
+  <si>
+    <t>24 y 25  Julio</t>
+  </si>
+  <si>
+    <t>14 al 27 Julio 2023</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +3114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3154,6 +3160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3320,7 +3332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3873,6 +3885,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3896,12 +3917,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3911,6 +3926,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FF99"/>
@@ -4220,15 +4236,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5719,15 +5735,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="195" t="s">
+      <c r="C57" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="195"/>
-      <c r="E57" s="195"/>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="195"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="198"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="198"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6886,15 +6902,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="192" t="s">
+      <c r="C100" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="193"/>
-      <c r="E100" s="193"/>
-      <c r="F100" s="193"/>
-      <c r="G100" s="193"/>
-      <c r="H100" s="193"/>
-      <c r="I100" s="194"/>
+      <c r="D100" s="196"/>
+      <c r="E100" s="196"/>
+      <c r="F100" s="196"/>
+      <c r="G100" s="196"/>
+      <c r="H100" s="196"/>
+      <c r="I100" s="197"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7322,15 +7338,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="192" t="s">
+      <c r="C120" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="193"/>
-      <c r="E120" s="193"/>
-      <c r="F120" s="193"/>
-      <c r="G120" s="193"/>
-      <c r="H120" s="193"/>
-      <c r="I120" s="194"/>
+      <c r="D120" s="196"/>
+      <c r="E120" s="196"/>
+      <c r="F120" s="196"/>
+      <c r="G120" s="196"/>
+      <c r="H120" s="196"/>
+      <c r="I120" s="197"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7536,15 +7552,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="192" t="s">
+      <c r="C130" s="195" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="193"/>
-      <c r="E130" s="193"/>
-      <c r="F130" s="193"/>
-      <c r="G130" s="193"/>
-      <c r="H130" s="193"/>
-      <c r="I130" s="194"/>
+      <c r="D130" s="196"/>
+      <c r="E130" s="196"/>
+      <c r="F130" s="196"/>
+      <c r="G130" s="196"/>
+      <c r="H130" s="196"/>
+      <c r="I130" s="197"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7896,15 +7912,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="192" t="s">
+      <c r="C147" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="193"/>
-      <c r="E147" s="193"/>
-      <c r="F147" s="193"/>
-      <c r="G147" s="193"/>
-      <c r="H147" s="193"/>
-      <c r="I147" s="194"/>
+      <c r="D147" s="196"/>
+      <c r="E147" s="196"/>
+      <c r="F147" s="196"/>
+      <c r="G147" s="196"/>
+      <c r="H147" s="196"/>
+      <c r="I147" s="197"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10109,8 +10125,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10134,15 +10150,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10808,7 +10824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -10844,7 +10860,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="183" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>10</v>
@@ -11107,8 +11123,8 @@
       <c r="I37" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>10</v>
+      <c r="J37" s="194" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11812,15 +11828,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="195" t="s">
+      <c r="C76" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="195"/>
-      <c r="E76" s="195"/>
-      <c r="F76" s="195"/>
-      <c r="G76" s="195"/>
-      <c r="H76" s="195"/>
-      <c r="I76" s="195"/>
+      <c r="D76" s="198"/>
+      <c r="E76" s="198"/>
+      <c r="F76" s="198"/>
+      <c r="G76" s="198"/>
+      <c r="H76" s="198"/>
+      <c r="I76" s="198"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13098,15 +13114,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="192" t="s">
+      <c r="C127" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="193"/>
-      <c r="E127" s="193"/>
-      <c r="F127" s="193"/>
-      <c r="G127" s="193"/>
-      <c r="H127" s="193"/>
-      <c r="I127" s="194"/>
+      <c r="D127" s="196"/>
+      <c r="E127" s="196"/>
+      <c r="F127" s="196"/>
+      <c r="G127" s="196"/>
+      <c r="H127" s="196"/>
+      <c r="I127" s="197"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13227,7 +13243,7 @@
       <c r="H132" s="65">
         <v>22</v>
       </c>
-      <c r="I132" s="200" t="s">
+      <c r="I132" s="192" t="s">
         <v>310</v>
       </c>
       <c r="J132" s="188" t="s">
@@ -13257,7 +13273,7 @@
       <c r="I133" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="J133" s="201" t="s">
+      <c r="J133" s="193" t="s">
         <v>311</v>
       </c>
     </row>
@@ -13540,15 +13556,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="192" t="s">
+      <c r="C147" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="193"/>
-      <c r="E147" s="193"/>
-      <c r="F147" s="193"/>
-      <c r="G147" s="193"/>
-      <c r="H147" s="193"/>
-      <c r="I147" s="194"/>
+      <c r="D147" s="196"/>
+      <c r="E147" s="196"/>
+      <c r="F147" s="196"/>
+      <c r="G147" s="196"/>
+      <c r="H147" s="196"/>
+      <c r="I147" s="197"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13756,15 +13772,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="192" t="s">
+      <c r="C157" s="195" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="193"/>
-      <c r="E157" s="193"/>
-      <c r="F157" s="193"/>
-      <c r="G157" s="193"/>
-      <c r="H157" s="193"/>
-      <c r="I157" s="194"/>
+      <c r="D157" s="196"/>
+      <c r="E157" s="196"/>
+      <c r="F157" s="196"/>
+      <c r="G157" s="196"/>
+      <c r="H157" s="196"/>
+      <c r="I157" s="197"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14144,15 +14160,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="192" t="s">
+      <c r="C178" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="193"/>
-      <c r="E178" s="193"/>
-      <c r="F178" s="193"/>
-      <c r="G178" s="193"/>
-      <c r="H178" s="193"/>
-      <c r="I178" s="194"/>
+      <c r="D178" s="196"/>
+      <c r="E178" s="196"/>
+      <c r="F178" s="196"/>
+      <c r="G178" s="196"/>
+      <c r="H178" s="196"/>
+      <c r="I178" s="197"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16397,15 +16413,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="202"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16618,13 +16634,13 @@
       <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
       <c r="I37" s="127"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="316">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2705,9 +2705,6 @@
     <t>Vallejo Cruz Norma Josefina</t>
   </si>
   <si>
-    <t>20-Feb- al  26-Feb-2023</t>
-  </si>
-  <si>
     <t>17 Abr al 8 May 2023  toma del  2-al 15 de MARZO 2023</t>
   </si>
   <si>
@@ -2715,9 +2712,6 @@
   </si>
   <si>
     <t>xxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023</t>
   </si>
   <si>
     <t>03  Abril   al 17 Abril 2023</t>
@@ -2912,18 +2906,6 @@
     <t>ya tomo  23--24 junio</t>
   </si>
   <si>
-    <t>OFICINAS</t>
-  </si>
-  <si>
-    <t>23-24 JUNIO</t>
-  </si>
-  <si>
-    <t>10  AL   29- Julio 2023--------------10 al 31  Jul 2023</t>
-  </si>
-  <si>
-    <t>TOMO</t>
-  </si>
-  <si>
     <t>10 al 31 Jul 2023  NO LAS TOMO</t>
   </si>
   <si>
@@ -2934,6 +2916,64 @@
   </si>
   <si>
     <t>14 al 27 Julio 2023</t>
+  </si>
+  <si>
+    <t>TOMA DEL 14--al 21 Julio 2023  ( 8 dias )</t>
+  </si>
+  <si>
+    <t>20-Feb- al  26-Feb-2023  ( 7 dias )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 Jul al 9 Ago 2023                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   toma  17----al  30---Julio 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>17 al 30 Julio 2023                                                     17 al 23 Julio 2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17 Jul al 11 Ago 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                        OCTUBRE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11 SUR </t>
+  </si>
+  <si>
+    <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023  Las traba</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3154,12 +3194,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3332,7 +3366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3619,9 +3653,6 @@
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3798,23 +3829,14 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3849,49 +3871,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3917,6 +3915,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3926,11 +3963,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF3300"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF66FF99"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -4236,15 +4273,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5735,15 +5772,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="198" t="s">
+      <c r="C57" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="198"/>
-      <c r="E57" s="198"/>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="198"/>
-      <c r="I57" s="198"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="186"/>
+      <c r="H57" s="186"/>
+      <c r="I57" s="186"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6902,15 +6939,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="195" t="s">
+      <c r="C100" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="196"/>
-      <c r="E100" s="196"/>
-      <c r="F100" s="196"/>
-      <c r="G100" s="196"/>
-      <c r="H100" s="196"/>
-      <c r="I100" s="197"/>
+      <c r="D100" s="184"/>
+      <c r="E100" s="184"/>
+      <c r="F100" s="184"/>
+      <c r="G100" s="184"/>
+      <c r="H100" s="184"/>
+      <c r="I100" s="185"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7338,15 +7375,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="195" t="s">
+      <c r="C120" s="183" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="196"/>
-      <c r="E120" s="196"/>
-      <c r="F120" s="196"/>
-      <c r="G120" s="196"/>
-      <c r="H120" s="196"/>
-      <c r="I120" s="197"/>
+      <c r="D120" s="184"/>
+      <c r="E120" s="184"/>
+      <c r="F120" s="184"/>
+      <c r="G120" s="184"/>
+      <c r="H120" s="184"/>
+      <c r="I120" s="185"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7552,15 +7589,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="195" t="s">
+      <c r="C130" s="183" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="196"/>
-      <c r="E130" s="196"/>
-      <c r="F130" s="196"/>
-      <c r="G130" s="196"/>
-      <c r="H130" s="196"/>
-      <c r="I130" s="197"/>
+      <c r="D130" s="184"/>
+      <c r="E130" s="184"/>
+      <c r="F130" s="184"/>
+      <c r="G130" s="184"/>
+      <c r="H130" s="184"/>
+      <c r="I130" s="185"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7912,15 +7949,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="195" t="s">
+      <c r="C147" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="196"/>
-      <c r="E147" s="196"/>
-      <c r="F147" s="196"/>
-      <c r="G147" s="196"/>
-      <c r="H147" s="196"/>
-      <c r="I147" s="197"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="184"/>
+      <c r="F147" s="184"/>
+      <c r="G147" s="184"/>
+      <c r="H147" s="184"/>
+      <c r="I147" s="185"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10125,8 +10162,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="B136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10150,15 +10187,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10246,26 +10283,26 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="63">
         <v>40560</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="63">
         <v>44943</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="64">
         <v>12</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="65">
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10333,7 +10370,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="113" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -10351,8 +10388,8 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="115" t="s">
-        <v>296</v>
+      <c r="I9" s="114" t="s">
+        <v>294</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -10372,7 +10409,7 @@
         <v>41708</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G10" s="64">
         <v>9</v>
@@ -10433,7 +10470,7 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="100">
         <v>14</v>
       </c>
       <c r="I12" s="92" t="s">
@@ -10532,7 +10569,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10551,7 +10588,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -10580,7 +10617,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>10</v>
@@ -10608,8 +10645,8 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="99" t="s">
-        <v>290</v>
+      <c r="I18" s="98" t="s">
+        <v>289</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>10</v>
@@ -10619,28 +10656,28 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="108">
+      <c r="D19" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="107">
         <v>42096</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F19" s="107">
         <v>45201</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="108">
         <v>6</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="109">
         <v>22</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="182" t="s">
+      <c r="J19" s="177" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10648,23 +10685,23 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105">
+      <c r="D20" s="103"/>
+      <c r="E20" s="104">
         <v>44655</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="104">
         <v>45020</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="116">
         <v>1</v>
       </c>
-      <c r="H20" s="101">
+      <c r="H20" s="100">
         <v>12</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="117" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -10799,25 +10836,25 @@
       <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="63">
         <v>40329</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="63">
         <v>45077</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="64">
         <v>13</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="66">
         <v>24</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="66" t="s">
         <v>54</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -10843,24 +10880,24 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="19">
+      <c r="D28" s="97"/>
+      <c r="E28" s="70">
         <v>44389</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="70">
         <v>45119</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="66">
         <v>2</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="65">
         <v>14</v>
       </c>
-      <c r="I28" s="183" t="s">
-        <v>313</v>
+      <c r="I28" s="66" t="s">
+        <v>307</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>10</v>
@@ -10870,32 +10907,32 @@
       <c r="B29" s="8">
         <v>26</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="D29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="63">
         <v>44389</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="63">
         <v>45119</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="64">
         <v>2</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="65">
         <v>14</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="67" t="s">
         <v>60</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" s="14" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -10917,8 +10954,8 @@
       <c r="H30" s="8">
         <v>26</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>62</v>
+      <c r="I30" s="123" t="s">
+        <v>313</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>10</v>
@@ -11123,8 +11160,8 @@
       <c r="I37" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="194" t="s">
-        <v>312</v>
+      <c r="J37" s="182" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11828,15 +11865,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="198" t="s">
+      <c r="C76" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="198"/>
-      <c r="E76" s="198"/>
-      <c r="F76" s="198"/>
-      <c r="G76" s="198"/>
-      <c r="H76" s="198"/>
-      <c r="I76" s="198"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="186"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="186"/>
+      <c r="H76" s="186"/>
+      <c r="I76" s="186"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -11946,8 +11983,8 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="102" t="s">
-        <v>294</v>
+      <c r="K80" s="101" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12145,7 +12182,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="67" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>38</v>
@@ -12184,23 +12221,23 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="119" t="s">
+      <c r="C89" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="120"/>
-      <c r="E89" s="121">
+      <c r="D89" s="119"/>
+      <c r="E89" s="120">
         <v>44659</v>
       </c>
-      <c r="F89" s="121">
+      <c r="F89" s="120">
         <v>45024</v>
       </c>
-      <c r="G89" s="122">
+      <c r="G89" s="121">
         <v>1</v>
       </c>
-      <c r="H89" s="123">
+      <c r="H89" s="122">
         <v>12</v>
       </c>
-      <c r="I89" s="124" t="s">
+      <c r="I89" s="123" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
@@ -12211,30 +12248,30 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="106" t="s">
+      <c r="C90" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="107"/>
-      <c r="E90" s="108">
+      <c r="D90" s="106"/>
+      <c r="E90" s="107">
         <v>44662</v>
       </c>
-      <c r="F90" s="108">
+      <c r="F90" s="107">
         <v>45027</v>
       </c>
-      <c r="G90" s="109">
+      <c r="G90" s="108">
         <v>1</v>
       </c>
-      <c r="H90" s="110">
+      <c r="H90" s="109">
         <v>12</v>
       </c>
-      <c r="I90" s="111" t="s">
+      <c r="I90" s="110" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="102" t="s">
-        <v>294</v>
+      <c r="K90" s="101" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12352,11 +12389,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="161" t="s">
-        <v>300</v>
-      </c>
-      <c r="L94" s="161"/>
-      <c r="M94" s="161"/>
+      <c r="K94" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12478,26 +12515,26 @@
       <c r="B99" s="8">
         <v>22</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="63">
         <v>41097</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="63">
         <v>45114</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="64">
         <v>11</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="65">
         <v>24</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>54</v>
+      <c r="I99" s="67" t="s">
+        <v>310</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>38</v>
@@ -12892,7 +12929,7 @@
       <c r="H113" s="13">
         <v>12</v>
       </c>
-      <c r="I113" s="30">
+      <c r="I113" s="80">
         <v>45292</v>
       </c>
       <c r="J113" s="14" t="s">
@@ -12921,7 +12958,7 @@
       <c r="H114" s="13">
         <v>12</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I114" s="80">
         <v>45292</v>
       </c>
       <c r="J114" s="14" t="s">
@@ -12950,7 +12987,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="200" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -12988,40 +13025,40 @@
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="103" t="s">
+      <c r="C117" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="104" t="s">
+      <c r="D117" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="105">
+      <c r="E117" s="104">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
       <c r="I117" s="80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="103" t="s">
+      <c r="C118" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="112" t="s">
+      <c r="D118" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="105">
+      <c r="E118" s="104">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="113" t="s">
-        <v>295</v>
+      <c r="I118" s="112" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13114,15 +13151,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="195" t="s">
+      <c r="C127" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="196"/>
-      <c r="E127" s="196"/>
-      <c r="F127" s="196"/>
-      <c r="G127" s="196"/>
-      <c r="H127" s="196"/>
-      <c r="I127" s="197"/>
+      <c r="D127" s="184"/>
+      <c r="E127" s="184"/>
+      <c r="F127" s="184"/>
+      <c r="G127" s="184"/>
+      <c r="H127" s="184"/>
+      <c r="I127" s="185"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13148,7 +13185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:10" s="14" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:11" s="14" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="8">
         <v>1</v>
       </c>
@@ -13173,7 +13210,7 @@
       </c>
       <c r="J129" s="26"/>
     </row>
-    <row r="130" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="8">
         <v>2</v>
       </c>
@@ -13198,7 +13235,7 @@
       </c>
       <c r="J130" s="26"/>
     </row>
-    <row r="131" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="8">
         <v>3</v>
       </c>
@@ -13223,7 +13260,7 @@
       </c>
       <c r="J131" s="26"/>
     </row>
-    <row r="132" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="8">
         <v>4</v>
       </c>
@@ -13243,14 +13280,15 @@
       <c r="H132" s="65">
         <v>22</v>
       </c>
-      <c r="I132" s="192" t="s">
-        <v>310</v>
-      </c>
-      <c r="J132" s="188" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I132" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="J132" s="193" t="s">
+        <v>303</v>
+      </c>
+      <c r="K132" s="194"/>
+    </row>
+    <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
         <v>5</v>
       </c>
@@ -13271,13 +13309,13 @@
         <v>20</v>
       </c>
       <c r="I133" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="J133" s="193" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="J133" s="181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="8">
         <v>6</v>
       </c>
@@ -13300,7 +13338,7 @@
       <c r="I134" s="8"/>
       <c r="J134" s="26"/>
     </row>
-    <row r="135" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="8">
         <v>7</v>
       </c>
@@ -13323,7 +13361,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="26"/>
     </row>
-    <row r="136" spans="2:10" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="8">
         <v>8</v>
       </c>
@@ -13346,7 +13384,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="26"/>
     </row>
-    <row r="137" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="8">
         <v>9</v>
       </c>
@@ -13367,11 +13405,11 @@
         <v>22</v>
       </c>
       <c r="I137" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J137" s="26"/>
     </row>
-    <row r="138" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="8">
         <v>10</v>
       </c>
@@ -13394,7 +13432,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="26"/>
     </row>
-    <row r="139" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="8">
         <v>11</v>
       </c>
@@ -13419,7 +13457,7 @@
       </c>
       <c r="J139" s="26"/>
     </row>
-    <row r="140" spans="2:10" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="8">
         <v>12</v>
       </c>
@@ -13444,7 +13482,7 @@
       </c>
       <c r="J140" s="26"/>
     </row>
-    <row r="141" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="8">
         <v>13</v>
       </c>
@@ -13469,7 +13507,7 @@
       </c>
       <c r="J141" s="26"/>
     </row>
-    <row r="142" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="8">
         <v>14</v>
       </c>
@@ -13489,10 +13527,12 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="8"/>
-      <c r="J142" s="26"/>
-    </row>
-    <row r="143" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I142" s="191" t="s">
+        <v>308</v>
+      </c>
+      <c r="J142" s="192"/>
+    </row>
+    <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
@@ -13517,7 +13557,7 @@
       </c>
       <c r="J143" s="26"/>
     </row>
-    <row r="144" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="8">
         <v>16</v>
       </c>
@@ -13556,15 +13596,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="195" t="s">
+      <c r="C147" s="183" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="196"/>
-      <c r="E147" s="196"/>
-      <c r="F147" s="196"/>
-      <c r="G147" s="196"/>
-      <c r="H147" s="196"/>
-      <c r="I147" s="197"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="184"/>
+      <c r="F147" s="184"/>
+      <c r="G147" s="184"/>
+      <c r="H147" s="184"/>
+      <c r="I147" s="185"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13709,7 +13749,7 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13772,15 +13812,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="195" t="s">
+      <c r="C157" s="183" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="196"/>
-      <c r="E157" s="196"/>
-      <c r="F157" s="196"/>
-      <c r="G157" s="196"/>
-      <c r="H157" s="196"/>
-      <c r="I157" s="197"/>
+      <c r="D157" s="184"/>
+      <c r="E157" s="184"/>
+      <c r="F157" s="184"/>
+      <c r="G157" s="184"/>
+      <c r="H157" s="184"/>
+      <c r="I157" s="185"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13954,23 +13994,23 @@
       <c r="B165" s="8">
         <v>7</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="19">
+      <c r="D165" s="69"/>
+      <c r="E165" s="70">
         <v>44753</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="70">
         <v>45118</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="66">
         <v>1</v>
       </c>
-      <c r="H165" s="13">
+      <c r="H165" s="65">
         <v>12</v>
       </c>
-      <c r="I165" s="8" t="s">
+      <c r="I165" s="66" t="s">
         <v>234</v>
       </c>
     </row>
@@ -13981,9 +14021,7 @@
       <c r="C166" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D166" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D166" s="10"/>
       <c r="E166" s="11">
         <v>44445</v>
       </c>
@@ -14160,15 +14198,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="195" t="s">
+      <c r="C178" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="196"/>
-      <c r="E178" s="196"/>
-      <c r="F178" s="196"/>
-      <c r="G178" s="196"/>
-      <c r="H178" s="196"/>
-      <c r="I178" s="197"/>
+      <c r="D178" s="184"/>
+      <c r="E178" s="184"/>
+      <c r="F178" s="184"/>
+      <c r="G178" s="184"/>
+      <c r="H178" s="184"/>
+      <c r="I178" s="185"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14347,7 +14385,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="131" t="s">
+      <c r="C186" s="130" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -14391,7 +14429,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14439,7 +14477,7 @@
         <v>12</v>
       </c>
       <c r="I189" s="67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16397,31 +16435,31 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="200" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="202"/>
+      <c r="B3" s="188" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16442,280 +16480,332 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="191" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="189" t="s">
-        <v>188</v>
+      <c r="I4" s="195"/>
+    </row>
+    <row r="5" spans="2:9" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="201" t="s">
+        <v>233</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="19">
-        <v>41529</v>
-      </c>
-      <c r="E5" s="19">
-        <v>45181</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13">
-        <v>22</v>
-      </c>
-      <c r="H5" s="164" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" s="190" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="96">
+        <v>44753</v>
+      </c>
+      <c r="E5" s="96">
+        <v>45118</v>
+      </c>
+      <c r="F5" s="95">
+        <v>1</v>
+      </c>
+      <c r="G5" s="115">
+        <v>12</v>
+      </c>
+      <c r="H5" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="180"/>
+    </row>
+    <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="156">
+        <v>40329</v>
+      </c>
+      <c r="E6" s="156">
+        <v>45077</v>
+      </c>
+      <c r="F6" s="157">
+        <v>13</v>
+      </c>
+      <c r="G6" s="88">
+        <v>24</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="156">
+        <v>44389</v>
+      </c>
+      <c r="E7" s="156">
+        <v>45119</v>
+      </c>
+      <c r="F7" s="157">
+        <v>2</v>
+      </c>
+      <c r="G7" s="115">
+        <v>14</v>
+      </c>
+      <c r="H7" s="203" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="158" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="156">
+        <v>41097</v>
+      </c>
+      <c r="E8" s="156">
+        <v>45114</v>
+      </c>
+      <c r="F8" s="157">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <v>24</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="96">
+        <v>44389</v>
+      </c>
+      <c r="E9" s="96">
+        <v>45119</v>
+      </c>
+      <c r="F9" s="95">
+        <v>2</v>
+      </c>
+      <c r="G9" s="115">
+        <v>14</v>
+      </c>
+      <c r="H9" s="179" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="180"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="162"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="100"/>
-    </row>
-    <row r="8" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="100"/>
-    </row>
-    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="164"/>
-    </row>
     <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="155"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="132"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="144"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="146"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="145"/>
     </row>
     <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="147"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="150"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="127"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="127"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="126"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="156"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="127"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="126"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
     </row>
   </sheetData>
-  <sortState ref="B4:H7">
-    <sortCondition ref="B4:B7"/>
+  <sortState ref="B5:H9">
+    <sortCondition ref="C5:C9"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B37:H37"/>
@@ -16748,170 +16838,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="175"/>
-    <col min="2" max="2" width="33.140625" style="175" customWidth="1"/>
-    <col min="3" max="3" width="5" style="174" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="174" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="174"/>
-    <col min="7" max="16384" width="11.42578125" style="175"/>
+    <col min="1" max="1" width="11.42578125" style="171"/>
+    <col min="2" max="2" width="33.140625" style="171" customWidth="1"/>
+    <col min="3" max="3" width="5" style="170" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="170" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="170"/>
+    <col min="7" max="16384" width="11.42578125" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="128"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="127"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="165"/>
+      <c r="B2" s="161"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="130"/>
-      <c r="D3" s="173" t="s">
-        <v>303</v>
+      <c r="B3" s="129"/>
+      <c r="D3" s="169" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="162" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="174"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130"/>
+      <c r="B5" s="129"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="178"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="168"/>
+      <c r="B7" s="164"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="178"/>
+      <c r="D8" s="174"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="170"/>
+      <c r="B9" s="166"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="178"/>
+      <c r="D10" s="174"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="170"/>
+      <c r="B11" s="166"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="169" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="178"/>
+      <c r="B12" s="165" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="174"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="170"/>
+      <c r="B13" s="166"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="178"/>
+      <c r="D14" s="174"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="170"/>
+      <c r="B15" s="166"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="163" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="178"/>
+      <c r="D16" s="174"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="176"/>
+      <c r="B17" s="172"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="178"/>
+      <c r="D18" s="174"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="176"/>
+      <c r="B19" s="172"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="178"/>
+      <c r="D20" s="174"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="170"/>
+      <c r="B21" s="166"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="178"/>
+      <c r="D22" s="174"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="167"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="179"/>
+      <c r="D24" s="175"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="170"/>
+      <c r="B25" s="166"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="178"/>
+      <c r="D26" s="174"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="170"/>
+      <c r="B27" s="166"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="178"/>
+      <c r="D28" s="174"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="177"/>
+      <c r="B29" s="173"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="178"/>
+      <c r="D30" s="174"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="129"/>
+      <c r="B32" s="128"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="126"/>
+      <c r="B33" s="125"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="126"/>
+      <c r="B34" s="125"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="126"/>
+      <c r="B35" s="125"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="126"/>
+      <c r="B36" s="125"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="126"/>
+      <c r="B37" s="125"/>
     </row>
     <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B38" s="126"/>
+      <c r="B38" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="317">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2974,6 +2974,9 @@
   </si>
   <si>
     <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023  Las traba</t>
+  </si>
+  <si>
+    <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????</t>
   </si>
 </sst>
 </file>
@@ -3366,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3892,6 +3895,45 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3916,43 +3958,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3963,10 +3969,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
@@ -4273,15 +4279,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5772,15 +5778,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="186" t="s">
+      <c r="C57" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="186"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
+      <c r="I57" s="199"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6939,15 +6945,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="183" t="s">
+      <c r="C100" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="184"/>
-      <c r="E100" s="184"/>
-      <c r="F100" s="184"/>
-      <c r="G100" s="184"/>
-      <c r="H100" s="184"/>
-      <c r="I100" s="185"/>
+      <c r="D100" s="197"/>
+      <c r="E100" s="197"/>
+      <c r="F100" s="197"/>
+      <c r="G100" s="197"/>
+      <c r="H100" s="197"/>
+      <c r="I100" s="198"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7375,15 +7381,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="183" t="s">
+      <c r="C120" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="184"/>
-      <c r="E120" s="184"/>
-      <c r="F120" s="184"/>
-      <c r="G120" s="184"/>
-      <c r="H120" s="184"/>
-      <c r="I120" s="185"/>
+      <c r="D120" s="197"/>
+      <c r="E120" s="197"/>
+      <c r="F120" s="197"/>
+      <c r="G120" s="197"/>
+      <c r="H120" s="197"/>
+      <c r="I120" s="198"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7589,15 +7595,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="183" t="s">
+      <c r="C130" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="184"/>
-      <c r="E130" s="184"/>
-      <c r="F130" s="184"/>
-      <c r="G130" s="184"/>
-      <c r="H130" s="184"/>
-      <c r="I130" s="185"/>
+      <c r="D130" s="197"/>
+      <c r="E130" s="197"/>
+      <c r="F130" s="197"/>
+      <c r="G130" s="197"/>
+      <c r="H130" s="197"/>
+      <c r="I130" s="198"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7949,15 +7955,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="183" t="s">
+      <c r="C147" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="184"/>
-      <c r="E147" s="184"/>
-      <c r="F147" s="184"/>
-      <c r="G147" s="184"/>
-      <c r="H147" s="184"/>
-      <c r="I147" s="185"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10162,8 +10168,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="B136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10187,15 +10193,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10836,26 +10842,26 @@
       <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="63">
+      <c r="D26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11">
         <v>40329</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="11">
         <v>45077</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="12">
         <v>13</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="8">
         <v>24</v>
       </c>
-      <c r="I26" s="66" t="s">
-        <v>54</v>
+      <c r="I26" s="204" t="s">
+        <v>316</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10880,7 +10886,7 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="190" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="97"/>
@@ -11865,15 +11871,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="186" t="s">
+      <c r="C76" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="186"/>
-      <c r="E76" s="186"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="186"/>
-      <c r="H76" s="186"/>
-      <c r="I76" s="186"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="199"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12987,7 +12993,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="200" t="s">
+      <c r="I115" s="192" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13151,15 +13157,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="183" t="s">
+      <c r="C127" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="184"/>
-      <c r="E127" s="184"/>
-      <c r="F127" s="184"/>
-      <c r="G127" s="184"/>
-      <c r="H127" s="184"/>
-      <c r="I127" s="185"/>
+      <c r="D127" s="197"/>
+      <c r="E127" s="197"/>
+      <c r="F127" s="197"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="198"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13283,10 +13289,10 @@
       <c r="I132" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="J132" s="193" t="s">
+      <c r="J132" s="185" t="s">
         <v>303</v>
       </c>
-      <c r="K132" s="194"/>
+      <c r="K132" s="186"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13527,10 +13533,10 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="191" t="s">
+      <c r="I142" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="J142" s="192"/>
+      <c r="J142" s="184"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
@@ -13596,15 +13602,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="183" t="s">
+      <c r="C147" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="184"/>
-      <c r="E147" s="184"/>
-      <c r="F147" s="184"/>
-      <c r="G147" s="184"/>
-      <c r="H147" s="184"/>
-      <c r="I147" s="185"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13812,15 +13818,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="183" t="s">
+      <c r="C157" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="184"/>
-      <c r="E157" s="184"/>
-      <c r="F157" s="184"/>
-      <c r="G157" s="184"/>
-      <c r="H157" s="184"/>
-      <c r="I157" s="185"/>
+      <c r="D157" s="197"/>
+      <c r="E157" s="197"/>
+      <c r="F157" s="197"/>
+      <c r="G157" s="197"/>
+      <c r="H157" s="197"/>
+      <c r="I157" s="198"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14198,15 +14204,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="183" t="s">
+      <c r="C178" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="184"/>
-      <c r="E178" s="184"/>
-      <c r="F178" s="184"/>
-      <c r="G178" s="184"/>
-      <c r="H178" s="184"/>
-      <c r="I178" s="185"/>
+      <c r="D178" s="197"/>
+      <c r="E178" s="197"/>
+      <c r="F178" s="197"/>
+      <c r="G178" s="197"/>
+      <c r="H178" s="197"/>
+      <c r="I178" s="198"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16435,7 +16441,7 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -16451,15 +16457,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="201" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16480,13 +16486,13 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="195"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="2:9" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="193" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="95" t="s">
@@ -16504,7 +16510,7 @@
       <c r="G5" s="115">
         <v>12</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="H5" s="194" t="s">
         <v>234</v>
       </c>
       <c r="I5" s="180"/>
@@ -16533,7 +16539,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="191" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -16551,7 +16557,7 @@
       <c r="G7" s="115">
         <v>14</v>
       </c>
-      <c r="H7" s="203" t="s">
+      <c r="H7" s="195" t="s">
         <v>312</v>
       </c>
     </row>
@@ -16606,7 +16612,7 @@
       <c r="C10" s="95"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
-      <c r="F10" s="197"/>
+      <c r="F10" s="189"/>
       <c r="G10" s="178"/>
       <c r="H10" s="99"/>
     </row>
@@ -16724,13 +16730,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="315">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2940,10 +2940,10 @@
     </r>
   </si>
   <si>
-    <t>Produccion</t>
-  </si>
-  <si>
-    <t>17 al 30 Julio 2023                                                     17 al 23 Julio 2023</t>
+    <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023  Las traba</t>
+  </si>
+  <si>
+    <t>TOMA</t>
   </si>
   <si>
     <r>
@@ -2966,17 +2966,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                        OCTUBRE</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">11 SUR </t>
-  </si>
-  <si>
-    <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023  Las traba</t>
-  </si>
-  <si>
-    <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????</t>
+      <t xml:space="preserve">                                        7--al   17    OCTUBRE</t>
+    </r>
+  </si>
+  <si>
+    <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????                                     14-Agosto 6-Septiembre</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3886,9 +3880,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3907,9 +3898,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3925,15 +3913,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3958,8 +3943,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3969,8 +3960,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF99"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFF3300"/>
@@ -4279,15 +4270,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5778,15 +5769,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="199" t="s">
+      <c r="C57" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="199"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="199"/>
-      <c r="H57" s="199"/>
-      <c r="I57" s="199"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="196"/>
+      <c r="F57" s="196"/>
+      <c r="G57" s="196"/>
+      <c r="H57" s="196"/>
+      <c r="I57" s="196"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6945,15 +6936,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="196" t="s">
+      <c r="C100" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="197"/>
-      <c r="E100" s="197"/>
-      <c r="F100" s="197"/>
-      <c r="G100" s="197"/>
-      <c r="H100" s="197"/>
-      <c r="I100" s="198"/>
+      <c r="D100" s="194"/>
+      <c r="E100" s="194"/>
+      <c r="F100" s="194"/>
+      <c r="G100" s="194"/>
+      <c r="H100" s="194"/>
+      <c r="I100" s="195"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7381,15 +7372,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="196" t="s">
+      <c r="C120" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="197"/>
-      <c r="E120" s="197"/>
-      <c r="F120" s="197"/>
-      <c r="G120" s="197"/>
-      <c r="H120" s="197"/>
-      <c r="I120" s="198"/>
+      <c r="D120" s="194"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="194"/>
+      <c r="G120" s="194"/>
+      <c r="H120" s="194"/>
+      <c r="I120" s="195"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7595,15 +7586,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="196" t="s">
+      <c r="C130" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="197"/>
-      <c r="E130" s="197"/>
-      <c r="F130" s="197"/>
-      <c r="G130" s="197"/>
-      <c r="H130" s="197"/>
-      <c r="I130" s="198"/>
+      <c r="D130" s="194"/>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+      <c r="G130" s="194"/>
+      <c r="H130" s="194"/>
+      <c r="I130" s="195"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7955,15 +7946,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="194"/>
+      <c r="E147" s="194"/>
+      <c r="F147" s="194"/>
+      <c r="G147" s="194"/>
+      <c r="H147" s="194"/>
+      <c r="I147" s="195"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10168,8 +10159,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10193,15 +10184,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10308,7 +10299,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10838,7 +10829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="14" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" s="14" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -10860,8 +10851,8 @@
       <c r="H26" s="8">
         <v>24</v>
       </c>
-      <c r="I26" s="204" t="s">
-        <v>316</v>
+      <c r="I26" s="123" t="s">
+        <v>314</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10886,7 +10877,7 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="190" t="s">
+      <c r="C28" s="188" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="97"/>
@@ -11163,10 +11154,10 @@
       <c r="H37" s="13">
         <v>22</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="182" t="s">
+      <c r="J37" s="181" t="s">
         <v>306</v>
       </c>
     </row>
@@ -11871,15 +11862,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="199" t="s">
+      <c r="C76" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="199"/>
-      <c r="E76" s="199"/>
-      <c r="F76" s="199"/>
-      <c r="G76" s="199"/>
-      <c r="H76" s="199"/>
-      <c r="I76" s="199"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="196"/>
+      <c r="F76" s="196"/>
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12993,7 +12984,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="192" t="s">
+      <c r="I115" s="190" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13157,15 +13148,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="196" t="s">
+      <c r="C127" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="197"/>
-      <c r="E127" s="197"/>
-      <c r="F127" s="197"/>
-      <c r="G127" s="197"/>
-      <c r="H127" s="197"/>
-      <c r="I127" s="198"/>
+      <c r="D127" s="194"/>
+      <c r="E127" s="194"/>
+      <c r="F127" s="194"/>
+      <c r="G127" s="194"/>
+      <c r="H127" s="194"/>
+      <c r="I127" s="195"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13289,10 +13280,10 @@
       <c r="I132" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="J132" s="185" t="s">
+      <c r="J132" s="184" t="s">
         <v>303</v>
       </c>
-      <c r="K132" s="186"/>
+      <c r="K132" s="185"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13317,7 +13308,7 @@
       <c r="I133" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="J133" s="181" t="s">
+      <c r="J133" s="180" t="s">
         <v>305</v>
       </c>
     </row>
@@ -13533,10 +13524,10 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="183" t="s">
+      <c r="I142" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="J142" s="184"/>
+      <c r="J142" s="183"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
@@ -13602,15 +13593,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="194"/>
+      <c r="E147" s="194"/>
+      <c r="F147" s="194"/>
+      <c r="G147" s="194"/>
+      <c r="H147" s="194"/>
+      <c r="I147" s="195"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13818,15 +13809,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="196" t="s">
+      <c r="C157" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="197"/>
-      <c r="E157" s="197"/>
-      <c r="F157" s="197"/>
-      <c r="G157" s="197"/>
-      <c r="H157" s="197"/>
-      <c r="I157" s="198"/>
+      <c r="D157" s="194"/>
+      <c r="E157" s="194"/>
+      <c r="F157" s="194"/>
+      <c r="G157" s="194"/>
+      <c r="H157" s="194"/>
+      <c r="I157" s="195"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14204,15 +14195,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="196" t="s">
+      <c r="C178" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="197"/>
-      <c r="E178" s="197"/>
-      <c r="F178" s="197"/>
-      <c r="G178" s="197"/>
-      <c r="H178" s="197"/>
-      <c r="I178" s="198"/>
+      <c r="D178" s="194"/>
+      <c r="E178" s="194"/>
+      <c r="F178" s="194"/>
+      <c r="G178" s="194"/>
+      <c r="H178" s="194"/>
+      <c r="I178" s="195"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16439,10 +16430,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:I44"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16453,21 +16444,22 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="201" t="s">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="198" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="203"/>
-    </row>
-    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
+    </row>
+    <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -16486,137 +16478,86 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="187"/>
-    </row>
-    <row r="5" spans="2:9" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="193" t="s">
-        <v>233</v>
+      <c r="I4" s="202" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="201" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="96">
-        <v>44753</v>
-      </c>
-      <c r="E5" s="96">
-        <v>45118</v>
-      </c>
-      <c r="F5" s="95">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="156">
+        <v>42968</v>
+      </c>
+      <c r="E5" s="156">
+        <v>45160</v>
+      </c>
+      <c r="F5" s="157">
+        <v>6</v>
       </c>
       <c r="G5" s="115">
-        <v>12</v>
-      </c>
-      <c r="H5" s="194" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" s="180"/>
-    </row>
-    <row r="6" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="158" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="156">
-        <v>40329</v>
-      </c>
-      <c r="E6" s="156">
-        <v>45077</v>
-      </c>
-      <c r="F6" s="157">
-        <v>13</v>
-      </c>
-      <c r="G6" s="88">
-        <v>24</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="156">
-        <v>44389</v>
-      </c>
-      <c r="E7" s="156">
-        <v>45119</v>
-      </c>
-      <c r="F7" s="157">
-        <v>2</v>
-      </c>
-      <c r="G7" s="115">
-        <v>14</v>
-      </c>
-      <c r="H7" s="195" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="156">
-        <v>41097</v>
-      </c>
-      <c r="E8" s="156">
-        <v>45114</v>
-      </c>
-      <c r="F8" s="157">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13">
-        <v>24</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="96">
-        <v>44389</v>
-      </c>
-      <c r="E9" s="96">
-        <v>45119</v>
-      </c>
-      <c r="F9" s="95">
-        <v>2</v>
-      </c>
-      <c r="G9" s="115">
-        <v>14</v>
-      </c>
-      <c r="H9" s="179" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="203" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="158"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="189"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="191"/>
+    </row>
+    <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="158"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="160"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="179"/>
+    </row>
+    <row r="10" spans="2:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="158"/>
       <c r="C10" s="95"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
-      <c r="F10" s="189"/>
+      <c r="F10" s="187"/>
       <c r="G10" s="178"/>
       <c r="H10" s="99"/>
     </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="152"/>
       <c r="C13" s="152"/>
       <c r="D13" s="153"/>
@@ -16625,7 +16566,7 @@
       <c r="G13" s="148"/>
       <c r="H13" s="154"/>
     </row>
-    <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="131"/>
       <c r="C14" s="132"/>
       <c r="D14" s="133"/>
@@ -16634,7 +16575,7 @@
       <c r="G14" s="135"/>
       <c r="H14" s="132"/>
     </row>
-    <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="136"/>
       <c r="C15" s="137"/>
       <c r="D15" s="138"/>
@@ -16643,7 +16584,7 @@
       <c r="G15" s="139"/>
       <c r="H15" s="140"/>
     </row>
-    <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="136"/>
       <c r="C16" s="137"/>
       <c r="D16" s="141"/>
@@ -16730,13 +16671,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="200"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="316">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2921,9 +2921,6 @@
     <t>TOMA DEL 14--al 21 Julio 2023  ( 8 dias )</t>
   </si>
   <si>
-    <t>20-Feb- al  26-Feb-2023  ( 7 dias )</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">17 Jul al 9 Ago 2023                    </t>
     </r>
@@ -2943,9 +2940,6 @@
     <t>23 Ene al 3 Feb 2023                                                           17 al 28 Julio 2023  Las traba</t>
   </si>
   <si>
-    <t>TOMA</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2971,6 +2965,47 @@
   </si>
   <si>
     <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????                                     14-Agosto 6-Septiembre</t>
+  </si>
+  <si>
+    <t>20-Feb- al  26-Feb-2023  ( 7 dias )  24-al  30-Jul-2023  ( 7 dias )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31 Jul al 17 Ago 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31 Jul al 6 Ago 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>31 Jul al 17 Ago 2023                                                          31 Jul al 6 Ago 2023</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3943,14 +3978,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10159,8 +10197,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B184" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190:I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,7 +10337,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10852,7 +10890,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="123" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10952,7 +10990,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>10</v>
@@ -12531,7 +12569,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>38</v>
@@ -13305,8 +13343,8 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="93" t="s">
-        <v>309</v>
+      <c r="I133" s="201" t="s">
+        <v>313</v>
       </c>
       <c r="J133" s="180" t="s">
         <v>305</v>
@@ -14481,24 +14519,24 @@
       <c r="B190" s="8">
         <v>11</v>
       </c>
-      <c r="C190" s="52" t="s">
+      <c r="C190" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D190" s="18"/>
-      <c r="E190" s="19">
+      <c r="D190" s="69"/>
+      <c r="E190" s="70">
         <v>43675</v>
       </c>
-      <c r="F190" s="19">
+      <c r="F190" s="70">
         <v>45136</v>
       </c>
-      <c r="G190" s="8">
+      <c r="G190" s="66">
         <v>4</v>
       </c>
-      <c r="H190" s="13">
+      <c r="H190" s="65">
         <v>18</v>
       </c>
-      <c r="I190" s="15" t="s">
-        <v>261</v>
+      <c r="I190" s="67" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16432,8 +16470,8 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16481,35 +16519,29 @@
       <c r="H4" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="202" t="s">
-        <v>312</v>
-      </c>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="201" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="156">
-        <v>42968</v>
-      </c>
-      <c r="E5" s="156">
-        <v>45160</v>
-      </c>
-      <c r="F5" s="157">
-        <v>6</v>
-      </c>
-      <c r="G5" s="115">
-        <v>22</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="203" t="s">
-        <v>306</v>
-      </c>
+      <c r="B5" s="202" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
+        <v>43675</v>
+      </c>
+      <c r="E5" s="19">
+        <v>45136</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>18</v>
+      </c>
+      <c r="H5" s="204" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="180"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="317">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3006,13 +3006,29 @@
   </si>
   <si>
     <t>31 Jul al 17 Ago 2023                                                          31 Jul al 6 Ago 2023</t>
+  </si>
+  <si>
+    <r>
+      <t>,,,,,,,,,21 Ago al 11 Sep 2023-------------</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31-Jul al  21-Agosto-2023</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3181,6 +3197,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3398,7 +3421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3924,9 +3947,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3954,6 +3974,18 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3978,17 +4010,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3998,8 +4024,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFF3300"/>
@@ -4308,15 +4334,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5807,15 +5833,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="196" t="s">
+      <c r="C57" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
-      <c r="G57" s="196"/>
-      <c r="H57" s="196"/>
-      <c r="I57" s="196"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
+      <c r="I57" s="199"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -6974,15 +7000,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="193" t="s">
+      <c r="C100" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="194"/>
-      <c r="E100" s="194"/>
-      <c r="F100" s="194"/>
-      <c r="G100" s="194"/>
-      <c r="H100" s="194"/>
-      <c r="I100" s="195"/>
+      <c r="D100" s="197"/>
+      <c r="E100" s="197"/>
+      <c r="F100" s="197"/>
+      <c r="G100" s="197"/>
+      <c r="H100" s="197"/>
+      <c r="I100" s="198"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7410,15 +7436,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="193" t="s">
+      <c r="C120" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="194"/>
-      <c r="E120" s="194"/>
-      <c r="F120" s="194"/>
-      <c r="G120" s="194"/>
-      <c r="H120" s="194"/>
-      <c r="I120" s="195"/>
+      <c r="D120" s="197"/>
+      <c r="E120" s="197"/>
+      <c r="F120" s="197"/>
+      <c r="G120" s="197"/>
+      <c r="H120" s="197"/>
+      <c r="I120" s="198"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7624,15 +7650,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="193" t="s">
+      <c r="C130" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="194"/>
-      <c r="E130" s="194"/>
-      <c r="F130" s="194"/>
-      <c r="G130" s="194"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="195"/>
+      <c r="D130" s="197"/>
+      <c r="E130" s="197"/>
+      <c r="F130" s="197"/>
+      <c r="G130" s="197"/>
+      <c r="H130" s="197"/>
+      <c r="I130" s="198"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -7984,15 +8010,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="193" t="s">
+      <c r="C147" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="194"/>
-      <c r="E147" s="194"/>
-      <c r="F147" s="194"/>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10197,8 +10223,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="B184" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190:I190"/>
+    <sheetView topLeftCell="B133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140:I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,15 +10248,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10915,7 +10941,7 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="187" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="97"/>
@@ -11192,7 +11218,7 @@
       <c r="H37" s="13">
         <v>22</v>
       </c>
-      <c r="I37" s="192" t="s">
+      <c r="I37" s="191" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="181" t="s">
@@ -11900,15 +11926,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="196" t="s">
+      <c r="C76" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="196"/>
-      <c r="E76" s="196"/>
-      <c r="F76" s="196"/>
-      <c r="G76" s="196"/>
-      <c r="H76" s="196"/>
-      <c r="I76" s="196"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="199"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13022,7 +13048,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="190" t="s">
+      <c r="I115" s="189" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13186,15 +13212,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="193" t="s">
+      <c r="C127" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="194"/>
-      <c r="E127" s="194"/>
-      <c r="F127" s="194"/>
-      <c r="G127" s="194"/>
-      <c r="H127" s="194"/>
-      <c r="I127" s="195"/>
+      <c r="D127" s="197"/>
+      <c r="E127" s="197"/>
+      <c r="F127" s="197"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="198"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13318,10 +13344,10 @@
       <c r="I132" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="J132" s="184" t="s">
+      <c r="J132" s="183" t="s">
         <v>303</v>
       </c>
-      <c r="K132" s="185"/>
+      <c r="K132" s="184"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13343,7 +13369,7 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="201" t="s">
+      <c r="I133" s="192" t="s">
         <v>313</v>
       </c>
       <c r="J133" s="180" t="s">
@@ -13496,24 +13522,24 @@
       <c r="B140" s="8">
         <v>12</v>
       </c>
-      <c r="C140" s="45" t="s">
+      <c r="C140" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="19">
+      <c r="D140" s="69"/>
+      <c r="E140" s="70">
         <v>41869</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="70">
         <v>45156</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="66">
         <v>9</v>
       </c>
-      <c r="H140" s="13">
+      <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="8" t="s">
-        <v>195</v>
+      <c r="I140" s="191" t="s">
+        <v>316</v>
       </c>
       <c r="J140" s="26"/>
     </row>
@@ -13565,7 +13591,7 @@
       <c r="I142" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="J142" s="183"/>
+      <c r="J142" s="204"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
@@ -13631,15 +13657,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="193" t="s">
+      <c r="C147" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="194"/>
-      <c r="E147" s="194"/>
-      <c r="F147" s="194"/>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13847,15 +13873,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="193" t="s">
+      <c r="C157" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="194"/>
-      <c r="E157" s="194"/>
-      <c r="F157" s="194"/>
-      <c r="G157" s="194"/>
-      <c r="H157" s="194"/>
-      <c r="I157" s="195"/>
+      <c r="D157" s="197"/>
+      <c r="E157" s="197"/>
+      <c r="F157" s="197"/>
+      <c r="G157" s="197"/>
+      <c r="H157" s="197"/>
+      <c r="I157" s="198"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14233,15 +14259,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="193" t="s">
+      <c r="C178" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="194"/>
-      <c r="E178" s="194"/>
-      <c r="F178" s="194"/>
-      <c r="G178" s="194"/>
-      <c r="H178" s="194"/>
-      <c r="I178" s="195"/>
+      <c r="D178" s="197"/>
+      <c r="E178" s="197"/>
+      <c r="F178" s="197"/>
+      <c r="G178" s="197"/>
+      <c r="H178" s="197"/>
+      <c r="I178" s="198"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16471,7 +16497,7 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16487,15 +16513,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="201" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16516,13 +16542,13 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="186" t="s">
+      <c r="H4" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="203"/>
+      <c r="I4" s="194"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="193" t="s">
         <v>260</v>
       </c>
       <c r="C5" s="18"/>
@@ -16538,29 +16564,41 @@
       <c r="G5" s="13">
         <v>18</v>
       </c>
-      <c r="H5" s="204" t="s">
+      <c r="H5" s="195" t="s">
         <v>315</v>
       </c>
       <c r="I5" s="180"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="158"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="B6" s="205" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
+        <v>41869</v>
+      </c>
+      <c r="E6" s="19">
+        <v>45156</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13">
+        <v>22</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="189"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="95"/>
       <c r="D7" s="156"/>
       <c r="E7" s="156"/>
       <c r="F7" s="157"/>
       <c r="G7" s="115"/>
-      <c r="H7" s="191"/>
+      <c r="H7" s="190"/>
     </row>
     <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="158"/>
@@ -16585,7 +16623,7 @@
       <c r="C10" s="95"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
-      <c r="F10" s="187"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="178"/>
       <c r="H10" s="99"/>
     </row>
@@ -16703,13 +16741,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="317">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3005,9 +3005,6 @@
     </r>
   </si>
   <si>
-    <t>31 Jul al 17 Ago 2023                                                          31 Jul al 6 Ago 2023</t>
-  </si>
-  <si>
     <r>
       <t>,,,,,,,,,21 Ago al 11 Sep 2023-------------</t>
     </r>
@@ -3022,13 +3019,16 @@
       </rPr>
       <t>31-Jul al  21-Agosto-2023</t>
     </r>
+  </si>
+  <si>
+    <t>4 al   20 Agosto 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3197,13 +3197,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3421,7 +3414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3962,29 +3955,20 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4010,11 +3994,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4334,15 +4342,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5833,15 +5841,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="199" t="s">
+      <c r="C57" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="199"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="199"/>
-      <c r="H57" s="199"/>
-      <c r="I57" s="199"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="196"/>
+      <c r="F57" s="196"/>
+      <c r="G57" s="196"/>
+      <c r="H57" s="196"/>
+      <c r="I57" s="196"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7000,15 +7008,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="196" t="s">
+      <c r="C100" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="197"/>
-      <c r="E100" s="197"/>
-      <c r="F100" s="197"/>
-      <c r="G100" s="197"/>
-      <c r="H100" s="197"/>
-      <c r="I100" s="198"/>
+      <c r="D100" s="194"/>
+      <c r="E100" s="194"/>
+      <c r="F100" s="194"/>
+      <c r="G100" s="194"/>
+      <c r="H100" s="194"/>
+      <c r="I100" s="195"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7436,15 +7444,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="196" t="s">
+      <c r="C120" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="197"/>
-      <c r="E120" s="197"/>
-      <c r="F120" s="197"/>
-      <c r="G120" s="197"/>
-      <c r="H120" s="197"/>
-      <c r="I120" s="198"/>
+      <c r="D120" s="194"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="194"/>
+      <c r="G120" s="194"/>
+      <c r="H120" s="194"/>
+      <c r="I120" s="195"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7650,15 +7658,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="196" t="s">
+      <c r="C130" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="197"/>
-      <c r="E130" s="197"/>
-      <c r="F130" s="197"/>
-      <c r="G130" s="197"/>
-      <c r="H130" s="197"/>
-      <c r="I130" s="198"/>
+      <c r="D130" s="194"/>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+      <c r="G130" s="194"/>
+      <c r="H130" s="194"/>
+      <c r="I130" s="195"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8010,15 +8018,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="194"/>
+      <c r="E147" s="194"/>
+      <c r="F147" s="194"/>
+      <c r="G147" s="194"/>
+      <c r="H147" s="194"/>
+      <c r="I147" s="195"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10223,8 +10231,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="B133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140:I140"/>
+    <sheetView topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10248,15 +10256,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11026,25 +11034,25 @@
       <c r="B31" s="8">
         <v>28</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D31" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="63">
         <v>42947</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="63">
         <v>45139</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="64">
         <v>6</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="65">
         <v>22</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="66" t="s">
         <v>64</v>
       </c>
       <c r="J31" s="14" t="s">
@@ -11218,7 +11226,7 @@
       <c r="H37" s="13">
         <v>22</v>
       </c>
-      <c r="I37" s="191" t="s">
+      <c r="I37" s="189" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="181" t="s">
@@ -11926,15 +11934,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="199" t="s">
+      <c r="C76" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="199"/>
-      <c r="E76" s="199"/>
-      <c r="F76" s="199"/>
-      <c r="G76" s="199"/>
-      <c r="H76" s="199"/>
-      <c r="I76" s="199"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="196"/>
+      <c r="F76" s="196"/>
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12632,25 +12640,25 @@
       <c r="B101" s="8">
         <v>24</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="85">
         <v>40032</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="85">
         <v>45145</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="86">
         <v>14</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101" s="65">
         <v>24</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="66" t="s">
         <v>278</v>
       </c>
       <c r="J101" s="14" t="s">
@@ -13048,7 +13056,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="189" t="s">
+      <c r="I115" s="188" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13212,15 +13220,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="196" t="s">
+      <c r="C127" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="197"/>
-      <c r="E127" s="197"/>
-      <c r="F127" s="197"/>
-      <c r="G127" s="197"/>
-      <c r="H127" s="197"/>
-      <c r="I127" s="198"/>
+      <c r="D127" s="194"/>
+      <c r="E127" s="194"/>
+      <c r="F127" s="194"/>
+      <c r="G127" s="194"/>
+      <c r="H127" s="194"/>
+      <c r="I127" s="195"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13369,7 +13377,7 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="192" t="s">
+      <c r="I133" s="190" t="s">
         <v>313</v>
       </c>
       <c r="J133" s="180" t="s">
@@ -13419,8 +13427,12 @@
       <c r="H135" s="13">
         <v>26</v>
       </c>
-      <c r="I135" s="8"/>
-      <c r="J135" s="26"/>
+      <c r="I135" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="J135" s="205" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="136" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="8">
@@ -13538,8 +13550,8 @@
       <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="191" t="s">
-        <v>316</v>
+      <c r="I140" s="189" t="s">
+        <v>315</v>
       </c>
       <c r="J140" s="26"/>
     </row>
@@ -13591,32 +13603,34 @@
       <c r="I142" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="J142" s="204"/>
+      <c r="J142" s="192"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="45" t="s">
+      <c r="C143" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="19">
+      <c r="D143" s="209"/>
+      <c r="E143" s="210">
         <v>44144</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="210">
         <v>45239</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="98">
         <v>3</v>
       </c>
-      <c r="H143" s="13">
+      <c r="H143" s="109">
         <v>16</v>
       </c>
-      <c r="I143" s="8" t="s">
+      <c r="I143" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="J143" s="26"/>
+      <c r="J143" s="177" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="144" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="8">
@@ -13657,15 +13671,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="194"/>
+      <c r="E147" s="194"/>
+      <c r="F147" s="194"/>
+      <c r="G147" s="194"/>
+      <c r="H147" s="194"/>
+      <c r="I147" s="195"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13873,15 +13887,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="196" t="s">
+      <c r="C157" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="197"/>
-      <c r="E157" s="197"/>
-      <c r="F157" s="197"/>
-      <c r="G157" s="197"/>
-      <c r="H157" s="197"/>
-      <c r="I157" s="198"/>
+      <c r="D157" s="194"/>
+      <c r="E157" s="194"/>
+      <c r="F157" s="194"/>
+      <c r="G157" s="194"/>
+      <c r="H157" s="194"/>
+      <c r="I157" s="195"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14259,15 +14273,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="196" t="s">
+      <c r="C178" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="197"/>
-      <c r="E178" s="197"/>
-      <c r="F178" s="197"/>
-      <c r="G178" s="197"/>
-      <c r="H178" s="197"/>
-      <c r="I178" s="198"/>
+      <c r="D178" s="194"/>
+      <c r="E178" s="194"/>
+      <c r="F178" s="194"/>
+      <c r="G178" s="194"/>
+      <c r="H178" s="194"/>
+      <c r="I178" s="195"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16497,7 +16511,7 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16513,15 +16527,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="198" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="203"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16545,60 +16559,76 @@
       <c r="H4" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="194"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="193" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19">
-        <v>43675</v>
-      </c>
-      <c r="E5" s="19">
-        <v>45136</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13">
-        <v>18</v>
-      </c>
-      <c r="H5" s="195" t="s">
-        <v>315</v>
+      <c r="B5" s="206" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="158"/>
+      <c r="D5" s="207">
+        <v>38845</v>
+      </c>
+      <c r="E5" s="207">
+        <v>45054</v>
+      </c>
+      <c r="F5" s="88">
+        <v>17</v>
+      </c>
+      <c r="G5" s="178">
+        <v>26</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>316</v>
       </c>
       <c r="I5" s="180"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="205" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
-        <v>41869</v>
-      </c>
-      <c r="E6" s="19">
-        <v>45156</v>
-      </c>
-      <c r="F6" s="8">
-        <v>9</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="B6" s="158" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="201">
+        <v>42947</v>
+      </c>
+      <c r="E6" s="201">
+        <v>45139</v>
+      </c>
+      <c r="F6" s="186">
+        <v>6</v>
+      </c>
+      <c r="G6" s="178">
         <v>22</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>316</v>
+      <c r="H6" s="88" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="188"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="190"/>
+      <c r="B7" s="204" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="202">
+        <v>40032</v>
+      </c>
+      <c r="E7" s="202">
+        <v>45145</v>
+      </c>
+      <c r="F7" s="203">
+        <v>14</v>
+      </c>
+      <c r="G7" s="178">
+        <v>24</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="158"/>
@@ -16741,13 +16771,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="200"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
@@ -16821,8 +16851,8 @@
       <c r="I44" s="126"/>
     </row>
   </sheetData>
-  <sortState ref="B5:H9">
-    <sortCondition ref="C5:C9"/>
+  <sortState ref="B5:H7">
+    <sortCondition ref="H5:H7"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B37:H37"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="320">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3022,6 +3022,28 @@
   </si>
   <si>
     <t>4 al   20 Agosto 2023</t>
+  </si>
+  <si>
+    <t>14 al 29 Agosto 2023                                                14 al 23 Ago 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 Jul al 9 Ago 2023   LAS CAMBIO ????                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14-Agosto 6-Septiembre</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11 al 24 Sep 2023                                                                   </t>
   </si>
 </sst>
 </file>
@@ -3970,6 +3992,27 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3994,34 +4037,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4342,15 +4364,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5841,15 +5863,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="196" t="s">
+      <c r="C57" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
-      <c r="G57" s="196"/>
-      <c r="H57" s="196"/>
-      <c r="I57" s="196"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="203"/>
+      <c r="F57" s="203"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203"/>
+      <c r="I57" s="203"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7008,15 +7030,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="193" t="s">
+      <c r="C100" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="194"/>
-      <c r="E100" s="194"/>
-      <c r="F100" s="194"/>
-      <c r="G100" s="194"/>
-      <c r="H100" s="194"/>
-      <c r="I100" s="195"/>
+      <c r="D100" s="201"/>
+      <c r="E100" s="201"/>
+      <c r="F100" s="201"/>
+      <c r="G100" s="201"/>
+      <c r="H100" s="201"/>
+      <c r="I100" s="202"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7444,15 +7466,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="193" t="s">
+      <c r="C120" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="194"/>
-      <c r="E120" s="194"/>
-      <c r="F120" s="194"/>
-      <c r="G120" s="194"/>
-      <c r="H120" s="194"/>
-      <c r="I120" s="195"/>
+      <c r="D120" s="201"/>
+      <c r="E120" s="201"/>
+      <c r="F120" s="201"/>
+      <c r="G120" s="201"/>
+      <c r="H120" s="201"/>
+      <c r="I120" s="202"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7658,15 +7680,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="193" t="s">
+      <c r="C130" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="194"/>
-      <c r="E130" s="194"/>
-      <c r="F130" s="194"/>
-      <c r="G130" s="194"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="195"/>
+      <c r="D130" s="201"/>
+      <c r="E130" s="201"/>
+      <c r="F130" s="201"/>
+      <c r="G130" s="201"/>
+      <c r="H130" s="201"/>
+      <c r="I130" s="202"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8018,15 +8040,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="193" t="s">
+      <c r="C147" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="194"/>
-      <c r="E147" s="194"/>
-      <c r="F147" s="194"/>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
+      <c r="D147" s="201"/>
+      <c r="E147" s="201"/>
+      <c r="F147" s="201"/>
+      <c r="G147" s="201"/>
+      <c r="H147" s="201"/>
+      <c r="I147" s="202"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10231,8 +10253,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10256,15 +10278,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10905,25 +10927,25 @@
       <c r="B26" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="63">
         <v>40329</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="63">
         <v>45077</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="64">
         <v>13</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="66">
         <v>24</v>
       </c>
-      <c r="I26" s="123" t="s">
+      <c r="I26" s="67" t="s">
         <v>312</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -11063,25 +11085,25 @@
       <c r="B32" s="8">
         <v>29</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="D32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="63">
         <v>44053</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="63">
         <v>45148</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="64">
         <v>3</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="65">
         <v>16</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="67" t="s">
         <v>66</v>
       </c>
       <c r="J32" s="14" t="s">
@@ -11092,25 +11114,25 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="24">
+      <c r="D33" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="85">
         <v>42593</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="85">
         <v>45149</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="86">
         <v>7</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="65">
         <v>22</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="66" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -11934,15 +11956,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="196" t="s">
+      <c r="C76" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="196"/>
-      <c r="E76" s="196"/>
-      <c r="F76" s="196"/>
-      <c r="G76" s="196"/>
-      <c r="H76" s="196"/>
-      <c r="I76" s="196"/>
+      <c r="D76" s="203"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13220,15 +13242,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="193" t="s">
+      <c r="C127" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="194"/>
-      <c r="E127" s="194"/>
-      <c r="F127" s="194"/>
-      <c r="G127" s="194"/>
-      <c r="H127" s="194"/>
-      <c r="I127" s="195"/>
+      <c r="D127" s="201"/>
+      <c r="E127" s="201"/>
+      <c r="F127" s="201"/>
+      <c r="G127" s="201"/>
+      <c r="H127" s="201"/>
+      <c r="I127" s="202"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13430,7 +13452,7 @@
       <c r="I135" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="J135" s="205" t="s">
+      <c r="J135" s="196" t="s">
         <v>305</v>
       </c>
     </row>
@@ -13609,14 +13631,14 @@
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="208" t="s">
+      <c r="C143" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="209"/>
-      <c r="E143" s="210">
+      <c r="D143" s="198"/>
+      <c r="E143" s="199">
         <v>44144</v>
       </c>
-      <c r="F143" s="210">
+      <c r="F143" s="199">
         <v>45239</v>
       </c>
       <c r="G143" s="98">
@@ -13671,15 +13693,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="193" t="s">
+      <c r="C147" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="194"/>
-      <c r="E147" s="194"/>
-      <c r="F147" s="194"/>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
+      <c r="D147" s="201"/>
+      <c r="E147" s="201"/>
+      <c r="F147" s="201"/>
+      <c r="G147" s="201"/>
+      <c r="H147" s="201"/>
+      <c r="I147" s="202"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13887,15 +13909,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="193" t="s">
+      <c r="C157" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="194"/>
-      <c r="E157" s="194"/>
-      <c r="F157" s="194"/>
-      <c r="G157" s="194"/>
-      <c r="H157" s="194"/>
-      <c r="I157" s="195"/>
+      <c r="D157" s="201"/>
+      <c r="E157" s="201"/>
+      <c r="F157" s="201"/>
+      <c r="G157" s="201"/>
+      <c r="H157" s="201"/>
+      <c r="I157" s="202"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14109,8 +14131,8 @@
       <c r="H166" s="13">
         <v>14</v>
       </c>
-      <c r="I166" s="15" t="s">
-        <v>235</v>
+      <c r="I166" s="99" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14273,15 +14295,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="193" t="s">
+      <c r="C178" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="194"/>
-      <c r="E178" s="194"/>
-      <c r="F178" s="194"/>
-      <c r="G178" s="194"/>
-      <c r="H178" s="194"/>
-      <c r="I178" s="195"/>
+      <c r="D178" s="201"/>
+      <c r="E178" s="201"/>
+      <c r="F178" s="201"/>
+      <c r="G178" s="201"/>
+      <c r="H178" s="201"/>
+      <c r="I178" s="202"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16511,7 +16533,7 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16521,21 +16543,21 @@
     <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="205" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16562,72 +16584,74 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="206" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="207">
-        <v>38845</v>
-      </c>
-      <c r="E5" s="207">
-        <v>45054</v>
-      </c>
-      <c r="F5" s="88">
-        <v>17</v>
-      </c>
-      <c r="G5" s="178">
-        <v>26</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>316</v>
+      <c r="B5" s="209" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="156">
+        <v>44053</v>
+      </c>
+      <c r="E5" s="156">
+        <v>45148</v>
+      </c>
+      <c r="F5" s="157">
+        <v>3</v>
+      </c>
+      <c r="G5" s="115">
+        <v>16</v>
+      </c>
+      <c r="H5" s="208" t="s">
+        <v>317</v>
       </c>
       <c r="I5" s="180"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="158" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="201">
-        <v>42947</v>
-      </c>
-      <c r="E6" s="201">
-        <v>45139</v>
-      </c>
-      <c r="F6" s="186">
-        <v>6</v>
+      <c r="D6" s="194">
+        <v>42593</v>
+      </c>
+      <c r="E6" s="194">
+        <v>45149</v>
+      </c>
+      <c r="F6" s="195">
+        <v>7</v>
       </c>
       <c r="G6" s="178">
         <v>22</v>
       </c>
       <c r="H6" s="88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="204" t="s">
-        <v>154</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="158" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="202">
-        <v>40032</v>
-      </c>
-      <c r="E7" s="202">
-        <v>45145</v>
-      </c>
-      <c r="F7" s="203">
-        <v>14</v>
-      </c>
-      <c r="G7" s="178">
+        <v>10</v>
+      </c>
+      <c r="D7" s="193">
+        <v>40329</v>
+      </c>
+      <c r="E7" s="193">
+        <v>45077</v>
+      </c>
+      <c r="F7" s="186">
+        <v>13</v>
+      </c>
+      <c r="G7" s="88">
         <v>24</v>
       </c>
-      <c r="H7" s="88" t="s">
-        <v>278</v>
+      <c r="H7" s="208" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16771,13 +16795,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3436,7 +3436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4013,6 +4013,15 @@
     <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4037,14 +4046,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4364,15 +4370,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5863,15 +5869,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="203"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="203"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="206"/>
+      <c r="G57" s="206"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="206"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7030,15 +7036,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="200" t="s">
+      <c r="C100" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="201"/>
-      <c r="E100" s="201"/>
-      <c r="F100" s="201"/>
-      <c r="G100" s="201"/>
-      <c r="H100" s="201"/>
-      <c r="I100" s="202"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="204"/>
+      <c r="F100" s="204"/>
+      <c r="G100" s="204"/>
+      <c r="H100" s="204"/>
+      <c r="I100" s="205"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7466,15 +7472,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="200" t="s">
+      <c r="C120" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="201"/>
-      <c r="E120" s="201"/>
-      <c r="F120" s="201"/>
-      <c r="G120" s="201"/>
-      <c r="H120" s="201"/>
-      <c r="I120" s="202"/>
+      <c r="D120" s="204"/>
+      <c r="E120" s="204"/>
+      <c r="F120" s="204"/>
+      <c r="G120" s="204"/>
+      <c r="H120" s="204"/>
+      <c r="I120" s="205"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7680,15 +7686,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="200" t="s">
+      <c r="C130" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="201"/>
-      <c r="E130" s="201"/>
-      <c r="F130" s="201"/>
-      <c r="G130" s="201"/>
-      <c r="H130" s="201"/>
-      <c r="I130" s="202"/>
+      <c r="D130" s="204"/>
+      <c r="E130" s="204"/>
+      <c r="F130" s="204"/>
+      <c r="G130" s="204"/>
+      <c r="H130" s="204"/>
+      <c r="I130" s="205"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8040,15 +8046,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="200" t="s">
+      <c r="C147" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="201"/>
-      <c r="E147" s="201"/>
-      <c r="F147" s="201"/>
-      <c r="G147" s="201"/>
-      <c r="H147" s="201"/>
-      <c r="I147" s="202"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="204"/>
+      <c r="F147" s="204"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
+      <c r="I147" s="205"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10253,8 +10259,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10278,15 +10284,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11114,25 +11120,25 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="85">
+      <c r="D33" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="211">
         <v>42593</v>
       </c>
-      <c r="F33" s="85">
+      <c r="F33" s="211">
         <v>45149</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="212">
         <v>7</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="109">
         <v>22</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="98" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -11956,15 +11962,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="203" t="s">
+      <c r="C76" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="203"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="203"/>
-      <c r="H76" s="203"/>
-      <c r="I76" s="203"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13242,15 +13248,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="200" t="s">
+      <c r="C127" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="201"/>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-      <c r="G127" s="201"/>
-      <c r="H127" s="201"/>
-      <c r="I127" s="202"/>
+      <c r="D127" s="204"/>
+      <c r="E127" s="204"/>
+      <c r="F127" s="204"/>
+      <c r="G127" s="204"/>
+      <c r="H127" s="204"/>
+      <c r="I127" s="205"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13693,15 +13699,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="200" t="s">
+      <c r="C147" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="201"/>
-      <c r="E147" s="201"/>
-      <c r="F147" s="201"/>
-      <c r="G147" s="201"/>
-      <c r="H147" s="201"/>
-      <c r="I147" s="202"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="204"/>
+      <c r="F147" s="204"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
+      <c r="I147" s="205"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13909,15 +13915,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="200" t="s">
+      <c r="C157" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="201"/>
-      <c r="E157" s="201"/>
-      <c r="F157" s="201"/>
-      <c r="G157" s="201"/>
-      <c r="H157" s="201"/>
-      <c r="I157" s="202"/>
+      <c r="D157" s="204"/>
+      <c r="E157" s="204"/>
+      <c r="F157" s="204"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
+      <c r="I157" s="205"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14295,15 +14301,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="200" t="s">
+      <c r="C178" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="201"/>
-      <c r="E178" s="201"/>
-      <c r="F178" s="201"/>
-      <c r="G178" s="201"/>
-      <c r="H178" s="201"/>
-      <c r="I178" s="202"/>
+      <c r="D178" s="204"/>
+      <c r="E178" s="204"/>
+      <c r="F178" s="204"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
+      <c r="I178" s="205"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16532,7 +16538,7 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -16549,15 +16555,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="208" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="207"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16584,10 +16590,10 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="202" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="156">
@@ -16602,7 +16608,7 @@
       <c r="G5" s="115">
         <v>16</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="200" t="s">
         <v>317</v>
       </c>
       <c r="I5" s="180"/>
@@ -16650,7 +16656,7 @@
       <c r="G7" s="88">
         <v>24</v>
       </c>
-      <c r="H7" s="208" t="s">
+      <c r="H7" s="200" t="s">
         <v>318</v>
       </c>
     </row>
@@ -16795,13 +16801,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="323">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2653,41 +2653,6 @@
   </si>
   <si>
     <t>(30 y 31 Dic 2022)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6 al 19 Nov 2023</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6 al 13 Nov 2023</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">ZAVALETA </t>
@@ -2903,9 +2868,6 @@
     </r>
   </si>
   <si>
-    <t>ya tomo  23--24 junio</t>
-  </si>
-  <si>
     <t>10 al 31 Jul 2023  NO LAS TOMO</t>
   </si>
   <si>
@@ -3024,26 +2986,49 @@
     <t>4 al   20 Agosto 2023</t>
   </si>
   <si>
-    <t>14 al 29 Agosto 2023                                                14 al 23 Ago 2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17 Jul al 9 Ago 2023   LAS CAMBIO ????                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14-Agosto 6-Septiembre</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">11 al 24 Sep 2023                                                                   </t>
+  </si>
+  <si>
+    <t>21 Ago al 11 Sep 2023                                                 21 al 27 Ago 2023</t>
+  </si>
+  <si>
+    <t>FUE NUEVA CONTRATACION</t>
+  </si>
+  <si>
+    <t>capoteros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Ago al 6  Sep 2023                                                          </t>
+  </si>
+  <si>
+    <t>ya tomo  23--24 junio---TOMO 3 dia  17-18-19 Agosto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 al 19 Nov 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                          21 de Agosto al   4  de Septiembre </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6 al 19 Nov 2023                                          21 de Agosto al   4  de Septiembre </t>
   </si>
 </sst>
 </file>
@@ -3436,7 +3421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3995,12 +3980,6 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4013,15 +3992,18 @@
     <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4046,11 +4028,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4060,10 +4057,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
@@ -4370,15 +4367,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5869,15 +5866,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="206" t="s">
+      <c r="C57" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="206"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="206"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="206"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="205"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7036,15 +7033,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="203" t="s">
+      <c r="C100" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="204"/>
-      <c r="E100" s="204"/>
-      <c r="F100" s="204"/>
-      <c r="G100" s="204"/>
-      <c r="H100" s="204"/>
-      <c r="I100" s="205"/>
+      <c r="D100" s="203"/>
+      <c r="E100" s="203"/>
+      <c r="F100" s="203"/>
+      <c r="G100" s="203"/>
+      <c r="H100" s="203"/>
+      <c r="I100" s="204"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7472,15 +7469,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="203" t="s">
+      <c r="C120" s="202" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="204"/>
-      <c r="E120" s="204"/>
-      <c r="F120" s="204"/>
-      <c r="G120" s="204"/>
-      <c r="H120" s="204"/>
-      <c r="I120" s="205"/>
+      <c r="D120" s="203"/>
+      <c r="E120" s="203"/>
+      <c r="F120" s="203"/>
+      <c r="G120" s="203"/>
+      <c r="H120" s="203"/>
+      <c r="I120" s="204"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7686,15 +7683,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="203" t="s">
+      <c r="C130" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="204"/>
-      <c r="E130" s="204"/>
-      <c r="F130" s="204"/>
-      <c r="G130" s="204"/>
-      <c r="H130" s="204"/>
-      <c r="I130" s="205"/>
+      <c r="D130" s="203"/>
+      <c r="E130" s="203"/>
+      <c r="F130" s="203"/>
+      <c r="G130" s="203"/>
+      <c r="H130" s="203"/>
+      <c r="I130" s="204"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8046,15 +8043,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="203" t="s">
+      <c r="C147" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="204"/>
-      <c r="E147" s="204"/>
-      <c r="F147" s="204"/>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
-      <c r="I147" s="205"/>
+      <c r="D147" s="203"/>
+      <c r="E147" s="203"/>
+      <c r="F147" s="203"/>
+      <c r="G147" s="203"/>
+      <c r="H147" s="203"/>
+      <c r="I147" s="204"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10259,8 +10256,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195:I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10284,15 +10281,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10399,7 +10396,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10486,7 +10483,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -10506,7 +10503,7 @@
         <v>41708</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G10" s="64">
         <v>9</v>
@@ -10670,7 +10667,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="70">
         <v>42814</v>
@@ -10685,7 +10682,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -10714,7 +10711,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>10</v>
@@ -10743,7 +10740,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>10</v>
@@ -10952,7 +10949,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10994,7 +10991,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>10</v>
@@ -11052,7 +11049,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="123" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>10</v>
@@ -11116,7 +11113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:10" s="14" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" s="14" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -11126,13 +11123,13 @@
       <c r="D33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="211">
+      <c r="E33" s="200">
         <v>42593</v>
       </c>
-      <c r="F33" s="211">
+      <c r="F33" s="200">
         <v>45149</v>
       </c>
-      <c r="G33" s="212">
+      <c r="G33" s="201">
         <v>7</v>
       </c>
       <c r="H33" s="109">
@@ -11145,94 +11142,96 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>31</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="D34" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="63">
         <v>42233</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="63">
         <v>45155</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="64">
         <v>8</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="65">
         <v>22</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="67" t="s">
         <v>70</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>32</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="D35" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="107">
         <v>44427</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="107">
         <v>45157</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="108">
         <v>2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="109">
         <v>14</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>33</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="D36" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="107">
         <v>44067</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="107">
         <v>45159</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="108">
         <v>3</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="109">
         <v>16</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="184" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+    </row>
+    <row r="37" spans="2:12" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>34</v>
       </c>
@@ -11258,10 +11257,10 @@
         <v>76</v>
       </c>
       <c r="J37" s="181" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>35</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="14" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" s="14" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>36</v>
       </c>
@@ -11319,7 +11318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>37</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>38</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
         <v>39</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>40</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
         <v>41</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
         <v>43</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:10" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>44</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -11962,15 +11961,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="206" t="s">
+      <c r="C76" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="206"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
+      <c r="D76" s="205"/>
+      <c r="E76" s="205"/>
+      <c r="F76" s="205"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="205"/>
+      <c r="I76" s="205"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12081,7 +12080,7 @@
         <v>38</v>
       </c>
       <c r="K80" s="101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12279,7 +12278,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>38</v>
@@ -12368,7 +12367,7 @@
         <v>38</v>
       </c>
       <c r="K90" s="101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="2:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12487,7 +12486,7 @@
         <v>38</v>
       </c>
       <c r="K94" s="159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L94" s="159"/>
       <c r="M94" s="159"/>
@@ -12631,7 +12630,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>38</v>
@@ -12697,23 +12696,25 @@
       <c r="B102" s="8">
         <v>25</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11">
+      <c r="D102" s="106" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" s="107">
         <v>44788</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="107">
         <v>45153</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="108">
         <v>1</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="109">
         <v>12</v>
       </c>
-      <c r="I102" s="32" t="s">
+      <c r="I102" s="210" t="s">
         <v>157</v>
       </c>
       <c r="J102" s="14" t="s">
@@ -13135,7 +13136,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
       <c r="I117" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13155,7 +13156,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
       <c r="I118" s="112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13248,15 +13249,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="203" t="s">
+      <c r="C127" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="204"/>
-      <c r="E127" s="204"/>
-      <c r="F127" s="204"/>
-      <c r="G127" s="204"/>
-      <c r="H127" s="204"/>
-      <c r="I127" s="205"/>
+      <c r="D127" s="203"/>
+      <c r="E127" s="203"/>
+      <c r="F127" s="203"/>
+      <c r="G127" s="203"/>
+      <c r="H127" s="203"/>
+      <c r="I127" s="204"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13378,10 +13379,10 @@
         <v>22</v>
       </c>
       <c r="I132" s="93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J132" s="183" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="K132" s="184"/>
     </row>
@@ -13406,10 +13407,10 @@
         <v>20</v>
       </c>
       <c r="I133" s="190" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J133" s="180" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13456,10 +13457,10 @@
         <v>26</v>
       </c>
       <c r="I135" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="J135" s="196" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="J135" s="194" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13506,7 +13507,7 @@
         <v>22</v>
       </c>
       <c r="I137" s="87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J137" s="26"/>
     </row>
@@ -13537,23 +13538,23 @@
       <c r="B139" s="8">
         <v>11</v>
       </c>
-      <c r="C139" s="45" t="s">
+      <c r="C139" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="19">
+      <c r="D139" s="69"/>
+      <c r="E139" s="70">
         <v>44060</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="70">
         <v>45155</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="66">
         <v>3</v>
       </c>
-      <c r="H139" s="13">
+      <c r="H139" s="65">
         <v>16</v>
       </c>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="67" t="s">
         <v>198</v>
       </c>
       <c r="J139" s="26"/>
@@ -13579,7 +13580,7 @@
         <v>22</v>
       </c>
       <c r="I140" s="189" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J140" s="26"/>
     </row>
@@ -13629,7 +13630,7 @@
         <v>18</v>
       </c>
       <c r="I142" s="182" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J142" s="192"/>
     </row>
@@ -13637,14 +13638,14 @@
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="197" t="s">
+      <c r="C143" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="198"/>
-      <c r="E143" s="199">
+      <c r="D143" s="196"/>
+      <c r="E143" s="197">
         <v>44144</v>
       </c>
-      <c r="F143" s="199">
+      <c r="F143" s="197">
         <v>45239</v>
       </c>
       <c r="G143" s="98">
@@ -13657,7 +13658,7 @@
         <v>204</v>
       </c>
       <c r="J143" s="177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13699,15 +13700,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="203" t="s">
+      <c r="C147" s="202" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="204"/>
-      <c r="E147" s="204"/>
-      <c r="F147" s="204"/>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
-      <c r="I147" s="205"/>
+      <c r="D147" s="203"/>
+      <c r="E147" s="203"/>
+      <c r="F147" s="203"/>
+      <c r="G147" s="203"/>
+      <c r="H147" s="203"/>
+      <c r="I147" s="204"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13741,7 +13742,7 @@
         <v>206</v>
       </c>
       <c r="D149" s="69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E149" s="70">
         <v>40567</v>
@@ -13852,7 +13853,7 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13915,15 +13916,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="203" t="s">
+      <c r="C157" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="204"/>
-      <c r="E157" s="204"/>
-      <c r="F157" s="204"/>
-      <c r="G157" s="204"/>
-      <c r="H157" s="204"/>
-      <c r="I157" s="205"/>
+      <c r="D157" s="203"/>
+      <c r="E157" s="203"/>
+      <c r="F157" s="203"/>
+      <c r="G157" s="203"/>
+      <c r="H157" s="203"/>
+      <c r="I157" s="204"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -13994,7 +13995,7 @@
         <v>12</v>
       </c>
       <c r="I160" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14138,7 +14139,7 @@
         <v>14</v>
       </c>
       <c r="I166" s="99" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14301,15 +14302,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="203" t="s">
+      <c r="C178" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="204"/>
-      <c r="E178" s="204"/>
-      <c r="F178" s="204"/>
-      <c r="G178" s="204"/>
-      <c r="H178" s="204"/>
-      <c r="I178" s="205"/>
+      <c r="D178" s="203"/>
+      <c r="E178" s="203"/>
+      <c r="F178" s="203"/>
+      <c r="G178" s="203"/>
+      <c r="H178" s="203"/>
+      <c r="I178" s="204"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14385,7 +14386,7 @@
         <v>121</v>
       </c>
       <c r="J181" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14409,7 +14410,7 @@
         <v>12</v>
       </c>
       <c r="I182" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14516,7 +14517,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D187" s="69"/>
       <c r="E187" s="70">
@@ -14532,7 +14533,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14580,7 +14581,7 @@
         <v>12</v>
       </c>
       <c r="I189" s="67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14604,7 +14605,7 @@
         <v>18</v>
       </c>
       <c r="I190" s="67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14703,7 +14704,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="195" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" s="14" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="8">
         <v>16</v>
       </c>
@@ -14724,7 +14725,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16538,16 +16539,16 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
@@ -16555,15 +16556,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="208" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
+      <c r="B3" s="207" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16590,74 +16591,72 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="201" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="202" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="156">
-        <v>44053</v>
-      </c>
-      <c r="E5" s="156">
-        <v>45148</v>
-      </c>
-      <c r="F5" s="157">
-        <v>3</v>
-      </c>
-      <c r="G5" s="115">
-        <v>16</v>
-      </c>
-      <c r="H5" s="200" t="s">
-        <v>317</v>
+      <c r="B5" s="158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="193">
+        <v>42233</v>
+      </c>
+      <c r="E5" s="193">
+        <v>45155</v>
+      </c>
+      <c r="F5" s="186">
+        <v>8</v>
+      </c>
+      <c r="G5" s="178">
+        <v>22</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>316</v>
       </c>
       <c r="I5" s="180"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="194">
-        <v>42593</v>
-      </c>
-      <c r="E6" s="194">
-        <v>45149</v>
-      </c>
-      <c r="F6" s="195">
-        <v>7</v>
-      </c>
-      <c r="G6" s="178">
-        <v>22</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>68</v>
+      <c r="B6" s="213" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="198"/>
+      <c r="D6" s="214">
+        <v>44060</v>
+      </c>
+      <c r="E6" s="214">
+        <v>45155</v>
+      </c>
+      <c r="F6" s="199">
+        <v>3</v>
+      </c>
+      <c r="G6" s="215">
+        <v>16</v>
+      </c>
+      <c r="H6" s="216" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="158" t="s">
-        <v>53</v>
+      <c r="B7" s="211" t="s">
+        <v>270</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="193">
-        <v>40329</v>
-      </c>
-      <c r="E7" s="193">
-        <v>45077</v>
-      </c>
-      <c r="F7" s="186">
-        <v>13</v>
-      </c>
-      <c r="G7" s="88">
-        <v>24</v>
-      </c>
-      <c r="H7" s="200" t="s">
-        <v>318</v>
+        <v>281</v>
+      </c>
+      <c r="D7" s="212">
+        <v>44137</v>
+      </c>
+      <c r="E7" s="212">
+        <v>45232</v>
+      </c>
+      <c r="F7" s="88">
+        <v>2</v>
+      </c>
+      <c r="G7" s="178">
+        <v>14</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16801,13 +16800,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="207"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
@@ -16933,7 +16932,7 @@
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="129"/>
       <c r="D3" s="169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16974,7 +16973,7 @@
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="174"/>
     </row>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="324">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3029,6 +3029,9 @@
   </si>
   <si>
     <t xml:space="preserve">6 al 19 Nov 2023                                          21 de Agosto al   4  de Septiembre </t>
+  </si>
+  <si>
+    <t>Tomo 2-3 Enero 2023</t>
   </si>
 </sst>
 </file>
@@ -3421,7 +3424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4004,6 +4007,27 @@
     <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4028,26 +4052,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4057,8 +4063,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
@@ -4367,15 +4373,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5866,15 +5872,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="205" t="s">
+      <c r="C57" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
-      <c r="I57" s="205"/>
+      <c r="D57" s="212"/>
+      <c r="E57" s="212"/>
+      <c r="F57" s="212"/>
+      <c r="G57" s="212"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="212"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7033,15 +7039,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="202" t="s">
+      <c r="C100" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="203"/>
-      <c r="E100" s="203"/>
-      <c r="F100" s="203"/>
-      <c r="G100" s="203"/>
-      <c r="H100" s="203"/>
-      <c r="I100" s="204"/>
+      <c r="D100" s="210"/>
+      <c r="E100" s="210"/>
+      <c r="F100" s="210"/>
+      <c r="G100" s="210"/>
+      <c r="H100" s="210"/>
+      <c r="I100" s="211"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7469,15 +7475,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="202" t="s">
+      <c r="C120" s="209" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="203"/>
-      <c r="E120" s="203"/>
-      <c r="F120" s="203"/>
-      <c r="G120" s="203"/>
-      <c r="H120" s="203"/>
-      <c r="I120" s="204"/>
+      <c r="D120" s="210"/>
+      <c r="E120" s="210"/>
+      <c r="F120" s="210"/>
+      <c r="G120" s="210"/>
+      <c r="H120" s="210"/>
+      <c r="I120" s="211"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7683,15 +7689,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="202" t="s">
+      <c r="C130" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="203"/>
-      <c r="E130" s="203"/>
-      <c r="F130" s="203"/>
-      <c r="G130" s="203"/>
-      <c r="H130" s="203"/>
-      <c r="I130" s="204"/>
+      <c r="D130" s="210"/>
+      <c r="E130" s="210"/>
+      <c r="F130" s="210"/>
+      <c r="G130" s="210"/>
+      <c r="H130" s="210"/>
+      <c r="I130" s="211"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8043,15 +8049,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="202" t="s">
+      <c r="C147" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="203"/>
-      <c r="E147" s="203"/>
-      <c r="F147" s="203"/>
-      <c r="G147" s="203"/>
-      <c r="H147" s="203"/>
-      <c r="I147" s="204"/>
+      <c r="D147" s="210"/>
+      <c r="E147" s="210"/>
+      <c r="F147" s="210"/>
+      <c r="G147" s="210"/>
+      <c r="H147" s="210"/>
+      <c r="I147" s="211"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10256,8 +10262,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195:I195"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10281,15 +10287,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11961,15 +11967,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="205" t="s">
+      <c r="C76" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="205"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="205"/>
-      <c r="I76" s="205"/>
+      <c r="D76" s="212"/>
+      <c r="E76" s="212"/>
+      <c r="F76" s="212"/>
+      <c r="G76" s="212"/>
+      <c r="H76" s="212"/>
+      <c r="I76" s="212"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12658,7 +12664,9 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="8"/>
+      <c r="I100" s="217" t="s">
+        <v>323</v>
+      </c>
       <c r="J100" s="14" t="s">
         <v>38</v>
       </c>
@@ -12714,11 +12722,11 @@
       <c r="H102" s="109">
         <v>12</v>
       </c>
-      <c r="I102" s="210" t="s">
+      <c r="I102" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="J102" s="14" t="s">
-        <v>38</v>
+      <c r="J102" s="177" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:10" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13249,15 +13257,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="202" t="s">
+      <c r="C127" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="203"/>
-      <c r="E127" s="203"/>
-      <c r="F127" s="203"/>
-      <c r="G127" s="203"/>
-      <c r="H127" s="203"/>
-      <c r="I127" s="204"/>
+      <c r="D127" s="210"/>
+      <c r="E127" s="210"/>
+      <c r="F127" s="210"/>
+      <c r="G127" s="210"/>
+      <c r="H127" s="210"/>
+      <c r="I127" s="211"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13700,15 +13708,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="202" t="s">
+      <c r="C147" s="209" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="203"/>
-      <c r="E147" s="203"/>
-      <c r="F147" s="203"/>
-      <c r="G147" s="203"/>
-      <c r="H147" s="203"/>
-      <c r="I147" s="204"/>
+      <c r="D147" s="210"/>
+      <c r="E147" s="210"/>
+      <c r="F147" s="210"/>
+      <c r="G147" s="210"/>
+      <c r="H147" s="210"/>
+      <c r="I147" s="211"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13916,15 +13924,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="202" t="s">
+      <c r="C157" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="203"/>
-      <c r="E157" s="203"/>
-      <c r="F157" s="203"/>
-      <c r="G157" s="203"/>
-      <c r="H157" s="203"/>
-      <c r="I157" s="204"/>
+      <c r="D157" s="210"/>
+      <c r="E157" s="210"/>
+      <c r="F157" s="210"/>
+      <c r="G157" s="210"/>
+      <c r="H157" s="210"/>
+      <c r="I157" s="211"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14302,15 +14310,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="202" t="s">
+      <c r="C178" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="203"/>
-      <c r="E178" s="203"/>
-      <c r="F178" s="203"/>
-      <c r="G178" s="203"/>
-      <c r="H178" s="203"/>
-      <c r="I178" s="204"/>
+      <c r="D178" s="210"/>
+      <c r="E178" s="210"/>
+      <c r="F178" s="210"/>
+      <c r="G178" s="210"/>
+      <c r="H178" s="210"/>
+      <c r="I178" s="211"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16539,7 +16547,7 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -16556,15 +16564,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="214" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16616,37 +16624,37 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="205" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="198"/>
-      <c r="D6" s="214">
+      <c r="D6" s="206">
         <v>44060</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="206">
         <v>45155</v>
       </c>
       <c r="F6" s="199">
         <v>3</v>
       </c>
-      <c r="G6" s="215">
+      <c r="G6" s="207">
         <v>16</v>
       </c>
-      <c r="H6" s="216" t="s">
+      <c r="H6" s="208" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="203" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="212">
+      <c r="D7" s="204">
         <v>44137</v>
       </c>
-      <c r="E7" s="212">
+      <c r="E7" s="204">
         <v>45232</v>
       </c>
       <c r="F7" s="88">
@@ -16800,13 +16808,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="324">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2874,9 +2874,6 @@
     <t>parciales</t>
   </si>
   <si>
-    <t>24 y 25  Julio</t>
-  </si>
-  <si>
     <t>14 al 27 Julio 2023</t>
   </si>
   <si>
@@ -2989,18 +2986,12 @@
     <t xml:space="preserve">11 al 24 Sep 2023                                                                   </t>
   </si>
   <si>
-    <t>21 Ago al 11 Sep 2023                                                 21 al 27 Ago 2023</t>
-  </si>
-  <si>
     <t>FUE NUEVA CONTRATACION</t>
   </si>
   <si>
     <t>capoteros</t>
   </si>
   <si>
-    <t xml:space="preserve">22 Ago al 6  Sep 2023                                                          </t>
-  </si>
-  <si>
     <t>ya tomo  23--24 junio---TOMO 3 dia  17-18-19 Agosto</t>
   </si>
   <si>
@@ -3028,10 +3019,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">6 al 19 Nov 2023                                          21 de Agosto al   4  de Septiembre </t>
-  </si>
-  <si>
     <t>Tomo 2-3 Enero 2023</t>
+  </si>
+  <si>
+    <t>REINGRESO</t>
+  </si>
+  <si>
+    <t>28 Ago al 12 Sep 2023                                     28 Ago al 3 Sep 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28 Ago al 18 Sep 2023                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           28 Ago al 3 Sep 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>24 y 25  Julio  Y 28 al 3 Sept</t>
   </si>
 </sst>
 </file>
@@ -3424,7 +3437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3995,12 +4008,6 @@
     <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4010,23 +4017,8 @@
     <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4052,8 +4044,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4373,15 +4374,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5872,15 +5873,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="212" t="s">
+      <c r="C57" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="212"/>
-      <c r="E57" s="212"/>
-      <c r="F57" s="212"/>
-      <c r="G57" s="212"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="212"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="205"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7039,15 +7040,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="209" t="s">
+      <c r="C100" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="210"/>
-      <c r="E100" s="210"/>
-      <c r="F100" s="210"/>
-      <c r="G100" s="210"/>
-      <c r="H100" s="210"/>
-      <c r="I100" s="211"/>
+      <c r="D100" s="203"/>
+      <c r="E100" s="203"/>
+      <c r="F100" s="203"/>
+      <c r="G100" s="203"/>
+      <c r="H100" s="203"/>
+      <c r="I100" s="204"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7475,15 +7476,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="209" t="s">
+      <c r="C120" s="202" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="210"/>
-      <c r="E120" s="210"/>
-      <c r="F120" s="210"/>
-      <c r="G120" s="210"/>
-      <c r="H120" s="210"/>
-      <c r="I120" s="211"/>
+      <c r="D120" s="203"/>
+      <c r="E120" s="203"/>
+      <c r="F120" s="203"/>
+      <c r="G120" s="203"/>
+      <c r="H120" s="203"/>
+      <c r="I120" s="204"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7689,15 +7690,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="209" t="s">
+      <c r="C130" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="210"/>
-      <c r="E130" s="210"/>
-      <c r="F130" s="210"/>
-      <c r="G130" s="210"/>
-      <c r="H130" s="210"/>
-      <c r="I130" s="211"/>
+      <c r="D130" s="203"/>
+      <c r="E130" s="203"/>
+      <c r="F130" s="203"/>
+      <c r="G130" s="203"/>
+      <c r="H130" s="203"/>
+      <c r="I130" s="204"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8049,15 +8050,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="209" t="s">
+      <c r="C147" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
-      <c r="G147" s="210"/>
-      <c r="H147" s="210"/>
-      <c r="I147" s="211"/>
+      <c r="D147" s="203"/>
+      <c r="E147" s="203"/>
+      <c r="F147" s="203"/>
+      <c r="G147" s="203"/>
+      <c r="H147" s="203"/>
+      <c r="I147" s="204"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10262,8 +10263,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,15 +10288,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10402,7 +10403,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10955,7 +10956,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10997,7 +10998,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>10</v>
@@ -11055,7 +11056,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>10</v>
@@ -11129,13 +11130,13 @@
       <c r="D33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="200">
+      <c r="E33" s="198">
         <v>42593</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="198">
         <v>45149</v>
       </c>
-      <c r="G33" s="201">
+      <c r="G33" s="199">
         <v>7</v>
       </c>
       <c r="H33" s="109">
@@ -11232,7 +11233,7 @@
         <v>74</v>
       </c>
       <c r="J36" s="184" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K36" s="184"/>
       <c r="L36" s="184"/>
@@ -11241,30 +11242,31 @@
       <c r="B37" s="8">
         <v>34</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="D37" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="63">
         <v>42968</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="63">
         <v>45160</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="64">
         <v>6</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="65">
         <v>22</v>
       </c>
-      <c r="I37" s="189" t="s">
+      <c r="I37" s="67" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="181" t="s">
-        <v>304</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K37" s="213"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11288,10 +11290,10 @@
       <c r="H38" s="13">
         <v>14</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="14" t="s">
+      <c r="I38" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" s="177" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11299,28 +11301,28 @@
       <c r="B39" s="8">
         <v>36</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="D39" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="63">
         <v>44432</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="63">
         <v>45163</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="64">
         <v>2</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="65">
         <v>14</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="212" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11328,28 +11330,28 @@
       <c r="B40" s="8">
         <v>37</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="D40" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="63">
         <v>44067</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="63">
         <v>45162</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="64">
         <v>3</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="65">
         <v>16</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="212" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11967,15 +11969,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="212" t="s">
+      <c r="C76" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="212"/>
-      <c r="E76" s="212"/>
-      <c r="F76" s="212"/>
-      <c r="G76" s="212"/>
-      <c r="H76" s="212"/>
-      <c r="I76" s="212"/>
+      <c r="D76" s="205"/>
+      <c r="E76" s="205"/>
+      <c r="F76" s="205"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="205"/>
+      <c r="I76" s="205"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12636,7 +12638,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>38</v>
@@ -12664,8 +12666,8 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="217" t="s">
-        <v>323</v>
+      <c r="I100" s="201" t="s">
+        <v>319</v>
       </c>
       <c r="J100" s="14" t="s">
         <v>38</v>
@@ -12708,7 +12710,7 @@
         <v>156</v>
       </c>
       <c r="D102" s="106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E102" s="107">
         <v>44788</v>
@@ -12722,7 +12724,7 @@
       <c r="H102" s="109">
         <v>12</v>
       </c>
-      <c r="I102" s="202" t="s">
+      <c r="I102" s="200" t="s">
         <v>157</v>
       </c>
       <c r="J102" s="177" t="s">
@@ -13257,15 +13259,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="209" t="s">
+      <c r="C127" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="210"/>
-      <c r="E127" s="210"/>
-      <c r="F127" s="210"/>
-      <c r="G127" s="210"/>
-      <c r="H127" s="210"/>
-      <c r="I127" s="211"/>
+      <c r="D127" s="203"/>
+      <c r="E127" s="203"/>
+      <c r="F127" s="203"/>
+      <c r="G127" s="203"/>
+      <c r="H127" s="203"/>
+      <c r="I127" s="204"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13390,7 +13392,7 @@
         <v>302</v>
       </c>
       <c r="J132" s="183" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K132" s="184"/>
     </row>
@@ -13415,7 +13417,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="190" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J133" s="180" t="s">
         <v>303</v>
@@ -13465,7 +13467,7 @@
         <v>26</v>
       </c>
       <c r="I135" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J135" s="194" t="s">
         <v>303</v>
@@ -13588,7 +13590,7 @@
         <v>22</v>
       </c>
       <c r="I140" s="189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J140" s="26"/>
     </row>
@@ -13638,7 +13640,7 @@
         <v>18</v>
       </c>
       <c r="I142" s="182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J142" s="192"/>
     </row>
@@ -13708,15 +13710,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="209" t="s">
+      <c r="C147" s="202" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
-      <c r="G147" s="210"/>
-      <c r="H147" s="210"/>
-      <c r="I147" s="211"/>
+      <c r="D147" s="203"/>
+      <c r="E147" s="203"/>
+      <c r="F147" s="203"/>
+      <c r="G147" s="203"/>
+      <c r="H147" s="203"/>
+      <c r="I147" s="204"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13924,15 +13926,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="209" t="s">
+      <c r="C157" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="210"/>
-      <c r="E157" s="210"/>
-      <c r="F157" s="210"/>
-      <c r="G157" s="210"/>
-      <c r="H157" s="210"/>
-      <c r="I157" s="211"/>
+      <c r="D157" s="203"/>
+      <c r="E157" s="203"/>
+      <c r="F157" s="203"/>
+      <c r="G157" s="203"/>
+      <c r="H157" s="203"/>
+      <c r="I157" s="204"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14147,7 +14149,7 @@
         <v>14</v>
       </c>
       <c r="I166" s="99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14310,15 +14312,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="209" t="s">
+      <c r="C178" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="210"/>
-      <c r="E178" s="210"/>
-      <c r="F178" s="210"/>
-      <c r="G178" s="210"/>
-      <c r="H178" s="210"/>
-      <c r="I178" s="211"/>
+      <c r="D178" s="203"/>
+      <c r="E178" s="203"/>
+      <c r="F178" s="203"/>
+      <c r="G178" s="203"/>
+      <c r="H178" s="203"/>
+      <c r="I178" s="204"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14613,7 +14615,7 @@
         <v>18</v>
       </c>
       <c r="I190" s="67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14733,7 +14735,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16547,8 +16549,8 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16564,15 +16566,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="207" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16599,71 +16601,74 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
-        <v>69</v>
+      <c r="B5" s="210" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="193">
-        <v>42233</v>
+        <v>44432</v>
       </c>
       <c r="E5" s="193">
-        <v>45155</v>
+        <v>45163</v>
       </c>
       <c r="F5" s="186">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" s="178">
+        <v>14</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="211" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="193">
+        <v>44067</v>
+      </c>
+      <c r="E6" s="193">
+        <v>45162</v>
+      </c>
+      <c r="F6" s="186">
+        <v>3</v>
+      </c>
+      <c r="G6" s="178">
+        <v>16</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="165" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="156">
+        <v>42968</v>
+      </c>
+      <c r="E7" s="156">
+        <v>45160</v>
+      </c>
+      <c r="F7" s="157">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13">
         <v>22</v>
       </c>
-      <c r="H5" s="99" t="s">
-        <v>316</v>
-      </c>
-      <c r="I5" s="180"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="205" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="206">
-        <v>44060</v>
-      </c>
-      <c r="E6" s="206">
-        <v>45155</v>
-      </c>
-      <c r="F6" s="199">
-        <v>3</v>
-      </c>
-      <c r="G6" s="207">
-        <v>16</v>
-      </c>
-      <c r="H6" s="208" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="203" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="204">
-        <v>44137</v>
-      </c>
-      <c r="E7" s="204">
-        <v>45232</v>
-      </c>
-      <c r="F7" s="88">
-        <v>2</v>
-      </c>
-      <c r="G7" s="178">
-        <v>14</v>
-      </c>
-      <c r="H7" s="99" t="s">
+      <c r="H7" s="15" t="s">
         <v>322</v>
       </c>
     </row>
@@ -16808,13 +16813,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3271,6 +3271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3437,7 +3443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4020,6 +4026,18 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4044,17 +4062,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4064,9 +4073,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FF99"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFCCFFFF"/>
@@ -4374,15 +4385,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5873,15 +5884,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="205" t="s">
+      <c r="C57" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
-      <c r="I57" s="205"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="209"/>
+      <c r="F57" s="209"/>
+      <c r="G57" s="209"/>
+      <c r="H57" s="209"/>
+      <c r="I57" s="209"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7040,15 +7051,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="202" t="s">
+      <c r="C100" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="203"/>
-      <c r="E100" s="203"/>
-      <c r="F100" s="203"/>
-      <c r="G100" s="203"/>
-      <c r="H100" s="203"/>
-      <c r="I100" s="204"/>
+      <c r="D100" s="207"/>
+      <c r="E100" s="207"/>
+      <c r="F100" s="207"/>
+      <c r="G100" s="207"/>
+      <c r="H100" s="207"/>
+      <c r="I100" s="208"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7476,15 +7487,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="202" t="s">
+      <c r="C120" s="206" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="203"/>
-      <c r="E120" s="203"/>
-      <c r="F120" s="203"/>
-      <c r="G120" s="203"/>
-      <c r="H120" s="203"/>
-      <c r="I120" s="204"/>
+      <c r="D120" s="207"/>
+      <c r="E120" s="207"/>
+      <c r="F120" s="207"/>
+      <c r="G120" s="207"/>
+      <c r="H120" s="207"/>
+      <c r="I120" s="208"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7690,15 +7701,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="202" t="s">
+      <c r="C130" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="203"/>
-      <c r="E130" s="203"/>
-      <c r="F130" s="203"/>
-      <c r="G130" s="203"/>
-      <c r="H130" s="203"/>
-      <c r="I130" s="204"/>
+      <c r="D130" s="207"/>
+      <c r="E130" s="207"/>
+      <c r="F130" s="207"/>
+      <c r="G130" s="207"/>
+      <c r="H130" s="207"/>
+      <c r="I130" s="208"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8050,15 +8061,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="202" t="s">
+      <c r="C147" s="206" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="203"/>
-      <c r="E147" s="203"/>
-      <c r="F147" s="203"/>
-      <c r="G147" s="203"/>
-      <c r="H147" s="203"/>
-      <c r="I147" s="204"/>
+      <c r="D147" s="207"/>
+      <c r="E147" s="207"/>
+      <c r="F147" s="207"/>
+      <c r="G147" s="207"/>
+      <c r="H147" s="207"/>
+      <c r="I147" s="208"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10263,8 +10274,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10288,15 +10299,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11266,7 +11277,7 @@
       <c r="J37" s="181" t="s">
         <v>323</v>
       </c>
-      <c r="K37" s="213"/>
+      <c r="K37" s="205"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11322,7 +11333,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="212" t="s">
+      <c r="J39" s="204" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11351,7 +11362,7 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="212" t="s">
+      <c r="J40" s="204" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11969,15 +11980,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="205" t="s">
+      <c r="C76" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="205"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="205"/>
-      <c r="I76" s="205"/>
+      <c r="D76" s="209"/>
+      <c r="E76" s="209"/>
+      <c r="F76" s="209"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="209"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12753,7 +12764,7 @@
       <c r="H103" s="13">
         <v>24</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="214" t="s">
         <v>159</v>
       </c>
       <c r="J103" s="14" t="s">
@@ -13259,15 +13270,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="202" t="s">
+      <c r="C127" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="203"/>
-      <c r="E127" s="203"/>
-      <c r="F127" s="203"/>
-      <c r="G127" s="203"/>
-      <c r="H127" s="203"/>
-      <c r="I127" s="204"/>
+      <c r="D127" s="207"/>
+      <c r="E127" s="207"/>
+      <c r="F127" s="207"/>
+      <c r="G127" s="207"/>
+      <c r="H127" s="207"/>
+      <c r="I127" s="208"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13710,15 +13721,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="202" t="s">
+      <c r="C147" s="206" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="203"/>
-      <c r="E147" s="203"/>
-      <c r="F147" s="203"/>
-      <c r="G147" s="203"/>
-      <c r="H147" s="203"/>
-      <c r="I147" s="204"/>
+      <c r="D147" s="207"/>
+      <c r="E147" s="207"/>
+      <c r="F147" s="207"/>
+      <c r="G147" s="207"/>
+      <c r="H147" s="207"/>
+      <c r="I147" s="208"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13926,15 +13937,15 @@
     </row>
     <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="202" t="s">
+      <c r="C157" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="203"/>
-      <c r="E157" s="203"/>
-      <c r="F157" s="203"/>
-      <c r="G157" s="203"/>
-      <c r="H157" s="203"/>
-      <c r="I157" s="204"/>
+      <c r="D157" s="207"/>
+      <c r="E157" s="207"/>
+      <c r="F157" s="207"/>
+      <c r="G157" s="207"/>
+      <c r="H157" s="207"/>
+      <c r="I157" s="208"/>
     </row>
     <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14312,15 +14323,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="202" t="s">
+      <c r="C178" s="206" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="203"/>
-      <c r="E178" s="203"/>
-      <c r="F178" s="203"/>
-      <c r="G178" s="203"/>
-      <c r="H178" s="203"/>
-      <c r="I178" s="204"/>
+      <c r="D178" s="207"/>
+      <c r="E178" s="207"/>
+      <c r="F178" s="207"/>
+      <c r="G178" s="207"/>
+      <c r="H178" s="207"/>
+      <c r="I178" s="208"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16549,7 +16560,7 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -16566,15 +16577,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="211" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="213"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16601,7 +16612,7 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="202" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -16626,7 +16637,7 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="203" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="88" t="s">
@@ -16813,13 +16824,13 @@
       <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="326">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -2721,9 +2721,6 @@
   </si>
   <si>
     <t>MARZO--2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-AL 26 MARZO 2023                           11 al 13 AGOSTO                                  28 al 30 Agosto </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2923,9 +2920,6 @@
     </r>
   </si>
   <si>
-    <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????                                     14-Agosto 6-Septiembre</t>
-  </si>
-  <si>
     <t>20-Feb- al  26-Feb-2023  ( 7 dias )  24-al  30-Jul-2023  ( 7 dias )</t>
   </si>
   <si>
@@ -2986,9 +2980,6 @@
     <t xml:space="preserve">11 al 24 Sep 2023                                                                   </t>
   </si>
   <si>
-    <t>FUE NUEVA CONTRATACION</t>
-  </si>
-  <si>
     <t>capoteros</t>
   </si>
   <si>
@@ -3025,26 +3016,28 @@
     <t>REINGRESO</t>
   </si>
   <si>
-    <t>28 Ago al 12 Sep 2023                                     28 Ago al 3 Sep 2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">28 Ago al 18 Sep 2023                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">           28 Ago al 3 Sep 2023</t>
-    </r>
-  </si>
-  <si>
     <t>24 y 25  Julio  Y 28 al 3 Sept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-AL 26 MARZO 2023                           09 al 12 AGOSTO                                  28 al 30 Agosto </t>
+  </si>
+  <si>
+    <t>27 Feb  al  20 de Marzo  2023</t>
+  </si>
+  <si>
+    <t>INCAPACIDAD EMBARAZO</t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
+  </si>
+  <si>
+    <t>AÑO  2024</t>
+  </si>
+  <si>
+    <t>8-al 13 agosto</t>
+  </si>
+  <si>
+    <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????       14-Agosto 6-Septiembre</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3271,12 +3264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3443,7 +3430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3740,9 +3727,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3779,34 +3763,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4026,9 +3983,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4038,6 +3992,39 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4060,9 +4047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4073,10 +4057,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
@@ -10274,8 +10258,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10414,7 +10398,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>10</v>
@@ -10482,7 +10466,7 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="61" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -10500,8 +10484,8 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="114" t="s">
-        <v>293</v>
+      <c r="I9" s="195" t="s">
+        <v>319</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>10</v>
@@ -10521,7 +10505,7 @@
         <v>41708</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="64">
         <v>9</v>
@@ -10582,10 +10566,10 @@
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="65">
         <v>14</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="67" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -10768,28 +10752,28 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="107">
+      <c r="D19" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="106">
         <v>42096</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="106">
         <v>45201</v>
       </c>
-      <c r="G19" s="108">
+      <c r="G19" s="107">
         <v>6</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="108">
         <v>22</v>
       </c>
       <c r="I19" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="177" t="s">
+      <c r="J19" s="167" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10797,23 +10781,23 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104">
+      <c r="D20" s="62"/>
+      <c r="E20" s="63">
         <v>44655</v>
       </c>
-      <c r="F20" s="104">
+      <c r="F20" s="63">
         <v>45020</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="64">
         <v>1</v>
       </c>
-      <c r="H20" s="100">
+      <c r="H20" s="65">
         <v>12</v>
       </c>
-      <c r="I20" s="117" t="s">
+      <c r="I20" s="66" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -10967,7 +10951,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="67" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>10</v>
@@ -10992,7 +10976,7 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="177" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="97"/>
@@ -11009,7 +10993,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>10</v>
@@ -11044,7 +11028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="14" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" s="14" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -11066,8 +11050,8 @@
       <c r="H30" s="8">
         <v>26</v>
       </c>
-      <c r="I30" s="123" t="s">
-        <v>308</v>
+      <c r="I30" s="113" t="s">
+        <v>307</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>10</v>
@@ -11135,22 +11119,22 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="198">
+      <c r="D33" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="188">
         <v>42593</v>
       </c>
-      <c r="F33" s="198">
+      <c r="F33" s="188">
         <v>45149</v>
       </c>
-      <c r="G33" s="199">
+      <c r="G33" s="189">
         <v>7</v>
       </c>
-      <c r="H33" s="109">
+      <c r="H33" s="108">
         <v>22</v>
       </c>
       <c r="I33" s="98" t="s">
@@ -11193,28 +11177,28 @@
       <c r="B35" s="8">
         <v>32</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="107">
+      <c r="D35" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="106">
         <v>44427</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="106">
         <v>45157</v>
       </c>
-      <c r="G35" s="108">
+      <c r="G35" s="107">
         <v>2</v>
       </c>
-      <c r="H35" s="109">
+      <c r="H35" s="108">
         <v>14</v>
       </c>
-      <c r="I35" s="110" t="s">
+      <c r="I35" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="177" t="s">
+      <c r="J35" s="167" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11222,32 +11206,26 @@
       <c r="B36" s="8">
         <v>33</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="107">
-        <v>44067</v>
-      </c>
-      <c r="F36" s="107">
-        <v>45159</v>
-      </c>
-      <c r="G36" s="108">
-        <v>3</v>
-      </c>
-      <c r="H36" s="109">
-        <v>16</v>
-      </c>
-      <c r="I36" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" s="184" t="s">
-        <v>315</v>
-      </c>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
+      <c r="D36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11">
+        <v>45075</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="178" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" s="205" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="2:12" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
@@ -11274,10 +11252,10 @@
       <c r="I37" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="181" t="s">
-        <v>323</v>
-      </c>
-      <c r="K37" s="205"/>
+      <c r="J37" s="171" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" s="194"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11290,21 +11268,19 @@
         <v>10</v>
       </c>
       <c r="E38" s="11">
-        <v>44432</v>
-      </c>
-      <c r="F38" s="11">
-        <v>45163</v>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="F38" s="11"/>
       <c r="G38" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="13">
-        <v>14</v>
-      </c>
-      <c r="I38" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="J38" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="178" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" s="203" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11312,7 +11288,7 @@
       <c r="B39" s="8">
         <v>36</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="177" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="62" t="s">
@@ -11333,7 +11309,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="204" t="s">
+      <c r="J39" s="193" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11362,7 +11338,7 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="204" t="s">
+      <c r="J40" s="193" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11453,25 +11429,27 @@
       <c r="B44" s="8">
         <v>41</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="D44" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="63">
         <v>42282</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="63">
         <v>45204</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="64">
         <v>8</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="65">
         <v>22</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="66" t="s">
+        <v>320</v>
+      </c>
       <c r="J44" s="14" t="s">
         <v>10</v>
       </c>
@@ -11528,35 +11506,36 @@
       <c r="I46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="J46" s="194" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" s="194"/>
     </row>
     <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>44</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11">
+      <c r="D47" s="105"/>
+      <c r="E47" s="106">
         <v>44866</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="106">
         <v>45231</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="107">
         <v>1</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="108">
         <v>12</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>10</v>
+      <c r="J47" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11583,88 +11562,88 @@
         <v>96</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>46</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22">
+      <c r="D49" s="105"/>
+      <c r="E49" s="106">
         <v>44876</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="106">
         <v>45241</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="107">
         <v>1</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="108">
         <v>12</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>10</v>
+      <c r="J49" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>47</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11">
+      <c r="D50" s="105"/>
+      <c r="E50" s="106">
         <v>44883</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="106">
         <v>45248</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="107">
         <v>1</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="108">
         <v>12</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>10</v>
+      <c r="J50" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="14" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8">
         <v>48</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11">
+      <c r="D51" s="105"/>
+      <c r="E51" s="106">
         <v>44886</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="106">
         <v>45251</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="107">
         <v>1</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="108">
         <v>12</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>10</v>
+      <c r="J51" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11729,27 +11708,27 @@
       <c r="B54" s="8">
         <v>51</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11">
+      <c r="D54" s="105"/>
+      <c r="E54" s="106">
         <v>44913</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="106">
         <v>45278</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="107">
         <v>1</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="108">
         <v>12</v>
       </c>
-      <c r="I54" s="80">
+      <c r="I54" s="202">
         <v>45292</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>10</v>
+      <c r="J54" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12098,7 +12077,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="101" t="s">
+      <c r="K80" s="100" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12336,23 +12315,23 @@
       <c r="B89" s="8">
         <v>12</v>
       </c>
-      <c r="C89" s="118" t="s">
+      <c r="C89" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="119"/>
-      <c r="E89" s="120">
+      <c r="D89" s="62"/>
+      <c r="E89" s="63">
         <v>44659</v>
       </c>
-      <c r="F89" s="120">
+      <c r="F89" s="63">
         <v>45024</v>
       </c>
-      <c r="G89" s="121">
+      <c r="G89" s="64">
         <v>1</v>
       </c>
-      <c r="H89" s="122">
+      <c r="H89" s="65">
         <v>12</v>
       </c>
-      <c r="I89" s="123" t="s">
+      <c r="I89" s="67" t="s">
         <v>134</v>
       </c>
       <c r="J89" s="14" t="s">
@@ -12363,29 +12342,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="105" t="s">
+      <c r="C90" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="106"/>
-      <c r="E90" s="107">
+      <c r="D90" s="105"/>
+      <c r="E90" s="106">
         <v>44662</v>
       </c>
-      <c r="F90" s="107">
+      <c r="F90" s="106">
         <v>45027</v>
       </c>
-      <c r="G90" s="108">
+      <c r="G90" s="107">
         <v>1</v>
       </c>
-      <c r="H90" s="109">
+      <c r="H90" s="108">
         <v>12</v>
       </c>
-      <c r="I90" s="110" t="s">
+      <c r="I90" s="109" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="101" t="s">
+      <c r="K90" s="100" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12480,35 +12459,35 @@
       <c r="B94" s="8">
         <v>17</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="63">
         <v>43185</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="63">
         <v>45053</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="64">
         <v>5</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="65">
         <v>20</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>142</v>
+      <c r="I94" s="66" t="s">
+        <v>324</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="159" t="s">
-        <v>297</v>
-      </c>
-      <c r="L94" s="159"/>
-      <c r="M94" s="159"/>
+      <c r="K94" s="149" t="s">
+        <v>296</v>
+      </c>
+      <c r="L94" s="149"/>
+      <c r="M94" s="149"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12649,7 +12628,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>38</v>
@@ -12677,8 +12656,8 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="201" t="s">
-        <v>319</v>
+      <c r="I100" s="191" t="s">
+        <v>316</v>
       </c>
       <c r="J100" s="14" t="s">
         <v>38</v>
@@ -12717,28 +12696,28 @@
       <c r="B102" s="8">
         <v>25</v>
       </c>
-      <c r="C102" s="105" t="s">
+      <c r="C102" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="D102" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="E102" s="107">
+      <c r="D102" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="106">
         <v>44788</v>
       </c>
-      <c r="F102" s="107">
+      <c r="F102" s="106">
         <v>45153</v>
       </c>
-      <c r="G102" s="108">
+      <c r="G102" s="107">
         <v>1</v>
       </c>
-      <c r="H102" s="109">
+      <c r="H102" s="108">
         <v>12</v>
       </c>
-      <c r="I102" s="200" t="s">
+      <c r="I102" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="J102" s="177" t="s">
+      <c r="J102" s="167" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12746,25 +12725,25 @@
       <c r="B103" s="8">
         <v>26</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="63">
         <v>41152</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="63">
         <v>45169</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="64">
         <v>11</v>
       </c>
-      <c r="H103" s="13">
+      <c r="H103" s="65">
         <v>24</v>
       </c>
-      <c r="I103" s="214" t="s">
+      <c r="I103" s="66" t="s">
         <v>159</v>
       </c>
       <c r="J103" s="14" t="s">
@@ -13005,83 +12984,83 @@
       <c r="B112" s="8">
         <v>35</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11">
+      <c r="D112" s="105"/>
+      <c r="E112" s="106">
         <v>44876</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="106">
         <v>45241</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="107">
         <v>1</v>
       </c>
-      <c r="H112" s="13">
+      <c r="H112" s="108">
         <v>12</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="14" t="s">
-        <v>38</v>
+      <c r="J112" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="8">
         <v>36</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11">
+      <c r="D113" s="105"/>
+      <c r="E113" s="106">
         <v>44893</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="106">
         <v>45258</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="107">
         <v>1</v>
       </c>
-      <c r="H113" s="13">
+      <c r="H113" s="108">
         <v>12</v>
       </c>
-      <c r="I113" s="80">
+      <c r="I113" s="202">
         <v>45292</v>
       </c>
-      <c r="J113" s="14" t="s">
-        <v>38</v>
+      <c r="J113" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="2:12" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8">
         <v>37</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="11">
+      <c r="D114" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="106">
         <v>44907</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="106">
         <v>45272</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="107">
         <v>1</v>
       </c>
-      <c r="H114" s="13">
+      <c r="H114" s="108">
         <v>12</v>
       </c>
-      <c r="I114" s="80">
+      <c r="I114" s="202">
         <v>45292</v>
       </c>
-      <c r="J114" s="14" t="s">
-        <v>38</v>
+      <c r="J114" s="167" t="s">
+        <v>291</v>
       </c>
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
@@ -13106,7 +13085,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="188" t="s">
+      <c r="I115" s="178" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13117,40 +13096,41 @@
       <c r="B116" s="8">
         <v>39</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11">
+      <c r="D116" s="105"/>
+      <c r="E116" s="106">
         <v>44912</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="106">
         <v>45277</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="107">
         <v>1</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="108">
         <v>12</v>
       </c>
-      <c r="I116" s="30">
+      <c r="I116" s="202">
         <v>45292</v>
       </c>
-      <c r="J116" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="J116" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="K116" s="167"/>
     </row>
     <row r="117" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="102" t="s">
+      <c r="C117" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="103" t="s">
+      <c r="D117" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="104">
+      <c r="E117" s="103">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -13164,19 +13144,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="102" t="s">
+      <c r="C118" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="111" t="s">
+      <c r="D118" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="104">
+      <c r="E118" s="103">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="112" t="s">
+      <c r="I118" s="111" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13400,12 +13380,12 @@
         <v>22</v>
       </c>
       <c r="I132" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="J132" s="183" t="s">
-        <v>317</v>
-      </c>
-      <c r="K132" s="184"/>
+        <v>301</v>
+      </c>
+      <c r="J132" s="173" t="s">
+        <v>314</v>
+      </c>
+      <c r="K132" s="174"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13427,11 +13407,11 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="190" t="s">
-        <v>310</v>
-      </c>
-      <c r="J133" s="180" t="s">
-        <v>303</v>
+      <c r="I133" s="180" t="s">
+        <v>308</v>
+      </c>
+      <c r="J133" s="170" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13478,10 +13458,10 @@
         <v>26</v>
       </c>
       <c r="I135" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="J135" s="194" t="s">
-        <v>303</v>
+        <v>311</v>
+      </c>
+      <c r="J135" s="184" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="2:11" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13600,8 +13580,8 @@
       <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="189" t="s">
-        <v>312</v>
+      <c r="I140" s="179" t="s">
+        <v>310</v>
       </c>
       <c r="J140" s="26"/>
     </row>
@@ -13650,35 +13630,35 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="182" t="s">
-        <v>305</v>
-      </c>
-      <c r="J142" s="192"/>
+      <c r="I142" s="172" t="s">
+        <v>304</v>
+      </c>
+      <c r="J142" s="182"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="195" t="s">
+      <c r="C143" s="185" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="196"/>
-      <c r="E143" s="197">
+      <c r="D143" s="186"/>
+      <c r="E143" s="187">
         <v>44144</v>
       </c>
-      <c r="F143" s="197">
+      <c r="F143" s="187">
         <v>45239</v>
       </c>
       <c r="G143" s="98">
         <v>3</v>
       </c>
-      <c r="H143" s="109">
+      <c r="H143" s="108">
         <v>16</v>
       </c>
       <c r="I143" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="J143" s="177" t="s">
+      <c r="J143" s="167" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13695,7 +13675,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="26"/>
     </row>
-    <row r="145" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="8">
         <v>17</v>
       </c>
@@ -13707,7 +13687,7 @@
       <c r="H145" s="37"/>
       <c r="I145" s="38"/>
     </row>
-    <row r="146" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="8">
         <v>18</v>
       </c>
@@ -13719,7 +13699,7 @@
       <c r="H146" s="50"/>
       <c r="I146" s="51"/>
     </row>
-    <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
       <c r="C147" s="206" t="s">
         <v>205</v>
@@ -13731,7 +13711,7 @@
       <c r="H147" s="207"/>
       <c r="I147" s="208"/>
     </row>
-    <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="C148" s="5" t="s">
         <v>2</v>
@@ -13755,7 +13735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:9" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="8">
         <v>1</v>
       </c>
@@ -13781,7 +13761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="150" spans="2:9" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="8"/>
       <c r="C150" s="82" t="s">
         <v>208</v>
@@ -13803,7 +13783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="8">
         <v>2</v>
       </c>
@@ -13829,7 +13809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="8">
         <v>3</v>
       </c>
@@ -13853,7 +13833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="8">
         <v>4</v>
       </c>
@@ -13874,10 +13854,10 @@
         <v>22</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="8">
         <v>6</v>
       </c>
@@ -13901,31 +13881,34 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="8">
         <v>7</v>
       </c>
-      <c r="C155" s="52" t="s">
+      <c r="C155" s="204" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="19">
+      <c r="D155" s="186"/>
+      <c r="E155" s="187">
         <v>44529</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="187">
         <v>45259</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="98">
         <v>2</v>
       </c>
-      <c r="H155" s="13">
+      <c r="H155" s="108">
         <v>14</v>
       </c>
-      <c r="I155" s="30" t="s">
+      <c r="I155" s="202" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J155" s="167" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="53"/>
       <c r="C156" s="54"/>
       <c r="D156" s="54"/>
@@ -13935,7 +13918,7 @@
       <c r="H156" s="56"/>
       <c r="I156" s="57"/>
     </row>
-    <row r="157" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
       <c r="C157" s="206" t="s">
         <v>220</v>
@@ -13947,7 +13930,7 @@
       <c r="H157" s="207"/>
       <c r="I157" s="208"/>
     </row>
-    <row r="158" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="C158" s="5" t="s">
         <v>2</v>
@@ -13971,7 +13954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="8">
         <v>1</v>
       </c>
@@ -13995,7 +13978,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="8">
         <v>2</v>
       </c>
@@ -14160,7 +14143,7 @@
         <v>14</v>
       </c>
       <c r="I166" s="99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14219,7 +14202,7 @@
       <c r="H169" s="13">
         <v>12</v>
       </c>
-      <c r="I169" s="30">
+      <c r="I169" s="80">
         <v>45292</v>
       </c>
     </row>
@@ -14243,7 +14226,7 @@
       <c r="H170" s="13">
         <v>12</v>
       </c>
-      <c r="I170" s="30">
+      <c r="I170" s="80">
         <v>45292</v>
       </c>
     </row>
@@ -14510,7 +14493,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="130" t="s">
+      <c r="C186" s="120" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -14554,7 +14537,7 @@
         <v>12</v>
       </c>
       <c r="I187" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14602,7 +14585,7 @@
         <v>12</v>
       </c>
       <c r="I189" s="67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14626,31 +14609,34 @@
         <v>18</v>
       </c>
       <c r="I190" s="67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="8">
         <v>12</v>
       </c>
-      <c r="C191" s="52" t="s">
+      <c r="C191" s="204" t="s">
         <v>262</v>
       </c>
-      <c r="D191" s="18"/>
-      <c r="E191" s="19">
+      <c r="D191" s="186"/>
+      <c r="E191" s="187">
         <v>44817</v>
       </c>
-      <c r="F191" s="19">
+      <c r="F191" s="187">
         <v>45182</v>
       </c>
-      <c r="G191" s="8">
+      <c r="G191" s="98">
         <v>1</v>
       </c>
-      <c r="H191" s="13">
+      <c r="H191" s="108">
         <v>12</v>
       </c>
-      <c r="I191" s="15" t="s">
+      <c r="I191" s="109" t="s">
         <v>263</v>
+      </c>
+      <c r="J191" s="167" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14729,24 +14715,24 @@
       <c r="B195" s="8">
         <v>16</v>
       </c>
-      <c r="C195" s="45" t="s">
+      <c r="C195" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="D195" s="18"/>
-      <c r="E195" s="19">
+      <c r="D195" s="69"/>
+      <c r="E195" s="70">
         <v>44137</v>
       </c>
-      <c r="F195" s="19">
+      <c r="F195" s="70">
         <v>45232</v>
       </c>
-      <c r="G195" s="8">
+      <c r="G195" s="66">
         <v>2</v>
       </c>
-      <c r="H195" s="13">
+      <c r="H195" s="65">
         <v>14</v>
       </c>
-      <c r="I195" s="15" t="s">
-        <v>318</v>
+      <c r="I195" s="67" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16561,7 +16547,7 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16578,7 +16564,7 @@
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -16606,222 +16592,194 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="185" t="s">
+      <c r="H4" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="191"/>
-    </row>
-    <row r="5" spans="2:10" s="171" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="202" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="193">
-        <v>44432</v>
-      </c>
-      <c r="E5" s="193">
-        <v>45163</v>
-      </c>
-      <c r="F5" s="186">
-        <v>2</v>
-      </c>
-      <c r="G5" s="178">
-        <v>14</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>78</v>
+      <c r="I4" s="181"/>
+    </row>
+    <row r="5" spans="2:10" s="161" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="198">
+        <v>41152</v>
+      </c>
+      <c r="E5" s="198">
+        <v>45169</v>
+      </c>
+      <c r="F5" s="199">
+        <v>11</v>
+      </c>
+      <c r="G5" s="200">
+        <v>24</v>
+      </c>
+      <c r="H5" s="201" t="s">
+        <v>159</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="203" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="193">
-        <v>44067</v>
-      </c>
-      <c r="E6" s="193">
-        <v>45162</v>
-      </c>
-      <c r="F6" s="186">
-        <v>3</v>
-      </c>
-      <c r="G6" s="178">
-        <v>16</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>321</v>
-      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="156">
-        <v>42968</v>
-      </c>
-      <c r="E7" s="156">
-        <v>45160</v>
-      </c>
-      <c r="F7" s="157">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13">
-        <v>22</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>322</v>
-      </c>
+      <c r="B7" s="155"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="158"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="13"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="88"/>
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="95"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="179"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="169"/>
     </row>
     <row r="10" spans="2:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="158"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="178"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="99"/>
     </row>
     <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="154"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="144"/>
     </row>
     <row r="14" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="143"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="145"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="135"/>
     </row>
     <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="149"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="148"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="210"/>
@@ -16831,77 +16789,77 @@
       <c r="F37" s="210"/>
       <c r="G37" s="210"/>
       <c r="H37" s="210"/>
-      <c r="I37" s="126"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="126"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="116"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="155"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="126"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
     </row>
   </sheetData>
   <sortState ref="B5:H7">
@@ -16938,170 +16896,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="171"/>
-    <col min="2" max="2" width="33.140625" style="171" customWidth="1"/>
-    <col min="3" max="3" width="5" style="170" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="170" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="170"/>
-    <col min="7" max="16384" width="11.42578125" style="171"/>
+    <col min="1" max="1" width="11.42578125" style="161"/>
+    <col min="2" max="2" width="33.140625" style="161" customWidth="1"/>
+    <col min="3" max="3" width="5" style="160" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="160" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="160"/>
+    <col min="7" max="16384" width="11.42578125" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="127"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="117"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="161"/>
+      <c r="B2" s="151"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="129"/>
-      <c r="D3" s="169" t="s">
-        <v>300</v>
+      <c r="B3" s="119"/>
+      <c r="D3" s="159" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="152" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="164"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="129"/>
+      <c r="B5" s="119"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="153" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="174"/>
+      <c r="D6" s="164"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
+      <c r="B7" s="154"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="164"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="166"/>
+      <c r="B9" s="156"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="174"/>
+      <c r="D10" s="164"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
+      <c r="B11" s="156"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="174"/>
+      <c r="B12" s="155" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="164"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="166"/>
+      <c r="B13" s="156"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="164"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="166"/>
+      <c r="B15" s="156"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="153" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="174"/>
+      <c r="D16" s="164"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="172"/>
+      <c r="B17" s="162"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="174"/>
+      <c r="D18" s="164"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="172"/>
+      <c r="B19" s="162"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="174"/>
+      <c r="D20" s="164"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="166"/>
+      <c r="B21" s="156"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="174"/>
+      <c r="D22" s="164"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="167"/>
+      <c r="B23" s="157"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="175"/>
+      <c r="D24" s="165"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="166"/>
+      <c r="B25" s="156"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="164"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="166"/>
+      <c r="B27" s="156"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="158" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="174"/>
+      <c r="D28" s="164"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="173"/>
+      <c r="B29" s="163"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="174"/>
+      <c r="D30" s="164"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="128"/>
+      <c r="B32" s="118"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="125"/>
+      <c r="B33" s="115"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="125"/>
+      <c r="B34" s="115"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="125"/>
+      <c r="B35" s="115"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="125"/>
+      <c r="B36" s="115"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="125"/>
+      <c r="B37" s="115"/>
     </row>
     <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B38" s="125"/>
+      <c r="B38" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="329">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3038,6 +3038,15 @@
   </si>
   <si>
     <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????       14-Agosto 6-Septiembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL </t>
+  </si>
+  <si>
+    <t>11 al 26 Sep 2023                                                                         11 al 20 Sep 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 SUR </t>
   </si>
 </sst>
 </file>
@@ -3430,7 +3439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3956,9 +3965,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3983,9 +3989,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3995,24 +3998,6 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4048,6 +4033,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4369,15 +4363,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5868,15 +5862,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="209" t="s">
+      <c r="C57" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="209"/>
-      <c r="E57" s="209"/>
-      <c r="F57" s="209"/>
-      <c r="G57" s="209"/>
-      <c r="H57" s="209"/>
-      <c r="I57" s="209"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="201"/>
+      <c r="H57" s="201"/>
+      <c r="I57" s="201"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7035,15 +7029,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="206" t="s">
+      <c r="C100" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="207"/>
-      <c r="E100" s="207"/>
-      <c r="F100" s="207"/>
-      <c r="G100" s="207"/>
-      <c r="H100" s="207"/>
-      <c r="I100" s="208"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="199"/>
+      <c r="I100" s="200"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7471,15 +7465,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="206" t="s">
+      <c r="C120" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="207"/>
-      <c r="E120" s="207"/>
-      <c r="F120" s="207"/>
-      <c r="G120" s="207"/>
-      <c r="H120" s="207"/>
-      <c r="I120" s="208"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="199"/>
+      <c r="F120" s="199"/>
+      <c r="G120" s="199"/>
+      <c r="H120" s="199"/>
+      <c r="I120" s="200"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7685,15 +7679,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="206" t="s">
+      <c r="C130" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="207"/>
-      <c r="E130" s="207"/>
-      <c r="F130" s="207"/>
-      <c r="G130" s="207"/>
-      <c r="H130" s="207"/>
-      <c r="I130" s="208"/>
+      <c r="D130" s="199"/>
+      <c r="E130" s="199"/>
+      <c r="F130" s="199"/>
+      <c r="G130" s="199"/>
+      <c r="H130" s="199"/>
+      <c r="I130" s="200"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8045,15 +8039,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="206" t="s">
+      <c r="C147" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="207"/>
-      <c r="E147" s="207"/>
-      <c r="F147" s="207"/>
-      <c r="G147" s="207"/>
-      <c r="H147" s="207"/>
-      <c r="I147" s="208"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10258,8 +10252,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166:I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10283,15 +10277,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10484,7 +10478,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="195" t="s">
+      <c r="I9" s="193" t="s">
         <v>319</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -11125,13 +11119,13 @@
       <c r="D33" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="188">
+      <c r="E33" s="187">
         <v>42593</v>
       </c>
-      <c r="F33" s="188">
+      <c r="F33" s="187">
         <v>45149</v>
       </c>
-      <c r="G33" s="189">
+      <c r="G33" s="188">
         <v>7</v>
       </c>
       <c r="H33" s="108">
@@ -11221,7 +11215,7 @@
       <c r="I36" s="178" t="s">
         <v>323</v>
       </c>
-      <c r="J36" s="205" t="s">
+      <c r="J36" s="197" t="s">
         <v>317</v>
       </c>
       <c r="K36" s="26"/>
@@ -11255,7 +11249,7 @@
       <c r="J37" s="171" t="s">
         <v>318</v>
       </c>
-      <c r="K37" s="194"/>
+      <c r="K37" s="192"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11280,7 +11274,7 @@
       <c r="I38" s="178" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="203" t="s">
+      <c r="J38" s="195" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11309,7 +11303,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="193" t="s">
+      <c r="J39" s="191" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11338,7 +11332,7 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="193" t="s">
+      <c r="J40" s="191" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11506,10 +11500,10 @@
       <c r="I46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="194" t="s">
+      <c r="J46" s="192" t="s">
         <v>321</v>
       </c>
-      <c r="K46" s="194"/>
+      <c r="K46" s="192"/>
     </row>
     <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
@@ -11724,7 +11718,7 @@
       <c r="H54" s="108">
         <v>12</v>
       </c>
-      <c r="I54" s="202">
+      <c r="I54" s="194">
         <v>45292</v>
       </c>
       <c r="J54" s="167" t="s">
@@ -11959,15 +11953,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="209" t="s">
+      <c r="C76" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="209"/>
-      <c r="E76" s="209"/>
-      <c r="F76" s="209"/>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12656,7 +12650,7 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="191" t="s">
+      <c r="I100" s="190" t="s">
         <v>316</v>
       </c>
       <c r="J100" s="14" t="s">
@@ -12714,7 +12708,7 @@
       <c r="H102" s="108">
         <v>12</v>
       </c>
-      <c r="I102" s="190" t="s">
+      <c r="I102" s="189" t="s">
         <v>157</v>
       </c>
       <c r="J102" s="167" t="s">
@@ -13027,7 +13021,7 @@
       <c r="H113" s="108">
         <v>12</v>
       </c>
-      <c r="I113" s="202">
+      <c r="I113" s="194">
         <v>45292</v>
       </c>
       <c r="J113" s="167" t="s">
@@ -13056,7 +13050,7 @@
       <c r="H114" s="108">
         <v>12</v>
       </c>
-      <c r="I114" s="202">
+      <c r="I114" s="194">
         <v>45292</v>
       </c>
       <c r="J114" s="167" t="s">
@@ -13112,7 +13106,7 @@
       <c r="H116" s="108">
         <v>12</v>
       </c>
-      <c r="I116" s="202">
+      <c r="I116" s="194">
         <v>45292</v>
       </c>
       <c r="J116" s="167" t="s">
@@ -13250,15 +13244,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="206" t="s">
+      <c r="C127" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="207"/>
-      <c r="E127" s="207"/>
-      <c r="F127" s="207"/>
-      <c r="G127" s="207"/>
-      <c r="H127" s="207"/>
-      <c r="I127" s="208"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="199"/>
+      <c r="F127" s="199"/>
+      <c r="G127" s="199"/>
+      <c r="H127" s="199"/>
+      <c r="I127" s="200"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13460,7 +13454,7 @@
       <c r="I135" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="J135" s="184" t="s">
+      <c r="J135" s="183" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13639,14 +13633,14 @@
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="185" t="s">
+      <c r="C143" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="186"/>
-      <c r="E143" s="187">
+      <c r="D143" s="185"/>
+      <c r="E143" s="186">
         <v>44144</v>
       </c>
-      <c r="F143" s="187">
+      <c r="F143" s="186">
         <v>45239</v>
       </c>
       <c r="G143" s="98">
@@ -13701,15 +13695,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="206" t="s">
+      <c r="C147" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="207"/>
-      <c r="E147" s="207"/>
-      <c r="F147" s="207"/>
-      <c r="G147" s="207"/>
-      <c r="H147" s="207"/>
-      <c r="I147" s="208"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13813,23 +13807,23 @@
       <c r="B152" s="8">
         <v>3</v>
       </c>
-      <c r="C152" s="52" t="s">
+      <c r="C152" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="19">
+      <c r="D152" s="69"/>
+      <c r="E152" s="70">
         <v>44081</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="70">
         <v>45176</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="66">
         <v>3</v>
       </c>
-      <c r="H152" s="13">
+      <c r="H152" s="65">
         <v>16</v>
       </c>
-      <c r="I152" s="15" t="s">
+      <c r="I152" s="67" t="s">
         <v>213</v>
       </c>
     </row>
@@ -13885,14 +13879,14 @@
       <c r="B155" s="8">
         <v>7</v>
       </c>
-      <c r="C155" s="204" t="s">
+      <c r="C155" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="186"/>
-      <c r="E155" s="187">
+      <c r="D155" s="185"/>
+      <c r="E155" s="186">
         <v>44529</v>
       </c>
-      <c r="F155" s="187">
+      <c r="F155" s="186">
         <v>45259</v>
       </c>
       <c r="G155" s="98">
@@ -13901,7 +13895,7 @@
       <c r="H155" s="108">
         <v>14</v>
       </c>
-      <c r="I155" s="202" t="s">
+      <c r="I155" s="194" t="s">
         <v>219</v>
       </c>
       <c r="J155" s="167" t="s">
@@ -13920,15 +13914,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="206" t="s">
+      <c r="C157" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="207"/>
-      <c r="E157" s="207"/>
-      <c r="F157" s="207"/>
-      <c r="G157" s="207"/>
-      <c r="H157" s="207"/>
-      <c r="I157" s="208"/>
+      <c r="D157" s="199"/>
+      <c r="E157" s="199"/>
+      <c r="F157" s="199"/>
+      <c r="G157" s="199"/>
+      <c r="H157" s="199"/>
+      <c r="I157" s="200"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14306,15 +14300,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="206" t="s">
+      <c r="C178" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="207"/>
-      <c r="E178" s="207"/>
-      <c r="F178" s="207"/>
-      <c r="G178" s="207"/>
-      <c r="H178" s="207"/>
-      <c r="I178" s="208"/>
+      <c r="D178" s="199"/>
+      <c r="E178" s="199"/>
+      <c r="F178" s="199"/>
+      <c r="G178" s="199"/>
+      <c r="H178" s="199"/>
+      <c r="I178" s="200"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14616,14 +14610,14 @@
       <c r="B191" s="8">
         <v>12</v>
       </c>
-      <c r="C191" s="204" t="s">
+      <c r="C191" s="196" t="s">
         <v>262</v>
       </c>
-      <c r="D191" s="186"/>
-      <c r="E191" s="187">
+      <c r="D191" s="185"/>
+      <c r="E191" s="186">
         <v>44817</v>
       </c>
-      <c r="F191" s="187">
+      <c r="F191" s="186">
         <v>45182</v>
       </c>
       <c r="G191" s="98">
@@ -16546,8 +16540,8 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16563,15 +16557,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="203" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="213"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="205"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16598,38 +16592,52 @@
       <c r="I4" s="181"/>
     </row>
     <row r="5" spans="2:10" s="161" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="197" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="198">
-        <v>41152</v>
-      </c>
-      <c r="E5" s="198">
-        <v>45169</v>
-      </c>
-      <c r="F5" s="199">
-        <v>11</v>
-      </c>
-      <c r="G5" s="200">
-        <v>24</v>
-      </c>
-      <c r="H5" s="201" t="s">
-        <v>159</v>
+      <c r="B5" s="206" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="207">
+        <v>44081</v>
+      </c>
+      <c r="E5" s="207">
+        <v>45176</v>
+      </c>
+      <c r="F5" s="88">
+        <v>3</v>
+      </c>
+      <c r="G5" s="168">
+        <v>16</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>327</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="192"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="99"/>
+      <c r="B6" s="208" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44445</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45273</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>14</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>312</v>
+      </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16782,13 +16790,13 @@
       <c r="I36" s="116"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
       <c r="I37" s="116"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="330">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3047,6 +3047,22 @@
   </si>
   <si>
     <t xml:space="preserve">11 SUR </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 al 28 Noviembre 2023   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> las tomo  13-28 septiembre </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4010,6 +4026,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4033,15 +4058,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4051,12 +4067,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
@@ -4363,15 +4379,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5862,15 +5878,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="201" t="s">
+      <c r="C57" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="201"/>
-      <c r="H57" s="201"/>
-      <c r="I57" s="201"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7029,15 +7045,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="198" t="s">
+      <c r="C100" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="199"/>
-      <c r="E100" s="199"/>
-      <c r="F100" s="199"/>
-      <c r="G100" s="199"/>
-      <c r="H100" s="199"/>
-      <c r="I100" s="200"/>
+      <c r="D100" s="202"/>
+      <c r="E100" s="202"/>
+      <c r="F100" s="202"/>
+      <c r="G100" s="202"/>
+      <c r="H100" s="202"/>
+      <c r="I100" s="203"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7465,15 +7481,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="198" t="s">
+      <c r="C120" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="199"/>
-      <c r="E120" s="199"/>
-      <c r="F120" s="199"/>
-      <c r="G120" s="199"/>
-      <c r="H120" s="199"/>
-      <c r="I120" s="200"/>
+      <c r="D120" s="202"/>
+      <c r="E120" s="202"/>
+      <c r="F120" s="202"/>
+      <c r="G120" s="202"/>
+      <c r="H120" s="202"/>
+      <c r="I120" s="203"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7679,15 +7695,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="198" t="s">
+      <c r="C130" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="199"/>
-      <c r="E130" s="199"/>
-      <c r="F130" s="199"/>
-      <c r="G130" s="199"/>
-      <c r="H130" s="199"/>
-      <c r="I130" s="200"/>
+      <c r="D130" s="202"/>
+      <c r="E130" s="202"/>
+      <c r="F130" s="202"/>
+      <c r="G130" s="202"/>
+      <c r="H130" s="202"/>
+      <c r="I130" s="203"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8039,15 +8055,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="198" t="s">
+      <c r="C147" s="201" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="199"/>
-      <c r="E147" s="199"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="199"/>
-      <c r="H147" s="199"/>
-      <c r="I147" s="200"/>
+      <c r="D147" s="202"/>
+      <c r="E147" s="202"/>
+      <c r="F147" s="202"/>
+      <c r="G147" s="202"/>
+      <c r="H147" s="202"/>
+      <c r="I147" s="203"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10252,8 +10268,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166:I166"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10277,15 +10293,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11953,15 +11969,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="201" t="s">
+      <c r="C76" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="201"/>
-      <c r="E76" s="201"/>
-      <c r="F76" s="201"/>
-      <c r="G76" s="201"/>
-      <c r="H76" s="201"/>
-      <c r="I76" s="201"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="204"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13244,15 +13260,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="198" t="s">
+      <c r="C127" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="199"/>
-      <c r="E127" s="199"/>
-      <c r="F127" s="199"/>
-      <c r="G127" s="199"/>
-      <c r="H127" s="199"/>
-      <c r="I127" s="200"/>
+      <c r="D127" s="202"/>
+      <c r="E127" s="202"/>
+      <c r="F127" s="202"/>
+      <c r="G127" s="202"/>
+      <c r="H127" s="202"/>
+      <c r="I127" s="203"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13695,15 +13711,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="198" t="s">
+      <c r="C147" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="199"/>
-      <c r="E147" s="199"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="199"/>
-      <c r="H147" s="199"/>
-      <c r="I147" s="200"/>
+      <c r="D147" s="202"/>
+      <c r="E147" s="202"/>
+      <c r="F147" s="202"/>
+      <c r="G147" s="202"/>
+      <c r="H147" s="202"/>
+      <c r="I147" s="203"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13914,15 +13930,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="198" t="s">
+      <c r="C157" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="199"/>
-      <c r="E157" s="199"/>
-      <c r="F157" s="199"/>
-      <c r="G157" s="199"/>
-      <c r="H157" s="199"/>
-      <c r="I157" s="200"/>
+      <c r="D157" s="202"/>
+      <c r="E157" s="202"/>
+      <c r="F157" s="202"/>
+      <c r="G157" s="202"/>
+      <c r="H157" s="202"/>
+      <c r="I157" s="203"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14300,15 +14316,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="198" t="s">
+      <c r="C178" s="201" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="199"/>
-      <c r="E178" s="199"/>
-      <c r="F178" s="199"/>
-      <c r="G178" s="199"/>
-      <c r="H178" s="199"/>
-      <c r="I178" s="200"/>
+      <c r="D178" s="202"/>
+      <c r="E178" s="202"/>
+      <c r="F178" s="202"/>
+      <c r="G178" s="202"/>
+      <c r="H178" s="202"/>
+      <c r="I178" s="203"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14733,24 +14749,24 @@
       <c r="B196" s="8">
         <v>17</v>
       </c>
-      <c r="C196" s="52" t="s">
+      <c r="C196" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D196" s="18"/>
-      <c r="E196" s="19">
+      <c r="D196" s="69"/>
+      <c r="E196" s="70">
         <v>44144</v>
       </c>
-      <c r="F196" s="19">
+      <c r="F196" s="70">
         <v>45239</v>
       </c>
-      <c r="G196" s="8">
+      <c r="G196" s="66">
         <v>3</v>
       </c>
-      <c r="H196" s="13">
+      <c r="H196" s="65">
         <v>16</v>
       </c>
-      <c r="I196" s="8" t="s">
-        <v>273</v>
+      <c r="I196" s="67" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16540,7 +16556,7 @@
   </sheetPr>
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -16557,15 +16573,15 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="205"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16592,16 +16608,16 @@
       <c r="I4" s="181"/>
     </row>
     <row r="5" spans="2:10" s="161" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="198" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="207">
+      <c r="D5" s="199">
         <v>44081</v>
       </c>
-      <c r="E5" s="207">
+      <c r="E5" s="199">
         <v>45176</v>
       </c>
       <c r="F5" s="88">
@@ -16617,7 +16633,7 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="200" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="88" t="s">
@@ -16790,13 +16806,13 @@
       <c r="I36" s="116"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
       <c r="I37" s="116"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="331">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3040,15 +3040,6 @@
     <t>17 Jul al 9 Ago 2023   LAS CAMBIO ????       14-Agosto 6-Septiembre</t>
   </si>
   <si>
-    <t xml:space="preserve">CENTRAL </t>
-  </si>
-  <si>
-    <t>11 al 26 Sep 2023                                                                         11 al 20 Sep 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 SUR </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">13 al 28 Noviembre 2023   </t>
     </r>
@@ -3062,6 +3053,52 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> las tomo  13-28 septiembre </t>
+    </r>
+  </si>
+  <si>
+    <t>VERDURAS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 al 28 Noviembre 2023              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Del   13-28 septiembre </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zavaleta </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11 al 30 Sep 2023</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                              19-MARZO al 9  Abril 2023</t>
     </r>
   </si>
 </sst>
@@ -3069,7 +3106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3242,8 +3279,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3289,6 +3333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3455,7 +3505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3885,9 +3935,6 @@
     <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4032,8 +4079,23 @@
     <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4067,9 +4129,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
@@ -4379,15 +4441,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5878,15 +5940,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="204" t="s">
+      <c r="C57" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="204"/>
-      <c r="E57" s="204"/>
-      <c r="F57" s="204"/>
-      <c r="G57" s="204"/>
-      <c r="H57" s="204"/>
-      <c r="I57" s="204"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="208"/>
+      <c r="F57" s="208"/>
+      <c r="G57" s="208"/>
+      <c r="H57" s="208"/>
+      <c r="I57" s="208"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7045,15 +7107,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="201" t="s">
+      <c r="C100" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="202"/>
-      <c r="E100" s="202"/>
-      <c r="F100" s="202"/>
-      <c r="G100" s="202"/>
-      <c r="H100" s="202"/>
-      <c r="I100" s="203"/>
+      <c r="D100" s="206"/>
+      <c r="E100" s="206"/>
+      <c r="F100" s="206"/>
+      <c r="G100" s="206"/>
+      <c r="H100" s="206"/>
+      <c r="I100" s="207"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7481,15 +7543,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="201" t="s">
+      <c r="C120" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="202"/>
-      <c r="E120" s="202"/>
-      <c r="F120" s="202"/>
-      <c r="G120" s="202"/>
-      <c r="H120" s="202"/>
-      <c r="I120" s="203"/>
+      <c r="D120" s="206"/>
+      <c r="E120" s="206"/>
+      <c r="F120" s="206"/>
+      <c r="G120" s="206"/>
+      <c r="H120" s="206"/>
+      <c r="I120" s="207"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7695,15 +7757,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="201" t="s">
+      <c r="C130" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="202"/>
-      <c r="E130" s="202"/>
-      <c r="F130" s="202"/>
-      <c r="G130" s="202"/>
-      <c r="H130" s="202"/>
-      <c r="I130" s="203"/>
+      <c r="D130" s="206"/>
+      <c r="E130" s="206"/>
+      <c r="F130" s="206"/>
+      <c r="G130" s="206"/>
+      <c r="H130" s="206"/>
+      <c r="I130" s="207"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8055,15 +8117,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="201" t="s">
+      <c r="C147" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="202"/>
-      <c r="E147" s="202"/>
-      <c r="F147" s="202"/>
-      <c r="G147" s="202"/>
-      <c r="H147" s="202"/>
-      <c r="I147" s="203"/>
+      <c r="D147" s="206"/>
+      <c r="E147" s="206"/>
+      <c r="F147" s="206"/>
+      <c r="G147" s="206"/>
+      <c r="H147" s="206"/>
+      <c r="I147" s="207"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10268,8 +10330,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,15 +10355,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10494,7 +10556,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="193" t="s">
+      <c r="I9" s="192" t="s">
         <v>319</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10762,7 +10824,7 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="165" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="105" t="s">
@@ -10783,7 +10845,7 @@
       <c r="I19" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="167" t="s">
+      <c r="J19" s="166" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10986,7 +11048,7 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="176" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="97"/>
@@ -11042,7 +11104,7 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="199" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -11129,19 +11191,19 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="166" t="s">
+      <c r="C33" s="165" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="187">
+      <c r="E33" s="186">
         <v>42593</v>
       </c>
-      <c r="F33" s="187">
+      <c r="F33" s="186">
         <v>45149</v>
       </c>
-      <c r="G33" s="188">
+      <c r="G33" s="187">
         <v>7</v>
       </c>
       <c r="H33" s="108">
@@ -11208,7 +11270,7 @@
       <c r="I35" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="167" t="s">
+      <c r="J35" s="166" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11228,10 +11290,10 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="178" t="s">
+      <c r="I36" s="177" t="s">
         <v>323</v>
       </c>
-      <c r="J36" s="197" t="s">
+      <c r="J36" s="196" t="s">
         <v>317</v>
       </c>
       <c r="K36" s="26"/>
@@ -11262,10 +11324,10 @@
       <c r="I37" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="171" t="s">
+      <c r="J37" s="170" t="s">
         <v>318</v>
       </c>
-      <c r="K37" s="192"/>
+      <c r="K37" s="191"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11287,10 +11349,10 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="178" t="s">
+      <c r="I38" s="177" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="195" t="s">
+      <c r="J38" s="194" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11298,7 +11360,7 @@
       <c r="B39" s="8">
         <v>36</v>
       </c>
-      <c r="C39" s="177" t="s">
+      <c r="C39" s="176" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="62" t="s">
@@ -11319,7 +11381,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="191" t="s">
+      <c r="J39" s="190" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11348,34 +11410,34 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="191" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="14" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="14" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>38</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="11">
+      <c r="D41" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="63">
         <v>43353</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="63">
         <v>45179</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="64">
         <v>5</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="65">
         <v>20</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>83</v>
+      <c r="I41" s="67" t="s">
+        <v>330</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>10</v>
@@ -11385,23 +11447,23 @@
       <c r="B42" s="8">
         <v>39</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="24">
+      <c r="D42" s="62"/>
+      <c r="E42" s="85">
         <v>43360</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="85">
         <v>45186</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="86">
         <v>5</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="65">
         <v>20</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="66" t="s">
         <v>85</v>
       </c>
       <c r="J42" s="26" t="s">
@@ -11516,16 +11578,16 @@
       <c r="I46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="192" t="s">
+      <c r="J46" s="191" t="s">
         <v>321</v>
       </c>
-      <c r="K46" s="192"/>
+      <c r="K46" s="191"/>
     </row>
     <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>44</v>
       </c>
-      <c r="C47" s="166" t="s">
+      <c r="C47" s="165" t="s">
         <v>93</v>
       </c>
       <c r="D47" s="105"/>
@@ -11544,7 +11606,7 @@
       <c r="I47" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="167" t="s">
+      <c r="J47" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11579,7 +11641,7 @@
       <c r="B49" s="8">
         <v>46</v>
       </c>
-      <c r="C49" s="166" t="s">
+      <c r="C49" s="165" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="105"/>
@@ -11598,7 +11660,7 @@
       <c r="I49" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="167" t="s">
+      <c r="J49" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11606,7 +11668,7 @@
       <c r="B50" s="8">
         <v>47</v>
       </c>
-      <c r="C50" s="166" t="s">
+      <c r="C50" s="165" t="s">
         <v>99</v>
       </c>
       <c r="D50" s="105"/>
@@ -11625,7 +11687,7 @@
       <c r="I50" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="167" t="s">
+      <c r="J50" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11633,7 +11695,7 @@
       <c r="B51" s="8">
         <v>48</v>
       </c>
-      <c r="C51" s="166" t="s">
+      <c r="C51" s="165" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="105"/>
@@ -11652,7 +11714,7 @@
       <c r="I51" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="167" t="s">
+      <c r="J51" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11718,7 +11780,7 @@
       <c r="B54" s="8">
         <v>51</v>
       </c>
-      <c r="C54" s="166" t="s">
+      <c r="C54" s="165" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="105"/>
@@ -11734,10 +11796,10 @@
       <c r="H54" s="108">
         <v>12</v>
       </c>
-      <c r="I54" s="194">
+      <c r="I54" s="193">
         <v>45292</v>
       </c>
-      <c r="J54" s="167" t="s">
+      <c r="J54" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11969,15 +12031,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="204" t="s">
+      <c r="C76" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
+      <c r="D76" s="208"/>
+      <c r="E76" s="208"/>
+      <c r="F76" s="208"/>
+      <c r="G76" s="208"/>
+      <c r="H76" s="208"/>
+      <c r="I76" s="208"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12493,11 +12555,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="149" t="s">
+      <c r="K94" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="L94" s="149"/>
-      <c r="M94" s="149"/>
+      <c r="L94" s="148"/>
+      <c r="M94" s="148"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12666,7 +12728,7 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="190" t="s">
+      <c r="I100" s="189" t="s">
         <v>316</v>
       </c>
       <c r="J100" s="14" t="s">
@@ -12724,10 +12786,10 @@
       <c r="H102" s="108">
         <v>12</v>
       </c>
-      <c r="I102" s="189" t="s">
+      <c r="I102" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="J102" s="167" t="s">
+      <c r="J102" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12764,25 +12826,25 @@
       <c r="B104" s="8">
         <v>27</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="63">
         <v>43725</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="63">
         <v>45186</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="64">
         <v>4</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="65">
         <v>18</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="66" t="s">
         <v>161</v>
       </c>
       <c r="J104" s="14" t="s">
@@ -12994,7 +13056,7 @@
       <c r="B112" s="8">
         <v>35</v>
       </c>
-      <c r="C112" s="166" t="s">
+      <c r="C112" s="165" t="s">
         <v>174</v>
       </c>
       <c r="D112" s="105"/>
@@ -13013,7 +13075,7 @@
       <c r="I112" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="167" t="s">
+      <c r="J112" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13037,10 +13099,10 @@
       <c r="H113" s="108">
         <v>12</v>
       </c>
-      <c r="I113" s="194">
+      <c r="I113" s="193">
         <v>45292</v>
       </c>
-      <c r="J113" s="167" t="s">
+      <c r="J113" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13066,10 +13128,10 @@
       <c r="H114" s="108">
         <v>12</v>
       </c>
-      <c r="I114" s="194">
+      <c r="I114" s="193">
         <v>45292</v>
       </c>
-      <c r="J114" s="167" t="s">
+      <c r="J114" s="166" t="s">
         <v>291</v>
       </c>
       <c r="K114" s="26"/>
@@ -13095,7 +13157,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="178" t="s">
+      <c r="I115" s="177" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13106,7 +13168,7 @@
       <c r="B116" s="8">
         <v>39</v>
       </c>
-      <c r="C116" s="166" t="s">
+      <c r="C116" s="165" t="s">
         <v>179</v>
       </c>
       <c r="D116" s="105"/>
@@ -13122,13 +13184,13 @@
       <c r="H116" s="108">
         <v>12</v>
       </c>
-      <c r="I116" s="194">
+      <c r="I116" s="193">
         <v>45292</v>
       </c>
-      <c r="J116" s="167" t="s">
+      <c r="J116" s="166" t="s">
         <v>291</v>
       </c>
-      <c r="K116" s="167"/>
+      <c r="K116" s="166"/>
     </row>
     <row r="117" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8">
@@ -13260,15 +13322,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="201" t="s">
+      <c r="C127" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="202"/>
-      <c r="E127" s="202"/>
-      <c r="F127" s="202"/>
-      <c r="G127" s="202"/>
-      <c r="H127" s="202"/>
-      <c r="I127" s="203"/>
+      <c r="D127" s="206"/>
+      <c r="E127" s="206"/>
+      <c r="F127" s="206"/>
+      <c r="G127" s="206"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="207"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13392,10 +13454,10 @@
       <c r="I132" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="J132" s="173" t="s">
+      <c r="J132" s="172" t="s">
         <v>314</v>
       </c>
-      <c r="K132" s="174"/>
+      <c r="K132" s="173"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13417,10 +13479,10 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="180" t="s">
+      <c r="I133" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="J133" s="170" t="s">
+      <c r="J133" s="169" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13470,7 +13532,7 @@
       <c r="I135" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="J135" s="183" t="s">
+      <c r="J135" s="182" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13590,7 +13652,7 @@
       <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="179" t="s">
+      <c r="I140" s="178" t="s">
         <v>310</v>
       </c>
       <c r="J140" s="26"/>
@@ -13640,23 +13702,23 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="172" t="s">
+      <c r="I142" s="171" t="s">
         <v>304</v>
       </c>
-      <c r="J142" s="182"/>
+      <c r="J142" s="181"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="184" t="s">
+      <c r="C143" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="185"/>
-      <c r="E143" s="186">
+      <c r="D143" s="184"/>
+      <c r="E143" s="185">
         <v>44144</v>
       </c>
-      <c r="F143" s="186">
+      <c r="F143" s="185">
         <v>45239</v>
       </c>
       <c r="G143" s="98">
@@ -13668,7 +13730,7 @@
       <c r="I143" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="J143" s="167" t="s">
+      <c r="J143" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13711,15 +13773,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="201" t="s">
+      <c r="C147" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="202"/>
-      <c r="E147" s="202"/>
-      <c r="F147" s="202"/>
-      <c r="G147" s="202"/>
-      <c r="H147" s="202"/>
-      <c r="I147" s="203"/>
+      <c r="D147" s="206"/>
+      <c r="E147" s="206"/>
+      <c r="F147" s="206"/>
+      <c r="G147" s="206"/>
+      <c r="H147" s="206"/>
+      <c r="I147" s="207"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13895,14 +13957,14 @@
       <c r="B155" s="8">
         <v>7</v>
       </c>
-      <c r="C155" s="196" t="s">
+      <c r="C155" s="195" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="185"/>
-      <c r="E155" s="186">
+      <c r="D155" s="184"/>
+      <c r="E155" s="185">
         <v>44529</v>
       </c>
-      <c r="F155" s="186">
+      <c r="F155" s="185">
         <v>45259</v>
       </c>
       <c r="G155" s="98">
@@ -13911,10 +13973,10 @@
       <c r="H155" s="108">
         <v>14</v>
       </c>
-      <c r="I155" s="194" t="s">
+      <c r="I155" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="J155" s="167" t="s">
+      <c r="J155" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13930,15 +13992,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="201" t="s">
+      <c r="C157" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="202"/>
-      <c r="E157" s="202"/>
-      <c r="F157" s="202"/>
-      <c r="G157" s="202"/>
-      <c r="H157" s="202"/>
-      <c r="I157" s="203"/>
+      <c r="D157" s="206"/>
+      <c r="E157" s="206"/>
+      <c r="F157" s="206"/>
+      <c r="G157" s="206"/>
+      <c r="H157" s="206"/>
+      <c r="I157" s="207"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14136,23 +14198,23 @@
       <c r="B166" s="8">
         <v>8</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D166" s="10"/>
-      <c r="E166" s="11">
+      <c r="D166" s="62"/>
+      <c r="E166" s="63">
         <v>44445</v>
       </c>
-      <c r="F166" s="11">
+      <c r="F166" s="63">
         <v>45273</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="66">
         <v>2</v>
       </c>
-      <c r="H166" s="13">
+      <c r="H166" s="65">
         <v>14</v>
       </c>
-      <c r="I166" s="99" t="s">
+      <c r="I166" s="204" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14316,15 +14378,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="201" t="s">
+      <c r="C178" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="202"/>
-      <c r="E178" s="202"/>
-      <c r="F178" s="202"/>
-      <c r="G178" s="202"/>
-      <c r="H178" s="202"/>
-      <c r="I178" s="203"/>
+      <c r="D178" s="206"/>
+      <c r="E178" s="206"/>
+      <c r="F178" s="206"/>
+      <c r="G178" s="206"/>
+      <c r="H178" s="206"/>
+      <c r="I178" s="207"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14626,14 +14688,14 @@
       <c r="B191" s="8">
         <v>12</v>
       </c>
-      <c r="C191" s="196" t="s">
+      <c r="C191" s="195" t="s">
         <v>262</v>
       </c>
-      <c r="D191" s="185"/>
-      <c r="E191" s="186">
+      <c r="D191" s="184"/>
+      <c r="E191" s="185">
         <v>44817</v>
       </c>
-      <c r="F191" s="186">
+      <c r="F191" s="185">
         <v>45182</v>
       </c>
       <c r="G191" s="98">
@@ -14645,7 +14707,7 @@
       <c r="I191" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="J191" s="167" t="s">
+      <c r="J191" s="166" t="s">
         <v>291</v>
       </c>
     </row>
@@ -14766,7 +14828,7 @@
         <v>16</v>
       </c>
       <c r="I196" s="67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16554,15 +16616,15 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -16571,19 +16633,19 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="206" t="s">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-    </row>
-    <row r="4" spans="2:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="212"/>
+    </row>
+    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -16602,158 +16664,171 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="181"/>
-    </row>
-    <row r="5" spans="2:10" s="161" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="198" t="s">
-        <v>212</v>
+      <c r="I4" s="180"/>
+    </row>
+    <row r="5" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="147" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="199">
-        <v>44081</v>
-      </c>
-      <c r="E5" s="199">
-        <v>45176</v>
-      </c>
-      <c r="F5" s="88">
+        <v>327</v>
+      </c>
+      <c r="D5" s="200">
+        <v>43360</v>
+      </c>
+      <c r="E5" s="200">
+        <v>45186</v>
+      </c>
+      <c r="F5" s="201">
+        <v>5</v>
+      </c>
+      <c r="G5" s="167">
+        <v>20</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="202" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="203">
+        <v>43725</v>
+      </c>
+      <c r="E6" s="203">
+        <v>45186</v>
+      </c>
+      <c r="F6" s="175">
+        <v>4</v>
+      </c>
+      <c r="G6" s="167">
+        <v>18</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="198">
+        <v>44144</v>
+      </c>
+      <c r="E7" s="198">
+        <v>45239</v>
+      </c>
+      <c r="F7" s="88">
         <v>3</v>
       </c>
-      <c r="G5" s="168">
+      <c r="G7" s="167">
         <v>16</v>
       </c>
-      <c r="H5" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="88" t="s">
+      <c r="H7" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="11">
-        <v>44445</v>
-      </c>
-      <c r="E6" s="11">
-        <v>45273</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>14</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>312</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="155"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
+    </row>
+    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="149"/>
       <c r="C8" s="88"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="150"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="169"/>
-    </row>
-    <row r="10" spans="2:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="148"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="99"/>
-    </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="144"/>
-    </row>
-    <row r="14" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="168"/>
+    </row>
+    <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="147"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="144"/>
+    </row>
+    <row r="13" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="122"/>
+    </row>
+    <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="123"/>
       <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="122"/>
-    </row>
-    <row r="15" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+    </row>
+    <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="126"/>
       <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="129"/>
       <c r="H15" s="130"/>
     </row>
-    <row r="16" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
+    <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="133"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="129"/>
-      <c r="H16" s="130"/>
+      <c r="H16" s="135"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="133"/>
-      <c r="C17" s="122"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="122"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="135"/>
-    </row>
-    <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="136"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="139"/>
       <c r="C18" s="127"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="137"/>
       <c r="H18" s="138"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="139"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="116"/>
@@ -16795,44 +16870,44 @@
       <c r="H35" s="116"/>
       <c r="I35" s="116"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
+    <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
+    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="141"/>
       <c r="I37" s="116"/>
     </row>
-    <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="141"/>
+    <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="145"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="135"/>
       <c r="I38" s="116"/>
     </row>
-    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="145"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="135"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
       <c r="I39" s="116"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -16875,22 +16950,12 @@
       <c r="H43" s="116"/>
       <c r="I43" s="116"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-    </row>
   </sheetData>
   <sortState ref="B5:H7">
     <sortCondition ref="H5:H7"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16920,12 +16985,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="161"/>
-    <col min="2" max="2" width="33.140625" style="161" customWidth="1"/>
-    <col min="3" max="3" width="5" style="160" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="160" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="160"/>
-    <col min="7" max="16384" width="11.42578125" style="161"/>
+    <col min="1" max="1" width="11.42578125" style="160"/>
+    <col min="2" max="2" width="33.140625" style="160" customWidth="1"/>
+    <col min="3" max="3" width="5" style="159" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="159" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="159"/>
+    <col min="7" max="16384" width="11.42578125" style="160"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -16933,136 +16998,136 @@
       <c r="D1" s="114"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="151"/>
+      <c r="B2" s="150"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="119"/>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="158" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="163"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="119"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="164"/>
+      <c r="D6" s="163"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="154"/>
+      <c r="B7" s="153"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="164"/>
+      <c r="D8" s="163"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
+      <c r="B9" s="155"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="163"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="155"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="154" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="163"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
+      <c r="B13" s="155"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="164"/>
+      <c r="D14" s="163"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="156"/>
+      <c r="B15" s="155"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="163"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="162"/>
+      <c r="B17" s="161"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="164"/>
+      <c r="D18" s="163"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="162"/>
+      <c r="B19" s="161"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="152" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="164"/>
+      <c r="D20" s="163"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="156"/>
+      <c r="B21" s="155"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="164"/>
+      <c r="D22" s="163"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="157"/>
+      <c r="B23" s="156"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="165"/>
+      <c r="D24" s="164"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="156"/>
+      <c r="B25" s="155"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="164"/>
+      <c r="D26" s="163"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="156"/>
+      <c r="B27" s="155"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="164"/>
+      <c r="D28" s="163"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="163"/>
+      <c r="B29" s="162"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="164"/>
+      <c r="D30" s="163"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B32" s="118"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="329">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3056,28 +3056,6 @@
     </r>
   </si>
   <si>
-    <t>VERDURAS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13 al 28 Noviembre 2023              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Del   13-28 septiembre </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Zavaleta </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3100,6 +3078,9 @@
       </rPr>
       <t xml:space="preserve">                                              19-MARZO al 9  Abril 2023</t>
     </r>
+  </si>
+  <si>
+    <t>16 Oct al 6 Nov 2023                                                 23 Oct al 6 Nov 2023</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4081,12 +4062,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4441,15 +4416,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5940,15 +5915,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="208" t="s">
+      <c r="C57" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="208"/>
-      <c r="E57" s="208"/>
-      <c r="F57" s="208"/>
-      <c r="G57" s="208"/>
-      <c r="H57" s="208"/>
-      <c r="I57" s="208"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="206"/>
+      <c r="G57" s="206"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="206"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7107,15 +7082,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="205" t="s">
+      <c r="C100" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="206"/>
-      <c r="E100" s="206"/>
-      <c r="F100" s="206"/>
-      <c r="G100" s="206"/>
-      <c r="H100" s="206"/>
-      <c r="I100" s="207"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="204"/>
+      <c r="F100" s="204"/>
+      <c r="G100" s="204"/>
+      <c r="H100" s="204"/>
+      <c r="I100" s="205"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7543,15 +7518,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="205" t="s">
+      <c r="C120" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="206"/>
-      <c r="E120" s="206"/>
-      <c r="F120" s="206"/>
-      <c r="G120" s="206"/>
-      <c r="H120" s="206"/>
-      <c r="I120" s="207"/>
+      <c r="D120" s="204"/>
+      <c r="E120" s="204"/>
+      <c r="F120" s="204"/>
+      <c r="G120" s="204"/>
+      <c r="H120" s="204"/>
+      <c r="I120" s="205"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7757,15 +7732,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="205" t="s">
+      <c r="C130" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="206"/>
-      <c r="E130" s="206"/>
-      <c r="F130" s="206"/>
-      <c r="G130" s="206"/>
-      <c r="H130" s="206"/>
-      <c r="I130" s="207"/>
+      <c r="D130" s="204"/>
+      <c r="E130" s="204"/>
+      <c r="F130" s="204"/>
+      <c r="G130" s="204"/>
+      <c r="H130" s="204"/>
+      <c r="I130" s="205"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8117,15 +8092,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="205" t="s">
+      <c r="C147" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="206"/>
-      <c r="E147" s="206"/>
-      <c r="F147" s="206"/>
-      <c r="G147" s="206"/>
-      <c r="H147" s="206"/>
-      <c r="I147" s="207"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="204"/>
+      <c r="F147" s="204"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
+      <c r="I147" s="205"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10330,8 +10305,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10355,15 +10330,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11437,7 +11412,7 @@
         <v>20</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>10</v>
@@ -11530,25 +11505,25 @@
       <c r="B45" s="8">
         <v>42</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="D45" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="63">
         <v>41925</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="63">
         <v>45212</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="64">
         <v>9</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="65">
         <v>22</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="67" t="s">
         <v>90</v>
       </c>
       <c r="J45" s="14" t="s">
@@ -12031,15 +12006,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="208" t="s">
+      <c r="C76" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="208"/>
-      <c r="E76" s="208"/>
-      <c r="F76" s="208"/>
-      <c r="G76" s="208"/>
-      <c r="H76" s="208"/>
-      <c r="I76" s="208"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13322,15 +13297,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="205" t="s">
+      <c r="C127" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="206"/>
-      <c r="E127" s="206"/>
-      <c r="F127" s="206"/>
-      <c r="G127" s="206"/>
-      <c r="H127" s="206"/>
-      <c r="I127" s="207"/>
+      <c r="D127" s="204"/>
+      <c r="E127" s="204"/>
+      <c r="F127" s="204"/>
+      <c r="G127" s="204"/>
+      <c r="H127" s="204"/>
+      <c r="I127" s="205"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13773,15 +13748,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="205" t="s">
+      <c r="C147" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="206"/>
-      <c r="E147" s="206"/>
-      <c r="F147" s="206"/>
-      <c r="G147" s="206"/>
-      <c r="H147" s="206"/>
-      <c r="I147" s="207"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="204"/>
+      <c r="F147" s="204"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
+      <c r="I147" s="205"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13992,15 +13967,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="205" t="s">
+      <c r="C157" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="206"/>
-      <c r="E157" s="206"/>
-      <c r="F157" s="206"/>
-      <c r="G157" s="206"/>
-      <c r="H157" s="206"/>
-      <c r="I157" s="207"/>
+      <c r="D157" s="204"/>
+      <c r="E157" s="204"/>
+      <c r="F157" s="204"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
+      <c r="I157" s="205"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14214,7 +14189,7 @@
       <c r="H166" s="65">
         <v>14</v>
       </c>
-      <c r="I166" s="204" t="s">
+      <c r="I166" s="202" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14378,15 +14353,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="205" t="s">
+      <c r="C178" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="206"/>
-      <c r="E178" s="206"/>
-      <c r="F178" s="206"/>
-      <c r="G178" s="206"/>
-      <c r="H178" s="206"/>
-      <c r="I178" s="207"/>
+      <c r="D178" s="204"/>
+      <c r="E178" s="204"/>
+      <c r="F178" s="204"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
+      <c r="I178" s="205"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16618,8 +16593,8 @@
   </sheetPr>
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16635,15 +16610,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="212"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16671,73 +16646,45 @@
     </row>
     <row r="5" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="147" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="200">
-        <v>43360</v>
-      </c>
-      <c r="E5" s="200">
-        <v>45186</v>
-      </c>
-      <c r="F5" s="201">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="201">
+        <v>41925</v>
+      </c>
+      <c r="E5" s="201">
+        <v>45212</v>
+      </c>
+      <c r="F5" s="175">
+        <v>9</v>
       </c>
       <c r="G5" s="167">
-        <v>20</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>328</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="203">
-        <v>43725</v>
-      </c>
-      <c r="E6" s="203">
-        <v>45186</v>
-      </c>
-      <c r="F6" s="175">
-        <v>4</v>
-      </c>
-      <c r="G6" s="167">
-        <v>18</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>161</v>
-      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="198">
-        <v>44144</v>
-      </c>
-      <c r="E7" s="198">
-        <v>45239</v>
-      </c>
-      <c r="F7" s="88">
-        <v>3</v>
-      </c>
-      <c r="G7" s="167">
-        <v>16</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>328</v>
-      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="149"/>
@@ -16871,13 +16818,13 @@
       <c r="I35" s="116"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
       <c r="I36" s="116"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="331">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3080,7 +3080,34 @@
     </r>
   </si>
   <si>
-    <t>16 Oct al 6 Nov 2023                                                 23 Oct al 6 Nov 2023</t>
+    <t>VERDURAS</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 al 15 Octubre 2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                   2 al 8 Octubre 2023</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3486,7 +3513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3768,12 +3795,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3818,9 +3839,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3913,17 +3931,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3967,9 +3979,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4095,6 +4104,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4416,15 +4428,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5915,15 +5927,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="206" t="s">
+      <c r="C57" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="206"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="206"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="206"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7082,15 +7094,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="203" t="s">
+      <c r="C100" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="204"/>
-      <c r="E100" s="204"/>
-      <c r="F100" s="204"/>
-      <c r="G100" s="204"/>
-      <c r="H100" s="204"/>
-      <c r="I100" s="205"/>
+      <c r="D100" s="198"/>
+      <c r="E100" s="198"/>
+      <c r="F100" s="198"/>
+      <c r="G100" s="198"/>
+      <c r="H100" s="198"/>
+      <c r="I100" s="199"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7518,15 +7530,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="203" t="s">
+      <c r="C120" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="204"/>
-      <c r="E120" s="204"/>
-      <c r="F120" s="204"/>
-      <c r="G120" s="204"/>
-      <c r="H120" s="204"/>
-      <c r="I120" s="205"/>
+      <c r="D120" s="198"/>
+      <c r="E120" s="198"/>
+      <c r="F120" s="198"/>
+      <c r="G120" s="198"/>
+      <c r="H120" s="198"/>
+      <c r="I120" s="199"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7732,15 +7744,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="203" t="s">
+      <c r="C130" s="197" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="204"/>
-      <c r="E130" s="204"/>
-      <c r="F130" s="204"/>
-      <c r="G130" s="204"/>
-      <c r="H130" s="204"/>
-      <c r="I130" s="205"/>
+      <c r="D130" s="198"/>
+      <c r="E130" s="198"/>
+      <c r="F130" s="198"/>
+      <c r="G130" s="198"/>
+      <c r="H130" s="198"/>
+      <c r="I130" s="199"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8092,15 +8104,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="203" t="s">
+      <c r="C147" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="204"/>
-      <c r="E147" s="204"/>
-      <c r="F147" s="204"/>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
-      <c r="I147" s="205"/>
+      <c r="D147" s="198"/>
+      <c r="E147" s="198"/>
+      <c r="F147" s="198"/>
+      <c r="G147" s="198"/>
+      <c r="H147" s="198"/>
+      <c r="I147" s="199"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10305,8 +10317,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:I45"/>
+    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192:I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10330,15 +10342,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10531,7 +10543,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="192" t="s">
+      <c r="I9" s="186" t="s">
         <v>319</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10712,7 +10724,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="95" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10788,7 +10800,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="96" t="s">
         <v>288</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -10799,28 +10811,28 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="106">
+      <c r="D19" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="104">
         <v>42096</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="104">
         <v>45201</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="105">
         <v>6</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="106">
         <v>22</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="166" t="s">
+      <c r="J19" s="161" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11023,10 +11035,10 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="97"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="70">
         <v>44389</v>
       </c>
@@ -11079,7 +11091,7 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="193" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -11097,7 +11109,7 @@
       <c r="H30" s="8">
         <v>26</v>
       </c>
-      <c r="I30" s="113" t="s">
+      <c r="I30" s="110" t="s">
         <v>307</v>
       </c>
       <c r="J30" s="14" t="s">
@@ -11166,25 +11178,25 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="165" t="s">
+      <c r="C33" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="186">
+      <c r="D33" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="180">
         <v>42593</v>
       </c>
-      <c r="F33" s="186">
+      <c r="F33" s="180">
         <v>45149</v>
       </c>
-      <c r="G33" s="187">
+      <c r="G33" s="181">
         <v>7</v>
       </c>
-      <c r="H33" s="108">
+      <c r="H33" s="106">
         <v>22</v>
       </c>
-      <c r="I33" s="98" t="s">
+      <c r="I33" s="96" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -11224,28 +11236,28 @@
       <c r="B35" s="8">
         <v>32</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="106">
+      <c r="D35" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="104">
         <v>44427</v>
       </c>
-      <c r="F35" s="106">
+      <c r="F35" s="104">
         <v>45157</v>
       </c>
-      <c r="G35" s="107">
+      <c r="G35" s="105">
         <v>2</v>
       </c>
-      <c r="H35" s="108">
+      <c r="H35" s="106">
         <v>14</v>
       </c>
-      <c r="I35" s="109" t="s">
+      <c r="I35" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="166" t="s">
+      <c r="J35" s="161" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11265,10 +11277,10 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="J36" s="196" t="s">
+      <c r="J36" s="190" t="s">
         <v>317</v>
       </c>
       <c r="K36" s="26"/>
@@ -11299,10 +11311,10 @@
       <c r="I37" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="170" t="s">
+      <c r="J37" s="164" t="s">
         <v>318</v>
       </c>
-      <c r="K37" s="191"/>
+      <c r="K37" s="185"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11324,10 +11336,10 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="177" t="s">
+      <c r="I38" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="194" t="s">
+      <c r="J38" s="188" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11335,7 +11347,7 @@
       <c r="B39" s="8">
         <v>36</v>
       </c>
-      <c r="C39" s="176" t="s">
+      <c r="C39" s="170" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="62" t="s">
@@ -11356,7 +11368,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="190" t="s">
+      <c r="J39" s="184" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11385,7 +11397,7 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="190" t="s">
+      <c r="J40" s="184" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11393,7 +11405,7 @@
       <c r="B41" s="8">
         <v>38</v>
       </c>
-      <c r="C41" s="176" t="s">
+      <c r="C41" s="170" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="71" t="s">
@@ -11449,27 +11461,26 @@
       <c r="B43" s="8">
         <v>40</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11">
+      <c r="D43" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="63">
         <v>44830</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="63">
         <v>45195</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="64">
         <v>1</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="65">
         <v>12</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="66" t="s">
         <v>87</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:12" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11553,35 +11564,35 @@
       <c r="I46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="191" t="s">
+      <c r="J46" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="K46" s="191"/>
+      <c r="K46" s="185"/>
     </row>
     <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>44</v>
       </c>
-      <c r="C47" s="165" t="s">
+      <c r="C47" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="106">
+      <c r="D47" s="103"/>
+      <c r="E47" s="104">
         <v>44866</v>
       </c>
-      <c r="F47" s="106">
+      <c r="F47" s="104">
         <v>45231</v>
       </c>
-      <c r="G47" s="107">
+      <c r="G47" s="105">
         <v>1</v>
       </c>
-      <c r="H47" s="108">
+      <c r="H47" s="106">
         <v>12</v>
       </c>
-      <c r="I47" s="98" t="s">
+      <c r="I47" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="166" t="s">
+      <c r="J47" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11616,26 +11627,26 @@
       <c r="B49" s="8">
         <v>46</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="106">
+      <c r="D49" s="103"/>
+      <c r="E49" s="104">
         <v>44876</v>
       </c>
-      <c r="F49" s="106">
+      <c r="F49" s="104">
         <v>45241</v>
       </c>
-      <c r="G49" s="107">
+      <c r="G49" s="105">
         <v>1</v>
       </c>
-      <c r="H49" s="108">
+      <c r="H49" s="106">
         <v>12</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="I49" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="166" t="s">
+      <c r="J49" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11643,26 +11654,26 @@
       <c r="B50" s="8">
         <v>47</v>
       </c>
-      <c r="C50" s="165" t="s">
+      <c r="C50" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="106">
+      <c r="D50" s="103"/>
+      <c r="E50" s="104">
         <v>44883</v>
       </c>
-      <c r="F50" s="106">
+      <c r="F50" s="104">
         <v>45248</v>
       </c>
-      <c r="G50" s="107">
+      <c r="G50" s="105">
         <v>1</v>
       </c>
-      <c r="H50" s="108">
+      <c r="H50" s="106">
         <v>12</v>
       </c>
-      <c r="I50" s="109" t="s">
+      <c r="I50" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="166" t="s">
+      <c r="J50" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11670,26 +11681,26 @@
       <c r="B51" s="8">
         <v>48</v>
       </c>
-      <c r="C51" s="165" t="s">
+      <c r="C51" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="106">
+      <c r="D51" s="103"/>
+      <c r="E51" s="104">
         <v>44886</v>
       </c>
-      <c r="F51" s="106">
+      <c r="F51" s="104">
         <v>45251</v>
       </c>
-      <c r="G51" s="107">
+      <c r="G51" s="105">
         <v>1</v>
       </c>
-      <c r="H51" s="108">
+      <c r="H51" s="106">
         <v>12</v>
       </c>
-      <c r="I51" s="98" t="s">
+      <c r="I51" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="166" t="s">
+      <c r="J51" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11755,26 +11766,26 @@
       <c r="B54" s="8">
         <v>51</v>
       </c>
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="106">
+      <c r="D54" s="103"/>
+      <c r="E54" s="104">
         <v>44913</v>
       </c>
-      <c r="F54" s="106">
+      <c r="F54" s="104">
         <v>45278</v>
       </c>
-      <c r="G54" s="107">
+      <c r="G54" s="105">
         <v>1</v>
       </c>
-      <c r="H54" s="108">
+      <c r="H54" s="106">
         <v>12</v>
       </c>
-      <c r="I54" s="193">
+      <c r="I54" s="187">
         <v>45292</v>
       </c>
-      <c r="J54" s="166" t="s">
+      <c r="J54" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12006,15 +12017,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="206" t="s">
+      <c r="C76" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="206"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
+      <c r="D76" s="200"/>
+      <c r="E76" s="200"/>
+      <c r="F76" s="200"/>
+      <c r="G76" s="200"/>
+      <c r="H76" s="200"/>
+      <c r="I76" s="200"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12124,7 +12135,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="100" t="s">
+      <c r="K80" s="98" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12389,29 +12400,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="104" t="s">
+      <c r="C90" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="106">
+      <c r="D90" s="103"/>
+      <c r="E90" s="104">
         <v>44662</v>
       </c>
-      <c r="F90" s="106">
+      <c r="F90" s="104">
         <v>45027</v>
       </c>
-      <c r="G90" s="107">
+      <c r="G90" s="105">
         <v>1</v>
       </c>
-      <c r="H90" s="108">
+      <c r="H90" s="106">
         <v>12</v>
       </c>
-      <c r="I90" s="109" t="s">
+      <c r="I90" s="107" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="100" t="s">
+      <c r="K90" s="98" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12530,11 +12541,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="148" t="s">
+      <c r="K94" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="L94" s="148"/>
-      <c r="M94" s="148"/>
+      <c r="L94" s="144"/>
+      <c r="M94" s="144"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12703,7 +12714,7 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="189" t="s">
+      <c r="I100" s="183" t="s">
         <v>316</v>
       </c>
       <c r="J100" s="14" t="s">
@@ -12743,28 +12754,28 @@
       <c r="B102" s="8">
         <v>25</v>
       </c>
-      <c r="C102" s="104" t="s">
+      <c r="C102" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D102" s="105" t="s">
+      <c r="D102" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="106">
+      <c r="E102" s="104">
         <v>44788</v>
       </c>
-      <c r="F102" s="106">
+      <c r="F102" s="104">
         <v>45153</v>
       </c>
-      <c r="G102" s="107">
+      <c r="G102" s="105">
         <v>1</v>
       </c>
-      <c r="H102" s="108">
+      <c r="H102" s="106">
         <v>12</v>
       </c>
-      <c r="I102" s="188" t="s">
+      <c r="I102" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="J102" s="166" t="s">
+      <c r="J102" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12830,25 +12841,25 @@
       <c r="B105" s="8">
         <v>28</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="63">
         <v>44467</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="63">
         <v>45197</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="64">
         <v>2</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="65">
         <v>14</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="66" t="s">
         <v>162</v>
       </c>
       <c r="J105" s="14" t="s">
@@ -12859,25 +12870,25 @@
       <c r="B106" s="8">
         <v>29</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="63">
         <v>44470</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="63">
         <v>45200</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="64">
         <v>2</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="65">
         <v>14</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="67" t="s">
         <v>164</v>
       </c>
       <c r="J106" s="14" t="s">
@@ -13031,26 +13042,26 @@
       <c r="B112" s="8">
         <v>35</v>
       </c>
-      <c r="C112" s="165" t="s">
+      <c r="C112" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="105"/>
-      <c r="E112" s="106">
+      <c r="D112" s="103"/>
+      <c r="E112" s="104">
         <v>44876</v>
       </c>
-      <c r="F112" s="106">
+      <c r="F112" s="104">
         <v>45241</v>
       </c>
-      <c r="G112" s="107">
+      <c r="G112" s="105">
         <v>1</v>
       </c>
-      <c r="H112" s="108">
+      <c r="H112" s="106">
         <v>12</v>
       </c>
-      <c r="I112" s="98" t="s">
+      <c r="I112" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="166" t="s">
+      <c r="J112" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13058,26 +13069,26 @@
       <c r="B113" s="8">
         <v>36</v>
       </c>
-      <c r="C113" s="104" t="s">
+      <c r="C113" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="105"/>
-      <c r="E113" s="106">
+      <c r="D113" s="103"/>
+      <c r="E113" s="104">
         <v>44893</v>
       </c>
-      <c r="F113" s="106">
+      <c r="F113" s="104">
         <v>45258</v>
       </c>
-      <c r="G113" s="107">
+      <c r="G113" s="105">
         <v>1</v>
       </c>
-      <c r="H113" s="108">
+      <c r="H113" s="106">
         <v>12</v>
       </c>
-      <c r="I113" s="193">
+      <c r="I113" s="187">
         <v>45292</v>
       </c>
-      <c r="J113" s="166" t="s">
+      <c r="J113" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13085,28 +13096,28 @@
       <c r="B114" s="8">
         <v>37</v>
       </c>
-      <c r="C114" s="104" t="s">
+      <c r="C114" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D114" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="106">
+      <c r="D114" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="104">
         <v>44907</v>
       </c>
-      <c r="F114" s="106">
+      <c r="F114" s="104">
         <v>45272</v>
       </c>
-      <c r="G114" s="107">
+      <c r="G114" s="105">
         <v>1</v>
       </c>
-      <c r="H114" s="108">
+      <c r="H114" s="106">
         <v>12</v>
       </c>
-      <c r="I114" s="193">
+      <c r="I114" s="187">
         <v>45292</v>
       </c>
-      <c r="J114" s="166" t="s">
+      <c r="J114" s="161" t="s">
         <v>291</v>
       </c>
       <c r="K114" s="26"/>
@@ -13132,7 +13143,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="177" t="s">
+      <c r="I115" s="171" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13143,41 +13154,41 @@
       <c r="B116" s="8">
         <v>39</v>
       </c>
-      <c r="C116" s="165" t="s">
+      <c r="C116" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="D116" s="105"/>
-      <c r="E116" s="106">
+      <c r="D116" s="103"/>
+      <c r="E116" s="104">
         <v>44912</v>
       </c>
-      <c r="F116" s="106">
+      <c r="F116" s="104">
         <v>45277</v>
       </c>
-      <c r="G116" s="107">
+      <c r="G116" s="105">
         <v>1</v>
       </c>
-      <c r="H116" s="108">
+      <c r="H116" s="106">
         <v>12</v>
       </c>
-      <c r="I116" s="193">
+      <c r="I116" s="187">
         <v>45292</v>
       </c>
-      <c r="J116" s="166" t="s">
+      <c r="J116" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="K116" s="166"/>
+      <c r="K116" s="161"/>
     </row>
     <row r="117" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="101" t="s">
+      <c r="C117" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="102" t="s">
+      <c r="D117" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="103">
+      <c r="E117" s="101">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -13191,19 +13202,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="101" t="s">
+      <c r="C118" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="110" t="s">
+      <c r="D118" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="103">
+      <c r="E118" s="101">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="111" t="s">
+      <c r="I118" s="109" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13297,15 +13308,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="203" t="s">
+      <c r="C127" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="204"/>
-      <c r="E127" s="204"/>
-      <c r="F127" s="204"/>
-      <c r="G127" s="204"/>
-      <c r="H127" s="204"/>
-      <c r="I127" s="205"/>
+      <c r="D127" s="198"/>
+      <c r="E127" s="198"/>
+      <c r="F127" s="198"/>
+      <c r="G127" s="198"/>
+      <c r="H127" s="198"/>
+      <c r="I127" s="199"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13429,10 +13440,10 @@
       <c r="I132" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="J132" s="172" t="s">
+      <c r="J132" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="K132" s="173"/>
+      <c r="K132" s="167"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13454,10 +13465,10 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="179" t="s">
+      <c r="I133" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="J133" s="169" t="s">
+      <c r="J133" s="163" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13507,7 +13518,7 @@
       <c r="I135" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="J135" s="182" t="s">
+      <c r="J135" s="176" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13627,7 +13638,7 @@
       <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="178" t="s">
+      <c r="I140" s="172" t="s">
         <v>310</v>
       </c>
       <c r="J140" s="26"/>
@@ -13677,35 +13688,35 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="171" t="s">
+      <c r="I142" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="J142" s="181"/>
+      <c r="J142" s="175"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="183" t="s">
+      <c r="C143" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="184"/>
-      <c r="E143" s="185">
+      <c r="D143" s="178"/>
+      <c r="E143" s="179">
         <v>44144</v>
       </c>
-      <c r="F143" s="185">
+      <c r="F143" s="179">
         <v>45239</v>
       </c>
-      <c r="G143" s="98">
+      <c r="G143" s="96">
         <v>3</v>
       </c>
-      <c r="H143" s="108">
+      <c r="H143" s="106">
         <v>16</v>
       </c>
-      <c r="I143" s="98" t="s">
+      <c r="I143" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="J143" s="166" t="s">
+      <c r="J143" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13748,15 +13759,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="203" t="s">
+      <c r="C147" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="204"/>
-      <c r="E147" s="204"/>
-      <c r="F147" s="204"/>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
-      <c r="I147" s="205"/>
+      <c r="D147" s="198"/>
+      <c r="E147" s="198"/>
+      <c r="F147" s="198"/>
+      <c r="G147" s="198"/>
+      <c r="H147" s="198"/>
+      <c r="I147" s="199"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13932,26 +13943,26 @@
       <c r="B155" s="8">
         <v>7</v>
       </c>
-      <c r="C155" s="195" t="s">
+      <c r="C155" s="189" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="184"/>
-      <c r="E155" s="185">
+      <c r="D155" s="178"/>
+      <c r="E155" s="179">
         <v>44529</v>
       </c>
-      <c r="F155" s="185">
+      <c r="F155" s="179">
         <v>45259</v>
       </c>
-      <c r="G155" s="98">
+      <c r="G155" s="96">
         <v>2</v>
       </c>
-      <c r="H155" s="108">
+      <c r="H155" s="106">
         <v>14</v>
       </c>
-      <c r="I155" s="193" t="s">
+      <c r="I155" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="J155" s="166" t="s">
+      <c r="J155" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13967,15 +13978,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="203" t="s">
+      <c r="C157" s="197" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="204"/>
-      <c r="E157" s="204"/>
-      <c r="F157" s="204"/>
-      <c r="G157" s="204"/>
-      <c r="H157" s="204"/>
-      <c r="I157" s="205"/>
+      <c r="D157" s="198"/>
+      <c r="E157" s="198"/>
+      <c r="F157" s="198"/>
+      <c r="G157" s="198"/>
+      <c r="H157" s="198"/>
+      <c r="I157" s="199"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14189,7 +14200,7 @@
       <c r="H166" s="65">
         <v>14</v>
       </c>
-      <c r="I166" s="202" t="s">
+      <c r="I166" s="196" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14353,15 +14364,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="203" t="s">
+      <c r="C178" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="204"/>
-      <c r="E178" s="204"/>
-      <c r="F178" s="204"/>
-      <c r="G178" s="204"/>
-      <c r="H178" s="204"/>
-      <c r="I178" s="205"/>
+      <c r="D178" s="198"/>
+      <c r="E178" s="198"/>
+      <c r="F178" s="198"/>
+      <c r="G178" s="198"/>
+      <c r="H178" s="198"/>
+      <c r="I178" s="199"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14540,7 +14551,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="120" t="s">
+      <c r="C186" s="117" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -14663,26 +14674,26 @@
       <c r="B191" s="8">
         <v>12</v>
       </c>
-      <c r="C191" s="195" t="s">
+      <c r="C191" s="189" t="s">
         <v>262</v>
       </c>
-      <c r="D191" s="184"/>
-      <c r="E191" s="185">
+      <c r="D191" s="178"/>
+      <c r="E191" s="179">
         <v>44817</v>
       </c>
-      <c r="F191" s="185">
+      <c r="F191" s="179">
         <v>45182</v>
       </c>
-      <c r="G191" s="98">
+      <c r="G191" s="96">
         <v>1</v>
       </c>
-      <c r="H191" s="108">
+      <c r="H191" s="106">
         <v>12</v>
       </c>
-      <c r="I191" s="109" t="s">
+      <c r="I191" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="J191" s="166" t="s">
+      <c r="J191" s="161" t="s">
         <v>291</v>
       </c>
     </row>
@@ -16594,7 +16605,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16610,15 +16621,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="202" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16639,263 +16650,305 @@
       <c r="G4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="180"/>
-    </row>
-    <row r="5" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="201">
-        <v>41925</v>
-      </c>
-      <c r="E5" s="201">
-        <v>45212</v>
-      </c>
-      <c r="F5" s="175">
-        <v>9</v>
-      </c>
-      <c r="G5" s="167">
-        <v>22</v>
-      </c>
-      <c r="H5" s="99" t="s">
+      <c r="I4" s="174"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="143"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="195">
+        <v>44467</v>
+      </c>
+      <c r="E6" s="195">
+        <v>45197</v>
+      </c>
+      <c r="F6" s="169">
+        <v>2</v>
+      </c>
+      <c r="G6" s="162">
+        <v>14</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="205" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="195">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="195">
+        <v>45200</v>
+      </c>
+      <c r="F7" s="169">
+        <v>2</v>
+      </c>
+      <c r="G7" s="162">
+        <v>14</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="191" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="192">
+        <v>44834</v>
+      </c>
+      <c r="E8" s="192">
+        <v>45199</v>
+      </c>
+      <c r="F8" s="88">
+        <v>1</v>
+      </c>
+      <c r="G8" s="162">
+        <v>12</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="99"/>
-    </row>
-    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="149"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="168"/>
-    </row>
-    <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="147"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="99"/>
+      <c r="D9" s="195">
+        <v>44830</v>
+      </c>
+      <c r="E9" s="195">
+        <v>45195</v>
+      </c>
+      <c r="F9" s="169">
+        <v>1</v>
+      </c>
+      <c r="G9" s="162">
+        <v>12</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="144"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="141"/>
     </row>
     <row r="13" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="122"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="133"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="135"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="132"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="136"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="139"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="116"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="113"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="116"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="113"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="116"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="113"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
     </row>
   </sheetData>
   <sortState ref="B5:H7">
@@ -16932,170 +16985,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="160"/>
-    <col min="2" max="2" width="33.140625" style="160" customWidth="1"/>
-    <col min="3" max="3" width="5" style="159" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="159" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="159"/>
-    <col min="7" max="16384" width="11.42578125" style="160"/>
+    <col min="1" max="1" width="11.42578125" style="155"/>
+    <col min="2" max="2" width="33.140625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="5" style="154" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="154" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="154"/>
+    <col min="7" max="16384" width="11.42578125" style="155"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="117"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="150"/>
+      <c r="B2" s="145"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="119"/>
-      <c r="D3" s="158" t="s">
+      <c r="B3" s="116"/>
+      <c r="D3" s="153" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="163"/>
+      <c r="D4" s="158"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
+      <c r="B5" s="116"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="158"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="153"/>
+      <c r="B7" s="148"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="163"/>
+      <c r="D8" s="158"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="155"/>
+      <c r="B9" s="150"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="163"/>
+      <c r="D10" s="158"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="155"/>
+      <c r="B11" s="150"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="149" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="163"/>
+      <c r="D12" s="158"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="155"/>
+      <c r="B13" s="150"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="163"/>
+      <c r="D14" s="158"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="155"/>
+      <c r="B15" s="150"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="163"/>
+      <c r="D16" s="158"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="161"/>
+      <c r="B17" s="156"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="163"/>
+      <c r="D18" s="158"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="161"/>
+      <c r="B19" s="156"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="163"/>
+      <c r="D20" s="158"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="155"/>
+      <c r="B21" s="150"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="147" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="163"/>
+      <c r="D22" s="158"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="156"/>
+      <c r="B23" s="151"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="164"/>
+      <c r="D24" s="159"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="155"/>
+      <c r="B25" s="150"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="163"/>
+      <c r="D26" s="158"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="155"/>
+      <c r="B27" s="150"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="163"/>
+      <c r="D28" s="158"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="162"/>
+      <c r="B29" s="157"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="152" t="s">
+      <c r="B30" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="163"/>
+      <c r="D30" s="158"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="118"/>
+      <c r="B32" s="115"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="115"/>
+      <c r="B33" s="112"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="115"/>
+      <c r="B34" s="112"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="115"/>
+      <c r="B35" s="112"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="115"/>
+      <c r="B36" s="112"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="115"/>
+      <c r="B37" s="112"/>
     </row>
     <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B38" s="115"/>
+      <c r="B38" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="332">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3108,6 +3108,9 @@
       </rPr>
       <t xml:space="preserve">                                                   2 al 8 Octubre 2023</t>
     </r>
+  </si>
+  <si>
+    <t>2 al 15 Oct 2023                                 4  AL   17   octubre</t>
   </si>
 </sst>
 </file>
@@ -4081,6 +4084,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4104,9 +4110,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4428,15 +4431,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5927,15 +5930,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="200" t="s">
+      <c r="C57" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="201"/>
+      <c r="H57" s="201"/>
+      <c r="I57" s="201"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7094,15 +7097,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="197" t="s">
+      <c r="C100" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="198"/>
-      <c r="E100" s="198"/>
-      <c r="F100" s="198"/>
-      <c r="G100" s="198"/>
-      <c r="H100" s="198"/>
-      <c r="I100" s="199"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="199"/>
+      <c r="I100" s="200"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7530,15 +7533,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="197" t="s">
+      <c r="C120" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="198"/>
-      <c r="E120" s="198"/>
-      <c r="F120" s="198"/>
-      <c r="G120" s="198"/>
-      <c r="H120" s="198"/>
-      <c r="I120" s="199"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="199"/>
+      <c r="F120" s="199"/>
+      <c r="G120" s="199"/>
+      <c r="H120" s="199"/>
+      <c r="I120" s="200"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7744,15 +7747,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="197" t="s">
+      <c r="C130" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="198"/>
-      <c r="E130" s="198"/>
-      <c r="F130" s="198"/>
-      <c r="G130" s="198"/>
-      <c r="H130" s="198"/>
-      <c r="I130" s="199"/>
+      <c r="D130" s="199"/>
+      <c r="E130" s="199"/>
+      <c r="F130" s="199"/>
+      <c r="G130" s="199"/>
+      <c r="H130" s="199"/>
+      <c r="I130" s="200"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8104,15 +8107,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="197" t="s">
+      <c r="C147" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="198"/>
-      <c r="E147" s="198"/>
-      <c r="F147" s="198"/>
-      <c r="G147" s="198"/>
-      <c r="H147" s="198"/>
-      <c r="I147" s="199"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10342,15 +10345,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -12017,15 +12020,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="200" t="s">
+      <c r="C76" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="200"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13308,15 +13311,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="197" t="s">
+      <c r="C127" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="198"/>
-      <c r="E127" s="198"/>
-      <c r="F127" s="198"/>
-      <c r="G127" s="198"/>
-      <c r="H127" s="198"/>
-      <c r="I127" s="199"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="199"/>
+      <c r="F127" s="199"/>
+      <c r="G127" s="199"/>
+      <c r="H127" s="199"/>
+      <c r="I127" s="200"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13759,15 +13762,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="197" t="s">
+      <c r="C147" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="198"/>
-      <c r="E147" s="198"/>
-      <c r="F147" s="198"/>
-      <c r="G147" s="198"/>
-      <c r="H147" s="198"/>
-      <c r="I147" s="199"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13978,15 +13981,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="197" t="s">
+      <c r="C157" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="198"/>
-      <c r="E157" s="198"/>
-      <c r="F157" s="198"/>
-      <c r="G157" s="198"/>
-      <c r="H157" s="198"/>
-      <c r="I157" s="199"/>
+      <c r="D157" s="199"/>
+      <c r="E157" s="199"/>
+      <c r="F157" s="199"/>
+      <c r="G157" s="199"/>
+      <c r="H157" s="199"/>
+      <c r="I157" s="200"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14364,15 +14367,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="197" t="s">
+      <c r="C178" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="198"/>
-      <c r="E178" s="198"/>
-      <c r="F178" s="198"/>
-      <c r="G178" s="198"/>
-      <c r="H178" s="198"/>
-      <c r="I178" s="199"/>
+      <c r="D178" s="199"/>
+      <c r="E178" s="199"/>
+      <c r="F178" s="199"/>
+      <c r="G178" s="199"/>
+      <c r="H178" s="199"/>
+      <c r="I178" s="200"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16605,7 +16608,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16621,15 +16624,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="203" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="205"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16684,12 +16687,12 @@
       <c r="G6" s="162">
         <v>14</v>
       </c>
-      <c r="H6" s="88" t="s">
-        <v>162</v>
+      <c r="H6" s="97" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="197" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="88" t="s">
@@ -16871,13 +16874,13 @@
       <c r="I35" s="113"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="201"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
       <c r="I36" s="113"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="335">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3083,19 +3083,22 @@
     <t>VERDURAS</t>
   </si>
   <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 al 15 Octubre 2023 </t>
+    <t>ALMACEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRADURA </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 al 27 Oct 2023 </t>
     </r>
     <r>
       <rPr>
@@ -3106,11 +3109,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                   2 al 8 Octubre 2023</t>
-    </r>
-  </si>
-  <si>
-    <t>2 al 15 Oct 2023                                 4  AL   17   octubre</t>
+      <t xml:space="preserve">                                                            9 al 18 Oct 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 al 23 Oct 2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                      9 al 16  Oct 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>9 --al --- 22 Oct 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 Jul al 11 Ago 2023                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     7--al   17    OCTUBRE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3298,7 +3341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3337,19 +3380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,7 +3547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3786,12 +3817,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3841,9 +3866,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3985,7 +4007,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4009,16 +4031,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4042,13 +4061,13 @@
     <xf numFmtId="17" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4069,24 +4088,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4110,6 +4117,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4431,15 +4468,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5930,15 +5967,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="201" t="s">
+      <c r="C57" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="201"/>
-      <c r="H57" s="201"/>
-      <c r="I57" s="201"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="193"/>
+      <c r="F57" s="193"/>
+      <c r="G57" s="193"/>
+      <c r="H57" s="193"/>
+      <c r="I57" s="193"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7097,15 +7134,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="198" t="s">
+      <c r="C100" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="199"/>
-      <c r="E100" s="199"/>
-      <c r="F100" s="199"/>
-      <c r="G100" s="199"/>
-      <c r="H100" s="199"/>
-      <c r="I100" s="200"/>
+      <c r="D100" s="191"/>
+      <c r="E100" s="191"/>
+      <c r="F100" s="191"/>
+      <c r="G100" s="191"/>
+      <c r="H100" s="191"/>
+      <c r="I100" s="192"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7533,15 +7570,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="198" t="s">
+      <c r="C120" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="199"/>
-      <c r="E120" s="199"/>
-      <c r="F120" s="199"/>
-      <c r="G120" s="199"/>
-      <c r="H120" s="199"/>
-      <c r="I120" s="200"/>
+      <c r="D120" s="191"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="191"/>
+      <c r="G120" s="191"/>
+      <c r="H120" s="191"/>
+      <c r="I120" s="192"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7747,15 +7784,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="198" t="s">
+      <c r="C130" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="199"/>
-      <c r="E130" s="199"/>
-      <c r="F130" s="199"/>
-      <c r="G130" s="199"/>
-      <c r="H130" s="199"/>
-      <c r="I130" s="200"/>
+      <c r="D130" s="191"/>
+      <c r="E130" s="191"/>
+      <c r="F130" s="191"/>
+      <c r="G130" s="191"/>
+      <c r="H130" s="191"/>
+      <c r="I130" s="192"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8107,15 +8144,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="198" t="s">
+      <c r="C147" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="199"/>
-      <c r="E147" s="199"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="199"/>
-      <c r="H147" s="199"/>
-      <c r="I147" s="200"/>
+      <c r="D147" s="191"/>
+      <c r="E147" s="191"/>
+      <c r="F147" s="191"/>
+      <c r="G147" s="191"/>
+      <c r="H147" s="191"/>
+      <c r="I147" s="192"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10320,8 +10357,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192:I192"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10345,15 +10382,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -10546,7 +10583,7 @@
       <c r="H9" s="65">
         <v>22</v>
       </c>
-      <c r="I9" s="186" t="s">
+      <c r="I9" s="182" t="s">
         <v>319</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -10727,7 +10764,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="93" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="66" t="s">
@@ -10803,7 +10840,7 @@
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="I18" s="94" t="s">
         <v>288</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -10814,28 +10851,28 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="104">
+      <c r="D19" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="102">
         <v>42096</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="102">
         <v>45201</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="103">
         <v>6</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="104">
         <v>22</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="161" t="s">
+      <c r="J19" s="158" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11038,10 +11075,10 @@
       <c r="B28" s="8">
         <v>25</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="70">
         <v>44389</v>
       </c>
@@ -11094,25 +11131,25 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="193" t="s">
+      <c r="C30" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="63">
         <v>38915</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="63">
         <v>45124</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="64">
         <v>17</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="66">
         <v>26</v>
       </c>
-      <c r="I30" s="110" t="s">
+      <c r="I30" s="67" t="s">
         <v>307</v>
       </c>
       <c r="J30" s="14" t="s">
@@ -11181,25 +11218,25 @@
       <c r="B33" s="8">
         <v>30</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C33" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="180">
+      <c r="D33" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="176">
         <v>42593</v>
       </c>
-      <c r="F33" s="180">
+      <c r="F33" s="176">
         <v>45149</v>
       </c>
-      <c r="G33" s="181">
+      <c r="G33" s="177">
         <v>7</v>
       </c>
-      <c r="H33" s="106">
+      <c r="H33" s="104">
         <v>22</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="94" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -11239,28 +11276,28 @@
       <c r="B35" s="8">
         <v>32</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="104">
+      <c r="D35" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="102">
         <v>44427</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="102">
         <v>45157</v>
       </c>
-      <c r="G35" s="105">
+      <c r="G35" s="103">
         <v>2</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="104">
         <v>14</v>
       </c>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="161" t="s">
+      <c r="J35" s="158" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11280,10 +11317,10 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="171" t="s">
+      <c r="I36" s="168" t="s">
         <v>323</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="186" t="s">
         <v>317</v>
       </c>
       <c r="K36" s="26"/>
@@ -11314,10 +11351,10 @@
       <c r="I37" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="164" t="s">
+      <c r="J37" s="161" t="s">
         <v>318</v>
       </c>
-      <c r="K37" s="185"/>
+      <c r="K37" s="181"/>
     </row>
     <row r="38" spans="2:12" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
@@ -11339,10 +11376,10 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="171" t="s">
+      <c r="I38" s="168" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="188" t="s">
+      <c r="J38" s="184" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11350,7 +11387,7 @@
       <c r="B39" s="8">
         <v>36</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="C39" s="167" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="62" t="s">
@@ -11371,7 +11408,7 @@
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="180" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11400,7 +11437,7 @@
       <c r="I40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="184" t="s">
+      <c r="J40" s="180" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11408,7 +11445,7 @@
       <c r="B41" s="8">
         <v>38</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="167" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="71" t="s">
@@ -11567,35 +11604,35 @@
       <c r="I46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="185" t="s">
+      <c r="J46" s="181" t="s">
         <v>321</v>
       </c>
-      <c r="K46" s="185"/>
+      <c r="K46" s="181"/>
     </row>
     <row r="47" spans="2:12" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>44</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104">
+      <c r="D47" s="101"/>
+      <c r="E47" s="102">
         <v>44866</v>
       </c>
-      <c r="F47" s="104">
+      <c r="F47" s="102">
         <v>45231</v>
       </c>
-      <c r="G47" s="105">
+      <c r="G47" s="103">
         <v>1</v>
       </c>
-      <c r="H47" s="106">
+      <c r="H47" s="104">
         <v>12</v>
       </c>
-      <c r="I47" s="96" t="s">
+      <c r="I47" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="161" t="s">
+      <c r="J47" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11630,26 +11667,26 @@
       <c r="B49" s="8">
         <v>46</v>
       </c>
-      <c r="C49" s="160" t="s">
+      <c r="C49" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="104">
+      <c r="D49" s="101"/>
+      <c r="E49" s="102">
         <v>44876</v>
       </c>
-      <c r="F49" s="104">
+      <c r="F49" s="102">
         <v>45241</v>
       </c>
-      <c r="G49" s="105">
+      <c r="G49" s="103">
         <v>1</v>
       </c>
-      <c r="H49" s="106">
+      <c r="H49" s="104">
         <v>12</v>
       </c>
-      <c r="I49" s="96" t="s">
+      <c r="I49" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="161" t="s">
+      <c r="J49" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11657,26 +11694,26 @@
       <c r="B50" s="8">
         <v>47</v>
       </c>
-      <c r="C50" s="160" t="s">
+      <c r="C50" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104">
+      <c r="D50" s="101"/>
+      <c r="E50" s="102">
         <v>44883</v>
       </c>
-      <c r="F50" s="104">
+      <c r="F50" s="102">
         <v>45248</v>
       </c>
-      <c r="G50" s="105">
+      <c r="G50" s="103">
         <v>1</v>
       </c>
-      <c r="H50" s="106">
+      <c r="H50" s="104">
         <v>12</v>
       </c>
-      <c r="I50" s="107" t="s">
+      <c r="I50" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="161" t="s">
+      <c r="J50" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11684,26 +11721,26 @@
       <c r="B51" s="8">
         <v>48</v>
       </c>
-      <c r="C51" s="160" t="s">
+      <c r="C51" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="104">
+      <c r="D51" s="101"/>
+      <c r="E51" s="102">
         <v>44886</v>
       </c>
-      <c r="F51" s="104">
+      <c r="F51" s="102">
         <v>45251</v>
       </c>
-      <c r="G51" s="105">
+      <c r="G51" s="103">
         <v>1</v>
       </c>
-      <c r="H51" s="106">
+      <c r="H51" s="104">
         <v>12</v>
       </c>
-      <c r="I51" s="96" t="s">
+      <c r="I51" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="161" t="s">
+      <c r="J51" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11769,26 +11806,26 @@
       <c r="B54" s="8">
         <v>51</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="104">
+      <c r="D54" s="101"/>
+      <c r="E54" s="102">
         <v>44913</v>
       </c>
-      <c r="F54" s="104">
+      <c r="F54" s="102">
         <v>45278</v>
       </c>
-      <c r="G54" s="105">
+      <c r="G54" s="103">
         <v>1</v>
       </c>
-      <c r="H54" s="106">
+      <c r="H54" s="104">
         <v>12</v>
       </c>
-      <c r="I54" s="187">
+      <c r="I54" s="183">
         <v>45292</v>
       </c>
-      <c r="J54" s="161" t="s">
+      <c r="J54" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12020,15 +12057,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="201" t="s">
+      <c r="C76" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="201"/>
-      <c r="E76" s="201"/>
-      <c r="F76" s="201"/>
-      <c r="G76" s="201"/>
-      <c r="H76" s="201"/>
-      <c r="I76" s="201"/>
+      <c r="D76" s="193"/>
+      <c r="E76" s="193"/>
+      <c r="F76" s="193"/>
+      <c r="G76" s="193"/>
+      <c r="H76" s="193"/>
+      <c r="I76" s="193"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12138,7 +12175,7 @@
       <c r="J80" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="98" t="s">
+      <c r="K80" s="96" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12403,29 +12440,29 @@
       <c r="B90" s="8">
         <v>13</v>
       </c>
-      <c r="C90" s="102" t="s">
+      <c r="C90" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="103"/>
-      <c r="E90" s="104">
+      <c r="D90" s="101"/>
+      <c r="E90" s="102">
         <v>44662</v>
       </c>
-      <c r="F90" s="104">
+      <c r="F90" s="102">
         <v>45027</v>
       </c>
-      <c r="G90" s="105">
+      <c r="G90" s="103">
         <v>1</v>
       </c>
-      <c r="H90" s="106">
+      <c r="H90" s="104">
         <v>12</v>
       </c>
-      <c r="I90" s="107" t="s">
+      <c r="I90" s="105" t="s">
         <v>136</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K90" s="98" t="s">
+      <c r="K90" s="96" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12544,11 +12581,11 @@
       <c r="J94" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="144" t="s">
+      <c r="K94" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="L94" s="144"/>
-      <c r="M94" s="144"/>
+      <c r="L94" s="141"/>
+      <c r="M94" s="141"/>
     </row>
     <row r="95" spans="2:13" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
@@ -12717,7 +12754,7 @@
       <c r="H100" s="13">
         <v>26</v>
       </c>
-      <c r="I100" s="183" t="s">
+      <c r="I100" s="179" t="s">
         <v>316</v>
       </c>
       <c r="J100" s="14" t="s">
@@ -12757,28 +12794,28 @@
       <c r="B102" s="8">
         <v>25</v>
       </c>
-      <c r="C102" s="102" t="s">
+      <c r="C102" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="D102" s="103" t="s">
+      <c r="D102" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="104">
+      <c r="E102" s="102">
         <v>44788</v>
       </c>
-      <c r="F102" s="104">
+      <c r="F102" s="102">
         <v>45153</v>
       </c>
-      <c r="G102" s="105">
+      <c r="G102" s="103">
         <v>1</v>
       </c>
-      <c r="H102" s="106">
+      <c r="H102" s="104">
         <v>12</v>
       </c>
-      <c r="I102" s="182" t="s">
+      <c r="I102" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="J102" s="161" t="s">
+      <c r="J102" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12902,25 +12939,25 @@
       <c r="B107" s="8">
         <v>30</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="63">
         <v>44473</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="63">
         <v>45203</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="64">
         <v>2</v>
       </c>
-      <c r="H107" s="13">
+      <c r="H107" s="65">
         <v>14</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="66" t="s">
         <v>166</v>
       </c>
       <c r="J107" s="14" t="s">
@@ -13045,26 +13082,26 @@
       <c r="B112" s="8">
         <v>35</v>
       </c>
-      <c r="C112" s="160" t="s">
+      <c r="C112" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="103"/>
-      <c r="E112" s="104">
+      <c r="D112" s="101"/>
+      <c r="E112" s="102">
         <v>44876</v>
       </c>
-      <c r="F112" s="104">
+      <c r="F112" s="102">
         <v>45241</v>
       </c>
-      <c r="G112" s="105">
+      <c r="G112" s="103">
         <v>1</v>
       </c>
-      <c r="H112" s="106">
+      <c r="H112" s="104">
         <v>12</v>
       </c>
-      <c r="I112" s="96" t="s">
+      <c r="I112" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="161" t="s">
+      <c r="J112" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13072,26 +13109,26 @@
       <c r="B113" s="8">
         <v>36</v>
       </c>
-      <c r="C113" s="102" t="s">
+      <c r="C113" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="103"/>
-      <c r="E113" s="104">
+      <c r="D113" s="101"/>
+      <c r="E113" s="102">
         <v>44893</v>
       </c>
-      <c r="F113" s="104">
+      <c r="F113" s="102">
         <v>45258</v>
       </c>
-      <c r="G113" s="105">
+      <c r="G113" s="103">
         <v>1</v>
       </c>
-      <c r="H113" s="106">
+      <c r="H113" s="104">
         <v>12</v>
       </c>
-      <c r="I113" s="187">
+      <c r="I113" s="183">
         <v>45292</v>
       </c>
-      <c r="J113" s="161" t="s">
+      <c r="J113" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13099,28 +13136,28 @@
       <c r="B114" s="8">
         <v>37</v>
       </c>
-      <c r="C114" s="102" t="s">
+      <c r="C114" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="D114" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="104">
+      <c r="D114" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="102">
         <v>44907</v>
       </c>
-      <c r="F114" s="104">
+      <c r="F114" s="102">
         <v>45272</v>
       </c>
-      <c r="G114" s="105">
+      <c r="G114" s="103">
         <v>1</v>
       </c>
-      <c r="H114" s="106">
+      <c r="H114" s="104">
         <v>12</v>
       </c>
-      <c r="I114" s="187">
+      <c r="I114" s="183">
         <v>45292</v>
       </c>
-      <c r="J114" s="161" t="s">
+      <c r="J114" s="158" t="s">
         <v>291</v>
       </c>
       <c r="K114" s="26"/>
@@ -13146,7 +13183,7 @@
       <c r="H115" s="13">
         <v>12</v>
       </c>
-      <c r="I115" s="171" t="s">
+      <c r="I115" s="168" t="s">
         <v>178</v>
       </c>
       <c r="J115" s="14" t="s">
@@ -13157,41 +13194,41 @@
       <c r="B116" s="8">
         <v>39</v>
       </c>
-      <c r="C116" s="160" t="s">
+      <c r="C116" s="157" t="s">
         <v>179</v>
       </c>
-      <c r="D116" s="103"/>
-      <c r="E116" s="104">
+      <c r="D116" s="101"/>
+      <c r="E116" s="102">
         <v>44912</v>
       </c>
-      <c r="F116" s="104">
+      <c r="F116" s="102">
         <v>45277</v>
       </c>
-      <c r="G116" s="105">
+      <c r="G116" s="103">
         <v>1</v>
       </c>
-      <c r="H116" s="106">
+      <c r="H116" s="104">
         <v>12</v>
       </c>
-      <c r="I116" s="187">
+      <c r="I116" s="183">
         <v>45292</v>
       </c>
-      <c r="J116" s="161" t="s">
+      <c r="J116" s="158" t="s">
         <v>291</v>
       </c>
-      <c r="K116" s="161"/>
+      <c r="K116" s="158"/>
     </row>
     <row r="117" spans="2:12" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8">
         <v>40</v>
       </c>
-      <c r="C117" s="99" t="s">
+      <c r="C117" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="100" t="s">
+      <c r="D117" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="101">
+      <c r="E117" s="99">
         <v>44998</v>
       </c>
       <c r="F117" s="11"/>
@@ -13205,19 +13242,19 @@
       <c r="B118" s="8">
         <v>41</v>
       </c>
-      <c r="C118" s="99" t="s">
+      <c r="C118" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="108" t="s">
+      <c r="D118" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="101">
+      <c r="E118" s="99">
         <v>44998</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="109" t="s">
+      <c r="I118" s="107" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13311,15 +13348,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="198" t="s">
+      <c r="C127" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="199"/>
-      <c r="E127" s="199"/>
-      <c r="F127" s="199"/>
-      <c r="G127" s="199"/>
-      <c r="H127" s="199"/>
-      <c r="I127" s="200"/>
+      <c r="D127" s="191"/>
+      <c r="E127" s="191"/>
+      <c r="F127" s="191"/>
+      <c r="G127" s="191"/>
+      <c r="H127" s="191"/>
+      <c r="I127" s="192"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13399,7 +13436,7 @@
       <c r="B131" s="8">
         <v>3</v>
       </c>
-      <c r="C131" s="94" t="s">
+      <c r="C131" s="92" t="s">
         <v>186</v>
       </c>
       <c r="D131" s="69"/>
@@ -13440,13 +13477,13 @@
       <c r="H132" s="65">
         <v>22</v>
       </c>
-      <c r="I132" s="93" t="s">
+      <c r="I132" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="J132" s="166" t="s">
+      <c r="J132" s="163" t="s">
         <v>314</v>
       </c>
-      <c r="K132" s="167"/>
+      <c r="K132" s="164"/>
     </row>
     <row r="133" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
@@ -13468,10 +13505,10 @@
       <c r="H133" s="13">
         <v>20</v>
       </c>
-      <c r="I133" s="173" t="s">
+      <c r="I133" s="169" t="s">
         <v>308</v>
       </c>
-      <c r="J133" s="163" t="s">
+      <c r="J133" s="160" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13521,7 +13558,7 @@
       <c r="I135" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="J135" s="176" t="s">
+      <c r="J135" s="172" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13641,7 +13678,7 @@
       <c r="H140" s="65">
         <v>22</v>
       </c>
-      <c r="I140" s="172" t="s">
+      <c r="I140" s="67" t="s">
         <v>310</v>
       </c>
       <c r="J140" s="26"/>
@@ -13650,23 +13687,23 @@
       <c r="B141" s="8">
         <v>13</v>
       </c>
-      <c r="C141" s="45" t="s">
+      <c r="C141" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="19">
+      <c r="D141" s="69"/>
+      <c r="E141" s="70">
         <v>40086</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="70">
         <v>45199</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="66">
         <v>14</v>
       </c>
-      <c r="H141" s="13">
+      <c r="H141" s="65">
         <v>24</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="67" t="s">
         <v>201</v>
       </c>
       <c r="J141" s="26"/>
@@ -13691,35 +13728,35 @@
       <c r="H142" s="13">
         <v>18</v>
       </c>
-      <c r="I142" s="165" t="s">
+      <c r="I142" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="J142" s="175"/>
+      <c r="J142" s="171"/>
     </row>
     <row r="143" spans="2:11" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>15</v>
       </c>
-      <c r="C143" s="177" t="s">
+      <c r="C143" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="178"/>
-      <c r="E143" s="179">
+      <c r="D143" s="174"/>
+      <c r="E143" s="175">
         <v>44144</v>
       </c>
-      <c r="F143" s="179">
+      <c r="F143" s="175">
         <v>45239</v>
       </c>
-      <c r="G143" s="96">
+      <c r="G143" s="94">
         <v>3</v>
       </c>
-      <c r="H143" s="106">
+      <c r="H143" s="104">
         <v>16</v>
       </c>
-      <c r="I143" s="96" t="s">
+      <c r="I143" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="J143" s="161" t="s">
+      <c r="J143" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13762,15 +13799,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="198" t="s">
+      <c r="C147" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="199"/>
-      <c r="E147" s="199"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="199"/>
-      <c r="H147" s="199"/>
-      <c r="I147" s="200"/>
+      <c r="D147" s="191"/>
+      <c r="E147" s="191"/>
+      <c r="F147" s="191"/>
+      <c r="G147" s="191"/>
+      <c r="H147" s="191"/>
+      <c r="I147" s="192"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13848,7 +13885,7 @@
       <c r="B151" s="8">
         <v>2</v>
       </c>
-      <c r="C151" s="94" t="s">
+      <c r="C151" s="92" t="s">
         <v>210</v>
       </c>
       <c r="D151" s="62" t="s">
@@ -13898,23 +13935,23 @@
       <c r="B153" s="8">
         <v>4</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="19">
+      <c r="D153" s="69"/>
+      <c r="E153" s="70">
         <v>42619</v>
       </c>
-      <c r="F153" s="19">
+      <c r="F153" s="70">
         <v>45175</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="66">
         <v>7</v>
       </c>
-      <c r="H153" s="13">
+      <c r="H153" s="65">
         <v>22</v>
       </c>
-      <c r="I153" s="15" t="s">
+      <c r="I153" s="67" t="s">
         <v>297</v>
       </c>
     </row>
@@ -13946,26 +13983,26 @@
       <c r="B155" s="8">
         <v>7</v>
       </c>
-      <c r="C155" s="189" t="s">
+      <c r="C155" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="178"/>
-      <c r="E155" s="179">
+      <c r="D155" s="174"/>
+      <c r="E155" s="175">
         <v>44529</v>
       </c>
-      <c r="F155" s="179">
+      <c r="F155" s="175">
         <v>45259</v>
       </c>
-      <c r="G155" s="96">
+      <c r="G155" s="94">
         <v>2</v>
       </c>
-      <c r="H155" s="106">
+      <c r="H155" s="104">
         <v>14</v>
       </c>
-      <c r="I155" s="187" t="s">
+      <c r="I155" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="J155" s="161" t="s">
+      <c r="J155" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13981,15 +14018,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="198" t="s">
+      <c r="C157" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="199"/>
-      <c r="E157" s="199"/>
-      <c r="F157" s="199"/>
-      <c r="G157" s="199"/>
-      <c r="H157" s="199"/>
-      <c r="I157" s="200"/>
+      <c r="D157" s="191"/>
+      <c r="E157" s="191"/>
+      <c r="F157" s="191"/>
+      <c r="G157" s="191"/>
+      <c r="H157" s="191"/>
+      <c r="I157" s="192"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14187,7 +14224,7 @@
       <c r="B166" s="8">
         <v>8</v>
       </c>
-      <c r="C166" s="94" t="s">
+      <c r="C166" s="92" t="s">
         <v>105</v>
       </c>
       <c r="D166" s="62"/>
@@ -14203,7 +14240,7 @@
       <c r="H166" s="65">
         <v>14</v>
       </c>
-      <c r="I166" s="196" t="s">
+      <c r="I166" s="189" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14367,15 +14404,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="198" t="s">
+      <c r="C178" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="199"/>
-      <c r="E178" s="199"/>
-      <c r="F178" s="199"/>
-      <c r="G178" s="199"/>
-      <c r="H178" s="199"/>
-      <c r="I178" s="200"/>
+      <c r="D178" s="191"/>
+      <c r="E178" s="191"/>
+      <c r="F178" s="191"/>
+      <c r="G178" s="191"/>
+      <c r="H178" s="191"/>
+      <c r="I178" s="192"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14554,7 +14591,7 @@
       <c r="B186" s="8">
         <v>7</v>
       </c>
-      <c r="C186" s="117" t="s">
+      <c r="C186" s="114" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="69"/>
@@ -14677,26 +14714,26 @@
       <c r="B191" s="8">
         <v>12</v>
       </c>
-      <c r="C191" s="189" t="s">
+      <c r="C191" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="D191" s="178"/>
-      <c r="E191" s="179">
+      <c r="D191" s="174"/>
+      <c r="E191" s="175">
         <v>44817</v>
       </c>
-      <c r="F191" s="179">
+      <c r="F191" s="175">
         <v>45182</v>
       </c>
-      <c r="G191" s="96">
+      <c r="G191" s="94">
         <v>1</v>
       </c>
-      <c r="H191" s="106">
+      <c r="H191" s="104">
         <v>12</v>
       </c>
-      <c r="I191" s="107" t="s">
+      <c r="I191" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="J191" s="161" t="s">
+      <c r="J191" s="158" t="s">
         <v>291</v>
       </c>
     </row>
@@ -14704,23 +14741,23 @@
       <c r="B192" s="8">
         <v>13</v>
       </c>
-      <c r="C192" s="52" t="s">
+      <c r="C192" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="D192" s="18"/>
-      <c r="E192" s="19">
+      <c r="D192" s="69"/>
+      <c r="E192" s="70">
         <v>44834</v>
       </c>
-      <c r="F192" s="19">
+      <c r="F192" s="70">
         <v>45199</v>
       </c>
-      <c r="G192" s="8">
+      <c r="G192" s="66">
         <v>1</v>
       </c>
-      <c r="H192" s="13">
+      <c r="H192" s="65">
         <v>12</v>
       </c>
-      <c r="I192" s="8" t="s">
+      <c r="I192" s="66" t="s">
         <v>265</v>
       </c>
     </row>
@@ -16608,7 +16645,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16624,15 +16661,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="195" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="205"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16641,317 +16678,317 @@
       <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="174"/>
+      <c r="I4" s="170"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="88"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="162"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="159"/>
       <c r="H5" s="88"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="195">
-        <v>44467</v>
-      </c>
-      <c r="E6" s="195">
-        <v>45197</v>
-      </c>
-      <c r="F6" s="169">
+      <c r="B6" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="198" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="199">
+        <v>44473</v>
+      </c>
+      <c r="E6" s="199">
+        <v>45203</v>
+      </c>
+      <c r="F6" s="200">
         <v>2</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="159">
         <v>14</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="201">
+        <v>40086</v>
+      </c>
+      <c r="E7" s="201">
+        <v>45199</v>
+      </c>
+      <c r="F7" s="198">
+        <v>14</v>
+      </c>
+      <c r="G7" s="159">
+        <v>24</v>
+      </c>
+      <c r="H7" s="95" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="195">
-        <v>44470</v>
-      </c>
-      <c r="E7" s="195">
-        <v>45200</v>
-      </c>
-      <c r="F7" s="169">
-        <v>2</v>
-      </c>
-      <c r="G7" s="162">
-        <v>14</v>
-      </c>
-      <c r="H7" s="97" t="s">
+    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="187" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="198" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="191" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" s="192">
-        <v>44834</v>
-      </c>
-      <c r="E8" s="192">
-        <v>45199</v>
-      </c>
-      <c r="F8" s="88">
-        <v>1</v>
-      </c>
-      <c r="G8" s="162">
-        <v>12</v>
-      </c>
-      <c r="H8" s="88" t="s">
-        <v>87</v>
+      <c r="D8" s="201">
+        <v>42619</v>
+      </c>
+      <c r="E8" s="201">
+        <v>45175</v>
+      </c>
+      <c r="F8" s="198">
+        <v>7</v>
+      </c>
+      <c r="G8" s="159">
+        <v>22</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="143" t="s">
-        <v>86</v>
+      <c r="B9" s="203" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="195">
-        <v>44830</v>
-      </c>
-      <c r="E9" s="195">
-        <v>45195</v>
-      </c>
-      <c r="F9" s="169">
-        <v>1</v>
-      </c>
-      <c r="G9" s="162">
-        <v>12</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="199">
+        <v>38915</v>
+      </c>
+      <c r="E9" s="199">
+        <v>45124</v>
+      </c>
+      <c r="F9" s="200">
+        <v>17</v>
+      </c>
+      <c r="G9" s="88">
+        <v>26</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="141"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="138"/>
     </row>
     <row r="13" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="119"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="130"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="132"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="129"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="133"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="113"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="113"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="142"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="113"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B5:H7">
@@ -16988,170 +17025,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="155"/>
-    <col min="2" max="2" width="33.140625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="5" style="154" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="154" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="154"/>
-    <col min="7" max="16384" width="11.42578125" style="155"/>
+    <col min="1" max="1" width="11.42578125" style="152"/>
+    <col min="2" max="2" width="33.140625" style="152" customWidth="1"/>
+    <col min="3" max="3" width="5" style="151" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="151"/>
+    <col min="7" max="16384" width="11.42578125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="114"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="145"/>
+      <c r="B2" s="142"/>
     </row>
     <row r="3" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="116"/>
-      <c r="D3" s="153" t="s">
+      <c r="B3" s="113"/>
+      <c r="D3" s="150" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="158"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
+      <c r="B5" s="113"/>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="158"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="148"/>
+      <c r="B7" s="145"/>
     </row>
     <row r="8" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="150"/>
+      <c r="B9" s="147"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="150"/>
+      <c r="B11" s="147"/>
     </row>
     <row r="12" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="146" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="150"/>
+      <c r="B13" s="147"/>
     </row>
     <row r="14" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="150"/>
+      <c r="B15" s="147"/>
     </row>
     <row r="16" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="156"/>
+      <c r="B17" s="153"/>
     </row>
     <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="156"/>
+      <c r="B19" s="153"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="155"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="150"/>
+      <c r="B21" s="147"/>
     </row>
     <row r="22" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="155"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="151"/>
+      <c r="B23" s="148"/>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="159"/>
+      <c r="D24" s="156"/>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="150"/>
+      <c r="B25" s="147"/>
     </row>
     <row r="26" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="158"/>
+      <c r="D26" s="155"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="150"/>
+      <c r="B27" s="147"/>
     </row>
     <row r="28" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="158"/>
+      <c r="D28" s="155"/>
     </row>
     <row r="29" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="157"/>
+      <c r="B29" s="154"/>
     </row>
     <row r="30" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="158"/>
+      <c r="D30" s="155"/>
     </row>
     <row r="32" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B32" s="115"/>
+      <c r="B32" s="112"/>
     </row>
     <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="112"/>
+      <c r="B33" s="109"/>
     </row>
     <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="112"/>
+      <c r="B34" s="109"/>
     </row>
     <row r="35" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="112"/>
+      <c r="B35" s="109"/>
     </row>
     <row r="36" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="112"/>
+      <c r="B36" s="109"/>
     </row>
     <row r="37" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B37" s="112"/>
+      <c r="B37" s="109"/>
     </row>
     <row r="38" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B38" s="112"/>
+      <c r="B38" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="330">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3083,77 +3083,7 @@
     <t>VERDURAS</t>
   </si>
   <si>
-    <t>ALMACEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRADURA </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 al 27 Oct 2023 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                            9 al 18 Oct 2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 al 23 Oct 2023 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                      9 al 16  Oct 2023</t>
-    </r>
-  </si>
-  <si>
-    <t>9 --al --- 22 Oct 2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17 Jul al 11 Ago 2023                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     7--al   17    OCTUBRE</t>
-    </r>
+    <t>SENDEROS</t>
   </si>
 </sst>
 </file>
@@ -3547,7 +3477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4094,6 +4024,36 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4118,35 +4078,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4468,15 +4404,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5967,15 +5903,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="193" t="s">
+      <c r="C57" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="193"/>
-      <c r="I57" s="193"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="203"/>
+      <c r="F57" s="203"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203"/>
+      <c r="I57" s="203"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7134,15 +7070,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="190" t="s">
+      <c r="C100" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="191"/>
-      <c r="E100" s="191"/>
-      <c r="F100" s="191"/>
-      <c r="G100" s="191"/>
-      <c r="H100" s="191"/>
-      <c r="I100" s="192"/>
+      <c r="D100" s="201"/>
+      <c r="E100" s="201"/>
+      <c r="F100" s="201"/>
+      <c r="G100" s="201"/>
+      <c r="H100" s="201"/>
+      <c r="I100" s="202"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7570,15 +7506,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="190" t="s">
+      <c r="C120" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="191"/>
-      <c r="E120" s="191"/>
-      <c r="F120" s="191"/>
-      <c r="G120" s="191"/>
-      <c r="H120" s="191"/>
-      <c r="I120" s="192"/>
+      <c r="D120" s="201"/>
+      <c r="E120" s="201"/>
+      <c r="F120" s="201"/>
+      <c r="G120" s="201"/>
+      <c r="H120" s="201"/>
+      <c r="I120" s="202"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7784,15 +7720,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="190" t="s">
+      <c r="C130" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="191"/>
-      <c r="E130" s="191"/>
-      <c r="F130" s="191"/>
-      <c r="G130" s="191"/>
-      <c r="H130" s="191"/>
-      <c r="I130" s="192"/>
+      <c r="D130" s="201"/>
+      <c r="E130" s="201"/>
+      <c r="F130" s="201"/>
+      <c r="G130" s="201"/>
+      <c r="H130" s="201"/>
+      <c r="I130" s="202"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8144,15 +8080,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="190" t="s">
+      <c r="C147" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="191"/>
-      <c r="E147" s="191"/>
-      <c r="F147" s="191"/>
-      <c r="G147" s="191"/>
-      <c r="H147" s="191"/>
-      <c r="I147" s="192"/>
+      <c r="D147" s="201"/>
+      <c r="E147" s="201"/>
+      <c r="F147" s="201"/>
+      <c r="G147" s="201"/>
+      <c r="H147" s="201"/>
+      <c r="I147" s="202"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10357,8 +10293,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10382,15 +10318,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11131,7 +11067,7 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="199" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="62" t="s">
@@ -12057,15 +11993,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="193" t="s">
+      <c r="C76" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="193"/>
-      <c r="E76" s="193"/>
-      <c r="F76" s="193"/>
-      <c r="G76" s="193"/>
-      <c r="H76" s="193"/>
-      <c r="I76" s="193"/>
+      <c r="D76" s="203"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12459,10 +12395,7 @@
       <c r="I90" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K90" s="96" t="s">
+      <c r="J90" s="96" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12968,23 +12901,23 @@
       <c r="B108" s="8">
         <v>31</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="24">
+      <c r="D108" s="62"/>
+      <c r="E108" s="85">
         <v>44848</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F108" s="85">
         <v>45213</v>
       </c>
-      <c r="G108" s="25">
+      <c r="G108" s="86">
         <v>1</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="65">
         <v>12</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="66" t="s">
         <v>168</v>
       </c>
       <c r="J108" s="14" t="s">
@@ -13348,15 +13281,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="190" t="s">
+      <c r="C127" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="191"/>
-      <c r="E127" s="191"/>
-      <c r="F127" s="191"/>
-      <c r="G127" s="191"/>
-      <c r="H127" s="191"/>
-      <c r="I127" s="192"/>
+      <c r="D127" s="201"/>
+      <c r="E127" s="201"/>
+      <c r="F127" s="201"/>
+      <c r="G127" s="201"/>
+      <c r="H127" s="201"/>
+      <c r="I127" s="202"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13799,15 +13732,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="190" t="s">
+      <c r="C147" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="191"/>
-      <c r="E147" s="191"/>
-      <c r="F147" s="191"/>
-      <c r="G147" s="191"/>
-      <c r="H147" s="191"/>
-      <c r="I147" s="192"/>
+      <c r="D147" s="201"/>
+      <c r="E147" s="201"/>
+      <c r="F147" s="201"/>
+      <c r="G147" s="201"/>
+      <c r="H147" s="201"/>
+      <c r="I147" s="202"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -14018,15 +13951,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="190" t="s">
+      <c r="C157" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="191"/>
-      <c r="E157" s="191"/>
-      <c r="F157" s="191"/>
-      <c r="G157" s="191"/>
-      <c r="H157" s="191"/>
-      <c r="I157" s="192"/>
+      <c r="D157" s="201"/>
+      <c r="E157" s="201"/>
+      <c r="F157" s="201"/>
+      <c r="G157" s="201"/>
+      <c r="H157" s="201"/>
+      <c r="I157" s="202"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14404,15 +14337,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="190" t="s">
+      <c r="C178" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="191"/>
-      <c r="E178" s="191"/>
-      <c r="F178" s="191"/>
-      <c r="G178" s="191"/>
-      <c r="H178" s="191"/>
-      <c r="I178" s="192"/>
+      <c r="D178" s="201"/>
+      <c r="E178" s="201"/>
+      <c r="F178" s="201"/>
+      <c r="G178" s="201"/>
+      <c r="H178" s="201"/>
+      <c r="I178" s="202"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16645,7 +16578,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16661,15 +16594,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="205" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16678,16 +16611,16 @@
       <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="205" t="s">
+      <c r="F4" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="206" t="s">
+      <c r="G4" s="198" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="165" t="s">
@@ -16707,95 +16640,53 @@
     </row>
     <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="198" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="199">
-        <v>44473</v>
-      </c>
-      <c r="E6" s="199">
-        <v>45203</v>
-      </c>
-      <c r="F6" s="200">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="208">
+        <v>44848</v>
+      </c>
+      <c r="E6" s="208">
+        <v>45213</v>
+      </c>
+      <c r="F6" s="209">
+        <v>1</v>
       </c>
       <c r="G6" s="159">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="88" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="202" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="201">
-        <v>40086</v>
-      </c>
-      <c r="E7" s="201">
-        <v>45199</v>
-      </c>
-      <c r="F7" s="198">
-        <v>14</v>
-      </c>
-      <c r="G7" s="159">
-        <v>24</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>331</v>
-      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="187" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="198" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="201">
-        <v>42619</v>
-      </c>
-      <c r="E8" s="201">
-        <v>45175</v>
-      </c>
-      <c r="F8" s="198">
-        <v>7</v>
-      </c>
-      <c r="G8" s="159">
-        <v>22</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>332</v>
-      </c>
+      <c r="B8" s="187"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="203" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="199">
-        <v>38915</v>
-      </c>
-      <c r="E9" s="199">
-        <v>45124</v>
-      </c>
-      <c r="F9" s="200">
-        <v>17</v>
-      </c>
-      <c r="G9" s="88">
-        <v>26</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>334</v>
-      </c>
+      <c r="B9" s="195"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="136"/>
@@ -16911,13 +16802,13 @@
       <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
       <c r="I36" s="110"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="329">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3081,9 +3081,6 @@
   </si>
   <si>
     <t>VERDURAS</t>
-  </si>
-  <si>
-    <t>SENDEROS</t>
   </si>
 </sst>
 </file>
@@ -3477,7 +3474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4036,9 +4033,6 @@
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4077,12 +4071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4404,15 +4392,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5903,15 +5891,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="203"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="203"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7070,15 +7058,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="200" t="s">
+      <c r="C100" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="201"/>
-      <c r="E100" s="201"/>
-      <c r="F100" s="201"/>
-      <c r="G100" s="201"/>
-      <c r="H100" s="201"/>
-      <c r="I100" s="202"/>
+      <c r="D100" s="200"/>
+      <c r="E100" s="200"/>
+      <c r="F100" s="200"/>
+      <c r="G100" s="200"/>
+      <c r="H100" s="200"/>
+      <c r="I100" s="201"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7506,15 +7494,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="200" t="s">
+      <c r="C120" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="201"/>
-      <c r="E120" s="201"/>
-      <c r="F120" s="201"/>
-      <c r="G120" s="201"/>
-      <c r="H120" s="201"/>
-      <c r="I120" s="202"/>
+      <c r="D120" s="200"/>
+      <c r="E120" s="200"/>
+      <c r="F120" s="200"/>
+      <c r="G120" s="200"/>
+      <c r="H120" s="200"/>
+      <c r="I120" s="201"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7720,15 +7708,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="200" t="s">
+      <c r="C130" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="201"/>
-      <c r="E130" s="201"/>
-      <c r="F130" s="201"/>
-      <c r="G130" s="201"/>
-      <c r="H130" s="201"/>
-      <c r="I130" s="202"/>
+      <c r="D130" s="200"/>
+      <c r="E130" s="200"/>
+      <c r="F130" s="200"/>
+      <c r="G130" s="200"/>
+      <c r="H130" s="200"/>
+      <c r="I130" s="201"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8080,15 +8068,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="200" t="s">
+      <c r="C147" s="199" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="201"/>
-      <c r="E147" s="201"/>
-      <c r="F147" s="201"/>
-      <c r="G147" s="201"/>
-      <c r="H147" s="201"/>
-      <c r="I147" s="202"/>
+      <c r="D147" s="200"/>
+      <c r="E147" s="200"/>
+      <c r="F147" s="200"/>
+      <c r="G147" s="200"/>
+      <c r="H147" s="200"/>
+      <c r="I147" s="201"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10293,8 +10281,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108:I108"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,15 +10306,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11067,7 +11055,7 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="198" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="62" t="s">
@@ -11521,23 +11509,23 @@
       <c r="B46" s="8">
         <v>43</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11">
+      <c r="D46" s="62"/>
+      <c r="E46" s="63">
         <v>44855</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="63">
         <v>45220</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="64">
         <v>1</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="65">
         <v>12</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="66" t="s">
         <v>92</v>
       </c>
       <c r="J46" s="181" t="s">
@@ -11993,15 +11981,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="203" t="s">
+      <c r="C76" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="203"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="203"/>
-      <c r="H76" s="203"/>
-      <c r="I76" s="203"/>
+      <c r="D76" s="202"/>
+      <c r="E76" s="202"/>
+      <c r="F76" s="202"/>
+      <c r="G76" s="202"/>
+      <c r="H76" s="202"/>
+      <c r="I76" s="202"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13281,15 +13269,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="200" t="s">
+      <c r="C127" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="201"/>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-      <c r="G127" s="201"/>
-      <c r="H127" s="201"/>
-      <c r="I127" s="202"/>
+      <c r="D127" s="200"/>
+      <c r="E127" s="200"/>
+      <c r="F127" s="200"/>
+      <c r="G127" s="200"/>
+      <c r="H127" s="200"/>
+      <c r="I127" s="201"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13732,15 +13720,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="200" t="s">
+      <c r="C147" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="201"/>
-      <c r="E147" s="201"/>
-      <c r="F147" s="201"/>
-      <c r="G147" s="201"/>
-      <c r="H147" s="201"/>
-      <c r="I147" s="202"/>
+      <c r="D147" s="200"/>
+      <c r="E147" s="200"/>
+      <c r="F147" s="200"/>
+      <c r="G147" s="200"/>
+      <c r="H147" s="200"/>
+      <c r="I147" s="201"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13951,15 +13939,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="200" t="s">
+      <c r="C157" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="201"/>
-      <c r="E157" s="201"/>
-      <c r="F157" s="201"/>
-      <c r="G157" s="201"/>
-      <c r="H157" s="201"/>
-      <c r="I157" s="202"/>
+      <c r="D157" s="200"/>
+      <c r="E157" s="200"/>
+      <c r="F157" s="200"/>
+      <c r="G157" s="200"/>
+      <c r="H157" s="200"/>
+      <c r="I157" s="201"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14337,15 +14325,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="200" t="s">
+      <c r="C178" s="199" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="201"/>
-      <c r="E178" s="201"/>
-      <c r="F178" s="201"/>
-      <c r="G178" s="201"/>
-      <c r="H178" s="201"/>
-      <c r="I178" s="202"/>
+      <c r="D178" s="200"/>
+      <c r="E178" s="200"/>
+      <c r="F178" s="200"/>
+      <c r="G178" s="200"/>
+      <c r="H178" s="200"/>
+      <c r="I178" s="201"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16578,7 +16566,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16594,15 +16582,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="207"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="206"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16611,16 +16599,16 @@
       <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="196" t="s">
+      <c r="D4" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="197" t="s">
+      <c r="E4" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="197" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="165" t="s">
@@ -16640,33 +16628,33 @@
     </row>
     <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="140" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="208">
-        <v>44848</v>
-      </c>
-      <c r="E6" s="208">
-        <v>45213</v>
-      </c>
-      <c r="F6" s="209">
+        <v>10</v>
+      </c>
+      <c r="D6" s="188">
+        <v>44855</v>
+      </c>
+      <c r="E6" s="188">
+        <v>45220</v>
+      </c>
+      <c r="F6" s="166">
         <v>1</v>
       </c>
       <c r="G6" s="159">
         <v>12</v>
       </c>
       <c r="H6" s="88" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="194"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="190"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="166"/>
       <c r="G7" s="159"/>
       <c r="H7" s="95"/>
     </row>
@@ -16680,7 +16668,7 @@
       <c r="H8" s="95"/>
     </row>
     <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="195"/>
+      <c r="B9" s="194"/>
       <c r="C9" s="88"/>
       <c r="D9" s="191"/>
       <c r="E9" s="191"/>
@@ -16802,13 +16790,13 @@
       <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
       <c r="I36" s="110"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="334">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3081,6 +3081,21 @@
   </si>
   <si>
     <t>VERDURAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRADURA </t>
+  </si>
+  <si>
+    <t>23 Oct al 5 Nov 2023                                                                  29 Oct al 5 Nov 2023</t>
+  </si>
+  <si>
+    <t>30 Oct al 12 Nov 2023                                                              30 Oct al 5 Nov 2023</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
   </si>
 </sst>
 </file>
@@ -3474,7 +3489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4021,21 +4036,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4071,6 +4071,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4392,15 +4398,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5891,15 +5897,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="202" t="s">
+      <c r="C57" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="197"/>
+      <c r="F57" s="197"/>
+      <c r="G57" s="197"/>
+      <c r="H57" s="197"/>
+      <c r="I57" s="197"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7058,15 +7064,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="199" t="s">
+      <c r="C100" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="200"/>
-      <c r="E100" s="200"/>
-      <c r="F100" s="200"/>
-      <c r="G100" s="200"/>
-      <c r="H100" s="200"/>
-      <c r="I100" s="201"/>
+      <c r="D100" s="195"/>
+      <c r="E100" s="195"/>
+      <c r="F100" s="195"/>
+      <c r="G100" s="195"/>
+      <c r="H100" s="195"/>
+      <c r="I100" s="196"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7494,15 +7500,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="199" t="s">
+      <c r="C120" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="200"/>
-      <c r="E120" s="200"/>
-      <c r="F120" s="200"/>
-      <c r="G120" s="200"/>
-      <c r="H120" s="200"/>
-      <c r="I120" s="201"/>
+      <c r="D120" s="195"/>
+      <c r="E120" s="195"/>
+      <c r="F120" s="195"/>
+      <c r="G120" s="195"/>
+      <c r="H120" s="195"/>
+      <c r="I120" s="196"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7708,15 +7714,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="199" t="s">
+      <c r="C130" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="200"/>
-      <c r="E130" s="200"/>
-      <c r="F130" s="200"/>
-      <c r="G130" s="200"/>
-      <c r="H130" s="200"/>
-      <c r="I130" s="201"/>
+      <c r="D130" s="195"/>
+      <c r="E130" s="195"/>
+      <c r="F130" s="195"/>
+      <c r="G130" s="195"/>
+      <c r="H130" s="195"/>
+      <c r="I130" s="196"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8068,15 +8074,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="199" t="s">
+      <c r="C147" s="194" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="200"/>
-      <c r="E147" s="200"/>
-      <c r="F147" s="200"/>
-      <c r="G147" s="200"/>
-      <c r="H147" s="200"/>
-      <c r="I147" s="201"/>
+      <c r="D147" s="195"/>
+      <c r="E147" s="195"/>
+      <c r="F147" s="195"/>
+      <c r="G147" s="195"/>
+      <c r="H147" s="195"/>
+      <c r="I147" s="196"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10281,8 +10287,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:I45"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,15 +10312,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11055,7 +11061,7 @@
       <c r="B30" s="8">
         <v>27</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="193" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="62" t="s">
@@ -11981,15 +11987,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="202" t="s">
+      <c r="C76" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="202"/>
-      <c r="I76" s="202"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
+      <c r="F76" s="197"/>
+      <c r="G76" s="197"/>
+      <c r="H76" s="197"/>
+      <c r="I76" s="197"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -12916,25 +12922,25 @@
       <c r="B109" s="8">
         <v>32</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="63">
         <v>44494</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="63">
         <v>45224</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="64">
         <v>2</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="65">
         <v>14</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="66" t="s">
         <v>170</v>
       </c>
       <c r="J109" s="14" t="s">
@@ -12945,25 +12951,25 @@
       <c r="B110" s="8">
         <v>33</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="63">
         <v>44134</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="63">
         <v>45229</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="64">
         <v>3</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="65">
         <v>16</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I110" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J110" s="14" t="s">
@@ -13269,15 +13275,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="199" t="s">
+      <c r="C127" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="200"/>
-      <c r="E127" s="200"/>
-      <c r="F127" s="200"/>
-      <c r="G127" s="200"/>
-      <c r="H127" s="200"/>
-      <c r="I127" s="201"/>
+      <c r="D127" s="195"/>
+      <c r="E127" s="195"/>
+      <c r="F127" s="195"/>
+      <c r="G127" s="195"/>
+      <c r="H127" s="195"/>
+      <c r="I127" s="196"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13720,15 +13726,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="199" t="s">
+      <c r="C147" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="200"/>
-      <c r="E147" s="200"/>
-      <c r="F147" s="200"/>
-      <c r="G147" s="200"/>
-      <c r="H147" s="200"/>
-      <c r="I147" s="201"/>
+      <c r="D147" s="195"/>
+      <c r="E147" s="195"/>
+      <c r="F147" s="195"/>
+      <c r="G147" s="195"/>
+      <c r="H147" s="195"/>
+      <c r="I147" s="196"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13880,23 +13886,23 @@
       <c r="B154" s="8">
         <v>6</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="19">
+      <c r="D154" s="69"/>
+      <c r="E154" s="70">
         <v>44495</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="70">
         <v>45225</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="66">
         <v>2</v>
       </c>
-      <c r="H154" s="13">
+      <c r="H154" s="65">
         <v>14</v>
       </c>
-      <c r="I154" s="8" t="s">
+      <c r="I154" s="66" t="s">
         <v>217</v>
       </c>
     </row>
@@ -13939,15 +13945,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="199" t="s">
+      <c r="C157" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="200"/>
-      <c r="E157" s="200"/>
-      <c r="F157" s="200"/>
-      <c r="G157" s="200"/>
-      <c r="H157" s="200"/>
-      <c r="I157" s="201"/>
+      <c r="D157" s="195"/>
+      <c r="E157" s="195"/>
+      <c r="F157" s="195"/>
+      <c r="G157" s="195"/>
+      <c r="H157" s="195"/>
+      <c r="I157" s="196"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14325,15 +14331,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="199" t="s">
+      <c r="C178" s="194" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="200"/>
-      <c r="E178" s="200"/>
-      <c r="F178" s="200"/>
-      <c r="G178" s="200"/>
-      <c r="H178" s="200"/>
-      <c r="I178" s="201"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
+      <c r="F178" s="195"/>
+      <c r="G178" s="195"/>
+      <c r="H178" s="195"/>
+      <c r="I178" s="196"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -14686,23 +14692,23 @@
       <c r="B193" s="8">
         <v>14</v>
       </c>
-      <c r="C193" s="52" t="s">
+      <c r="C193" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="D193" s="18"/>
-      <c r="E193" s="19">
+      <c r="D193" s="69"/>
+      <c r="E193" s="70">
         <v>44487</v>
       </c>
-      <c r="F193" s="19">
+      <c r="F193" s="70">
         <v>45217</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="66">
         <v>2</v>
       </c>
-      <c r="H193" s="13">
+      <c r="H193" s="65">
         <v>14</v>
       </c>
-      <c r="I193" s="15" t="s">
+      <c r="I193" s="67" t="s">
         <v>267</v>
       </c>
     </row>
@@ -14710,23 +14716,23 @@
       <c r="B194" s="8">
         <v>15</v>
       </c>
-      <c r="C194" s="52" t="s">
+      <c r="C194" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="D194" s="18"/>
-      <c r="E194" s="19">
+      <c r="D194" s="69"/>
+      <c r="E194" s="70">
         <v>44498</v>
       </c>
-      <c r="F194" s="19">
+      <c r="F194" s="70">
         <v>45228</v>
       </c>
-      <c r="G194" s="8">
+      <c r="G194" s="66">
         <v>2</v>
       </c>
-      <c r="H194" s="13">
+      <c r="H194" s="65">
         <v>14</v>
       </c>
-      <c r="I194" s="15" t="s">
+      <c r="I194" s="67" t="s">
         <v>269</v>
       </c>
     </row>
@@ -16566,7 +16572,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16582,15 +16588,15 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="199" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16599,16 +16605,16 @@
       <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="195" t="s">
+      <c r="D4" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="196" t="s">
+      <c r="F4" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="197" t="s">
+      <c r="G4" s="192" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="165" t="s">
@@ -16628,53 +16634,118 @@
     </row>
     <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="140" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="D6" s="188">
-        <v>44855</v>
+        <v>44494</v>
       </c>
       <c r="E6" s="188">
-        <v>45220</v>
+        <v>45224</v>
       </c>
       <c r="F6" s="166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="159">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="88" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="95"/>
+      <c r="B7" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="188">
+        <v>44134</v>
+      </c>
+      <c r="E7" s="188">
+        <v>45229</v>
+      </c>
+      <c r="F7" s="166">
+        <v>3</v>
+      </c>
+      <c r="G7" s="159">
+        <v>16</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="187"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="194"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="15"/>
+      <c r="B8" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="202">
+        <v>44495</v>
+      </c>
+      <c r="E8" s="202">
+        <v>45225</v>
+      </c>
+      <c r="F8" s="88">
+        <v>2</v>
+      </c>
+      <c r="G8" s="159">
+        <v>14</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="187" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="202">
+        <v>44487</v>
+      </c>
+      <c r="E9" s="202">
+        <v>45217</v>
+      </c>
+      <c r="F9" s="88">
+        <v>2</v>
+      </c>
+      <c r="G9" s="159">
+        <v>14</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="187" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="202">
+        <v>44498</v>
+      </c>
+      <c r="E10" s="202">
+        <v>45228</v>
+      </c>
+      <c r="F10" s="88">
+        <v>2</v>
+      </c>
+      <c r="G10" s="159">
+        <v>14</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="136"/>
@@ -16790,13 +16861,13 @@
       <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="203"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
       <c r="I36" s="110"/>
     </row>
     <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="337">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3096,6 +3096,36 @@
   </si>
   <si>
     <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>11 SUR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6 al 25 Nov 2023  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                             6 al 15 Nov 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>Potrero Pérez María   Juliana</t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4048,6 +4078,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4072,11 +4108,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4398,15 +4434,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5897,15 +5933,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="197" t="s">
+      <c r="C57" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="197"/>
-      <c r="E57" s="197"/>
-      <c r="F57" s="197"/>
-      <c r="G57" s="197"/>
-      <c r="H57" s="197"/>
-      <c r="I57" s="197"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
+      <c r="I57" s="199"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7064,15 +7100,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="194" t="s">
+      <c r="C100" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="195"/>
-      <c r="E100" s="195"/>
-      <c r="F100" s="195"/>
-      <c r="G100" s="195"/>
-      <c r="H100" s="195"/>
-      <c r="I100" s="196"/>
+      <c r="D100" s="197"/>
+      <c r="E100" s="197"/>
+      <c r="F100" s="197"/>
+      <c r="G100" s="197"/>
+      <c r="H100" s="197"/>
+      <c r="I100" s="198"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7500,15 +7536,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="194" t="s">
+      <c r="C120" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="195"/>
-      <c r="E120" s="195"/>
-      <c r="F120" s="195"/>
-      <c r="G120" s="195"/>
-      <c r="H120" s="195"/>
-      <c r="I120" s="196"/>
+      <c r="D120" s="197"/>
+      <c r="E120" s="197"/>
+      <c r="F120" s="197"/>
+      <c r="G120" s="197"/>
+      <c r="H120" s="197"/>
+      <c r="I120" s="198"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7714,15 +7750,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="194" t="s">
+      <c r="C130" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="195"/>
-      <c r="E130" s="195"/>
-      <c r="F130" s="195"/>
-      <c r="G130" s="195"/>
-      <c r="H130" s="195"/>
-      <c r="I130" s="196"/>
+      <c r="D130" s="197"/>
+      <c r="E130" s="197"/>
+      <c r="F130" s="197"/>
+      <c r="G130" s="197"/>
+      <c r="H130" s="197"/>
+      <c r="I130" s="198"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8074,15 +8110,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="194" t="s">
+      <c r="C147" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="195"/>
-      <c r="E147" s="195"/>
-      <c r="F147" s="195"/>
-      <c r="G147" s="195"/>
-      <c r="H147" s="195"/>
-      <c r="I147" s="196"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10287,8 +10323,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,15 +10348,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11570,23 +11606,23 @@
       <c r="B48" s="8">
         <v>45</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="29">
+      <c r="D48" s="93"/>
+      <c r="E48" s="204">
         <v>44140</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="204">
         <v>45235</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="66">
         <v>3</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="65">
         <v>16</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="66" t="s">
         <v>96</v>
       </c>
       <c r="J48" s="14" t="s">
@@ -11987,15 +12023,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="197" t="s">
+      <c r="C76" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="197"/>
-      <c r="E76" s="197"/>
-      <c r="F76" s="197"/>
-      <c r="G76" s="197"/>
-      <c r="H76" s="197"/>
-      <c r="I76" s="197"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="199"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13095,7 +13131,7 @@
         <v>38</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="11">
@@ -13275,15 +13311,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="194" t="s">
+      <c r="C127" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="195"/>
-      <c r="E127" s="195"/>
-      <c r="F127" s="195"/>
-      <c r="G127" s="195"/>
-      <c r="H127" s="195"/>
-      <c r="I127" s="196"/>
+      <c r="D127" s="197"/>
+      <c r="E127" s="197"/>
+      <c r="F127" s="197"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="198"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13726,15 +13762,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="194" t="s">
+      <c r="C147" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="195"/>
-      <c r="E147" s="195"/>
-      <c r="F147" s="195"/>
-      <c r="G147" s="195"/>
-      <c r="H147" s="195"/>
-      <c r="I147" s="196"/>
+      <c r="D147" s="197"/>
+      <c r="E147" s="197"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="198"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13945,15 +13981,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="194" t="s">
+      <c r="C157" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="195"/>
-      <c r="E157" s="195"/>
-      <c r="F157" s="195"/>
-      <c r="G157" s="195"/>
-      <c r="H157" s="195"/>
-      <c r="I157" s="196"/>
+      <c r="D157" s="197"/>
+      <c r="E157" s="197"/>
+      <c r="F157" s="197"/>
+      <c r="G157" s="197"/>
+      <c r="H157" s="197"/>
+      <c r="I157" s="198"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14175,23 +14211,23 @@
       <c r="B167" s="8">
         <v>9</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="D167" s="18"/>
-      <c r="E167" s="19">
+      <c r="D167" s="69"/>
+      <c r="E167" s="70">
         <v>43409</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F167" s="70">
         <v>45235</v>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="64">
         <v>4</v>
       </c>
-      <c r="H167" s="13">
+      <c r="H167" s="65">
         <v>20</v>
       </c>
-      <c r="I167" s="15" t="s">
+      <c r="I167" s="67" t="s">
         <v>237</v>
       </c>
     </row>
@@ -14331,15 +14367,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="194" t="s">
+      <c r="C178" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="195"/>
-      <c r="E178" s="195"/>
-      <c r="F178" s="195"/>
-      <c r="G178" s="195"/>
-      <c r="H178" s="195"/>
-      <c r="I178" s="196"/>
+      <c r="D178" s="197"/>
+      <c r="E178" s="197"/>
+      <c r="F178" s="197"/>
+      <c r="G178" s="197"/>
+      <c r="H178" s="197"/>
+      <c r="I178" s="198"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16569,10 +16605,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,22 +16619,37 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="35.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="199" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="201"/>
-    </row>
-    <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="203"/>
+      <c r="K3" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="203"/>
+    </row>
+    <row r="4" spans="2:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -16620,9 +16671,30 @@
       <c r="H4" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="170"/>
-    </row>
-    <row r="5" spans="2:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="190" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="170"/>
+    </row>
+    <row r="5" spans="2:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="140"/>
       <c r="C5" s="88"/>
       <c r="D5" s="188"/>
@@ -16630,124 +16702,194 @@
       <c r="F5" s="166"/>
       <c r="G5" s="159"/>
       <c r="H5" s="88"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="140" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="2:18" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="187" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="194">
+        <v>44140</v>
+      </c>
+      <c r="E6" s="194">
+        <v>45235</v>
+      </c>
+      <c r="F6" s="88">
+        <v>3</v>
+      </c>
+      <c r="G6" s="159">
+        <v>16</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="L6" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="188">
+      <c r="M6" s="188">
         <v>44494</v>
       </c>
-      <c r="E6" s="188">
+      <c r="N6" s="188">
         <v>45224</v>
       </c>
-      <c r="F6" s="166">
+      <c r="O6" s="166">
         <v>2</v>
       </c>
-      <c r="G6" s="159">
+      <c r="P6" s="159">
         <v>14</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="Q6" s="88" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="203" t="s">
+    <row r="7" spans="2:18" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="205" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="194">
+        <v>43409</v>
+      </c>
+      <c r="E7" s="194">
+        <v>45235</v>
+      </c>
+      <c r="F7" s="166">
+        <v>4</v>
+      </c>
+      <c r="G7" s="159">
+        <v>20</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="L7" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="188">
+      <c r="M7" s="188">
         <v>44134</v>
       </c>
-      <c r="E7" s="188">
+      <c r="N7" s="188">
         <v>45229</v>
       </c>
-      <c r="F7" s="166">
+      <c r="O7" s="166">
         <v>3</v>
       </c>
-      <c r="G7" s="159">
+      <c r="P7" s="159">
         <v>16</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="Q7" s="88" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="187" t="s">
+    <row r="8" spans="2:18" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="187"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="88"/>
+      <c r="K8" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="L8" s="140" t="s">
         <v>330</v>
       </c>
-      <c r="D8" s="202">
+      <c r="M8" s="194">
         <v>44495</v>
       </c>
-      <c r="E8" s="202">
+      <c r="N8" s="194">
         <v>45225</v>
       </c>
-      <c r="F8" s="88">
+      <c r="O8" s="88">
         <v>2</v>
       </c>
-      <c r="G8" s="159">
+      <c r="P8" s="159">
         <v>14</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="Q8" s="88" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="187" t="s">
+    <row r="9" spans="2:18" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="187"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="95"/>
+      <c r="K9" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="L9" s="140" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="202">
+      <c r="M9" s="194">
         <v>44487</v>
       </c>
-      <c r="E9" s="202">
+      <c r="N9" s="194">
         <v>45217</v>
       </c>
-      <c r="F9" s="88">
+      <c r="O9" s="88">
         <v>2</v>
       </c>
-      <c r="G9" s="159">
+      <c r="P9" s="159">
         <v>14</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="Q9" s="95" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="187" t="s">
+    <row r="10" spans="2:18" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="187"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="95"/>
+      <c r="K10" s="187" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="L10" s="140" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="202">
+      <c r="M10" s="194">
         <v>44498</v>
       </c>
-      <c r="E10" s="202">
+      <c r="N10" s="194">
         <v>45228</v>
       </c>
-      <c r="F10" s="88">
+      <c r="O10" s="88">
         <v>2</v>
       </c>
-      <c r="G10" s="159">
+      <c r="P10" s="159">
         <v>14</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="Q10" s="95" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="136"/>
       <c r="C12" s="136"/>
       <c r="D12" s="137"/>
@@ -16755,8 +16897,15 @@
       <c r="F12" s="129"/>
       <c r="G12" s="132"/>
       <c r="H12" s="138"/>
-    </row>
-    <row r="13" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="138"/>
+    </row>
+    <row r="13" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115"/>
       <c r="C13" s="116"/>
       <c r="D13" s="117"/>
@@ -16764,8 +16913,15 @@
       <c r="F13" s="118"/>
       <c r="G13" s="119"/>
       <c r="H13" s="116"/>
-    </row>
-    <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="116"/>
+    </row>
+    <row r="14" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="120"/>
       <c r="C14" s="121"/>
       <c r="D14" s="122"/>
@@ -16773,8 +16929,15 @@
       <c r="F14" s="118"/>
       <c r="G14" s="123"/>
       <c r="H14" s="124"/>
-    </row>
-    <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="124"/>
+    </row>
+    <row r="15" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="120"/>
       <c r="C15" s="121"/>
       <c r="D15" s="125"/>
@@ -16782,8 +16945,15 @@
       <c r="F15" s="126"/>
       <c r="G15" s="123"/>
       <c r="H15" s="124"/>
-    </row>
-    <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="124"/>
+    </row>
+    <row r="16" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="127"/>
       <c r="C16" s="116"/>
       <c r="D16" s="128"/>
@@ -16791,8 +16961,15 @@
       <c r="F16" s="116"/>
       <c r="G16" s="123"/>
       <c r="H16" s="129"/>
-    </row>
-    <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="127"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="129"/>
+    </row>
+    <row r="17" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="130"/>
       <c r="C17" s="121"/>
       <c r="D17" s="128"/>
@@ -16800,8 +16977,15 @@
       <c r="F17" s="116"/>
       <c r="G17" s="131"/>
       <c r="H17" s="132"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K17" s="130"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+    </row>
+    <row r="18" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="133"/>
       <c r="C18" s="121"/>
       <c r="D18" s="134"/>
@@ -16809,8 +16993,15 @@
       <c r="F18" s="135"/>
       <c r="G18" s="131"/>
       <c r="H18" s="132"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="133"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="132"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="110"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
@@ -16818,9 +17009,16 @@
       <c r="F31" s="110"/>
       <c r="G31" s="110"/>
       <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="110"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
@@ -16828,9 +17026,16 @@
       <c r="F32" s="110"/>
       <c r="G32" s="110"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
@@ -16838,9 +17043,16 @@
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
       <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="110"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
@@ -16848,9 +17060,16 @@
       <c r="F34" s="110"/>
       <c r="G34" s="110"/>
       <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="110"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
@@ -16858,19 +17077,33 @@
       <c r="F35" s="110"/>
       <c r="G35" s="110"/>
       <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-    </row>
-    <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="110"/>
-    </row>
-    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+    </row>
+    <row r="36" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="200"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="K36" s="200"/>
+      <c r="L36" s="200"/>
+      <c r="M36" s="200"/>
+      <c r="N36" s="200"/>
+      <c r="O36" s="200"/>
+      <c r="P36" s="200"/>
+      <c r="Q36" s="200"/>
+      <c r="R36" s="110"/>
+    </row>
+    <row r="37" spans="2:18" ht="21" x14ac:dyDescent="0.25">
       <c r="B37" s="136"/>
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
@@ -16878,9 +17111,16 @@
       <c r="F37" s="129"/>
       <c r="G37" s="129"/>
       <c r="H37" s="135"/>
-      <c r="I37" s="110"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="110"/>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="139"/>
       <c r="C38" s="116"/>
       <c r="D38" s="128"/>
@@ -16888,9 +17128,16 @@
       <c r="F38" s="116"/>
       <c r="G38" s="119"/>
       <c r="H38" s="129"/>
-      <c r="I38" s="110"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="139"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="110"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="110"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
@@ -16898,9 +17145,16 @@
       <c r="F39" s="110"/>
       <c r="G39" s="110"/>
       <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="110"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
@@ -16908,9 +17162,16 @@
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
@@ -16918,9 +17179,16 @@
       <c r="F41" s="110"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="110"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -16928,9 +17196,16 @@
       <c r="F42" s="110"/>
       <c r="G42" s="110"/>
       <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="110"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
@@ -16938,15 +17213,24 @@
       <c r="F43" s="110"/>
       <c r="G43" s="110"/>
       <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
     </row>
   </sheetData>
-  <sortState ref="B5:H7">
-    <sortCondition ref="H5:H7"/>
+  <sortState ref="K5:Q7">
+    <sortCondition ref="Q5:Q7"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
+++ b/01 DOCUEMENTOS/VACACIONES  2 0 2 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="336">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -3098,34 +3098,10 @@
     <t>ZAVALETA</t>
   </si>
   <si>
-    <t>11 SUR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6 al 25 Nov 2023  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                             6 al 15 Nov 2023</t>
-    </r>
-  </si>
-  <si>
     <t>Potrero Pérez María   Juliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Nov al 26 Nov 2023                                                    </t>
   </si>
 </sst>
 </file>
@@ -4084,6 +4060,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4107,12 +4089,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4434,15 +4410,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5933,15 +5909,15 @@
     </row>
     <row r="57" spans="2:10" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="199" t="s">
+      <c r="C57" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="199"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="199"/>
-      <c r="H57" s="199"/>
-      <c r="I57" s="199"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="201"/>
+      <c r="H57" s="201"/>
+      <c r="I57" s="201"/>
     </row>
     <row r="58" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
@@ -7100,15 +7076,15 @@
     </row>
     <row r="100" spans="2:10" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="31"/>
-      <c r="C100" s="196" t="s">
+      <c r="C100" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="197"/>
-      <c r="E100" s="197"/>
-      <c r="F100" s="197"/>
-      <c r="G100" s="197"/>
-      <c r="H100" s="197"/>
-      <c r="I100" s="198"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="199"/>
+      <c r="I100" s="200"/>
     </row>
     <row r="101" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="31"/>
@@ -7536,15 +7512,15 @@
     </row>
     <row r="120" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3"/>
-      <c r="C120" s="196" t="s">
+      <c r="C120" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="197"/>
-      <c r="E120" s="197"/>
-      <c r="F120" s="197"/>
-      <c r="G120" s="197"/>
-      <c r="H120" s="197"/>
-      <c r="I120" s="198"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="199"/>
+      <c r="F120" s="199"/>
+      <c r="G120" s="199"/>
+      <c r="H120" s="199"/>
+      <c r="I120" s="200"/>
     </row>
     <row r="121" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -7750,15 +7726,15 @@
     </row>
     <row r="130" spans="2:9" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3"/>
-      <c r="C130" s="196" t="s">
+      <c r="C130" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="197"/>
-      <c r="E130" s="197"/>
-      <c r="F130" s="197"/>
-      <c r="G130" s="197"/>
-      <c r="H130" s="197"/>
-      <c r="I130" s="198"/>
+      <c r="D130" s="199"/>
+      <c r="E130" s="199"/>
+      <c r="F130" s="199"/>
+      <c r="G130" s="199"/>
+      <c r="H130" s="199"/>
+      <c r="I130" s="200"/>
     </row>
     <row r="131" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -8110,15 +8086,15 @@
     </row>
     <row r="147" spans="2:9" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:9" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -10323,8 +10299,8 @@
   </sheetPr>
   <dimension ref="B1:M395"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10348,15 +10324,15 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -11610,10 +11586,10 @@
         <v>95</v>
       </c>
       <c r="D48" s="93"/>
-      <c r="E48" s="204">
+      <c r="E48" s="196">
         <v>44140</v>
       </c>
-      <c r="F48" s="204">
+      <c r="F48" s="196">
         <v>45235</v>
       </c>
       <c r="G48" s="66">
@@ -12023,15 +11999,15 @@
     </row>
     <row r="76" spans="2:12" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
-      <c r="C76" s="199" t="s">
+      <c r="C76" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="199"/>
-      <c r="E76" s="199"/>
-      <c r="F76" s="199"/>
-      <c r="G76" s="199"/>
-      <c r="H76" s="199"/>
-      <c r="I76" s="199"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
     </row>
     <row r="77" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
@@ -13016,25 +12992,25 @@
       <c r="B111" s="8">
         <v>34</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="63">
         <v>44508</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="63">
         <v>45238</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="64">
         <v>2</v>
       </c>
-      <c r="H111" s="13">
+      <c r="H111" s="65">
         <v>14</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="67" t="s">
         <v>173</v>
       </c>
       <c r="J111" s="14" t="s">
@@ -13131,7 +13107,7 @@
         <v>38</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="11">
@@ -13311,15 +13287,15 @@
     </row>
     <row r="127" spans="2:12" s="14" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B127" s="31"/>
-      <c r="C127" s="196" t="s">
+      <c r="C127" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D127" s="197"/>
-      <c r="E127" s="197"/>
-      <c r="F127" s="197"/>
-      <c r="G127" s="197"/>
-      <c r="H127" s="197"/>
-      <c r="I127" s="198"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="199"/>
+      <c r="F127" s="199"/>
+      <c r="G127" s="199"/>
+      <c r="H127" s="199"/>
+      <c r="I127" s="200"/>
     </row>
     <row r="128" spans="2:12" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="31"/>
@@ -13762,15 +13738,15 @@
     </row>
     <row r="147" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3"/>
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D147" s="197"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="197"/>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="198"/>
+      <c r="D147" s="199"/>
+      <c r="E147" s="199"/>
+      <c r="F147" s="199"/>
+      <c r="G147" s="199"/>
+      <c r="H147" s="199"/>
+      <c r="I147" s="200"/>
     </row>
     <row r="148" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -13981,15 +13957,15 @@
     </row>
     <row r="157" spans="2:10" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="3"/>
-      <c r="C157" s="196" t="s">
+      <c r="C157" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="D157" s="197"/>
-      <c r="E157" s="197"/>
-      <c r="F157" s="197"/>
-      <c r="G157" s="197"/>
-      <c r="H157" s="197"/>
-      <c r="I157" s="198"/>
+      <c r="D157" s="199"/>
+      <c r="E157" s="199"/>
+      <c r="F157" s="199"/>
+      <c r="G157" s="199"/>
+      <c r="H157" s="199"/>
+      <c r="I157" s="200"/>
     </row>
     <row r="158" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -14367,15 +14343,15 @@
     </row>
     <row r="178" spans="2:10" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="3"/>
-      <c r="C178" s="196" t="s">
+      <c r="C178" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="D178" s="197"/>
-      <c r="E178" s="197"/>
-      <c r="F178" s="197"/>
-      <c r="G178" s="197"/>
-      <c r="H178" s="197"/>
-      <c r="I178" s="198"/>
+      <c r="D178" s="199"/>
+      <c r="E178" s="199"/>
+      <c r="F178" s="199"/>
+      <c r="G178" s="199"/>
+      <c r="H178" s="199"/>
+      <c r="I178" s="200"/>
     </row>
     <row r="179" spans="2:10" s="14" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
@@ -16607,7 +16583,7 @@
   </sheetPr>
   <dimension ref="B2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -16630,24 +16606,24 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="203" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="203"/>
-      <c r="K3" s="201" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="205"/>
+      <c r="K3" s="203" t="s">
         <v>295</v>
       </c>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="203"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="2:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -16712,26 +16688,26 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="187" t="s">
-        <v>95</v>
+      <c r="B6" s="140" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="194">
-        <v>44140</v>
-      </c>
-      <c r="E6" s="194">
-        <v>45235</v>
-      </c>
-      <c r="F6" s="88">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="188">
+        <v>44508</v>
+      </c>
+      <c r="E6" s="188">
+        <v>45238</v>
+      </c>
+      <c r="F6" s="166">
+        <v>2</v>
       </c>
       <c r="G6" s="159">
-        <v>16</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>335</v>
       </c>
       <c r="K6" s="140" t="s">
         <v>169</v>
@@ -16756,27 +16732,13 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="205" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="194">
-        <v>43409</v>
-      </c>
-      <c r="E7" s="194">
-        <v>45235</v>
-      </c>
-      <c r="F7" s="166">
-        <v>4</v>
-      </c>
-      <c r="G7" s="159">
-        <v>20</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>335</v>
-      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="95"/>
       <c r="K7" s="195" t="s">
         <v>122</v>
       </c>
@@ -17087,20 +17049,20 @@
       <c r="R35" s="110"/>
     </row>
     <row r="36" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="200"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="200"/>
-      <c r="M36" s="200"/>
-      <c r="N36" s="200"/>
-      <c r="O36" s="200"/>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="200"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="202"/>
+      <c r="M36" s="202"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="202"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202"/>
       <c r="R36" s="110"/>
     </row>
     <row r="37" spans="2:18" ht="21" x14ac:dyDescent="0.25">
